--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="5580" windowWidth="16215" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="4290" windowWidth="13755" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="469">
   <si>
     <t>Ankit</t>
   </si>
@@ -1327,27 +1327,6 @@
     <t>s9650899231111111</t>
   </si>
   <si>
-    <t>sdxdfzs@gmail.com</t>
-  </si>
-  <si>
-    <t>fcr@gmail.com</t>
-  </si>
-  <si>
-    <t>cdfv@gmail.com</t>
-  </si>
-  <si>
-    <t>fcdgv@gmail.com</t>
-  </si>
-  <si>
-    <t>svfd@gmail.com</t>
-  </si>
-  <si>
-    <t>vcfdv@gmail.com</t>
-  </si>
-  <si>
-    <t>vcv@gmail.com</t>
-  </si>
-  <si>
     <t>s96508992311111111</t>
   </si>
   <si>
@@ -1426,7 +1405,25 @@
     <t>SS_CheckOut_GuestUser_EmptyField</t>
   </si>
   <si>
-    <t>SS_ItemDelete_OneItem_CheckOut</t>
+    <t>fcaqr@gmail.com</t>
+  </si>
+  <si>
+    <t>sdxdss@gmail.com</t>
+  </si>
+  <si>
+    <t>fcdZAgv@gmail.com</t>
+  </si>
+  <si>
+    <t>ssavfd@gmail.com</t>
+  </si>
+  <si>
+    <t>vcfsxcfdv@gmail.com</t>
+  </si>
+  <si>
+    <t>vcvdzsw@gmail.com</t>
+  </si>
+  <si>
+    <t>cdAzsZSfv@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2050,13 +2047,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH284"/>
+  <dimension ref="A1:CH283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="CV143" xSplit="1" ySplit="1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="BB137" xSplit="1" ySplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="CY153" pane="bottomRight" sqref="CY153"/>
+      <selection activeCell="BD147" pane="bottomRight" sqref="BD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4485,7 +4482,7 @@
         <v>365</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6361,7 +6358,7 @@
       <c r="CE43" s="1"/>
       <c r="CF43" s="18"/>
       <c r="CG43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:85" x14ac:dyDescent="0.25">
@@ -7453,7 +7450,7 @@
     </row>
     <row r="55" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>365</v>
@@ -7466,7 +7463,7 @@
         <v>53</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -8167,7 +8164,7 @@
       <c r="CE61" s="1"/>
       <c r="CF61" s="18"/>
       <c r="CG61" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:85" x14ac:dyDescent="0.25">
@@ -9896,7 +9893,7 @@
       <c r="AS79" s="1"/>
       <c r="AT79" s="1"/>
       <c r="AU79" s="27" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AV79" s="1"/>
       <c r="AW79" s="1"/>
@@ -16164,7 +16161,7 @@
       <c r="B136" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="26" t="s">
         <v>429</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -16284,9 +16281,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="137" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>365</v>
@@ -16411,9 +16408,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="138" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>365</v>
@@ -16538,9 +16535,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="139" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>365</v>
@@ -16665,18 +16662,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="140" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>429</v>
+      <c r="C140" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -16792,9 +16789,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="141" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>365</v>
@@ -16811,7 +16808,7 @@
         <v>53</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>325</v>
+        <v>416</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="2" t="s">
@@ -16919,15 +16916,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="142" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C142" s="26" t="s">
-        <v>409</v>
+      <c r="C142" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>3</v>
@@ -16938,7 +16935,7 @@
         <v>53</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>416</v>
+        <v>325</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="2" t="s">
@@ -17046,9 +17043,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="143" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>365</v>
@@ -17173,9 +17170,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="144" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>399</v>
+        <v>134</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>365</v>
@@ -17237,12 +17234,8 @@
       <c r="AK144" s="1"/>
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
-      <c r="AN144" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO144" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="AN144" s="1"/>
+      <c r="AO144" s="1"/>
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
       <c r="AR144" s="1"/>
@@ -17255,30 +17248,30 @@
       <c r="AY144" s="1"/>
       <c r="AZ144" s="1"/>
       <c r="BA144" s="1" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="BB144" s="1"/>
       <c r="BC144" s="1"/>
       <c r="BD144" s="1"/>
       <c r="BE144" s="1"/>
-      <c r="BF144" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG144" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH144" s="1"/>
-      <c r="BI144" s="1"/>
-      <c r="BJ144" s="1"/>
-      <c r="BK144" s="1"/>
-      <c r="BL144" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="BF144" s="1"/>
+      <c r="BG144" s="1"/>
+      <c r="BH144" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI144" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ144" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK144" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BL144" s="1"/>
       <c r="BM144" s="1"/>
       <c r="BN144" s="1"/>
-      <c r="BO144" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO144" s="1"/>
       <c r="BP144" s="1"/>
       <c r="BQ144" s="1"/>
       <c r="BR144" s="1"/>
@@ -17300,18 +17293,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="145" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>3</v>
+      <c r="C145" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>362</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -17387,16 +17380,16 @@
       <c r="BF145" s="1"/>
       <c r="BG145" s="1"/>
       <c r="BH145" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI145" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ145" s="1" t="s">
-        <v>330</v>
+        <v>141</v>
+      </c>
+      <c r="BI145" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ145" t="s">
+        <v>341</v>
       </c>
       <c r="BK145" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="BL145" s="1"/>
       <c r="BM145" s="1"/>
@@ -17410,32 +17403,38 @@
       <c r="BU145" s="1"/>
       <c r="BV145" s="1"/>
       <c r="BW145" s="1"/>
-      <c r="BX145" s="1"/>
-      <c r="BY145" s="1"/>
-      <c r="BZ145" s="1"/>
-      <c r="CA145" s="1"/>
+      <c r="BX145" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY145" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="BZ145" t="s">
+        <v>343</v>
+      </c>
+      <c r="CA145" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="CB145" s="1"/>
       <c r="CC145" s="1"/>
       <c r="CD145" s="1"/>
       <c r="CE145" s="1"/>
       <c r="CF145" s="1"/>
       <c r="CG145" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="146" spans="1:85" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>337</v>
+        <v>461</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C146" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>362</v>
-      </c>
+      <c r="C146" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="2" t="s">
@@ -17501,26 +17500,22 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
       <c r="BA146" s="1" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="BB146" s="1"/>
       <c r="BC146" s="1"/>
       <c r="BD146" s="1"/>
       <c r="BE146" s="1"/>
-      <c r="BF146" s="1"/>
-      <c r="BG146" s="1"/>
-      <c r="BH146" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI146" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="BJ146" t="s">
-        <v>341</v>
-      </c>
-      <c r="BK146" s="1" t="s">
-        <v>342</v>
-      </c>
+      <c r="BF146" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG146" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH146" s="1"/>
+      <c r="BI146" s="1"/>
+      <c r="BJ146" s="1"/>
+      <c r="BK146" s="1"/>
       <c r="BL146" s="1"/>
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
@@ -17533,38 +17528,32 @@
       <c r="BU146" s="1"/>
       <c r="BV146" s="1"/>
       <c r="BW146" s="1"/>
-      <c r="BX146" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BY146" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="BZ146" t="s">
-        <v>343</v>
-      </c>
-      <c r="CA146" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="BX146" s="1"/>
+      <c r="BY146" s="1"/>
+      <c r="BZ146" s="1"/>
+      <c r="CA146" s="1"/>
       <c r="CB146" s="1"/>
       <c r="CC146" s="1"/>
       <c r="CD146" s="1"/>
       <c r="CE146" s="1"/>
       <c r="CF146" s="1"/>
       <c r="CG146" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="147" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>468</v>
+        <v>136</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D147" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="2" t="s">
@@ -17630,18 +17619,21 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
       <c r="BA147" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB147" s="1"/>
-      <c r="BC147" s="1"/>
-      <c r="BD147" s="1"/>
-      <c r="BE147" s="1"/>
-      <c r="BF147" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG147" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BB147" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE147" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG147" s="1"/>
       <c r="BH147" s="1"/>
       <c r="BI147" s="1"/>
       <c r="BJ147" s="1"/>
@@ -17671,9 +17663,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="148" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>365</v>
@@ -17749,21 +17741,18 @@
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
       <c r="BA148" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB148" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD148" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE148" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF148" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG148" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="BB148" s="1"/>
+      <c r="BC148" s="1"/>
+      <c r="BD148" s="1"/>
+      <c r="BE148" s="1"/>
+      <c r="BF148" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG148" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="BH148" s="1"/>
       <c r="BI148" s="1"/>
       <c r="BJ148" s="1"/>
@@ -17793,9 +17782,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="149" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>365</v>
@@ -17870,23 +17859,25 @@
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
-      <c r="BA149" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="BA149" s="1"/>
       <c r="BB149" s="1"/>
       <c r="BC149" s="1"/>
       <c r="BD149" s="1"/>
       <c r="BE149" s="1"/>
-      <c r="BF149" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG149" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH149" s="1"/>
-      <c r="BI149" s="1"/>
-      <c r="BJ149" s="1"/>
-      <c r="BK149" s="1"/>
+      <c r="BF149" s="1"/>
+      <c r="BG149" s="1"/>
+      <c r="BH149" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI149" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ149" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK149" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="BL149" s="1"/>
       <c r="BM149" s="1"/>
       <c r="BN149" s="1"/>
@@ -17912,19 +17903,17 @@
         <v>366</v>
       </c>
     </row>
-    <row r="150" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="2" t="s">
@@ -17989,25 +17978,26 @@
       <c r="AX150" s="1"/>
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
-      <c r="BA150" s="1"/>
-      <c r="BB150" s="1"/>
-      <c r="BC150" s="1"/>
-      <c r="BD150" s="1"/>
-      <c r="BE150" s="1"/>
-      <c r="BF150" s="1"/>
+      <c r="BA150" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB150" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE150" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF150" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="BG150" s="1"/>
-      <c r="BH150" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI150" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ150" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK150" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="BH150" s="1"/>
+      <c r="BI150" s="1"/>
+      <c r="BJ150" s="1"/>
+      <c r="BK150" s="1"/>
       <c r="BL150" s="1"/>
       <c r="BM150" s="1"/>
       <c r="BN150" s="1"/>
@@ -18033,9 +18023,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="151" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>365</v>
@@ -18109,21 +18099,18 @@
       <c r="AY151" s="1"/>
       <c r="AZ151" s="1"/>
       <c r="BA151" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB151" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD151" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE151" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF151" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG151" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="BB151" s="1"/>
+      <c r="BC151" s="1"/>
+      <c r="BD151" s="1"/>
+      <c r="BE151" s="1"/>
+      <c r="BF151" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG151" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="BH151" s="1"/>
       <c r="BI151" s="1"/>
       <c r="BJ151" s="1"/>
@@ -18155,15 +18142,17 @@
     </row>
     <row customFormat="1" r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>392</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D152" s="1"/>
+      <c r="C152" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="2" t="s">
@@ -18248,7 +18237,9 @@
       <c r="BL152" s="1"/>
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
-      <c r="BO152" s="1"/>
+      <c r="BO152" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="BP152" s="1"/>
       <c r="BQ152" s="1"/>
       <c r="BR152" s="1"/>
@@ -18267,27 +18258,29 @@
       <c r="CE152" s="1"/>
       <c r="CF152" s="1"/>
       <c r="CG152" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D153" s="1"/>
+      <c r="C153" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="I153" s="1"/>
       <c r="J153" s="2" t="s">
@@ -18345,21 +18338,31 @@
       <c r="AX153" s="1"/>
       <c r="AY153" s="1"/>
       <c r="AZ153" s="1"/>
-      <c r="BA153" s="1"/>
+      <c r="BA153" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB153" s="1"/>
       <c r="BC153" s="1"/>
       <c r="BD153" s="1"/>
       <c r="BE153" s="1"/>
-      <c r="BF153" s="1"/>
-      <c r="BG153" s="4"/>
+      <c r="BF153" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG153" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="BH153" s="1"/>
       <c r="BI153" s="1"/>
       <c r="BJ153" s="1"/>
       <c r="BK153" s="1"/>
-      <c r="BL153" s="1"/>
+      <c r="BL153" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
-      <c r="BO153" s="1"/>
+      <c r="BO153" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="BP153" s="1"/>
       <c r="BQ153" s="1"/>
       <c r="BR153" s="1"/>
@@ -18383,7 +18386,7 @@
     </row>
     <row customFormat="1" r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>365</v>
@@ -18475,12 +18478,12 @@
       <c r="BI154" s="1"/>
       <c r="BJ154" s="1"/>
       <c r="BK154" s="1"/>
-      <c r="BL154" s="1"/>
+      <c r="BL154" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
-      <c r="BO154" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO154" s="1"/>
       <c r="BP154" s="1"/>
       <c r="BQ154" s="1"/>
       <c r="BR154" s="1"/>
@@ -18504,17 +18507,15 @@
     </row>
     <row customFormat="1" r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>402</v>
+        <v>144</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C155" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C155" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="2" t="s">
@@ -18579,31 +18580,29 @@
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
       <c r="AZ155" s="1"/>
-      <c r="BA155" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="BA155" s="1"/>
       <c r="BB155" s="1"/>
       <c r="BC155" s="1"/>
       <c r="BD155" s="1"/>
       <c r="BE155" s="1"/>
-      <c r="BF155" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG155" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH155" s="1"/>
-      <c r="BI155" s="1"/>
-      <c r="BJ155" s="1"/>
-      <c r="BK155" s="1"/>
-      <c r="BL155" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="BF155" s="1"/>
+      <c r="BG155" s="1"/>
+      <c r="BH155" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI155" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ155" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK155" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BL155" s="1"/>
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
-      <c r="BO155" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO155" s="1"/>
       <c r="BP155" s="1"/>
       <c r="BQ155" s="1"/>
       <c r="BR155" s="1"/>
@@ -18627,19 +18626,21 @@
     </row>
     <row customFormat="1" r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>403</v>
+        <v>145</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="F156" t="s">
+        <v>3</v>
+      </c>
       <c r="G156" s="2" t="s">
         <v>53</v>
       </c>
@@ -18671,7 +18672,9 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
-      <c r="V156" s="1"/>
+      <c r="V156" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
@@ -18682,13 +18685,19 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
-      <c r="AG156" s="1"/>
+      <c r="AG156" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH156" s="1"/>
-      <c r="AI156" s="1"/>
+      <c r="AI156" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ156" s="1"/>
       <c r="AK156" s="1"/>
       <c r="AL156" s="1"/>
-      <c r="AM156" s="1"/>
+      <c r="AM156" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN156" s="1"/>
       <c r="AO156" s="1"/>
       <c r="AP156" s="1"/>
@@ -18703,25 +18712,26 @@
       <c r="AY156" s="1"/>
       <c r="AZ156" s="1"/>
       <c r="BA156" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB156" s="1"/>
-      <c r="BC156" s="1"/>
-      <c r="BD156" s="1"/>
-      <c r="BE156" s="1"/>
-      <c r="BF156" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG156" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="BB156" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD156" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE156" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG156" s="1"/>
       <c r="BH156" s="1"/>
       <c r="BI156" s="1"/>
       <c r="BJ156" s="1"/>
       <c r="BK156" s="1"/>
-      <c r="BL156" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="BL156" s="1"/>
       <c r="BM156" s="1"/>
       <c r="BN156" s="1"/>
       <c r="BO156" s="1"/>
@@ -18743,22 +18753,26 @@
       <c r="CE156" s="1"/>
       <c r="CF156" s="1"/>
       <c r="CG156" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D157" s="1"/>
+      <c r="C157" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="F157" t="s">
+        <v>3</v>
+      </c>
       <c r="G157" s="2" t="s">
         <v>53</v>
       </c>
@@ -18790,7 +18804,9 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
-      <c r="V157" s="1"/>
+      <c r="V157" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
@@ -18801,13 +18817,19 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
-      <c r="AG157" s="1"/>
+      <c r="AG157" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH157" s="1"/>
-      <c r="AI157" s="1"/>
+      <c r="AI157" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ157" s="1"/>
       <c r="AK157" s="1"/>
       <c r="AL157" s="1"/>
-      <c r="AM157" s="1"/>
+      <c r="AM157" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN157" s="1"/>
       <c r="AO157" s="1"/>
       <c r="AP157" s="1"/>
@@ -18821,25 +18843,23 @@
       <c r="AX157" s="1"/>
       <c r="AY157" s="1"/>
       <c r="AZ157" s="1"/>
-      <c r="BA157" s="1"/>
+      <c r="BA157" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB157" s="1"/>
       <c r="BC157" s="1"/>
       <c r="BD157" s="1"/>
       <c r="BE157" s="1"/>
-      <c r="BF157" s="1"/>
-      <c r="BG157" s="1"/>
-      <c r="BH157" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI157" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ157" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK157" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="BF157" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG157" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH157" s="1"/>
+      <c r="BI157" s="1"/>
+      <c r="BJ157" s="1"/>
+      <c r="BK157" s="1"/>
       <c r="BL157" s="1"/>
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
@@ -18867,13 +18887,13 @@
     </row>
     <row customFormat="1" r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>3</v>
@@ -18952,26 +18972,25 @@
       <c r="AX158" s="1"/>
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
-      <c r="BA158" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB158" s="4" t="s">
+      <c r="BA158" s="1"/>
+      <c r="BB158" s="1"/>
+      <c r="BC158" s="1"/>
+      <c r="BD158" s="1"/>
+      <c r="BE158" s="1"/>
+      <c r="BF158" s="1"/>
+      <c r="BG158" s="1"/>
+      <c r="BH158" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI158" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BD158" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE158" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF158" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG158" s="1"/>
-      <c r="BH158" s="1"/>
-      <c r="BI158" s="1"/>
-      <c r="BJ158" s="1"/>
-      <c r="BK158" s="1"/>
+      <c r="BJ158" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK158" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="BL158" s="1"/>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
@@ -18999,13 +19018,13 @@
     </row>
     <row customFormat="1" r="159" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>312</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>3</v>
@@ -19084,19 +19103,12 @@
       <c r="AX159" s="1"/>
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
-      <c r="BA159" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB159" s="1"/>
-      <c r="BC159" s="1"/>
-      <c r="BD159" s="1"/>
-      <c r="BE159" s="1"/>
-      <c r="BF159" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG159" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="BA159" s="1"/>
+      <c r="BB159" s="4"/>
+      <c r="BD159" s="2"/>
+      <c r="BE159" s="3"/>
+      <c r="BF159" s="2"/>
+      <c r="BG159" s="1"/>
       <c r="BH159" s="1"/>
       <c r="BI159" s="1"/>
       <c r="BJ159" s="1"/>
@@ -19127,56 +19139,32 @@
       </c>
     </row>
     <row customFormat="1" r="160" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>149</v>
+      <c r="A160" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C160" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" t="s">
-        <v>3</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K160" t="s">
-        <v>1</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M160" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
       <c r="O160" s="1"/>
-      <c r="P160" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
-      <c r="V160" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V160" s="1"/>
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
@@ -19187,19 +19175,13 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
-      <c r="AG160" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG160" s="1"/>
       <c r="AH160" s="1"/>
-      <c r="AI160" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI160" s="1"/>
       <c r="AJ160" s="1"/>
       <c r="AK160" s="1"/>
       <c r="AL160" s="1"/>
-      <c r="AM160" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM160" s="1"/>
       <c r="AN160" s="1"/>
       <c r="AO160" s="1"/>
       <c r="AP160" s="1"/>
@@ -19220,18 +19202,10 @@
       <c r="BE160" s="1"/>
       <c r="BF160" s="1"/>
       <c r="BG160" s="1"/>
-      <c r="BH160" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI160" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ160" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK160" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="BH160" s="1"/>
+      <c r="BI160" s="11"/>
+      <c r="BJ160" s="1"/>
+      <c r="BK160" s="1"/>
       <c r="BL160" s="1"/>
       <c r="BM160" s="1"/>
       <c r="BN160" s="1"/>
@@ -19253,42 +19227,40 @@
       <c r="CD160" s="1"/>
       <c r="CE160" s="1"/>
       <c r="CF160" s="1"/>
-      <c r="CG160" t="s">
-        <v>366</v>
-      </c>
+      <c r="CG160" s="1"/>
     </row>
     <row customFormat="1" r="161" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C161" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E161" s="1"/>
-      <c r="F161" t="s">
-        <v>3</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I161" s="1"/>
-      <c r="J161" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K161" t="s">
-        <v>1</v>
+      <c r="C161" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>28</v>
@@ -19300,14 +19272,22 @@
       <c r="P161" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
-      <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
-      <c r="V161" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q161" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R161" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="S161" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V161" s="1"/>
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
@@ -19319,18 +19299,14 @@
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
       <c r="AG161" s="1" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="AH161" s="1"/>
-      <c r="AI161" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI161" s="1"/>
       <c r="AJ161" s="1"/>
       <c r="AK161" s="1"/>
       <c r="AL161" s="1"/>
-      <c r="AM161" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM161" s="1"/>
       <c r="AN161" s="1"/>
       <c r="AO161" s="1"/>
       <c r="AP161" s="1"/>
@@ -19344,14 +19320,24 @@
       <c r="AX161" s="1"/>
       <c r="AY161" s="1"/>
       <c r="AZ161" s="1"/>
-      <c r="BA161" s="1"/>
-      <c r="BB161" s="4"/>
-      <c r="BD161" s="2"/>
-      <c r="BE161" s="3"/>
-      <c r="BF161" s="2"/>
+      <c r="BA161" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB161" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD161" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE161" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF161" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG161" s="1"/>
       <c r="BH161" s="1"/>
-      <c r="BI161" s="1"/>
+      <c r="BI161" s="11"/>
       <c r="BJ161" s="1"/>
       <c r="BK161" s="1"/>
       <c r="BL161" s="1"/>
@@ -19374,37 +19360,69 @@
       <c r="CC161" s="1"/>
       <c r="CD161" s="1"/>
       <c r="CE161" s="1"/>
-      <c r="CF161" s="1"/>
+      <c r="CF161" s="18"/>
       <c r="CG161" t="s">
         <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="162" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
-        <v>240</v>
+      <c r="A162" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
+      <c r="C162" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1"/>
-      <c r="T162" s="1"/>
-      <c r="U162" s="1"/>
+      <c r="P162" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q162" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R162" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="S162" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
@@ -19416,7 +19434,9 @@
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
-      <c r="AG162" s="1"/>
+      <c r="AG162" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
@@ -19436,12 +19456,21 @@
       <c r="AX162" s="1"/>
       <c r="AY162" s="1"/>
       <c r="AZ162" s="1"/>
-      <c r="BA162" s="1"/>
-      <c r="BB162" s="1"/>
-      <c r="BC162" s="1"/>
-      <c r="BD162" s="1"/>
-      <c r="BE162" s="1"/>
-      <c r="BF162" s="1"/>
+      <c r="BA162" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB162" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD162" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE162" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF162" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG162" s="1"/>
       <c r="BH162" s="1"/>
       <c r="BI162" s="11"/>
@@ -19467,12 +19496,14 @@
       <c r="CC162" s="1"/>
       <c r="CD162" s="1"/>
       <c r="CE162" s="1"/>
-      <c r="CF162" s="1"/>
-      <c r="CG162" s="1"/>
+      <c r="CF162" s="18"/>
+      <c r="CG162" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row customFormat="1" r="163" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>365</v>
@@ -19485,12 +19516,8 @@
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="1"/>
       <c r="I163" s="1" t="s">
         <v>431</v>
       </c>
@@ -19501,7 +19528,7 @@
         <v>349</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="M163" s="2" t="s">
         <v>28</v>
@@ -19561,21 +19588,12 @@
       <c r="AX163" s="1"/>
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
-      <c r="BA163" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB163" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD163" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE163" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF163" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA163" s="1"/>
+      <c r="BB163" s="1"/>
+      <c r="BC163" s="12"/>
+      <c r="BD163" s="1"/>
+      <c r="BE163" s="1"/>
+      <c r="BF163" s="1"/>
       <c r="BG163" s="1"/>
       <c r="BH163" s="1"/>
       <c r="BI163" s="11"/>
@@ -19608,42 +19626,44 @@
     </row>
     <row customFormat="1" r="164" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
+      <c r="F164" s="3" t="s">
+        <v>362</v>
+      </c>
       <c r="G164" s="3" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>235</v>
+        <v>371</v>
       </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1" t="s">
@@ -19676,7 +19696,7 @@
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
       <c r="AG164" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
@@ -19697,21 +19717,12 @@
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
-      <c r="BA164" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB164" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD164" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE164" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF164" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA164" s="1"/>
+      <c r="BB164" s="1"/>
+      <c r="BC164" s="12"/>
+      <c r="BD164" s="1"/>
+      <c r="BE164" s="1"/>
+      <c r="BF164" s="1"/>
       <c r="BG164" s="1"/>
       <c r="BH164" s="1"/>
       <c r="BI164" s="11"/>
@@ -19743,8 +19754,8 @@
       </c>
     </row>
     <row customFormat="1" r="165" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>250</v>
+      <c r="A165" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>365</v>
@@ -19757,8 +19768,12 @@
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="1"/>
+      <c r="G165" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="I165" s="1" t="s">
         <v>431</v>
       </c>
@@ -19829,12 +19844,21 @@
       <c r="AX165" s="1"/>
       <c r="AY165" s="1"/>
       <c r="AZ165" s="1"/>
-      <c r="BA165" s="1"/>
-      <c r="BB165" s="1"/>
-      <c r="BC165" s="12"/>
-      <c r="BD165" s="1"/>
-      <c r="BE165" s="1"/>
-      <c r="BF165" s="1"/>
+      <c r="BA165" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB165" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD165" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE165" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF165" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG165" s="1"/>
       <c r="BH165" s="1"/>
       <c r="BI165" s="11"/>
@@ -19866,45 +19890,39 @@
       </c>
     </row>
     <row customFormat="1" r="166" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>251</v>
+      <c r="A166" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E166" s="3"/>
-      <c r="F166" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="1"/>
       <c r="I166" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>371</v>
+        <v>235</v>
       </c>
       <c r="O166" s="1"/>
       <c r="P166" s="1" t="s">
@@ -19937,7 +19955,7 @@
       <c r="AE166" s="1"/>
       <c r="AF166" s="1"/>
       <c r="AG166" s="1" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="AH166" s="1"/>
       <c r="AI166" s="1"/>
@@ -19958,12 +19976,21 @@
       <c r="AX166" s="1"/>
       <c r="AY166" s="1"/>
       <c r="AZ166" s="1"/>
-      <c r="BA166" s="1"/>
-      <c r="BB166" s="1"/>
-      <c r="BC166" s="12"/>
-      <c r="BD166" s="1"/>
-      <c r="BE166" s="1"/>
-      <c r="BF166" s="1"/>
+      <c r="BA166" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB166" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD166" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE166" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF166" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG166" s="1"/>
       <c r="BH166" s="1"/>
       <c r="BI166" s="11"/>
@@ -19996,7 +20023,7 @@
     </row>
     <row customFormat="1" r="167" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>365</v>
@@ -20009,12 +20036,8 @@
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="1"/>
       <c r="I167" s="1" t="s">
         <v>431</v>
       </c>
@@ -20132,32 +20155,38 @@
     </row>
     <row customFormat="1" r="168" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>385</v>
+        <v>463</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="1"/>
+      <c r="F168" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="I168" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>28</v>
@@ -20196,7 +20225,7 @@
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
       <c r="AG168" s="1" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
@@ -20248,14 +20277,14 @@
       <c r="BT168" s="1"/>
       <c r="BU168" s="1"/>
       <c r="BV168" s="1"/>
-      <c r="BW168" s="1"/>
-      <c r="BX168" s="1"/>
-      <c r="BY168" s="1"/>
-      <c r="BZ168" s="1"/>
-      <c r="CA168" s="1"/>
-      <c r="CB168" s="1"/>
-      <c r="CC168" s="1"/>
-      <c r="CD168" s="1"/>
+      <c r="BW168" s="12"/>
+      <c r="BX168" s="12"/>
+      <c r="BY168" s="12"/>
+      <c r="BZ168" s="12"/>
+      <c r="CA168" s="12"/>
+      <c r="CB168" s="12"/>
+      <c r="CC168" s="12"/>
+      <c r="CD168" s="12"/>
       <c r="CE168" s="1"/>
       <c r="CF168" s="18"/>
       <c r="CG168" t="s">
@@ -20264,58 +20293,40 @@
     </row>
     <row customFormat="1" r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C169" s="28" t="s">
-        <v>385</v>
+      <c r="C169" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="1"/>
+      <c r="G169" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I169" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J169" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="L169" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="M169" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J169" s="1"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="1"/>
       <c r="O169" s="1"/>
-      <c r="P169" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q169" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="R169" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="S169" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="T169" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="U169" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="11"/>
+      <c r="R169" s="10"/>
+      <c r="S169" s="10"/>
+      <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
@@ -20327,9 +20338,7 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
-      <c r="AG169" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="AG169" s="1"/>
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
       <c r="AJ169" s="1"/>
@@ -20349,24 +20358,18 @@
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
       <c r="AZ169" s="1"/>
-      <c r="BA169" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB169" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD169" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE169" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF169" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA169" s="1"/>
+      <c r="BB169" s="4"/>
+      <c r="BD169" s="2"/>
+      <c r="BE169" s="3"/>
+      <c r="BF169" s="2"/>
       <c r="BG169" s="1"/>
-      <c r="BH169" s="1"/>
-      <c r="BI169" s="11"/>
+      <c r="BH169" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BI169" s="11" t="s">
+        <v>352</v>
+      </c>
       <c r="BJ169" s="1"/>
       <c r="BK169" s="1"/>
       <c r="BL169" s="1"/>
@@ -20380,54 +20383,52 @@
       <c r="BT169" s="1"/>
       <c r="BU169" s="1"/>
       <c r="BV169" s="1"/>
-      <c r="BW169" s="1"/>
-      <c r="BX169" s="1"/>
-      <c r="BY169" s="1"/>
-      <c r="BZ169" s="1"/>
-      <c r="CA169" s="1"/>
-      <c r="CB169" s="1"/>
-      <c r="CC169" s="1"/>
-      <c r="CD169" s="1"/>
+      <c r="BW169" s="12"/>
+      <c r="BX169" s="12"/>
+      <c r="BY169" s="12"/>
+      <c r="BZ169" s="12"/>
+      <c r="CA169" s="12"/>
+      <c r="CB169" s="12"/>
+      <c r="CC169" s="12"/>
+      <c r="CD169" s="12"/>
       <c r="CE169" s="1"/>
       <c r="CF169" s="18"/>
       <c r="CG169" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>362</v>
+        <v>285</v>
+      </c>
+      <c r="D170" s="28" t="s">
+        <v>389</v>
       </c>
       <c r="E170" s="3"/>
-      <c r="F170" s="11" t="s">
-        <v>362</v>
-      </c>
+      <c r="F170" s="3"/>
       <c r="G170" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>242</v>
+        <v>53</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J170" s="1" t="s">
-        <v>386</v>
+      <c r="J170" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>387</v>
+        <v>1</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>28</v>
@@ -20439,21 +20440,11 @@
       <c r="P170" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q170" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="R170" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="S170" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="T170" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="U170" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
@@ -20465,9 +20456,7 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
-      <c r="AG170" s="1" t="s">
-        <v>388</v>
-      </c>
+      <c r="AG170" s="1"/>
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
@@ -20488,25 +20477,25 @@
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
       <c r="BA170" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB170" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD170" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE170" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF170" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="BB170" s="4"/>
+      <c r="BD170" s="2"/>
+      <c r="BE170" s="3"/>
+      <c r="BF170" s="2"/>
       <c r="BG170" s="1"/>
-      <c r="BH170" s="1"/>
-      <c r="BI170" s="11"/>
-      <c r="BJ170" s="1"/>
-      <c r="BK170" s="1"/>
+      <c r="BH170" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BI170" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="BJ170" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BK170" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="BL170" s="1"/>
       <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
@@ -20529,45 +20518,57 @@
       <c r="CE170" s="1"/>
       <c r="CF170" s="18"/>
       <c r="CG170" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row customFormat="1" r="171" spans="1:85" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="171" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C171" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>3</v>
+      <c r="C171" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D171" s="28" t="s">
+        <v>389</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
       <c r="I171" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J171" s="1"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="1"/>
+      <c r="J171" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="M171" s="2"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
-      <c r="Q171" s="11"/>
-      <c r="R171" s="10"/>
-      <c r="S171" s="10"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
+      <c r="Q171" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="R171" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="S171" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
@@ -20579,7 +20580,9 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
-      <c r="AG171" s="1"/>
+      <c r="AG171" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
@@ -20605,16 +20608,14 @@
       <c r="BE171" s="3"/>
       <c r="BF171" s="2"/>
       <c r="BG171" s="1"/>
-      <c r="BH171" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BI171" s="11" t="s">
-        <v>352</v>
-      </c>
+      <c r="BH171" s="1"/>
+      <c r="BI171" s="11"/>
       <c r="BJ171" s="1"/>
       <c r="BK171" s="1"/>
       <c r="BL171" s="1"/>
-      <c r="BM171" s="1"/>
+      <c r="BM171" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="BN171" s="1"/>
       <c r="BO171" s="1"/>
       <c r="BP171" s="1"/>
@@ -20638,34 +20639,32 @@
         <v>364</v>
       </c>
     </row>
-    <row customFormat="1" r="172" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>283</v>
+    <row customFormat="1" ht="30" r="172" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C172" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="D172" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3" t="s">
+      <c r="C172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>431</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="I172" s="1"/>
       <c r="J172" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="K172" t="s">
         <v>1</v>
       </c>
       <c r="L172" s="1" t="s">
@@ -20681,7 +20680,7 @@
       <c r="P172" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q172" s="11"/>
+      <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
@@ -20718,25 +20717,22 @@
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
       <c r="BA172" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB172" s="4"/>
-      <c r="BD172" s="2"/>
-      <c r="BE172" s="3"/>
-      <c r="BF172" s="2"/>
-      <c r="BG172" s="1"/>
-      <c r="BH172" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BI172" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="BJ172" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="BK172" s="1" t="s">
-        <v>353</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="BB172" s="1"/>
+      <c r="BC172" s="1"/>
+      <c r="BD172" s="1"/>
+      <c r="BE172" s="1"/>
+      <c r="BF172" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="BG172" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="BH172" s="1"/>
+      <c r="BI172" s="1"/>
+      <c r="BJ172" s="1"/>
+      <c r="BK172" s="1"/>
       <c r="BL172" s="1"/>
       <c r="BM172" s="1"/>
       <c r="BN172" s="1"/>
@@ -20748,68 +20744,66 @@
       <c r="BT172" s="1"/>
       <c r="BU172" s="1"/>
       <c r="BV172" s="1"/>
-      <c r="BW172" s="12"/>
-      <c r="BX172" s="12"/>
-      <c r="BY172" s="12"/>
-      <c r="BZ172" s="12"/>
-      <c r="CA172" s="12"/>
-      <c r="CB172" s="12"/>
-      <c r="CC172" s="12"/>
-      <c r="CD172" s="12"/>
+      <c r="BW172" s="1"/>
+      <c r="BX172" s="1"/>
+      <c r="BY172" s="1"/>
+      <c r="BZ172" s="1"/>
+      <c r="CA172" s="1"/>
+      <c r="CB172" s="1"/>
+      <c r="CC172" s="1"/>
+      <c r="CD172" s="1"/>
       <c r="CE172" s="1"/>
-      <c r="CF172" s="18"/>
+      <c r="CF172" s="1"/>
       <c r="CG172" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="173" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
-        <v>288</v>
+      <c r="A173" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C173" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="D173" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="1" t="s">
-        <v>431</v>
-      </c>
+      <c r="C173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I173" s="1"/>
       <c r="J173" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K173" s="2" t="s">
-        <v>293</v>
+        <v>0</v>
+      </c>
+      <c r="K173" t="s">
+        <v>1</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="M173" s="2"/>
-      <c r="N173" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="M173" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="R173" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="S173" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="T173" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="U173" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="P173" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
@@ -20821,9 +20815,7 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
-      <c r="AG173" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="AG173" s="1"/>
       <c r="AH173" s="1"/>
       <c r="AI173" s="1"/>
       <c r="AJ173" s="1"/>
@@ -20843,20 +20835,25 @@
       <c r="AX173" s="1"/>
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
-      <c r="BA173" s="1"/>
-      <c r="BB173" s="4"/>
-      <c r="BD173" s="2"/>
-      <c r="BE173" s="3"/>
-      <c r="BF173" s="2"/>
-      <c r="BG173" s="1"/>
+      <c r="BA173" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BB173" s="1"/>
+      <c r="BC173" s="1"/>
+      <c r="BD173" s="1"/>
+      <c r="BE173" s="1"/>
+      <c r="BF173" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BG173" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="BH173" s="1"/>
-      <c r="BI173" s="11"/>
+      <c r="BI173" s="1"/>
       <c r="BJ173" s="1"/>
       <c r="BK173" s="1"/>
       <c r="BL173" s="1"/>
-      <c r="BM173" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="BM173" s="1"/>
       <c r="BN173" s="1"/>
       <c r="BO173" s="1"/>
       <c r="BP173" s="1"/>
@@ -20866,23 +20863,23 @@
       <c r="BT173" s="1"/>
       <c r="BU173" s="1"/>
       <c r="BV173" s="1"/>
-      <c r="BW173" s="12"/>
-      <c r="BX173" s="12"/>
-      <c r="BY173" s="12"/>
-      <c r="BZ173" s="12"/>
-      <c r="CA173" s="12"/>
-      <c r="CB173" s="12"/>
-      <c r="CC173" s="12"/>
-      <c r="CD173" s="12"/>
+      <c r="BW173" s="1"/>
+      <c r="BX173" s="1"/>
+      <c r="BY173" s="1"/>
+      <c r="BZ173" s="1"/>
+      <c r="CA173" s="1"/>
+      <c r="CB173" s="1"/>
+      <c r="CC173" s="1"/>
+      <c r="CD173" s="1"/>
       <c r="CE173" s="1"/>
-      <c r="CF173" s="18"/>
+      <c r="CF173" s="1"/>
       <c r="CG173" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="174" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>365</v>
@@ -20958,17 +20955,17 @@
       <c r="AY174" s="1"/>
       <c r="AZ174" s="1"/>
       <c r="BA174" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB174" s="1"/>
       <c r="BC174" s="1"/>
       <c r="BD174" s="1"/>
       <c r="BE174" s="1"/>
       <c r="BF174" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BG174" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BH174" s="1"/>
       <c r="BI174" s="1"/>
@@ -20999,9 +20996,9 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="175" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="175" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>365</v>
@@ -21077,17 +21074,17 @@
       <c r="AY175" s="1"/>
       <c r="AZ175" s="1"/>
       <c r="BA175" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB175" s="1"/>
       <c r="BC175" s="1"/>
       <c r="BD175" s="1"/>
       <c r="BE175" s="1"/>
       <c r="BF175" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="BG175" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BH175" s="1"/>
       <c r="BI175" s="1"/>
@@ -21118,9 +21115,9 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="176" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="176" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>365</v>
@@ -21196,17 +21193,17 @@
       <c r="AY176" s="1"/>
       <c r="AZ176" s="1"/>
       <c r="BA176" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB176" s="1"/>
       <c r="BC176" s="1"/>
       <c r="BD176" s="1"/>
       <c r="BE176" s="1"/>
       <c r="BF176" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="BG176" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BH176" s="1"/>
       <c r="BI176" s="1"/>
@@ -21239,7 +21236,7 @@
     </row>
     <row customFormat="1" r="177" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>365</v>
@@ -21315,17 +21312,17 @@
       <c r="AY177" s="1"/>
       <c r="AZ177" s="1"/>
       <c r="BA177" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB177" s="1"/>
       <c r="BC177" s="1"/>
       <c r="BD177" s="1"/>
       <c r="BE177" s="1"/>
       <c r="BF177" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="BG177" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BH177" s="1"/>
       <c r="BI177" s="1"/>
@@ -21356,19 +21353,17 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" r="178" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="178" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="2" t="s">
@@ -21434,17 +21429,17 @@
       <c r="AY178" s="1"/>
       <c r="AZ178" s="1"/>
       <c r="BA178" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB178" s="1"/>
       <c r="BC178" s="1"/>
       <c r="BD178" s="1"/>
       <c r="BE178" s="1"/>
       <c r="BF178" s="1" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="BG178" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BH178" s="1"/>
       <c r="BI178" s="1"/>
@@ -21475,19 +21470,17 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" r="179" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="179" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="2" t="s">
@@ -21553,17 +21546,17 @@
       <c r="AY179" s="1"/>
       <c r="AZ179" s="1"/>
       <c r="BA179" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB179" s="1"/>
       <c r="BC179" s="1"/>
       <c r="BD179" s="1"/>
       <c r="BE179" s="1"/>
       <c r="BF179" s="1" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="BG179" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BH179" s="1"/>
       <c r="BI179" s="1"/>
@@ -21596,7 +21589,7 @@
     </row>
     <row customFormat="1" ht="30" r="180" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>365</v>
@@ -21670,17 +21663,17 @@
       <c r="AY180" s="1"/>
       <c r="AZ180" s="1"/>
       <c r="BA180" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB180" s="1"/>
       <c r="BC180" s="1"/>
       <c r="BD180" s="1"/>
       <c r="BE180" s="1"/>
       <c r="BF180" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BG180" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BH180" s="1"/>
       <c r="BI180" s="1"/>
@@ -21711,9 +21704,9 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="181" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="181" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>365</v>
@@ -21787,17 +21780,17 @@
       <c r="AY181" s="1"/>
       <c r="AZ181" s="1"/>
       <c r="BA181" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB181" s="1"/>
       <c r="BC181" s="1"/>
       <c r="BD181" s="1"/>
       <c r="BE181" s="1"/>
       <c r="BF181" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="BG181" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BH181" s="1"/>
       <c r="BI181" s="1"/>
@@ -21828,9 +21821,9 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="182" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="182" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>365</v>
@@ -21904,17 +21897,17 @@
       <c r="AY182" s="1"/>
       <c r="AZ182" s="1"/>
       <c r="BA182" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB182" s="1"/>
       <c r="BC182" s="1"/>
       <c r="BD182" s="1"/>
       <c r="BE182" s="1"/>
       <c r="BF182" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="BG182" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BH182" s="1"/>
       <c r="BI182" s="1"/>
@@ -21947,7 +21940,7 @@
     </row>
     <row customFormat="1" r="183" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>365</v>
@@ -22021,17 +22014,17 @@
       <c r="AY183" s="1"/>
       <c r="AZ183" s="1"/>
       <c r="BA183" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB183" s="1"/>
       <c r="BC183" s="1"/>
       <c r="BD183" s="1"/>
       <c r="BE183" s="1"/>
       <c r="BF183" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="BG183" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BH183" s="1"/>
       <c r="BI183" s="1"/>
@@ -22059,20 +22052,22 @@
       <c r="CE183" s="1"/>
       <c r="CF183" s="1"/>
       <c r="CG183" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="184" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D184" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="2" t="s">
@@ -22138,18 +22133,14 @@
       <c r="AY184" s="1"/>
       <c r="AZ184" s="1"/>
       <c r="BA184" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB184" s="1"/>
       <c r="BC184" s="1"/>
       <c r="BD184" s="1"/>
       <c r="BE184" s="1"/>
-      <c r="BF184" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG184" s="4" t="s">
-        <v>447</v>
-      </c>
+      <c r="BF184" s="1"/>
+      <c r="BG184" s="4"/>
       <c r="BH184" s="1"/>
       <c r="BI184" s="1"/>
       <c r="BJ184" s="1"/>
@@ -22181,7 +22172,7 @@
     </row>
     <row customFormat="1" r="185" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>365</v>
@@ -22255,18 +22246,16 @@
       <c r="AY185" s="1"/>
       <c r="AZ185" s="1"/>
       <c r="BA185" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BB185" s="1"/>
       <c r="BC185" s="1"/>
       <c r="BD185" s="1"/>
       <c r="BE185" s="1"/>
       <c r="BF185" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="BG185" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="BG185" s="4"/>
       <c r="BH185" s="1"/>
       <c r="BI185" s="1"/>
       <c r="BJ185" s="1"/>
@@ -22293,50 +22282,26 @@
       <c r="CE185" s="1"/>
       <c r="CF185" s="1"/>
       <c r="CG185" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="186" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A186" s="7"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K186" t="s">
-        <v>1</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M186" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
       <c r="O186" s="1"/>
-      <c r="P186" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
@@ -22373,17 +22338,15 @@
       <c r="AX186" s="1"/>
       <c r="AY186" s="1"/>
       <c r="AZ186" s="1"/>
-      <c r="BA186" s="1" t="s">
-        <v>445</v>
-      </c>
+      <c r="BA186" s="1"/>
       <c r="BB186" s="1"/>
       <c r="BC186" s="1"/>
       <c r="BD186" s="1"/>
       <c r="BE186" s="1"/>
       <c r="BF186" s="1"/>
-      <c r="BG186" s="4"/>
+      <c r="BG186" s="1"/>
       <c r="BH186" s="1"/>
-      <c r="BI186" s="1"/>
+      <c r="BI186" s="11"/>
       <c r="BJ186" s="1"/>
       <c r="BK186" s="1"/>
       <c r="BL186" s="1"/>
@@ -22407,49 +22370,25 @@
       <c r="CD186" s="1"/>
       <c r="CE186" s="1"/>
       <c r="CF186" s="1"/>
-      <c r="CG186" t="s">
-        <v>366</v>
-      </c>
+      <c r="CG186" s="1"/>
     </row>
     <row customFormat="1" r="187" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="A187" s="7"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-      <c r="J187" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K187" t="s">
-        <v>1</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M187" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
       <c r="O187" s="1"/>
-      <c r="P187" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
@@ -22486,19 +22425,15 @@
       <c r="AX187" s="1"/>
       <c r="AY187" s="1"/>
       <c r="AZ187" s="1"/>
-      <c r="BA187" s="1" t="s">
-        <v>445</v>
-      </c>
+      <c r="BA187" s="1"/>
       <c r="BB187" s="1"/>
       <c r="BC187" s="1"/>
       <c r="BD187" s="1"/>
       <c r="BE187" s="1"/>
-      <c r="BF187" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG187" s="4"/>
+      <c r="BF187" s="1"/>
+      <c r="BG187" s="1"/>
       <c r="BH187" s="1"/>
-      <c r="BI187" s="1"/>
+      <c r="BI187" s="11"/>
       <c r="BJ187" s="1"/>
       <c r="BK187" s="1"/>
       <c r="BL187" s="1"/>
@@ -22522,9 +22457,7 @@
       <c r="CD187" s="1"/>
       <c r="CE187" s="1"/>
       <c r="CF187" s="1"/>
-      <c r="CG187" t="s">
-        <v>366</v>
-      </c>
+      <c r="CG187" s="1"/>
     </row>
     <row customFormat="1" r="188" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
@@ -22616,7 +22549,7 @@
     <row customFormat="1" r="189" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="C189" s="11"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -22703,7 +22636,7 @@
     <row customFormat="1" r="190" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="C190" s="11"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -24441,178 +24374,178 @@
       <c r="CG209" s="1"/>
     </row>
     <row customFormat="1" r="210" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
-      <c r="S210" s="1"/>
-      <c r="T210" s="1"/>
-      <c r="U210" s="1"/>
-      <c r="V210" s="1"/>
-      <c r="W210" s="1"/>
-      <c r="X210" s="1"/>
-      <c r="Y210" s="1"/>
-      <c r="Z210" s="1"/>
-      <c r="AA210" s="1"/>
-      <c r="AB210" s="1"/>
-      <c r="AC210" s="1"/>
-      <c r="AD210" s="1"/>
-      <c r="AE210" s="1"/>
-      <c r="AF210" s="1"/>
-      <c r="AG210" s="1"/>
-      <c r="AH210" s="1"/>
-      <c r="AI210" s="1"/>
-      <c r="AJ210" s="1"/>
-      <c r="AK210" s="1"/>
-      <c r="AL210" s="1"/>
-      <c r="AM210" s="1"/>
-      <c r="AN210" s="1"/>
-      <c r="AO210" s="1"/>
-      <c r="AP210" s="1"/>
-      <c r="AQ210" s="1"/>
-      <c r="AR210" s="1"/>
-      <c r="AS210" s="1"/>
-      <c r="AT210" s="1"/>
-      <c r="AU210" s="1"/>
-      <c r="AV210" s="1"/>
-      <c r="AW210" s="1"/>
-      <c r="AX210" s="1"/>
-      <c r="AY210" s="1"/>
-      <c r="AZ210" s="1"/>
-      <c r="BA210" s="1"/>
-      <c r="BB210" s="1"/>
-      <c r="BC210" s="1"/>
-      <c r="BD210" s="1"/>
-      <c r="BE210" s="1"/>
-      <c r="BF210" s="1"/>
-      <c r="BG210" s="1"/>
-      <c r="BH210" s="1"/>
-      <c r="BI210" s="11"/>
-      <c r="BJ210" s="1"/>
-      <c r="BK210" s="1"/>
-      <c r="BL210" s="1"/>
-      <c r="BM210" s="1"/>
-      <c r="BN210" s="1"/>
-      <c r="BO210" s="1"/>
-      <c r="BP210" s="1"/>
-      <c r="BQ210" s="1"/>
-      <c r="BR210" s="1"/>
-      <c r="BS210" s="1"/>
-      <c r="BT210" s="1"/>
-      <c r="BU210" s="1"/>
-      <c r="BV210" s="1"/>
-      <c r="BW210" s="1"/>
-      <c r="BX210" s="1"/>
-      <c r="BY210" s="1"/>
-      <c r="BZ210" s="1"/>
-      <c r="CA210" s="1"/>
-      <c r="CB210" s="1"/>
-      <c r="CC210" s="1"/>
-      <c r="CD210" s="1"/>
-      <c r="CE210" s="1"/>
-      <c r="CF210" s="1"/>
-      <c r="CG210" s="1"/>
+      <c r="A210" s="8"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2"/>
+      <c r="V210" s="2"/>
+      <c r="W210" s="2"/>
+      <c r="X210" s="2"/>
+      <c r="Y210" s="2"/>
+      <c r="Z210" s="2"/>
+      <c r="AA210" s="2"/>
+      <c r="AB210" s="2"/>
+      <c r="AC210" s="2"/>
+      <c r="AD210" s="2"/>
+      <c r="AE210" s="2"/>
+      <c r="AF210" s="2"/>
+      <c r="AG210" s="2"/>
+      <c r="AH210" s="2"/>
+      <c r="AI210" s="2"/>
+      <c r="AJ210" s="2"/>
+      <c r="AK210" s="2"/>
+      <c r="AL210" s="2"/>
+      <c r="AM210" s="2"/>
+      <c r="AN210" s="2"/>
+      <c r="AO210" s="2"/>
+      <c r="AP210" s="2"/>
+      <c r="AQ210" s="2"/>
+      <c r="AR210" s="2"/>
+      <c r="AS210" s="2"/>
+      <c r="AT210" s="2"/>
+      <c r="AU210" s="2"/>
+      <c r="AV210" s="2"/>
+      <c r="AW210" s="2"/>
+      <c r="AX210" s="2"/>
+      <c r="AY210" s="2"/>
+      <c r="AZ210" s="2"/>
+      <c r="BA210" s="2"/>
+      <c r="BB210" s="2"/>
+      <c r="BC210" s="2"/>
+      <c r="BD210" s="2"/>
+      <c r="BE210" s="2"/>
+      <c r="BF210" s="2"/>
+      <c r="BG210" s="2"/>
+      <c r="BH210" s="2"/>
+      <c r="BI210" s="3"/>
+      <c r="BJ210" s="2"/>
+      <c r="BK210" s="2"/>
+      <c r="BL210" s="2"/>
+      <c r="BM210" s="2"/>
+      <c r="BN210" s="2"/>
+      <c r="BO210" s="2"/>
+      <c r="BP210" s="2"/>
+      <c r="BQ210" s="2"/>
+      <c r="BR210" s="2"/>
+      <c r="BS210" s="2"/>
+      <c r="BT210" s="2"/>
+      <c r="BU210" s="2"/>
+      <c r="BV210" s="2"/>
+      <c r="BW210" s="2"/>
+      <c r="BX210" s="2"/>
+      <c r="BY210" s="2"/>
+      <c r="BZ210" s="2"/>
+      <c r="CA210" s="2"/>
+      <c r="CB210" s="2"/>
+      <c r="CC210" s="2"/>
+      <c r="CD210" s="2"/>
+      <c r="CE210" s="2"/>
+      <c r="CF210" s="2"/>
+      <c r="CG210" s="2"/>
     </row>
     <row customFormat="1" r="211" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="11"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-      <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
-      <c r="U211" s="1"/>
-      <c r="V211" s="1"/>
-      <c r="W211" s="1"/>
-      <c r="X211" s="1"/>
-      <c r="Y211" s="1"/>
-      <c r="Z211" s="1"/>
-      <c r="AA211" s="1"/>
-      <c r="AB211" s="1"/>
-      <c r="AC211" s="1"/>
-      <c r="AD211" s="1"/>
-      <c r="AE211" s="1"/>
-      <c r="AF211" s="1"/>
-      <c r="AG211" s="1"/>
-      <c r="AH211" s="1"/>
-      <c r="AI211" s="1"/>
-      <c r="AJ211" s="1"/>
-      <c r="AK211" s="1"/>
-      <c r="AL211" s="1"/>
-      <c r="AM211" s="1"/>
-      <c r="AN211" s="1"/>
-      <c r="AO211" s="1"/>
-      <c r="AP211" s="1"/>
-      <c r="AQ211" s="1"/>
-      <c r="AR211" s="1"/>
-      <c r="AS211" s="1"/>
-      <c r="AT211" s="1"/>
-      <c r="AU211" s="1"/>
-      <c r="AV211" s="1"/>
-      <c r="AW211" s="1"/>
-      <c r="AX211" s="1"/>
-      <c r="AY211" s="1"/>
-      <c r="AZ211" s="1"/>
-      <c r="BA211" s="1"/>
-      <c r="BB211" s="1"/>
-      <c r="BC211" s="1"/>
-      <c r="BD211" s="1"/>
-      <c r="BE211" s="1"/>
-      <c r="BF211" s="1"/>
-      <c r="BG211" s="1"/>
-      <c r="BH211" s="1"/>
-      <c r="BI211" s="11"/>
-      <c r="BJ211" s="1"/>
-      <c r="BK211" s="1"/>
-      <c r="BL211" s="1"/>
-      <c r="BM211" s="1"/>
-      <c r="BN211" s="1"/>
-      <c r="BO211" s="1"/>
-      <c r="BP211" s="1"/>
-      <c r="BQ211" s="1"/>
-      <c r="BR211" s="1"/>
-      <c r="BS211" s="1"/>
-      <c r="BT211" s="1"/>
-      <c r="BU211" s="1"/>
-      <c r="BV211" s="1"/>
-      <c r="BW211" s="1"/>
-      <c r="BX211" s="1"/>
-      <c r="BY211" s="1"/>
-      <c r="BZ211" s="1"/>
-      <c r="CA211" s="1"/>
-      <c r="CB211" s="1"/>
-      <c r="CC211" s="1"/>
-      <c r="CD211" s="1"/>
-      <c r="CE211" s="1"/>
-      <c r="CF211" s="1"/>
-      <c r="CG211" s="1"/>
+      <c r="A211" s="8"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="2"/>
+      <c r="V211" s="2"/>
+      <c r="W211" s="2"/>
+      <c r="X211" s="2"/>
+      <c r="Y211" s="2"/>
+      <c r="Z211" s="2"/>
+      <c r="AA211" s="2"/>
+      <c r="AB211" s="2"/>
+      <c r="AC211" s="2"/>
+      <c r="AD211" s="2"/>
+      <c r="AE211" s="2"/>
+      <c r="AF211" s="2"/>
+      <c r="AG211" s="2"/>
+      <c r="AH211" s="2"/>
+      <c r="AI211" s="2"/>
+      <c r="AJ211" s="2"/>
+      <c r="AK211" s="2"/>
+      <c r="AL211" s="2"/>
+      <c r="AM211" s="2"/>
+      <c r="AN211" s="2"/>
+      <c r="AO211" s="2"/>
+      <c r="AP211" s="2"/>
+      <c r="AQ211" s="2"/>
+      <c r="AR211" s="2"/>
+      <c r="AS211" s="2"/>
+      <c r="AT211" s="2"/>
+      <c r="AU211" s="2"/>
+      <c r="AV211" s="2"/>
+      <c r="AW211" s="2"/>
+      <c r="AX211" s="2"/>
+      <c r="AY211" s="2"/>
+      <c r="AZ211" s="2"/>
+      <c r="BA211" s="2"/>
+      <c r="BB211" s="2"/>
+      <c r="BC211" s="2"/>
+      <c r="BD211" s="2"/>
+      <c r="BE211" s="2"/>
+      <c r="BF211" s="2"/>
+      <c r="BG211" s="2"/>
+      <c r="BH211" s="2"/>
+      <c r="BI211" s="3"/>
+      <c r="BJ211" s="2"/>
+      <c r="BK211" s="2"/>
+      <c r="BL211" s="2"/>
+      <c r="BM211" s="2"/>
+      <c r="BN211" s="2"/>
+      <c r="BO211" s="2"/>
+      <c r="BP211" s="2"/>
+      <c r="BQ211" s="2"/>
+      <c r="BR211" s="2"/>
+      <c r="BS211" s="2"/>
+      <c r="BT211" s="2"/>
+      <c r="BU211" s="2"/>
+      <c r="BV211" s="2"/>
+      <c r="BW211" s="2"/>
+      <c r="BX211" s="2"/>
+      <c r="BY211" s="2"/>
+      <c r="BZ211" s="2"/>
+      <c r="CA211" s="2"/>
+      <c r="CB211" s="2"/>
+      <c r="CC211" s="2"/>
+      <c r="CD211" s="2"/>
+      <c r="CE211" s="2"/>
+      <c r="CF211" s="2"/>
+      <c r="CG211" s="2"/>
     </row>
     <row customFormat="1" r="212" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
@@ -29922,7 +29855,7 @@
       <c r="CG272" s="2"/>
     </row>
     <row customFormat="1" r="273" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A273" s="8"/>
+      <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
       <c r="D273" s="2"/>
@@ -30009,7 +29942,7 @@
       <c r="CG273" s="2"/>
     </row>
     <row customFormat="1" r="274" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A274" s="8"/>
+      <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
       <c r="D274" s="2"/>
@@ -30792,178 +30725,8 @@
       <c r="CG282" s="2"/>
     </row>
     <row customFormat="1" r="283" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="3"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
-      <c r="J283" s="2"/>
-      <c r="K283" s="2"/>
-      <c r="L283" s="2"/>
-      <c r="M283" s="2"/>
-      <c r="N283" s="2"/>
-      <c r="O283" s="2"/>
-      <c r="P283" s="2"/>
-      <c r="Q283" s="2"/>
-      <c r="R283" s="2"/>
-      <c r="S283" s="2"/>
-      <c r="T283" s="2"/>
-      <c r="U283" s="2"/>
-      <c r="V283" s="2"/>
-      <c r="W283" s="2"/>
-      <c r="X283" s="2"/>
-      <c r="Y283" s="2"/>
-      <c r="Z283" s="2"/>
-      <c r="AA283" s="2"/>
-      <c r="AB283" s="2"/>
-      <c r="AC283" s="2"/>
-      <c r="AD283" s="2"/>
-      <c r="AE283" s="2"/>
-      <c r="AF283" s="2"/>
-      <c r="AG283" s="2"/>
-      <c r="AH283" s="2"/>
-      <c r="AI283" s="2"/>
-      <c r="AJ283" s="2"/>
-      <c r="AK283" s="2"/>
-      <c r="AL283" s="2"/>
-      <c r="AM283" s="2"/>
-      <c r="AN283" s="2"/>
-      <c r="AO283" s="2"/>
-      <c r="AP283" s="2"/>
-      <c r="AQ283" s="2"/>
-      <c r="AR283" s="2"/>
-      <c r="AS283" s="2"/>
-      <c r="AT283" s="2"/>
-      <c r="AU283" s="2"/>
-      <c r="AV283" s="2"/>
-      <c r="AW283" s="2"/>
-      <c r="AX283" s="2"/>
-      <c r="AY283" s="2"/>
-      <c r="AZ283" s="2"/>
-      <c r="BA283" s="2"/>
-      <c r="BB283" s="2"/>
-      <c r="BC283" s="2"/>
-      <c r="BD283" s="2"/>
-      <c r="BE283" s="2"/>
-      <c r="BF283" s="2"/>
-      <c r="BG283" s="2"/>
-      <c r="BH283" s="2"/>
-      <c r="BI283" s="3"/>
-      <c r="BJ283" s="2"/>
-      <c r="BK283" s="2"/>
-      <c r="BL283" s="2"/>
-      <c r="BM283" s="2"/>
-      <c r="BN283" s="2"/>
-      <c r="BO283" s="2"/>
-      <c r="BP283" s="2"/>
-      <c r="BQ283" s="2"/>
-      <c r="BR283" s="2"/>
-      <c r="BS283" s="2"/>
-      <c r="BT283" s="2"/>
-      <c r="BU283" s="2"/>
-      <c r="BV283" s="2"/>
-      <c r="BW283" s="2"/>
-      <c r="BX283" s="2"/>
-      <c r="BY283" s="2"/>
-      <c r="BZ283" s="2"/>
-      <c r="CA283" s="2"/>
-      <c r="CB283" s="2"/>
-      <c r="CC283" s="2"/>
-      <c r="CD283" s="2"/>
-      <c r="CE283" s="2"/>
-      <c r="CF283" s="2"/>
-      <c r="CG283" s="2"/>
-    </row>
-    <row customFormat="1" r="284" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="3"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-      <c r="I284" s="2"/>
-      <c r="J284" s="2"/>
-      <c r="K284" s="2"/>
-      <c r="L284" s="2"/>
-      <c r="M284" s="2"/>
-      <c r="N284" s="2"/>
-      <c r="O284" s="2"/>
-      <c r="P284" s="2"/>
-      <c r="Q284" s="2"/>
-      <c r="R284" s="2"/>
-      <c r="S284" s="2"/>
-      <c r="T284" s="2"/>
-      <c r="U284" s="2"/>
-      <c r="V284" s="2"/>
-      <c r="W284" s="2"/>
-      <c r="X284" s="2"/>
-      <c r="Y284" s="2"/>
-      <c r="Z284" s="2"/>
-      <c r="AA284" s="2"/>
-      <c r="AB284" s="2"/>
-      <c r="AC284" s="2"/>
-      <c r="AD284" s="2"/>
-      <c r="AE284" s="2"/>
-      <c r="AF284" s="2"/>
-      <c r="AG284" s="2"/>
-      <c r="AH284" s="2"/>
-      <c r="AI284" s="2"/>
-      <c r="AJ284" s="2"/>
-      <c r="AK284" s="2"/>
-      <c r="AL284" s="2"/>
-      <c r="AM284" s="2"/>
-      <c r="AN284" s="2"/>
-      <c r="AO284" s="2"/>
-      <c r="AP284" s="2"/>
-      <c r="AQ284" s="2"/>
-      <c r="AR284" s="2"/>
-      <c r="AS284" s="2"/>
-      <c r="AT284" s="2"/>
-      <c r="AU284" s="2"/>
-      <c r="AV284" s="2"/>
-      <c r="AW284" s="2"/>
-      <c r="AX284" s="2"/>
-      <c r="AY284" s="2"/>
-      <c r="AZ284" s="2"/>
-      <c r="BA284" s="2"/>
-      <c r="BB284" s="2"/>
-      <c r="BC284" s="2"/>
-      <c r="BD284" s="2"/>
-      <c r="BE284" s="2"/>
-      <c r="BF284" s="2"/>
-      <c r="BG284" s="2"/>
-      <c r="BH284" s="2"/>
-      <c r="BI284" s="3"/>
-      <c r="BJ284" s="2"/>
-      <c r="BK284" s="2"/>
-      <c r="BL284" s="2"/>
-      <c r="BM284" s="2"/>
-      <c r="BN284" s="2"/>
-      <c r="BO284" s="2"/>
-      <c r="BP284" s="2"/>
-      <c r="BQ284" s="2"/>
-      <c r="BR284" s="2"/>
-      <c r="BS284" s="2"/>
-      <c r="BT284" s="2"/>
-      <c r="BU284" s="2"/>
-      <c r="BV284" s="2"/>
-      <c r="BW284" s="2"/>
-      <c r="BX284" s="2"/>
-      <c r="BY284" s="2"/>
-      <c r="BZ284" s="2"/>
-      <c r="CA284" s="2"/>
-      <c r="CB284" s="2"/>
-      <c r="CC284" s="2"/>
-      <c r="CD284" s="2"/>
-      <c r="CE284" s="2"/>
-      <c r="CF284" s="2"/>
-      <c r="CG284" s="2"/>
+      <c r="C283" s="14"/>
+      <c r="BI283" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -30987,7 +30750,7 @@
     <hyperlink r:id="rId18" ref="C73"/>
     <hyperlink r:id="rId19" ref="C25"/>
     <hyperlink r:id="rId20" ref="C11"/>
-    <hyperlink r:id="rId21" ref="C166"/>
+    <hyperlink r:id="rId21" ref="C164"/>
     <hyperlink r:id="rId22" ref="C79"/>
     <hyperlink display="Ankit@12345" r:id="rId23" ref="AU79"/>
     <hyperlink r:id="rId24" ref="C77"/>
@@ -30999,35 +30762,36 @@
     <hyperlink r:id="rId30" ref="C96"/>
     <hyperlink r:id="rId31" ref="C92"/>
     <hyperlink r:id="rId32" ref="C95"/>
-    <hyperlink r:id="rId33" ref="C146"/>
-    <hyperlink display="Deepika@1234" r:id="rId34" ref="D146"/>
-    <hyperlink r:id="rId35" ref="C158"/>
-    <hyperlink r:id="rId36" ref="C159"/>
-    <hyperlink r:id="rId37" ref="C160"/>
-    <hyperlink r:id="rId38" ref="C161"/>
-    <hyperlink r:id="rId39" ref="C163"/>
-    <hyperlink r:id="rId40" ref="C170"/>
-    <hyperlink r:id="rId41" ref="C172"/>
-    <hyperlink r:id="rId42" ref="C173"/>
-    <hyperlink r:id="rId43" ref="D172"/>
-    <hyperlink r:id="rId44" ref="D173"/>
+    <hyperlink r:id="rId33" ref="C145"/>
+    <hyperlink display="Deepika@1234" r:id="rId34" ref="D145"/>
+    <hyperlink r:id="rId35" ref="C156"/>
+    <hyperlink r:id="rId36" ref="C157"/>
+    <hyperlink r:id="rId37" ref="C158"/>
+    <hyperlink r:id="rId38" ref="C159"/>
+    <hyperlink r:id="rId39" ref="C161"/>
+    <hyperlink r:id="rId40" ref="C168"/>
+    <hyperlink r:id="rId41" ref="C170"/>
+    <hyperlink r:id="rId42" ref="C171"/>
+    <hyperlink r:id="rId43" ref="D170"/>
+    <hyperlink r:id="rId44" ref="D171"/>
     <hyperlink r:id="rId45" ref="C54"/>
-    <hyperlink r:id="rId46" ref="C154"/>
-    <hyperlink r:id="rId47" ref="C155"/>
-    <hyperlink r:id="rId48" ref="C156"/>
-    <hyperlink r:id="rId49" ref="C141"/>
-    <hyperlink r:id="rId50" ref="C142"/>
+    <hyperlink r:id="rId46" ref="C152"/>
+    <hyperlink r:id="rId47" ref="C153"/>
+    <hyperlink r:id="rId48" ref="C154"/>
+    <hyperlink r:id="rId49" ref="C140"/>
+    <hyperlink r:id="rId50" ref="C141"/>
     <hyperlink r:id="rId51" ref="AM131"/>
-    <hyperlink r:id="rId52" ref="C164"/>
-    <hyperlink r:id="rId53" ref="C165"/>
-    <hyperlink r:id="rId54" ref="C167"/>
-    <hyperlink r:id="rId55" ref="C168"/>
-    <hyperlink r:id="rId56" ref="C169"/>
+    <hyperlink r:id="rId52" ref="C162"/>
+    <hyperlink r:id="rId53" ref="C163"/>
+    <hyperlink r:id="rId54" ref="C165"/>
+    <hyperlink r:id="rId55" ref="C166"/>
+    <hyperlink r:id="rId56" ref="C167"/>
     <hyperlink r:id="rId57" ref="C111"/>
     <hyperlink display="Ankit@12345" r:id="rId58" ref="D79"/>
+    <hyperlink r:id="rId59" ref="C136"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
 

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="4290" windowWidth="13755" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="5985" windowWidth="13020" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="473">
   <si>
     <t>Ankit</t>
   </si>
@@ -1424,6 +1424,18 @@
   </si>
   <si>
     <t>cdAzsZSfv@gmail.com</t>
+  </si>
+  <si>
+    <t>CLOTHING</t>
+  </si>
+  <si>
+    <t>ADIDAS</t>
+  </si>
+  <si>
+    <t>SS_CheckOut_NewAddress_Clinique</t>
+  </si>
+  <si>
+    <t>BRANDS</t>
   </si>
 </sst>
 </file>
@@ -2047,13 +2059,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH283"/>
+  <dimension ref="A1:CH284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="BB137" xSplit="1" ySplit="1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B113" xSplit="1" ySplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="BD147" pane="bottomRight" sqref="BD147"/>
+      <selection activeCell="A117" pane="bottomRight" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6273,7 +6285,7 @@
         <v>53</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>59</v>
+        <v>469</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -6296,7 +6308,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1" t="s">
-        <v>267</v>
+        <v>470</v>
       </c>
       <c r="AD43" s="1" t="s">
         <v>432</v>
@@ -13642,7 +13654,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="116" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>122</v>
       </c>
@@ -13755,9 +13767,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="117" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>124</v>
+        <v>471</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>365</v>
@@ -13771,10 +13783,10 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="2" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>325</v>
+        <v>6</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="2" t="s">
@@ -13832,21 +13844,12 @@
       <c r="AX117" s="1"/>
       <c r="AY117" s="1"/>
       <c r="AZ117" s="1"/>
-      <c r="BA117" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB117" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD117" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE117" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF117" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA117" s="1"/>
+      <c r="BB117" s="1"/>
+      <c r="BC117" s="1"/>
+      <c r="BD117" s="1"/>
+      <c r="BE117" s="1"/>
+      <c r="BF117" s="1"/>
       <c r="BG117" s="1"/>
       <c r="BH117" s="1"/>
       <c r="BI117" s="1"/>
@@ -13877,9 +13880,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="118" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>365</v>
@@ -13955,18 +13958,21 @@
       <c r="AY118" s="1"/>
       <c r="AZ118" s="1"/>
       <c r="BA118" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB118" s="1"/>
-      <c r="BC118" s="1"/>
-      <c r="BD118" s="1"/>
-      <c r="BE118" s="1"/>
-      <c r="BF118" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG118" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="BB118" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE118" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG118" s="1"/>
       <c r="BH118" s="1"/>
       <c r="BI118" s="1"/>
       <c r="BJ118" s="1"/>
@@ -13996,9 +14002,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="119" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>394</v>
+        <v>130</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>365</v>
@@ -14115,9 +14121,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="120" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>365</v>
@@ -14179,12 +14185,8 @@
       <c r="AK120" s="1"/>
       <c r="AL120" s="1"/>
       <c r="AM120" s="1"/>
-      <c r="AN120" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO120" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
       <c r="AQ120" s="1"/>
       <c r="AR120" s="1"/>
@@ -14213,14 +14215,10 @@
       <c r="BI120" s="1"/>
       <c r="BJ120" s="1"/>
       <c r="BK120" s="1"/>
-      <c r="BL120" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="BL120" s="1"/>
       <c r="BM120" s="1"/>
       <c r="BN120" s="1"/>
-      <c r="BO120" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO120" s="1"/>
       <c r="BP120" s="1"/>
       <c r="BQ120" s="1"/>
       <c r="BR120" s="1"/>
@@ -14242,9 +14240,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>365</v>
@@ -14369,18 +14367,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="122" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>429</v>
+        <v>2</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -14496,9 +14494,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>365</v>
@@ -14515,7 +14513,7 @@
         <v>53</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>416</v>
+        <v>325</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="2" t="s">
@@ -14623,9 +14621,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="124" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>365</v>
@@ -14642,7 +14640,7 @@
         <v>53</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>325</v>
+        <v>416</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="2" t="s">
@@ -14750,9 +14748,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="125" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>365</v>
@@ -14877,9 +14875,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="126" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>365</v>
@@ -15004,18 +15002,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="127" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>2</v>
+        <v>429</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -15131,9 +15129,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="128" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>365</v>
@@ -15255,12 +15253,12 @@
       <c r="CE128" s="1"/>
       <c r="CF128" s="1"/>
       <c r="CG128" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="129" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="129" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>365</v>
@@ -15315,10 +15313,9 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
-      <c r="AG129" s="1">
-        <v>324353454</v>
-      </c>
+      <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
       <c r="AK129" s="1"/>
       <c r="AL129" s="1"/>
@@ -15386,9 +15383,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="130" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>365</v>
@@ -15443,11 +15440,10 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
-      <c r="AG130" s="1"/>
+      <c r="AG130" s="1">
+        <v>324353454</v>
+      </c>
       <c r="AH130" s="1"/>
-      <c r="AI130" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
@@ -15515,9 +15511,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>365</v>
@@ -15574,13 +15570,13 @@
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
-      <c r="AI131" s="1"/>
+      <c r="AI131" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="AJ131" s="1"/>
       <c r="AK131" s="1"/>
       <c r="AL131" s="1"/>
-      <c r="AM131" s="26" t="s">
-        <v>426</v>
-      </c>
+      <c r="AM131" s="1"/>
       <c r="AN131" s="1" t="s">
         <v>396</v>
       </c>
@@ -15641,12 +15637,12 @@
       <c r="CE131" s="1"/>
       <c r="CF131" s="1"/>
       <c r="CG131" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="132" spans="1:85" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="132" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>365</v>
@@ -15705,11 +15701,11 @@
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
-      <c r="AK132" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="AK132" s="1"/>
       <c r="AL132" s="1"/>
-      <c r="AM132" s="1"/>
+      <c r="AM132" s="26" t="s">
+        <v>426</v>
+      </c>
       <c r="AN132" s="1" t="s">
         <v>396</v>
       </c>
@@ -15773,9 +15769,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="133" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>365</v>
@@ -15834,7 +15830,9 @@
       <c r="AH133" s="1"/>
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
-      <c r="AK133" s="1"/>
+      <c r="AK133" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="AL133" s="1"/>
       <c r="AM133" s="1"/>
       <c r="AN133" s="1" t="s">
@@ -15900,9 +15898,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="134" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>365</v>
@@ -16027,9 +16025,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>365</v>
@@ -16154,18 +16152,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="136" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C136" s="26" t="s">
-        <v>429</v>
+      <c r="C136" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -16283,12 +16281,12 @@
     </row>
     <row customFormat="1" r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="26" t="s">
         <v>429</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -16410,7 +16408,7 @@
     </row>
     <row customFormat="1" r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>365</v>
@@ -16537,7 +16535,7 @@
     </row>
     <row customFormat="1" r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>365</v>
@@ -16664,16 +16662,16 @@
     </row>
     <row customFormat="1" r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C140" s="26" t="s">
-        <v>409</v>
+      <c r="C140" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -16791,7 +16789,7 @@
     </row>
     <row customFormat="1" r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>365</v>
@@ -16808,7 +16806,7 @@
         <v>53</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>416</v>
+        <v>325</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="2" t="s">
@@ -16918,13 +16916,13 @@
     </row>
     <row customFormat="1" r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>2</v>
+      <c r="C142" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>3</v>
@@ -16935,7 +16933,7 @@
         <v>53</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>325</v>
+        <v>416</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="2" t="s">
@@ -17045,7 +17043,7 @@
     </row>
     <row customFormat="1" r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>365</v>
@@ -17172,7 +17170,7 @@
     </row>
     <row customFormat="1" r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>134</v>
+        <v>399</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>365</v>
@@ -17234,8 +17232,12 @@
       <c r="AK144" s="1"/>
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
-      <c r="AN144" s="1"/>
-      <c r="AO144" s="1"/>
+      <c r="AN144" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO144" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
       <c r="AR144" s="1"/>
@@ -17248,30 +17250,30 @@
       <c r="AY144" s="1"/>
       <c r="AZ144" s="1"/>
       <c r="BA144" s="1" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="BB144" s="1"/>
       <c r="BC144" s="1"/>
       <c r="BD144" s="1"/>
       <c r="BE144" s="1"/>
-      <c r="BF144" s="1"/>
-      <c r="BG144" s="1"/>
-      <c r="BH144" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI144" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ144" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK144" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BL144" s="1"/>
+      <c r="BF144" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG144" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH144" s="1"/>
+      <c r="BI144" s="1"/>
+      <c r="BJ144" s="1"/>
+      <c r="BK144" s="1"/>
+      <c r="BL144" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="BM144" s="1"/>
       <c r="BN144" s="1"/>
-      <c r="BO144" s="1"/>
+      <c r="BO144" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="BP144" s="1"/>
       <c r="BQ144" s="1"/>
       <c r="BR144" s="1"/>
@@ -17295,16 +17297,16 @@
     </row>
     <row customFormat="1" r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>337</v>
+        <v>134</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C145" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>362</v>
+      <c r="C145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -17380,16 +17382,16 @@
       <c r="BF145" s="1"/>
       <c r="BG145" s="1"/>
       <c r="BH145" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI145" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="BJ145" t="s">
-        <v>341</v>
+        <v>135</v>
+      </c>
+      <c r="BI145" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ145" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="BK145" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="BL145" s="1"/>
       <c r="BM145" s="1"/>
@@ -17403,38 +17405,32 @@
       <c r="BU145" s="1"/>
       <c r="BV145" s="1"/>
       <c r="BW145" s="1"/>
-      <c r="BX145" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BY145" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="BZ145" t="s">
-        <v>343</v>
-      </c>
-      <c r="CA145" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="BX145" s="1"/>
+      <c r="BY145" s="1"/>
+      <c r="BZ145" s="1"/>
+      <c r="CA145" s="1"/>
       <c r="CB145" s="1"/>
       <c r="CC145" s="1"/>
       <c r="CD145" s="1"/>
       <c r="CE145" s="1"/>
       <c r="CF145" s="1"/>
       <c r="CG145" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>461</v>
+        <v>337</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D146" s="1"/>
+      <c r="C146" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>362</v>
+      </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="2" t="s">
@@ -17500,22 +17496,26 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
       <c r="BA146" s="1" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="BB146" s="1"/>
       <c r="BC146" s="1"/>
       <c r="BD146" s="1"/>
       <c r="BE146" s="1"/>
-      <c r="BF146" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG146" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH146" s="1"/>
-      <c r="BI146" s="1"/>
-      <c r="BJ146" s="1"/>
-      <c r="BK146" s="1"/>
+      <c r="BF146" s="1"/>
+      <c r="BG146" s="1"/>
+      <c r="BH146" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI146" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ146" t="s">
+        <v>341</v>
+      </c>
+      <c r="BK146" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="BL146" s="1"/>
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
@@ -17528,32 +17528,38 @@
       <c r="BU146" s="1"/>
       <c r="BV146" s="1"/>
       <c r="BW146" s="1"/>
-      <c r="BX146" s="1"/>
-      <c r="BY146" s="1"/>
-      <c r="BZ146" s="1"/>
-      <c r="CA146" s="1"/>
+      <c r="BX146" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY146" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="BZ146" t="s">
+        <v>343</v>
+      </c>
+      <c r="CA146" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="CB146" s="1"/>
       <c r="CC146" s="1"/>
       <c r="CD146" s="1"/>
       <c r="CE146" s="1"/>
       <c r="CF146" s="1"/>
       <c r="CG146" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>461</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="2" t="s">
@@ -17619,21 +17625,18 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
       <c r="BA147" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB147" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD147" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE147" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF147" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG147" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="BB147" s="1"/>
+      <c r="BC147" s="1"/>
+      <c r="BD147" s="1"/>
+      <c r="BE147" s="1"/>
+      <c r="BF147" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG147" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="BH147" s="1"/>
       <c r="BI147" s="1"/>
       <c r="BJ147" s="1"/>
@@ -17665,7 +17668,7 @@
     </row>
     <row customFormat="1" r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>365</v>
@@ -17741,18 +17744,21 @@
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
       <c r="BA148" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB148" s="1"/>
-      <c r="BC148" s="1"/>
-      <c r="BD148" s="1"/>
-      <c r="BE148" s="1"/>
-      <c r="BF148" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG148" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BB148" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE148" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG148" s="1"/>
       <c r="BH148" s="1"/>
       <c r="BI148" s="1"/>
       <c r="BJ148" s="1"/>
@@ -17784,7 +17790,7 @@
     </row>
     <row customFormat="1" r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>365</v>
@@ -17859,25 +17865,23 @@
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
-      <c r="BA149" s="1"/>
+      <c r="BA149" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB149" s="1"/>
       <c r="BC149" s="1"/>
       <c r="BD149" s="1"/>
       <c r="BE149" s="1"/>
-      <c r="BF149" s="1"/>
-      <c r="BG149" s="1"/>
-      <c r="BH149" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI149" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ149" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK149" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="BF149" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG149" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH149" s="1"/>
+      <c r="BI149" s="1"/>
+      <c r="BJ149" s="1"/>
+      <c r="BK149" s="1"/>
       <c r="BL149" s="1"/>
       <c r="BM149" s="1"/>
       <c r="BN149" s="1"/>
@@ -17905,15 +17909,17 @@
     </row>
     <row customFormat="1" r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D150" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="2" t="s">
@@ -17978,26 +17984,25 @@
       <c r="AX150" s="1"/>
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
-      <c r="BA150" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB150" s="4" t="s">
+      <c r="BA150" s="1"/>
+      <c r="BB150" s="1"/>
+      <c r="BC150" s="1"/>
+      <c r="BD150" s="1"/>
+      <c r="BE150" s="1"/>
+      <c r="BF150" s="1"/>
+      <c r="BG150" s="1"/>
+      <c r="BH150" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI150" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BD150" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE150" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF150" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG150" s="1"/>
-      <c r="BH150" s="1"/>
-      <c r="BI150" s="1"/>
-      <c r="BJ150" s="1"/>
-      <c r="BK150" s="1"/>
+      <c r="BJ150" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK150" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="BL150" s="1"/>
       <c r="BM150" s="1"/>
       <c r="BN150" s="1"/>
@@ -18025,7 +18030,7 @@
     </row>
     <row customFormat="1" r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>365</v>
@@ -18099,18 +18104,21 @@
       <c r="AY151" s="1"/>
       <c r="AZ151" s="1"/>
       <c r="BA151" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB151" s="1"/>
-      <c r="BC151" s="1"/>
-      <c r="BD151" s="1"/>
-      <c r="BE151" s="1"/>
-      <c r="BF151" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG151" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BB151" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE151" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG151" s="1"/>
       <c r="BH151" s="1"/>
       <c r="BI151" s="1"/>
       <c r="BJ151" s="1"/>
@@ -18142,17 +18150,15 @@
     </row>
     <row customFormat="1" r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>392</v>
+        <v>143</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C152" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C152" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="2" t="s">
@@ -18237,9 +18243,7 @@
       <c r="BL152" s="1"/>
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
-      <c r="BO152" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO152" s="1"/>
       <c r="BP152" s="1"/>
       <c r="BQ152" s="1"/>
       <c r="BR152" s="1"/>
@@ -18258,12 +18262,12 @@
       <c r="CE152" s="1"/>
       <c r="CF152" s="1"/>
       <c r="CG152" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>365</v>
@@ -18355,9 +18359,7 @@
       <c r="BI153" s="1"/>
       <c r="BJ153" s="1"/>
       <c r="BK153" s="1"/>
-      <c r="BL153" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="BL153" s="1"/>
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
       <c r="BO153" s="1" t="s">
@@ -18381,12 +18383,12 @@
       <c r="CE153" s="1"/>
       <c r="CF153" s="1"/>
       <c r="CG153" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>365</v>
@@ -18483,7 +18485,9 @@
       </c>
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
-      <c r="BO154" s="1"/>
+      <c r="BO154" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="BP154" s="1"/>
       <c r="BQ154" s="1"/>
       <c r="BR154" s="1"/>
@@ -18502,20 +18506,22 @@
       <c r="CE154" s="1"/>
       <c r="CF154" s="1"/>
       <c r="CG154" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>403</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D155" s="1"/>
+      <c r="C155" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="2" t="s">
@@ -18580,26 +18586,26 @@
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
       <c r="AZ155" s="1"/>
-      <c r="BA155" s="1"/>
+      <c r="BA155" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB155" s="1"/>
       <c r="BC155" s="1"/>
       <c r="BD155" s="1"/>
       <c r="BE155" s="1"/>
-      <c r="BF155" s="1"/>
-      <c r="BG155" s="1"/>
-      <c r="BH155" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI155" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ155" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK155" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BL155" s="1"/>
+      <c r="BF155" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG155" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH155" s="1"/>
+      <c r="BI155" s="1"/>
+      <c r="BJ155" s="1"/>
+      <c r="BK155" s="1"/>
+      <c r="BL155" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
       <c r="BO155" s="1"/>
@@ -18621,26 +18627,22 @@
       <c r="CE155" s="1"/>
       <c r="CF155" s="1"/>
       <c r="CG155" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C156" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C156" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" t="s">
-        <v>3</v>
-      </c>
+      <c r="F156" s="1"/>
       <c r="G156" s="2" t="s">
         <v>53</v>
       </c>
@@ -18672,9 +18674,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
-      <c r="V156" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V156" s="1"/>
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
@@ -18685,19 +18685,13 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
-      <c r="AG156" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG156" s="1"/>
       <c r="AH156" s="1"/>
-      <c r="AI156" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI156" s="1"/>
       <c r="AJ156" s="1"/>
       <c r="AK156" s="1"/>
       <c r="AL156" s="1"/>
-      <c r="AM156" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM156" s="1"/>
       <c r="AN156" s="1"/>
       <c r="AO156" s="1"/>
       <c r="AP156" s="1"/>
@@ -18711,26 +18705,25 @@
       <c r="AX156" s="1"/>
       <c r="AY156" s="1"/>
       <c r="AZ156" s="1"/>
-      <c r="BA156" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB156" s="4" t="s">
+      <c r="BA156" s="1"/>
+      <c r="BB156" s="1"/>
+      <c r="BC156" s="1"/>
+      <c r="BD156" s="1"/>
+      <c r="BE156" s="1"/>
+      <c r="BF156" s="1"/>
+      <c r="BG156" s="1"/>
+      <c r="BH156" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI156" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BD156" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE156" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF156" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG156" s="1"/>
-      <c r="BH156" s="1"/>
-      <c r="BI156" s="1"/>
-      <c r="BJ156" s="1"/>
-      <c r="BK156" s="1"/>
+      <c r="BJ156" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK156" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="BL156" s="1"/>
       <c r="BM156" s="1"/>
       <c r="BN156" s="1"/>
@@ -18758,13 +18751,13 @@
     </row>
     <row customFormat="1" r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>3</v>
@@ -18844,18 +18837,21 @@
       <c r="AY157" s="1"/>
       <c r="AZ157" s="1"/>
       <c r="BA157" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB157" s="1"/>
-      <c r="BC157" s="1"/>
-      <c r="BD157" s="1"/>
-      <c r="BE157" s="1"/>
-      <c r="BF157" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG157" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="BB157" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD157" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE157" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF157" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG157" s="1"/>
       <c r="BH157" s="1"/>
       <c r="BI157" s="1"/>
       <c r="BJ157" s="1"/>
@@ -18887,13 +18883,13 @@
     </row>
     <row customFormat="1" r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>3</v>
@@ -18972,25 +18968,23 @@
       <c r="AX158" s="1"/>
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
-      <c r="BA158" s="1"/>
+      <c r="BA158" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB158" s="1"/>
       <c r="BC158" s="1"/>
       <c r="BD158" s="1"/>
       <c r="BE158" s="1"/>
-      <c r="BF158" s="1"/>
-      <c r="BG158" s="1"/>
-      <c r="BH158" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI158" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ158" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK158" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="BF158" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG158" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH158" s="1"/>
+      <c r="BI158" s="1"/>
+      <c r="BJ158" s="1"/>
+      <c r="BK158" s="1"/>
       <c r="BL158" s="1"/>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
@@ -19018,13 +19012,13 @@
     </row>
     <row customFormat="1" r="159" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>312</v>
+        <v>149</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>3</v>
@@ -19104,15 +19098,24 @@
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
       <c r="BA159" s="1"/>
-      <c r="BB159" s="4"/>
-      <c r="BD159" s="2"/>
-      <c r="BE159" s="3"/>
-      <c r="BF159" s="2"/>
+      <c r="BB159" s="1"/>
+      <c r="BC159" s="1"/>
+      <c r="BD159" s="1"/>
+      <c r="BE159" s="1"/>
+      <c r="BF159" s="1"/>
       <c r="BG159" s="1"/>
-      <c r="BH159" s="1"/>
-      <c r="BI159" s="1"/>
-      <c r="BJ159" s="1"/>
-      <c r="BK159" s="1"/>
+      <c r="BH159" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI159" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ159" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK159" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="BL159" s="1"/>
       <c r="BM159" s="1"/>
       <c r="BN159" s="1"/>
@@ -19139,32 +19142,56 @@
       </c>
     </row>
     <row customFormat="1" r="160" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
-        <v>240</v>
+      <c r="A160" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="C160" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
+      <c r="F160" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
+      <c r="J160" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K160" t="s">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
+      <c r="P160" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
+      <c r="V160" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
@@ -19175,13 +19202,19 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
-      <c r="AG160" s="1"/>
+      <c r="AG160" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH160" s="1"/>
-      <c r="AI160" s="1"/>
+      <c r="AI160" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ160" s="1"/>
       <c r="AK160" s="1"/>
       <c r="AL160" s="1"/>
-      <c r="AM160" s="1"/>
+      <c r="AM160" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN160" s="1"/>
       <c r="AO160" s="1"/>
       <c r="AP160" s="1"/>
@@ -19196,14 +19229,13 @@
       <c r="AY160" s="1"/>
       <c r="AZ160" s="1"/>
       <c r="BA160" s="1"/>
-      <c r="BB160" s="1"/>
-      <c r="BC160" s="1"/>
-      <c r="BD160" s="1"/>
-      <c r="BE160" s="1"/>
-      <c r="BF160" s="1"/>
+      <c r="BB160" s="4"/>
+      <c r="BD160" s="2"/>
+      <c r="BE160" s="3"/>
+      <c r="BF160" s="2"/>
       <c r="BG160" s="1"/>
       <c r="BH160" s="1"/>
-      <c r="BI160" s="11"/>
+      <c r="BI160" s="1"/>
       <c r="BJ160" s="1"/>
       <c r="BK160" s="1"/>
       <c r="BL160" s="1"/>
@@ -19227,66 +19259,36 @@
       <c r="CD160" s="1"/>
       <c r="CE160" s="1"/>
       <c r="CF160" s="1"/>
-      <c r="CG160" s="1"/>
+      <c r="CG160" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row customFormat="1" r="161" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>248</v>
+      <c r="A161" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C161" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M161" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N161" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
       <c r="O161" s="1"/>
-      <c r="P161" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q161" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="R161" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="S161" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="T161" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="U161" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
@@ -19298,9 +19300,7 @@
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
-      <c r="AG161" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="AG161" s="1"/>
       <c r="AH161" s="1"/>
       <c r="AI161" s="1"/>
       <c r="AJ161" s="1"/>
@@ -19320,21 +19320,12 @@
       <c r="AX161" s="1"/>
       <c r="AY161" s="1"/>
       <c r="AZ161" s="1"/>
-      <c r="BA161" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB161" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD161" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE161" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF161" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA161" s="1"/>
+      <c r="BB161" s="1"/>
+      <c r="BC161" s="1"/>
+      <c r="BD161" s="1"/>
+      <c r="BE161" s="1"/>
+      <c r="BF161" s="1"/>
       <c r="BG161" s="1"/>
       <c r="BH161" s="1"/>
       <c r="BI161" s="11"/>
@@ -19360,14 +19351,12 @@
       <c r="CC161" s="1"/>
       <c r="CD161" s="1"/>
       <c r="CE161" s="1"/>
-      <c r="CF161" s="18"/>
-      <c r="CG161" t="s">
-        <v>366</v>
-      </c>
+      <c r="CF161" s="1"/>
+      <c r="CG161" s="1"/>
     </row>
     <row customFormat="1" r="162" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>365</v>
@@ -19381,22 +19370,22 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="M162" s="2" t="s">
         <v>28</v>
@@ -19435,7 +19424,7 @@
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
       <c r="AG162" s="1" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
@@ -19503,7 +19492,7 @@
     </row>
     <row customFormat="1" r="163" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>365</v>
@@ -19516,19 +19505,23 @@
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="1"/>
+      <c r="G163" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I163" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>315</v>
+        <v>382</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="M163" s="2" t="s">
         <v>28</v>
@@ -19567,7 +19560,7 @@
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
       <c r="AG163" s="1" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
@@ -19588,12 +19581,21 @@
       <c r="AX163" s="1"/>
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
-      <c r="BA163" s="1"/>
-      <c r="BB163" s="1"/>
-      <c r="BC163" s="12"/>
-      <c r="BD163" s="1"/>
-      <c r="BE163" s="1"/>
-      <c r="BF163" s="1"/>
+      <c r="BA163" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB163" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD163" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE163" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF163" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG163" s="1"/>
       <c r="BH163" s="1"/>
       <c r="BI163" s="11"/>
@@ -19626,44 +19628,38 @@
     </row>
     <row customFormat="1" r="164" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>462</v>
+        <v>385</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E164" s="3"/>
-      <c r="F164" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="1"/>
       <c r="I164" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>371</v>
+        <v>235</v>
       </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1" t="s">
@@ -19696,7 +19692,7 @@
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
       <c r="AG164" s="1" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
@@ -19754,20 +19750,22 @@
       </c>
     </row>
     <row customFormat="1" r="165" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
-        <v>252</v>
+      <c r="A165" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
+      <c r="F165" s="3" t="s">
+        <v>362</v>
+      </c>
       <c r="G165" s="3" t="s">
         <v>241</v>
       </c>
@@ -19778,19 +19776,19 @@
         <v>431</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>235</v>
+        <v>371</v>
       </c>
       <c r="O165" s="1"/>
       <c r="P165" s="1" t="s">
@@ -19823,7 +19821,7 @@
       <c r="AE165" s="1"/>
       <c r="AF165" s="1"/>
       <c r="AG165" s="1" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="AH165" s="1"/>
       <c r="AI165" s="1"/>
@@ -19844,21 +19842,12 @@
       <c r="AX165" s="1"/>
       <c r="AY165" s="1"/>
       <c r="AZ165" s="1"/>
-      <c r="BA165" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB165" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD165" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE165" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF165" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA165" s="1"/>
+      <c r="BB165" s="1"/>
+      <c r="BC165" s="12"/>
+      <c r="BD165" s="1"/>
+      <c r="BE165" s="1"/>
+      <c r="BF165" s="1"/>
       <c r="BG165" s="1"/>
       <c r="BH165" s="1"/>
       <c r="BI165" s="11"/>
@@ -19891,7 +19880,7 @@
     </row>
     <row customFormat="1" r="166" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>365</v>
@@ -19904,8 +19893,12 @@
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="1"/>
+      <c r="G166" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="I166" s="1" t="s">
         <v>431</v>
       </c>
@@ -20023,7 +20016,7 @@
     </row>
     <row customFormat="1" r="167" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>365</v>
@@ -20155,38 +20148,32 @@
     </row>
     <row customFormat="1" r="168" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>463</v>
+        <v>385</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E168" s="3"/>
-      <c r="F168" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="1"/>
       <c r="I168" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>28</v>
@@ -20225,7 +20212,7 @@
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
       <c r="AG168" s="1" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
@@ -20277,14 +20264,14 @@
       <c r="BT168" s="1"/>
       <c r="BU168" s="1"/>
       <c r="BV168" s="1"/>
-      <c r="BW168" s="12"/>
-      <c r="BX168" s="12"/>
-      <c r="BY168" s="12"/>
-      <c r="BZ168" s="12"/>
-      <c r="CA168" s="12"/>
-      <c r="CB168" s="12"/>
-      <c r="CC168" s="12"/>
-      <c r="CD168" s="12"/>
+      <c r="BW168" s="1"/>
+      <c r="BX168" s="1"/>
+      <c r="BY168" s="1"/>
+      <c r="BZ168" s="1"/>
+      <c r="CA168" s="1"/>
+      <c r="CB168" s="1"/>
+      <c r="CC168" s="1"/>
+      <c r="CD168" s="1"/>
       <c r="CE168" s="1"/>
       <c r="CF168" s="18"/>
       <c r="CG168" t="s">
@@ -20293,40 +20280,64 @@
     </row>
     <row customFormat="1" r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C169" s="11" t="s">
-        <v>2</v>
+      <c r="C169" s="28" t="s">
+        <v>463</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
+      <c r="F169" s="11" t="s">
+        <v>362</v>
+      </c>
       <c r="G169" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>59</v>
+        <v>241</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J169" s="1"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="1"/>
+      <c r="J169" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="11"/>
-      <c r="R169" s="10"/>
-      <c r="S169" s="10"/>
-      <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
+      <c r="P169" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q169" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R169" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="S169" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
@@ -20338,7 +20349,9 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
-      <c r="AG169" s="1"/>
+      <c r="AG169" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
       <c r="AJ169" s="1"/>
@@ -20358,18 +20371,24 @@
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
       <c r="AZ169" s="1"/>
-      <c r="BA169" s="1"/>
-      <c r="BB169" s="4"/>
-      <c r="BD169" s="2"/>
-      <c r="BE169" s="3"/>
-      <c r="BF169" s="2"/>
+      <c r="BA169" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB169" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD169" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE169" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF169" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG169" s="1"/>
-      <c r="BH169" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BI169" s="11" t="s">
-        <v>352</v>
-      </c>
+      <c r="BH169" s="1"/>
+      <c r="BI169" s="11"/>
       <c r="BJ169" s="1"/>
       <c r="BK169" s="1"/>
       <c r="BL169" s="1"/>
@@ -20394,21 +20413,21 @@
       <c r="CE169" s="1"/>
       <c r="CF169" s="18"/>
       <c r="CG169" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C170" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="D170" s="28" t="s">
-        <v>389</v>
+      <c r="C170" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -20421,28 +20440,16 @@
       <c r="I170" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K170" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M170" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N170" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J170" s="1"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="1"/>
       <c r="O170" s="1"/>
-      <c r="P170" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="P170" s="1"/>
       <c r="Q170" s="11"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
+      <c r="R170" s="10"/>
+      <c r="S170" s="10"/>
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
       <c r="V170" s="1"/>
@@ -20476,9 +20483,7 @@
       <c r="AX170" s="1"/>
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
-      <c r="BA170" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BA170" s="1"/>
       <c r="BB170" s="4"/>
       <c r="BD170" s="2"/>
       <c r="BE170" s="3"/>
@@ -20488,14 +20493,10 @@
         <v>286</v>
       </c>
       <c r="BI170" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="BJ170" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="BK170" s="1" t="s">
-        <v>353</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="BJ170" s="1"/>
+      <c r="BK170" s="1"/>
       <c r="BL170" s="1"/>
       <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
@@ -20521,9 +20522,9 @@
         <v>364</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="171" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="171" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>365</v>
@@ -20536,39 +20537,39 @@
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
+      <c r="G171" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I171" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="M171" s="2"/>
-      <c r="N171" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="R171" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="S171" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="T171" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="U171" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="P171" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
@@ -20580,9 +20581,7 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
-      <c r="AG171" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="AG171" s="1"/>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
@@ -20602,20 +20601,28 @@
       <c r="AX171" s="1"/>
       <c r="AY171" s="1"/>
       <c r="AZ171" s="1"/>
-      <c r="BA171" s="1"/>
+      <c r="BA171" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BB171" s="4"/>
       <c r="BD171" s="2"/>
       <c r="BE171" s="3"/>
       <c r="BF171" s="2"/>
       <c r="BG171" s="1"/>
-      <c r="BH171" s="1"/>
-      <c r="BI171" s="11"/>
-      <c r="BJ171" s="1"/>
-      <c r="BK171" s="1"/>
+      <c r="BH171" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BI171" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="BJ171" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BK171" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="BL171" s="1"/>
-      <c r="BM171" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="BM171" s="1"/>
       <c r="BN171" s="1"/>
       <c r="BO171" s="1"/>
       <c r="BP171" s="1"/>
@@ -20640,51 +20647,53 @@
       </c>
     </row>
     <row customFormat="1" ht="30" r="172" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>437</v>
+      <c r="A172" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I172" s="1"/>
+      <c r="C172" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="J172" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K172" t="s">
-        <v>1</v>
+        <v>292</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M172" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" s="1"/>
       <c r="O172" s="1"/>
-      <c r="P172" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="R172" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="S172" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
@@ -20696,7 +20705,9 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
-      <c r="AG172" s="1"/>
+      <c r="AG172" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AH172" s="1"/>
       <c r="AI172" s="1"/>
       <c r="AJ172" s="1"/>
@@ -20716,25 +20727,20 @@
       <c r="AX172" s="1"/>
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
-      <c r="BA172" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="BB172" s="1"/>
-      <c r="BC172" s="1"/>
-      <c r="BD172" s="1"/>
-      <c r="BE172" s="1"/>
-      <c r="BF172" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BG172" s="4" t="s">
-        <v>440</v>
-      </c>
+      <c r="BA172" s="1"/>
+      <c r="BB172" s="4"/>
+      <c r="BD172" s="2"/>
+      <c r="BE172" s="3"/>
+      <c r="BF172" s="2"/>
+      <c r="BG172" s="1"/>
       <c r="BH172" s="1"/>
-      <c r="BI172" s="1"/>
+      <c r="BI172" s="11"/>
       <c r="BJ172" s="1"/>
       <c r="BK172" s="1"/>
       <c r="BL172" s="1"/>
-      <c r="BM172" s="1"/>
+      <c r="BM172" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="BN172" s="1"/>
       <c r="BO172" s="1"/>
       <c r="BP172" s="1"/>
@@ -20744,23 +20750,23 @@
       <c r="BT172" s="1"/>
       <c r="BU172" s="1"/>
       <c r="BV172" s="1"/>
-      <c r="BW172" s="1"/>
-      <c r="BX172" s="1"/>
-      <c r="BY172" s="1"/>
-      <c r="BZ172" s="1"/>
-      <c r="CA172" s="1"/>
-      <c r="CB172" s="1"/>
-      <c r="CC172" s="1"/>
-      <c r="CD172" s="1"/>
+      <c r="BW172" s="12"/>
+      <c r="BX172" s="12"/>
+      <c r="BY172" s="12"/>
+      <c r="BZ172" s="12"/>
+      <c r="CA172" s="12"/>
+      <c r="CB172" s="12"/>
+      <c r="CC172" s="12"/>
+      <c r="CD172" s="12"/>
       <c r="CE172" s="1"/>
-      <c r="CF172" s="1"/>
+      <c r="CF172" s="18"/>
       <c r="CG172" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="173" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>365</v>
@@ -20843,7 +20849,7 @@
       <c r="BD173" s="1"/>
       <c r="BE173" s="1"/>
       <c r="BF173" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="BG173" s="4" t="s">
         <v>440</v>
@@ -20879,7 +20885,7 @@
     </row>
     <row customFormat="1" ht="30" r="174" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>365</v>
@@ -20962,7 +20968,7 @@
       <c r="BD174" s="1"/>
       <c r="BE174" s="1"/>
       <c r="BF174" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BG174" s="4" t="s">
         <v>440</v>
@@ -20996,9 +21002,9 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" r="175" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="175" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>365</v>
@@ -21081,7 +21087,7 @@
       <c r="BD175" s="1"/>
       <c r="BE175" s="1"/>
       <c r="BF175" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BG175" s="4" t="s">
         <v>440</v>
@@ -21117,7 +21123,7 @@
     </row>
     <row customFormat="1" r="176" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>365</v>
@@ -21200,7 +21206,7 @@
       <c r="BD176" s="1"/>
       <c r="BE176" s="1"/>
       <c r="BF176" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="BG176" s="4" t="s">
         <v>440</v>
@@ -21236,7 +21242,7 @@
     </row>
     <row customFormat="1" r="177" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>365</v>
@@ -21319,7 +21325,7 @@
       <c r="BD177" s="1"/>
       <c r="BE177" s="1"/>
       <c r="BF177" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="BG177" s="4" t="s">
         <v>440</v>
@@ -21353,17 +21359,19 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="178" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="178" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D178" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="2" t="s">
@@ -21436,7 +21444,7 @@
       <c r="BD178" s="1"/>
       <c r="BE178" s="1"/>
       <c r="BF178" s="1" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="BG178" s="4" t="s">
         <v>440</v>
@@ -21472,7 +21480,7 @@
     </row>
     <row customFormat="1" ht="30" r="179" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>365</v>
@@ -21553,7 +21561,7 @@
       <c r="BD179" s="1"/>
       <c r="BE179" s="1"/>
       <c r="BF179" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="BG179" s="4" t="s">
         <v>440</v>
@@ -21589,7 +21597,7 @@
     </row>
     <row customFormat="1" ht="30" r="180" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>365</v>
@@ -21670,7 +21678,7 @@
       <c r="BD180" s="1"/>
       <c r="BE180" s="1"/>
       <c r="BF180" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BG180" s="4" t="s">
         <v>440</v>
@@ -21704,9 +21712,9 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" r="181" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="181" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>365</v>
@@ -21787,7 +21795,7 @@
       <c r="BD181" s="1"/>
       <c r="BE181" s="1"/>
       <c r="BF181" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BG181" s="4" t="s">
         <v>440</v>
@@ -21823,7 +21831,7 @@
     </row>
     <row customFormat="1" r="182" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>365</v>
@@ -21904,7 +21912,7 @@
       <c r="BD182" s="1"/>
       <c r="BE182" s="1"/>
       <c r="BF182" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="BG182" s="4" t="s">
         <v>440</v>
@@ -21940,7 +21948,7 @@
     </row>
     <row customFormat="1" r="183" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>365</v>
@@ -22021,7 +22029,7 @@
       <c r="BD183" s="1"/>
       <c r="BE183" s="1"/>
       <c r="BF183" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="BG183" s="4" t="s">
         <v>440</v>
@@ -22052,22 +22060,20 @@
       <c r="CE183" s="1"/>
       <c r="CF183" s="1"/>
       <c r="CG183" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="184" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="2" t="s">
@@ -22139,8 +22145,12 @@
       <c r="BC184" s="1"/>
       <c r="BD184" s="1"/>
       <c r="BE184" s="1"/>
-      <c r="BF184" s="1"/>
-      <c r="BG184" s="4"/>
+      <c r="BF184" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BG184" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="BH184" s="1"/>
       <c r="BI184" s="1"/>
       <c r="BJ184" s="1"/>
@@ -22167,20 +22177,22 @@
       <c r="CE184" s="1"/>
       <c r="CF184" s="1"/>
       <c r="CG184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="185" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D185" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="2" t="s">
@@ -22252,9 +22264,7 @@
       <c r="BC185" s="1"/>
       <c r="BD185" s="1"/>
       <c r="BE185" s="1"/>
-      <c r="BF185" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BF185" s="1"/>
       <c r="BG185" s="4"/>
       <c r="BH185" s="1"/>
       <c r="BI185" s="1"/>
@@ -22286,22 +22296,44 @@
       </c>
     </row>
     <row customFormat="1" r="186" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="A186" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
+      <c r="G186" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
+      <c r="J186" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
+      <c r="P186" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
@@ -22338,15 +22370,19 @@
       <c r="AX186" s="1"/>
       <c r="AY186" s="1"/>
       <c r="AZ186" s="1"/>
-      <c r="BA186" s="1"/>
+      <c r="BA186" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="BB186" s="1"/>
       <c r="BC186" s="1"/>
       <c r="BD186" s="1"/>
       <c r="BE186" s="1"/>
-      <c r="BF186" s="1"/>
-      <c r="BG186" s="1"/>
+      <c r="BF186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG186" s="4"/>
       <c r="BH186" s="1"/>
-      <c r="BI186" s="11"/>
+      <c r="BI186" s="1"/>
       <c r="BJ186" s="1"/>
       <c r="BK186" s="1"/>
       <c r="BL186" s="1"/>
@@ -22370,7 +22406,9 @@
       <c r="CD186" s="1"/>
       <c r="CE186" s="1"/>
       <c r="CF186" s="1"/>
-      <c r="CG186" s="1"/>
+      <c r="CG186" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row customFormat="1" r="187" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
@@ -22549,7 +22587,7 @@
     <row customFormat="1" r="189" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="11"/>
+      <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -24374,91 +24412,91 @@
       <c r="CG209" s="1"/>
     </row>
     <row customFormat="1" r="210" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
-      <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
-      <c r="Z210" s="2"/>
-      <c r="AA210" s="2"/>
-      <c r="AB210" s="2"/>
-      <c r="AC210" s="2"/>
-      <c r="AD210" s="2"/>
-      <c r="AE210" s="2"/>
-      <c r="AF210" s="2"/>
-      <c r="AG210" s="2"/>
-      <c r="AH210" s="2"/>
-      <c r="AI210" s="2"/>
-      <c r="AJ210" s="2"/>
-      <c r="AK210" s="2"/>
-      <c r="AL210" s="2"/>
-      <c r="AM210" s="2"/>
-      <c r="AN210" s="2"/>
-      <c r="AO210" s="2"/>
-      <c r="AP210" s="2"/>
-      <c r="AQ210" s="2"/>
-      <c r="AR210" s="2"/>
-      <c r="AS210" s="2"/>
-      <c r="AT210" s="2"/>
-      <c r="AU210" s="2"/>
-      <c r="AV210" s="2"/>
-      <c r="AW210" s="2"/>
-      <c r="AX210" s="2"/>
-      <c r="AY210" s="2"/>
-      <c r="AZ210" s="2"/>
-      <c r="BA210" s="2"/>
-      <c r="BB210" s="2"/>
-      <c r="BC210" s="2"/>
-      <c r="BD210" s="2"/>
-      <c r="BE210" s="2"/>
-      <c r="BF210" s="2"/>
-      <c r="BG210" s="2"/>
-      <c r="BH210" s="2"/>
-      <c r="BI210" s="3"/>
-      <c r="BJ210" s="2"/>
-      <c r="BK210" s="2"/>
-      <c r="BL210" s="2"/>
-      <c r="BM210" s="2"/>
-      <c r="BN210" s="2"/>
-      <c r="BO210" s="2"/>
-      <c r="BP210" s="2"/>
-      <c r="BQ210" s="2"/>
-      <c r="BR210" s="2"/>
-      <c r="BS210" s="2"/>
-      <c r="BT210" s="2"/>
-      <c r="BU210" s="2"/>
-      <c r="BV210" s="2"/>
-      <c r="BW210" s="2"/>
-      <c r="BX210" s="2"/>
-      <c r="BY210" s="2"/>
-      <c r="BZ210" s="2"/>
-      <c r="CA210" s="2"/>
-      <c r="CB210" s="2"/>
-      <c r="CC210" s="2"/>
-      <c r="CD210" s="2"/>
-      <c r="CE210" s="2"/>
-      <c r="CF210" s="2"/>
-      <c r="CG210" s="2"/>
+      <c r="A210" s="7"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
+      <c r="Y210" s="1"/>
+      <c r="Z210" s="1"/>
+      <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
+      <c r="AC210" s="1"/>
+      <c r="AD210" s="1"/>
+      <c r="AE210" s="1"/>
+      <c r="AF210" s="1"/>
+      <c r="AG210" s="1"/>
+      <c r="AH210" s="1"/>
+      <c r="AI210" s="1"/>
+      <c r="AJ210" s="1"/>
+      <c r="AK210" s="1"/>
+      <c r="AL210" s="1"/>
+      <c r="AM210" s="1"/>
+      <c r="AN210" s="1"/>
+      <c r="AO210" s="1"/>
+      <c r="AP210" s="1"/>
+      <c r="AQ210" s="1"/>
+      <c r="AR210" s="1"/>
+      <c r="AS210" s="1"/>
+      <c r="AT210" s="1"/>
+      <c r="AU210" s="1"/>
+      <c r="AV210" s="1"/>
+      <c r="AW210" s="1"/>
+      <c r="AX210" s="1"/>
+      <c r="AY210" s="1"/>
+      <c r="AZ210" s="1"/>
+      <c r="BA210" s="1"/>
+      <c r="BB210" s="1"/>
+      <c r="BC210" s="1"/>
+      <c r="BD210" s="1"/>
+      <c r="BE210" s="1"/>
+      <c r="BF210" s="1"/>
+      <c r="BG210" s="1"/>
+      <c r="BH210" s="1"/>
+      <c r="BI210" s="11"/>
+      <c r="BJ210" s="1"/>
+      <c r="BK210" s="1"/>
+      <c r="BL210" s="1"/>
+      <c r="BM210" s="1"/>
+      <c r="BN210" s="1"/>
+      <c r="BO210" s="1"/>
+      <c r="BP210" s="1"/>
+      <c r="BQ210" s="1"/>
+      <c r="BR210" s="1"/>
+      <c r="BS210" s="1"/>
+      <c r="BT210" s="1"/>
+      <c r="BU210" s="1"/>
+      <c r="BV210" s="1"/>
+      <c r="BW210" s="1"/>
+      <c r="BX210" s="1"/>
+      <c r="BY210" s="1"/>
+      <c r="BZ210" s="1"/>
+      <c r="CA210" s="1"/>
+      <c r="CB210" s="1"/>
+      <c r="CC210" s="1"/>
+      <c r="CD210" s="1"/>
+      <c r="CE210" s="1"/>
+      <c r="CF210" s="1"/>
+      <c r="CG210" s="1"/>
     </row>
     <row customFormat="1" r="211" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
@@ -29855,7 +29893,7 @@
       <c r="CG272" s="2"/>
     </row>
     <row customFormat="1" r="273" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
+      <c r="A273" s="8"/>
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
       <c r="D273" s="2"/>
@@ -30725,8 +30763,95 @@
       <c r="CG282" s="2"/>
     </row>
     <row customFormat="1" r="283" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="C283" s="14"/>
-      <c r="BI283" s="14"/>
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+      <c r="M283" s="2"/>
+      <c r="N283" s="2"/>
+      <c r="O283" s="2"/>
+      <c r="P283" s="2"/>
+      <c r="Q283" s="2"/>
+      <c r="R283" s="2"/>
+      <c r="S283" s="2"/>
+      <c r="T283" s="2"/>
+      <c r="U283" s="2"/>
+      <c r="V283" s="2"/>
+      <c r="W283" s="2"/>
+      <c r="X283" s="2"/>
+      <c r="Y283" s="2"/>
+      <c r="Z283" s="2"/>
+      <c r="AA283" s="2"/>
+      <c r="AB283" s="2"/>
+      <c r="AC283" s="2"/>
+      <c r="AD283" s="2"/>
+      <c r="AE283" s="2"/>
+      <c r="AF283" s="2"/>
+      <c r="AG283" s="2"/>
+      <c r="AH283" s="2"/>
+      <c r="AI283" s="2"/>
+      <c r="AJ283" s="2"/>
+      <c r="AK283" s="2"/>
+      <c r="AL283" s="2"/>
+      <c r="AM283" s="2"/>
+      <c r="AN283" s="2"/>
+      <c r="AO283" s="2"/>
+      <c r="AP283" s="2"/>
+      <c r="AQ283" s="2"/>
+      <c r="AR283" s="2"/>
+      <c r="AS283" s="2"/>
+      <c r="AT283" s="2"/>
+      <c r="AU283" s="2"/>
+      <c r="AV283" s="2"/>
+      <c r="AW283" s="2"/>
+      <c r="AX283" s="2"/>
+      <c r="AY283" s="2"/>
+      <c r="AZ283" s="2"/>
+      <c r="BA283" s="2"/>
+      <c r="BB283" s="2"/>
+      <c r="BC283" s="2"/>
+      <c r="BD283" s="2"/>
+      <c r="BE283" s="2"/>
+      <c r="BF283" s="2"/>
+      <c r="BG283" s="2"/>
+      <c r="BH283" s="2"/>
+      <c r="BI283" s="3"/>
+      <c r="BJ283" s="2"/>
+      <c r="BK283" s="2"/>
+      <c r="BL283" s="2"/>
+      <c r="BM283" s="2"/>
+      <c r="BN283" s="2"/>
+      <c r="BO283" s="2"/>
+      <c r="BP283" s="2"/>
+      <c r="BQ283" s="2"/>
+      <c r="BR283" s="2"/>
+      <c r="BS283" s="2"/>
+      <c r="BT283" s="2"/>
+      <c r="BU283" s="2"/>
+      <c r="BV283" s="2"/>
+      <c r="BW283" s="2"/>
+      <c r="BX283" s="2"/>
+      <c r="BY283" s="2"/>
+      <c r="BZ283" s="2"/>
+      <c r="CA283" s="2"/>
+      <c r="CB283" s="2"/>
+      <c r="CC283" s="2"/>
+      <c r="CD283" s="2"/>
+      <c r="CE283" s="2"/>
+      <c r="CF283" s="2"/>
+      <c r="CG283" s="2"/>
+    </row>
+    <row customFormat="1" r="284" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="C284" s="14"/>
+      <c r="BI284" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -30750,7 +30875,7 @@
     <hyperlink r:id="rId18" ref="C73"/>
     <hyperlink r:id="rId19" ref="C25"/>
     <hyperlink r:id="rId20" ref="C11"/>
-    <hyperlink r:id="rId21" ref="C164"/>
+    <hyperlink r:id="rId21" ref="C165"/>
     <hyperlink r:id="rId22" ref="C79"/>
     <hyperlink display="Ankit@12345" r:id="rId23" ref="AU79"/>
     <hyperlink r:id="rId24" ref="C77"/>
@@ -30762,33 +30887,33 @@
     <hyperlink r:id="rId30" ref="C96"/>
     <hyperlink r:id="rId31" ref="C92"/>
     <hyperlink r:id="rId32" ref="C95"/>
-    <hyperlink r:id="rId33" ref="C145"/>
-    <hyperlink display="Deepika@1234" r:id="rId34" ref="D145"/>
-    <hyperlink r:id="rId35" ref="C156"/>
-    <hyperlink r:id="rId36" ref="C157"/>
-    <hyperlink r:id="rId37" ref="C158"/>
-    <hyperlink r:id="rId38" ref="C159"/>
-    <hyperlink r:id="rId39" ref="C161"/>
-    <hyperlink r:id="rId40" ref="C168"/>
-    <hyperlink r:id="rId41" ref="C170"/>
-    <hyperlink r:id="rId42" ref="C171"/>
-    <hyperlink r:id="rId43" ref="D170"/>
-    <hyperlink r:id="rId44" ref="D171"/>
+    <hyperlink r:id="rId33" ref="C146"/>
+    <hyperlink display="Deepika@1234" r:id="rId34" ref="D146"/>
+    <hyperlink r:id="rId35" ref="C157"/>
+    <hyperlink r:id="rId36" ref="C158"/>
+    <hyperlink r:id="rId37" ref="C159"/>
+    <hyperlink r:id="rId38" ref="C160"/>
+    <hyperlink r:id="rId39" ref="C162"/>
+    <hyperlink r:id="rId40" ref="C169"/>
+    <hyperlink r:id="rId41" ref="C171"/>
+    <hyperlink r:id="rId42" ref="C172"/>
+    <hyperlink r:id="rId43" ref="D171"/>
+    <hyperlink r:id="rId44" ref="D172"/>
     <hyperlink r:id="rId45" ref="C54"/>
-    <hyperlink r:id="rId46" ref="C152"/>
-    <hyperlink r:id="rId47" ref="C153"/>
-    <hyperlink r:id="rId48" ref="C154"/>
-    <hyperlink r:id="rId49" ref="C140"/>
-    <hyperlink r:id="rId50" ref="C141"/>
-    <hyperlink r:id="rId51" ref="AM131"/>
-    <hyperlink r:id="rId52" ref="C162"/>
-    <hyperlink r:id="rId53" ref="C163"/>
-    <hyperlink r:id="rId54" ref="C165"/>
-    <hyperlink r:id="rId55" ref="C166"/>
-    <hyperlink r:id="rId56" ref="C167"/>
+    <hyperlink r:id="rId46" ref="C153"/>
+    <hyperlink r:id="rId47" ref="C154"/>
+    <hyperlink r:id="rId48" ref="C155"/>
+    <hyperlink r:id="rId49" ref="C141"/>
+    <hyperlink r:id="rId50" ref="C142"/>
+    <hyperlink r:id="rId51" ref="AM132"/>
+    <hyperlink r:id="rId52" ref="C163"/>
+    <hyperlink r:id="rId53" ref="C164"/>
+    <hyperlink r:id="rId54" ref="C166"/>
+    <hyperlink r:id="rId55" ref="C167"/>
+    <hyperlink r:id="rId56" ref="C168"/>
     <hyperlink r:id="rId57" ref="C111"/>
     <hyperlink display="Ankit@12345" r:id="rId58" ref="D79"/>
-    <hyperlink r:id="rId59" ref="C136"/>
+    <hyperlink r:id="rId59" ref="C137"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId60"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="5985" windowWidth="13020" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="5715" windowWidth="12900" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
     <sheet name="Dependencies" r:id="rId2" sheetId="6"/>
     <sheet name="updates" r:id="rId3" sheetId="7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="480">
   <si>
     <t>Ankit</t>
   </si>
@@ -1436,6 +1436,27 @@
   </si>
   <si>
     <t>BRANDS</t>
+  </si>
+  <si>
+    <t>SS_PLP_Verify_L2L3_Refinements_Functionality</t>
+  </si>
+  <si>
+    <t>WOMEN</t>
+  </si>
+  <si>
+    <t>WESTERNWEAR</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>Capris &amp; Shorts</t>
+  </si>
+  <si>
+    <t>SS_PLP_Verify_L2L3_Double_Functionality</t>
+  </si>
+  <si>
+    <t>Relevance,Popular,New,Discount,Price : Low,High</t>
   </si>
 </sst>
 </file>
@@ -2059,13 +2080,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH284"/>
+  <dimension ref="A1:CH286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B113" xSplit="1" ySplit="1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="H29" xSplit="1" ySplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="A117" pane="bottomRight" sqref="A117"/>
+      <selection activeCell="A35" pane="bottomRight" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4967,7 +4988,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="30" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
@@ -4984,7 +5005,9 @@
       <c r="H30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5769,7 +5792,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>345</v>
       </c>
@@ -5870,9 +5893,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>75</v>
+        <v>473</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>365</v>
@@ -5882,10 +5905,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>474</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>59</v>
+        <v>475</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -5907,8 +5930,12 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
+      <c r="AC39" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -5967,9 +5994,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>76</v>
+        <v>478</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>365</v>
@@ -5979,10 +6006,10 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>53</v>
+        <v>474</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>59</v>
+        <v>475</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -6004,8 +6031,12 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
+      <c r="AC40" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
@@ -6061,12 +6092,12 @@
       <c r="CE40" s="1"/>
       <c r="CF40" s="18"/>
       <c r="CG40" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="41" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>365</v>
@@ -6158,12 +6189,12 @@
       <c r="CE41" s="1"/>
       <c r="CF41" s="18"/>
       <c r="CG41" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="42" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>365</v>
@@ -6192,24 +6223,12 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -6270,9 +6289,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>365</v>
@@ -6285,7 +6304,7 @@
         <v>53</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>469</v>
+        <v>59</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -6307,15 +6326,9 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AD43" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>391</v>
-      </c>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -6370,12 +6383,12 @@
       <c r="CE43" s="1"/>
       <c r="CF43" s="18"/>
       <c r="CG43" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="44" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>365</v>
@@ -6404,12 +6417,24 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
+      <c r="W44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6470,9 +6495,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>365</v>
@@ -6485,7 +6510,7 @@
         <v>53</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>59</v>
+        <v>469</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -6507,9 +6532,15 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
+      <c r="AC45" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
@@ -6564,22 +6595,18 @@
       <c r="CE45" s="1"/>
       <c r="CF45" s="18"/>
       <c r="CG45" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="46" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -6665,22 +6692,18 @@
       <c r="CE46" s="1"/>
       <c r="CF46" s="18"/>
       <c r="CG46" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="47" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -6766,22 +6789,30 @@
       <c r="CE47" s="1"/>
       <c r="CF47" s="18"/>
       <c r="CG47" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>84</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="48" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="1"/>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -6858,24 +6889,30 @@
       <c r="CD48" s="1"/>
       <c r="CE48" s="1"/>
       <c r="CF48" s="18"/>
-      <c r="CG48" s="2"/>
-    </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="49" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="1"/>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>433</v>
+        <v>59</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -6954,30 +6991,22 @@
       <c r="CE49" s="1"/>
       <c r="CF49" s="18"/>
       <c r="CG49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>86</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="50" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>433</v>
-      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -7054,23 +7083,17 @@
       <c r="CD50" s="1"/>
       <c r="CE50" s="1"/>
       <c r="CF50" s="18"/>
-      <c r="CG50" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG50" s="2"/>
+    </row>
+    <row customFormat="1" r="51" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -7159,14 +7182,14 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>347</v>
+        <v>86</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -7256,20 +7279,22 @@
       <c r="CD52" s="1"/>
       <c r="CE52" s="1"/>
       <c r="CF52" s="18"/>
-      <c r="CG52" s="2"/>
-    </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="53" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>6</v>
+      <c r="C53" t="s">
+        <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -7359,14 +7384,14 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>89</v>
+        <v>347</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -7456,26 +7481,28 @@
       <c r="CD54" s="1"/>
       <c r="CE54" s="1"/>
       <c r="CF54" s="18"/>
-      <c r="CG54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG54" s="2"/>
+    </row>
+    <row customFormat="1" r="55" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>459</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -7557,15 +7584,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
@@ -7654,26 +7685,22 @@
         <v>366</v>
       </c>
     </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>348</v>
+        <v>459</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -7751,21 +7778,19 @@
       <c r="CD57" s="1"/>
       <c r="CE57" s="1"/>
       <c r="CF57" s="18"/>
-      <c r="CG57" s="2"/>
-    </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="58" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
@@ -7829,14 +7854,10 @@
       <c r="BI58" s="11"/>
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
-      <c r="BL58" s="11" t="s">
-        <v>274</v>
-      </c>
+      <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
       <c r="BN58" s="1"/>
-      <c r="BO58" s="11" t="s">
-        <v>275</v>
-      </c>
+      <c r="BO58" s="1"/>
       <c r="BP58" s="1"/>
       <c r="BQ58" s="1"/>
       <c r="BR58" s="1"/>
@@ -7855,17 +7876,17 @@
       <c r="CE58" s="1"/>
       <c r="CF58" s="18"/>
       <c r="CG58" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="59" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>92</v>
+        <v>348</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -7890,9 +7911,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
@@ -7957,19 +7976,21 @@
       <c r="CD59" s="1"/>
       <c r="CE59" s="1"/>
       <c r="CF59" s="18"/>
-      <c r="CG59" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG59" s="2"/>
+    </row>
+    <row customFormat="1" r="60" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="1"/>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
@@ -7979,9 +8000,7 @@
         <v>433</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -8004,9 +8023,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
-      <c r="AG60" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
@@ -8037,25 +8054,21 @@
       <c r="BI60" s="11"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
-      <c r="BL60" s="1"/>
+      <c r="BL60" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
-      <c r="BO60" s="1"/>
+      <c r="BO60" s="11" t="s">
+        <v>275</v>
+      </c>
       <c r="BP60" s="1"/>
       <c r="BQ60" s="1"/>
       <c r="BR60" s="1"/>
-      <c r="BS60" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BT60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU60" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BV60" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="BS60" s="1"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="1"/>
       <c r="BW60" s="1"/>
       <c r="BX60" s="1"/>
       <c r="BY60" s="1"/>
@@ -8067,18 +8080,22 @@
       <c r="CE60" s="1"/>
       <c r="CF60" s="18"/>
       <c r="CG60" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="61" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="1"/>
+      <c r="C61" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -8088,9 +8105,7 @@
         <v>433</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -8100,7 +8115,9 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
+      <c r="T61" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
@@ -8113,9 +8130,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AG61" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
@@ -8153,18 +8168,10 @@
       <c r="BP61" s="1"/>
       <c r="BQ61" s="1"/>
       <c r="BR61" s="1"/>
-      <c r="BS61" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BT61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV61" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BS61" s="1"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="1"/>
+      <c r="BV61" s="1"/>
       <c r="BW61" s="1"/>
       <c r="BX61" s="1"/>
       <c r="BY61" s="1"/>
@@ -8179,19 +8186,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -8201,15 +8204,15 @@
         <v>433</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -8226,10 +8229,10 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="AG62" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
@@ -8261,17 +8264,23 @@
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
       <c r="BM62" s="1"/>
-      <c r="BN62" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="BN62" s="1"/>
       <c r="BO62" s="1"/>
       <c r="BP62" s="1"/>
       <c r="BQ62" s="1"/>
       <c r="BR62" s="1"/>
-      <c r="BS62" s="1"/>
-      <c r="BT62" s="1"/>
-      <c r="BU62" s="1"/>
-      <c r="BV62" s="1"/>
+      <c r="BS62" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BT62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU62" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BV62" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="BW62" s="1"/>
       <c r="BX62" s="1"/>
       <c r="BY62" s="1"/>
@@ -8286,19 +8295,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -8308,7 +8313,9 @@
         <v>433</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -8331,7 +8338,9 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
+      <c r="AG63" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
@@ -8365,16 +8374,22 @@
       <c r="BL63" s="1"/>
       <c r="BM63" s="1"/>
       <c r="BN63" s="1"/>
-      <c r="BO63" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BO63" s="1"/>
       <c r="BP63" s="1"/>
       <c r="BQ63" s="1"/>
       <c r="BR63" s="1"/>
-      <c r="BS63" s="1"/>
-      <c r="BT63" s="1"/>
-      <c r="BU63" s="1"/>
-      <c r="BV63" s="1"/>
+      <c r="BS63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BT63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV63" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BW63" s="1"/>
       <c r="BX63" s="1"/>
       <c r="BY63" s="1"/>
@@ -8389,19 +8404,27 @@
         <v>364</v>
       </c>
     </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>232</v>
+    <row customFormat="1" r="64" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -8409,7 +8432,9 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="P64" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -8427,7 +8452,9 @@
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
+      <c r="AH64" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
@@ -8454,12 +8481,14 @@
       <c r="BF64" s="1"/>
       <c r="BG64" s="1"/>
       <c r="BH64" s="1"/>
-      <c r="BI64" s="1"/>
+      <c r="BI64" s="11"/>
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
-      <c r="BN64" s="1"/>
+      <c r="BN64" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="BO64" s="1"/>
       <c r="BP64" s="1"/>
       <c r="BQ64" s="1"/>
@@ -8477,28 +8506,32 @@
       <c r="CC64" s="1"/>
       <c r="CD64" s="1"/>
       <c r="CE64" s="1"/>
-      <c r="CF64" s="1"/>
-      <c r="CG64" s="1"/>
-    </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CF64" s="18"/>
+      <c r="CG64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="65" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -8551,13 +8584,15 @@
       <c r="BF65" s="1"/>
       <c r="BG65" s="1"/>
       <c r="BH65" s="1"/>
-      <c r="BI65" s="1"/>
+      <c r="BI65" s="11"/>
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
       <c r="BM65" s="1"/>
       <c r="BN65" s="1"/>
-      <c r="BO65" s="1"/>
+      <c r="BO65" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BP65" s="1"/>
       <c r="BQ65" s="1"/>
       <c r="BR65" s="1"/>
@@ -8574,40 +8609,28 @@
       <c r="CC65" s="1"/>
       <c r="CD65" s="1"/>
       <c r="CE65" s="1"/>
-      <c r="CF65" s="1"/>
+      <c r="CF65" s="18"/>
       <c r="CG65" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>8</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="66" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>363</v>
-      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -8617,9 +8640,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
@@ -8682,39 +8703,31 @@
       <c r="CD66" s="1"/>
       <c r="CE66" s="1"/>
       <c r="CF66" s="1"/>
-      <c r="CG66" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG66" s="1"/>
+    </row>
+    <row customFormat="1" r="67" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" t="s">
-        <v>233</v>
-      </c>
+      <c r="E67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -8724,9 +8737,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
@@ -8779,11 +8790,12 @@
       <c r="BT67" s="1"/>
       <c r="BU67" s="1"/>
       <c r="BV67" s="1"/>
-      <c r="BW67" s="12"/>
-      <c r="BX67" s="12"/>
-      <c r="BY67" s="12"/>
-      <c r="BZ67" s="12"/>
-      <c r="CA67" s="12"/>
+      <c r="BW67" s="1"/>
+      <c r="BX67" s="1"/>
+      <c r="BY67" s="1"/>
+      <c r="BZ67" s="1"/>
+      <c r="CA67" s="1"/>
+      <c r="CB67" s="1"/>
       <c r="CC67" s="1"/>
       <c r="CD67" s="1"/>
       <c r="CE67" s="1"/>
@@ -8792,27 +8804,35 @@
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>6</v>
+      <c r="C68" s="26" t="s">
+        <v>361</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -8822,7 +8842,9 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
+      <c r="V68" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
@@ -8880,9 +8902,7 @@
       <c r="BY68" s="1"/>
       <c r="BZ68" s="1"/>
       <c r="CA68" s="1"/>
-      <c r="CB68" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="CB68" s="1"/>
       <c r="CC68" s="1"/>
       <c r="CD68" s="1"/>
       <c r="CE68" s="1"/>
@@ -8891,27 +8911,35 @@
         <v>366</v>
       </c>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" t="s">
+        <v>233</v>
+      </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="J69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -8921,7 +8949,9 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
+      <c r="V69" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
@@ -8974,14 +9004,11 @@
       <c r="BT69" s="1"/>
       <c r="BU69" s="1"/>
       <c r="BV69" s="1"/>
-      <c r="BW69" s="1"/>
-      <c r="BX69" s="1"/>
-      <c r="BY69" s="1"/>
-      <c r="BZ69" s="1"/>
-      <c r="CA69" s="1"/>
-      <c r="CB69" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="BW69" s="12"/>
+      <c r="BX69" s="12"/>
+      <c r="BY69" s="12"/>
+      <c r="BZ69" s="12"/>
+      <c r="CA69" s="12"/>
       <c r="CC69" s="1"/>
       <c r="CD69" s="1"/>
       <c r="CE69" s="1"/>
@@ -8990,18 +9017,18 @@
         <v>366</v>
       </c>
     </row>
-    <row ht="30" r="70" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>2</v>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -9078,8 +9105,8 @@
       <c r="BY70" s="1"/>
       <c r="BZ70" s="1"/>
       <c r="CA70" s="1"/>
-      <c r="CB70" s="1" t="s">
-        <v>299</v>
+      <c r="CB70" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="CC70" s="1"/>
       <c r="CD70" s="1"/>
@@ -9089,18 +9116,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -9177,7 +9204,9 @@
       <c r="BY71" s="1"/>
       <c r="BZ71" s="1"/>
       <c r="CA71" s="1"/>
-      <c r="CB71" s="1"/>
+      <c r="CB71" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="CC71" s="1"/>
       <c r="CD71" s="1"/>
       <c r="CE71" s="1"/>
@@ -9186,18 +9215,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="72" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -9274,7 +9303,9 @@
       <c r="BY72" s="1"/>
       <c r="BZ72" s="1"/>
       <c r="CA72" s="1"/>
-      <c r="CB72" s="1"/>
+      <c r="CB72" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="CC72" s="1"/>
       <c r="CD72" s="1"/>
       <c r="CE72" s="1"/>
@@ -9283,17 +9314,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C73" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="D73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -9378,15 +9411,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -9471,14 +9508,16 @@
         <v>366</v>
       </c>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="26" t="s">
+        <v>300</v>
+      </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -9564,9 +9603,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>234</v>
+    <row customFormat="1" r="76" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>365</v>
@@ -9653,21 +9692,19 @@
       <c r="CD76" s="1"/>
       <c r="CE76" s="1"/>
       <c r="CF76" s="1"/>
-      <c r="CG76" s="1"/>
-    </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>15</v>
+      <c r="CG76" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="77" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C77" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -9752,19 +9789,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="78" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>13</v>
+    <row customFormat="1" r="78" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C78" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -9845,22 +9878,20 @@
       <c r="CD78" s="1"/>
       <c r="CE78" s="1"/>
       <c r="CF78" s="1"/>
-      <c r="CG78" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="79" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG78" s="1"/>
+    </row>
+    <row customFormat="1" r="79" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>435</v>
+        <v>2</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -9904,9 +9935,7 @@
       <c r="AR79" s="1"/>
       <c r="AS79" s="1"/>
       <c r="AT79" s="1"/>
-      <c r="AU79" s="27" t="s">
-        <v>436</v>
-      </c>
+      <c r="AU79" s="1"/>
       <c r="AV79" s="1"/>
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
@@ -9939,9 +9968,7 @@
       <c r="BY79" s="1"/>
       <c r="BZ79" s="1"/>
       <c r="CA79" s="1"/>
-      <c r="CB79" s="1" t="s">
-        <v>301</v>
-      </c>
+      <c r="CB79" s="1"/>
       <c r="CC79" s="1"/>
       <c r="CD79" s="1"/>
       <c r="CE79" s="1"/>
@@ -9950,9 +9977,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>365</v>
@@ -9963,9 +9990,7 @@
       <c r="D80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -10049,22 +10074,20 @@
         <v>366</v>
       </c>
     </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="81" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -10106,7 +10129,9 @@
       <c r="AR81" s="1"/>
       <c r="AS81" s="1"/>
       <c r="AT81" s="1"/>
-      <c r="AU81" s="1"/>
+      <c r="AU81" s="27" t="s">
+        <v>436</v>
+      </c>
       <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
@@ -10139,7 +10164,9 @@
       <c r="BY81" s="1"/>
       <c r="BZ81" s="1"/>
       <c r="CA81" s="1"/>
-      <c r="CB81" s="1"/>
+      <c r="CB81" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="CC81" s="1"/>
       <c r="CD81" s="1"/>
       <c r="CE81" s="1"/>
@@ -10148,9 +10175,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>365</v>
@@ -10247,9 +10274,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>365</v>
@@ -10264,12 +10291,8 @@
         <v>0</v>
       </c>
       <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -10350,15 +10373,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>319</v>
+      <c r="C84" s="26" t="s">
+        <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>3</v>
@@ -10449,9 +10472,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>365</v>
@@ -10466,8 +10489,12 @@
         <v>0</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -10548,15 +10575,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C86" s="26" t="s">
-        <v>2</v>
+      <c r="C86" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>3</v>
@@ -10565,12 +10592,8 @@
         <v>0</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>320</v>
-      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -10648,12 +10671,12 @@
       <c r="CE86" s="1"/>
       <c r="CF86" s="1"/>
       <c r="CG86" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="87" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>365</v>
@@ -10668,12 +10691,8 @@
         <v>0</v>
       </c>
       <c r="F87" s="1"/>
-      <c r="G87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>321</v>
-      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -10751,12 +10770,12 @@
       <c r="CE87" s="1"/>
       <c r="CF87" s="1"/>
       <c r="CG87" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="88" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>304</v>
+        <v>22</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>365</v>
@@ -10775,7 +10794,7 @@
         <v>53</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -10857,9 +10876,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>305</v>
+        <v>23</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>365</v>
@@ -10874,8 +10893,12 @@
         <v>0</v>
       </c>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="G89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -10953,12 +10976,12 @@
       <c r="CE89" s="1"/>
       <c r="CF89" s="1"/>
       <c r="CG89" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="90" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>365</v>
@@ -10973,8 +10996,12 @@
         <v>0</v>
       </c>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="G90" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -11052,12 +11079,12 @@
       <c r="CE90" s="1"/>
       <c r="CF90" s="1"/>
       <c r="CG90" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="91" spans="1:85" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="91" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>365</v>
@@ -11105,6 +11132,7 @@
       <c r="AK91" s="1"/>
       <c r="AL91" s="1"/>
       <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
       <c r="AO91" s="1"/>
       <c r="AP91" s="1"/>
       <c r="AQ91" s="1"/>
@@ -11114,6 +11142,9 @@
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
       <c r="BC91" s="1"/>
@@ -11150,9 +11181,9 @@
         <v>366</v>
       </c>
     </row>
-    <row ht="30" r="92" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>365</v>
@@ -11200,13 +11231,9 @@
       <c r="AK92" s="1"/>
       <c r="AL92" s="1"/>
       <c r="AM92" s="1"/>
-      <c r="AN92" s="1" t="s">
-        <v>356</v>
-      </c>
+      <c r="AN92" s="1"/>
       <c r="AO92" s="1"/>
-      <c r="AP92" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AP92" s="1"/>
       <c r="AQ92" s="1"/>
       <c r="AR92" s="1"/>
       <c r="AS92" s="1"/>
@@ -11244,9 +11271,7 @@
       <c r="BY92" s="1"/>
       <c r="BZ92" s="1"/>
       <c r="CA92" s="1"/>
-      <c r="CB92" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="CB92" s="1"/>
       <c r="CC92" s="1"/>
       <c r="CD92" s="1"/>
       <c r="CE92" s="1"/>
@@ -11255,9 +11280,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>365</v>
@@ -11275,27 +11300,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K93" t="s">
-        <v>379</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -11319,7 +11330,6 @@
       <c r="AK93" s="1"/>
       <c r="AL93" s="1"/>
       <c r="AM93" s="1"/>
-      <c r="AN93" s="1"/>
       <c r="AO93" s="1"/>
       <c r="AP93" s="1"/>
       <c r="AQ93" s="1"/>
@@ -11329,9 +11339,6 @@
       <c r="AU93" s="1"/>
       <c r="AV93" s="1"/>
       <c r="AW93" s="1"/>
-      <c r="AX93" s="1"/>
-      <c r="AY93" s="1"/>
-      <c r="AZ93" s="1"/>
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
       <c r="BC93" s="1"/>
@@ -11368,9 +11375,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>98</v>
+    <row customFormat="1" ht="30" r="94" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>365</v>
@@ -11388,27 +11395,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K94" t="s">
-        <v>379</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -11433,14 +11426,14 @@
       <c r="AL94" s="1"/>
       <c r="AM94" s="1"/>
       <c r="AN94" s="1" t="s">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="AO94" s="1"/>
-      <c r="AP94" s="1"/>
+      <c r="AP94" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ94" s="1"/>
-      <c r="AR94" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="AR94" s="1"/>
       <c r="AS94" s="1"/>
       <c r="AT94" s="1"/>
       <c r="AU94" s="1"/>
@@ -11476,7 +11469,9 @@
       <c r="BY94" s="1"/>
       <c r="BZ94" s="1"/>
       <c r="CA94" s="1"/>
-      <c r="CB94" s="1"/>
+      <c r="CB94" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="CC94" s="1"/>
       <c r="CD94" s="1"/>
       <c r="CE94" s="1"/>
@@ -11485,9 +11480,9 @@
         <v>366</v>
       </c>
     </row>
-    <row ht="30" r="95" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>100</v>
+    <row customFormat="1" r="95" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>365</v>
@@ -11505,7 +11500,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K95" t="s">
@@ -11514,7 +11509,7 @@
       <c r="L95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -11542,27 +11537,13 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
-      <c r="AG95" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AH95" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI95" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ95" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK95" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL95" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM95" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
       <c r="AN95" s="1"/>
       <c r="AO95" s="1"/>
       <c r="AP95" s="1"/>
@@ -11603,9 +11584,7 @@
       <c r="BY95" s="1"/>
       <c r="BZ95" s="1"/>
       <c r="CA95" s="1"/>
-      <c r="CB95" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="CB95" s="1"/>
       <c r="CC95" s="1"/>
       <c r="CD95" s="1"/>
       <c r="CE95" s="1"/>
@@ -11614,9 +11593,9 @@
         <v>366</v>
       </c>
     </row>
-    <row ht="30" r="96" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>365</v>
@@ -11678,11 +11657,15 @@
       <c r="AK96" s="1"/>
       <c r="AL96" s="1"/>
       <c r="AM96" s="1"/>
-      <c r="AN96" s="1"/>
+      <c r="AN96" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AO96" s="1"/>
       <c r="AP96" s="1"/>
       <c r="AQ96" s="1"/>
-      <c r="AR96" s="1"/>
+      <c r="AR96" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="AS96" s="1"/>
       <c r="AT96" s="1"/>
       <c r="AU96" s="1"/>
@@ -11718,9 +11701,7 @@
       <c r="BY96" s="1"/>
       <c r="BZ96" s="1"/>
       <c r="CA96" s="1"/>
-      <c r="CB96" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="CB96" s="1"/>
       <c r="CC96" s="1"/>
       <c r="CD96" s="1"/>
       <c r="CE96" s="1"/>
@@ -11729,9 +11710,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="97" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="97" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>365</v>
@@ -11787,13 +11768,13 @@
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
       <c r="AG97" s="1" t="s">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="AH97" s="1" t="s">
         <v>310</v>
       </c>
       <c r="AI97" s="1" t="s">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="AJ97" s="1" t="s">
         <v>29</v>
@@ -11847,7 +11828,9 @@
       <c r="BY97" s="1"/>
       <c r="BZ97" s="1"/>
       <c r="CA97" s="1"/>
-      <c r="CB97" s="1"/>
+      <c r="CB97" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="CC97" s="1"/>
       <c r="CD97" s="1"/>
       <c r="CE97" s="1"/>
@@ -11856,9 +11839,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="98" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="98" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>365</v>
@@ -11913,27 +11896,13 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
-      <c r="AG98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH98" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ98" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK98" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL98" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM98" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
       <c r="AN98" s="1"/>
       <c r="AO98" s="1"/>
       <c r="AP98" s="1"/>
@@ -11974,7 +11943,9 @@
       <c r="BY98" s="1"/>
       <c r="BZ98" s="1"/>
       <c r="CA98" s="1"/>
-      <c r="CB98" s="1"/>
+      <c r="CB98" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="CC98" s="1"/>
       <c r="CD98" s="1"/>
       <c r="CE98" s="1"/>
@@ -11983,27 +11954,47 @@
         <v>366</v>
       </c>
     </row>
-    <row r="99" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>238</v>
+    <row customFormat="1" r="99" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="C99" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
+      <c r="J99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99" t="s">
+        <v>379</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -12020,13 +12011,27 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
-      <c r="AG99" s="1"/>
-      <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
-      <c r="AL99" s="1"/>
-      <c r="AM99" s="1"/>
+      <c r="AG99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM99" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN99" s="1"/>
       <c r="AO99" s="1"/>
       <c r="AP99" s="1"/>
@@ -12072,35 +12077,51 @@
       <c r="CD99" s="1"/>
       <c r="CE99" s="1"/>
       <c r="CF99" s="1"/>
-      <c r="CG99" s="1"/>
-    </row>
-    <row r="100" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG99" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="100" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="C100" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F100" s="1"/>
-      <c r="G100" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
+      <c r="J100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K100" t="s">
+        <v>379</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -12117,13 +12138,27 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
-      <c r="AG100" s="1"/>
-      <c r="AH100" s="1"/>
-      <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
-      <c r="AK100" s="1"/>
-      <c r="AL100" s="1"/>
-      <c r="AM100" s="1"/>
+      <c r="AG100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM100" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN100" s="1"/>
       <c r="AO100" s="1"/>
       <c r="AP100" s="1"/>
@@ -12173,9 +12208,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="101" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>106</v>
+    <row customFormat="1" r="101" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>365</v>
@@ -12184,12 +12219,8 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -12266,18 +12297,18 @@
       <c r="CD101" s="1"/>
       <c r="CE101" s="1"/>
       <c r="CF101" s="1"/>
-      <c r="CG101" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG101" s="1"/>
+    </row>
+    <row customFormat="1" r="102" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -12367,9 +12398,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="103" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>365</v>
@@ -12464,9 +12495,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>365</v>
@@ -12488,9 +12519,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
-      <c r="P104" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -12560,12 +12589,12 @@
       <c r="CE104" s="1"/>
       <c r="CF104" s="1"/>
       <c r="CG104" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="105" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="105" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>365</v>
@@ -12575,10 +12604,10 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>357</v>
+        <v>53</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -12660,9 +12689,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="106" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>365</v>
@@ -12704,9 +12733,7 @@
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
-      <c r="AH106" s="1" t="s">
-        <v>326</v>
-      </c>
+      <c r="AH106" s="1"/>
       <c r="AI106" s="1"/>
       <c r="AJ106" s="1"/>
       <c r="AK106" s="1"/>
@@ -12758,29 +12785,25 @@
       <c r="CE106" s="1"/>
       <c r="CF106" s="1"/>
       <c r="CG106" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="107" spans="1:85" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="107" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="2" t="s">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -12862,9 +12885,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="108" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>365</v>
@@ -12874,10 +12897,10 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="2" t="s">
-        <v>357</v>
+        <v>53</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -12886,7 +12909,9 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
+      <c r="P108" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -12904,7 +12929,9 @@
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
       <c r="AG108" s="1"/>
-      <c r="AH108" s="1"/>
+      <c r="AH108" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="AI108" s="1"/>
       <c r="AJ108" s="1"/>
       <c r="AK108" s="1"/>
@@ -12959,15 +12986,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="109" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="2" t="s">
@@ -13056,9 +13087,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>365</v>
@@ -13068,10 +13099,10 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="2" t="s">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -13153,19 +13184,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="111" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C111" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="2" t="s">
@@ -13251,22 +13278,18 @@
       <c r="CE111" s="1"/>
       <c r="CF111" s="1"/>
       <c r="CG111" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="112" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="112" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="2" t="s">
@@ -13355,14 +13378,14 @@
         <v>366</v>
       </c>
     </row>
-    <row r="113" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -13437,44 +13460,46 @@
       <c r="BO113" s="1"/>
       <c r="BP113" s="1"/>
       <c r="BQ113" s="1"/>
-      <c r="BR113" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BS113" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="BR113" s="1"/>
+      <c r="BS113" s="1"/>
       <c r="BT113" s="1"/>
       <c r="BU113" s="1"/>
       <c r="BV113" s="1"/>
-      <c r="BW113" s="12"/>
-      <c r="BX113" s="12"/>
-      <c r="BY113" s="12"/>
-      <c r="BZ113" s="12"/>
-      <c r="CA113" s="12"/>
-      <c r="CB113" t="s">
-        <v>311</v>
-      </c>
+      <c r="BW113" s="1"/>
+      <c r="BX113" s="1"/>
+      <c r="BY113" s="1"/>
+      <c r="BZ113" s="1"/>
+      <c r="CA113" s="1"/>
+      <c r="CB113" s="1"/>
       <c r="CC113" s="1"/>
       <c r="CD113" s="1"/>
       <c r="CE113" s="1"/>
       <c r="CF113" s="1"/>
       <c r="CG113" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="114" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>239</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row customFormat="1" r="114" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+      <c r="G114" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -13551,11 +13576,13 @@
       <c r="CD114" s="1"/>
       <c r="CE114" s="1"/>
       <c r="CF114" s="1"/>
-      <c r="CG114" s="1"/>
-    </row>
-    <row r="115" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG114" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="115" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>365</v>
@@ -13635,17 +13662,23 @@
       <c r="BO115" s="1"/>
       <c r="BP115" s="1"/>
       <c r="BQ115" s="1"/>
-      <c r="BR115" s="1"/>
-      <c r="BS115" s="1"/>
+      <c r="BR115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS115" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="BT115" s="1"/>
       <c r="BU115" s="1"/>
       <c r="BV115" s="1"/>
-      <c r="BW115" s="1"/>
-      <c r="BX115" s="1"/>
-      <c r="BY115" s="1"/>
-      <c r="BZ115" s="1"/>
-      <c r="CA115" s="1"/>
-      <c r="CB115" s="1"/>
+      <c r="BW115" s="12"/>
+      <c r="BX115" s="12"/>
+      <c r="BY115" s="12"/>
+      <c r="BZ115" s="12"/>
+      <c r="CA115" s="12"/>
+      <c r="CB115" t="s">
+        <v>311</v>
+      </c>
       <c r="CC115" s="1"/>
       <c r="CD115" s="1"/>
       <c r="CE115" s="1"/>
@@ -13655,46 +13688,26 @@
       </c>
     </row>
     <row customFormat="1" r="116" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>122</v>
+      <c r="A116" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K116" t="s">
-        <v>1</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
       <c r="O116" s="1"/>
-      <c r="P116" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -13763,13 +13776,11 @@
       <c r="CD116" s="1"/>
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
-      <c r="CG116" t="s">
-        <v>366</v>
-      </c>
+      <c r="CG116" s="1"/>
     </row>
     <row customFormat="1" r="117" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>471</v>
+        <v>121</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>365</v>
@@ -13783,31 +13794,19 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="2" t="s">
-        <v>472</v>
+        <v>53</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>6</v>
+        <v>325</v>
       </c>
       <c r="I117" s="1"/>
-      <c r="J117" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K117" t="s">
-        <v>1</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
       <c r="O117" s="1"/>
-      <c r="P117" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
@@ -13882,7 +13881,7 @@
     </row>
     <row customFormat="1" r="118" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>365</v>
@@ -13957,21 +13956,12 @@
       <c r="AX118" s="1"/>
       <c r="AY118" s="1"/>
       <c r="AZ118" s="1"/>
-      <c r="BA118" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB118" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD118" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE118" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF118" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA118" s="1"/>
+      <c r="BB118" s="1"/>
+      <c r="BC118" s="1"/>
+      <c r="BD118" s="1"/>
+      <c r="BE118" s="1"/>
+      <c r="BF118" s="1"/>
       <c r="BG118" s="1"/>
       <c r="BH118" s="1"/>
       <c r="BI118" s="1"/>
@@ -14004,7 +13994,7 @@
     </row>
     <row customFormat="1" r="119" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>471</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>365</v>
@@ -14018,10 +14008,10 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="2" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>325</v>
+        <v>6</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="2" t="s">
@@ -14079,19 +14069,13 @@
       <c r="AX119" s="1"/>
       <c r="AY119" s="1"/>
       <c r="AZ119" s="1"/>
-      <c r="BA119" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="BA119" s="1"/>
       <c r="BB119" s="1"/>
       <c r="BC119" s="1"/>
       <c r="BD119" s="1"/>
       <c r="BE119" s="1"/>
-      <c r="BF119" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG119" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="BF119" s="1"/>
+      <c r="BG119" s="1"/>
       <c r="BH119" s="1"/>
       <c r="BI119" s="1"/>
       <c r="BJ119" s="1"/>
@@ -14123,7 +14107,7 @@
     </row>
     <row customFormat="1" r="120" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>394</v>
+        <v>124</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>365</v>
@@ -14199,18 +14183,21 @@
       <c r="AY120" s="1"/>
       <c r="AZ120" s="1"/>
       <c r="BA120" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB120" s="1"/>
-      <c r="BC120" s="1"/>
-      <c r="BD120" s="1"/>
-      <c r="BE120" s="1"/>
-      <c r="BF120" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG120" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="BB120" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE120" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG120" s="1"/>
       <c r="BH120" s="1"/>
       <c r="BI120" s="1"/>
       <c r="BJ120" s="1"/>
@@ -14242,7 +14229,7 @@
     </row>
     <row customFormat="1" r="121" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>395</v>
+        <v>130</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>365</v>
@@ -14304,12 +14291,8 @@
       <c r="AK121" s="1"/>
       <c r="AL121" s="1"/>
       <c r="AM121" s="1"/>
-      <c r="AN121" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO121" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="AN121" s="1"/>
+      <c r="AO121" s="1"/>
       <c r="AP121" s="1"/>
       <c r="AQ121" s="1"/>
       <c r="AR121" s="1"/>
@@ -14338,14 +14321,10 @@
       <c r="BI121" s="1"/>
       <c r="BJ121" s="1"/>
       <c r="BK121" s="1"/>
-      <c r="BL121" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="BL121" s="1"/>
       <c r="BM121" s="1"/>
       <c r="BN121" s="1"/>
-      <c r="BO121" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO121" s="1"/>
       <c r="BP121" s="1"/>
       <c r="BQ121" s="1"/>
       <c r="BR121" s="1"/>
@@ -14369,7 +14348,7 @@
     </row>
     <row customFormat="1" r="122" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>365</v>
@@ -14431,12 +14410,8 @@
       <c r="AK122" s="1"/>
       <c r="AL122" s="1"/>
       <c r="AM122" s="1"/>
-      <c r="AN122" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO122" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="AN122" s="1"/>
+      <c r="AO122" s="1"/>
       <c r="AP122" s="1"/>
       <c r="AQ122" s="1"/>
       <c r="AR122" s="1"/>
@@ -14465,14 +14440,10 @@
       <c r="BI122" s="1"/>
       <c r="BJ122" s="1"/>
       <c r="BK122" s="1"/>
-      <c r="BL122" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="BL122" s="1"/>
       <c r="BM122" s="1"/>
       <c r="BN122" s="1"/>
-      <c r="BO122" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO122" s="1"/>
       <c r="BP122" s="1"/>
       <c r="BQ122" s="1"/>
       <c r="BR122" s="1"/>
@@ -14496,16 +14467,16 @@
     </row>
     <row customFormat="1" r="123" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>429</v>
+        <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -14623,16 +14594,16 @@
     </row>
     <row customFormat="1" r="124" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>429</v>
+        <v>2</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -14640,7 +14611,7 @@
         <v>53</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>416</v>
+        <v>325</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="2" t="s">
@@ -14750,7 +14721,7 @@
     </row>
     <row customFormat="1" r="125" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>365</v>
@@ -14877,7 +14848,7 @@
     </row>
     <row customFormat="1" r="126" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>365</v>
@@ -14894,7 +14865,7 @@
         <v>53</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>325</v>
+        <v>416</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="2" t="s">
@@ -15004,7 +14975,7 @@
     </row>
     <row customFormat="1" r="127" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>365</v>
@@ -15131,16 +15102,16 @@
     </row>
     <row customFormat="1" r="128" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>2</v>
+        <v>429</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -15258,16 +15229,16 @@
     </row>
     <row customFormat="1" r="129" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>2</v>
+        <v>429</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -15380,12 +15351,12 @@
       <c r="CE129" s="1"/>
       <c r="CF129" s="1"/>
       <c r="CG129" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="130" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>365</v>
@@ -15440,10 +15411,9 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
-      <c r="AG130" s="1">
-        <v>324353454</v>
-      </c>
+      <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
+      <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
@@ -15508,12 +15478,12 @@
       <c r="CE130" s="1"/>
       <c r="CF130" s="1"/>
       <c r="CG130" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="131" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>365</v>
@@ -15570,9 +15540,7 @@
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
-      <c r="AI131" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
       <c r="AK131" s="1"/>
       <c r="AL131" s="1"/>
@@ -15642,7 +15610,7 @@
     </row>
     <row customFormat="1" r="132" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>365</v>
@@ -15697,15 +15665,14 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
       <c r="AF132" s="1"/>
-      <c r="AG132" s="1"/>
+      <c r="AG132" s="1">
+        <v>324353454</v>
+      </c>
       <c r="AH132" s="1"/>
-      <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
       <c r="AK132" s="1"/>
       <c r="AL132" s="1"/>
-      <c r="AM132" s="26" t="s">
-        <v>426</v>
-      </c>
+      <c r="AM132" s="1"/>
       <c r="AN132" s="1" t="s">
         <v>396</v>
       </c>
@@ -15766,12 +15733,12 @@
       <c r="CE132" s="1"/>
       <c r="CF132" s="1"/>
       <c r="CG132" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="133" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>365</v>
@@ -15828,11 +15795,11 @@
       <c r="AF133" s="1"/>
       <c r="AG133" s="1"/>
       <c r="AH133" s="1"/>
-      <c r="AI133" s="1"/>
+      <c r="AI133" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="AJ133" s="1"/>
-      <c r="AK133" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="AK133" s="1"/>
       <c r="AL133" s="1"/>
       <c r="AM133" s="1"/>
       <c r="AN133" s="1" t="s">
@@ -15895,12 +15862,12 @@
       <c r="CE133" s="1"/>
       <c r="CF133" s="1"/>
       <c r="CG133" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="134" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>365</v>
@@ -15961,7 +15928,9 @@
       <c r="AJ134" s="1"/>
       <c r="AK134" s="1"/>
       <c r="AL134" s="1"/>
-      <c r="AM134" s="1"/>
+      <c r="AM134" s="26" t="s">
+        <v>426</v>
+      </c>
       <c r="AN134" s="1" t="s">
         <v>396</v>
       </c>
@@ -16027,7 +15996,7 @@
     </row>
     <row customFormat="1" r="135" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>365</v>
@@ -16086,7 +16055,9 @@
       <c r="AH135" s="1"/>
       <c r="AI135" s="1"/>
       <c r="AJ135" s="1"/>
-      <c r="AK135" s="1"/>
+      <c r="AK135" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="AL135" s="1"/>
       <c r="AM135" s="1"/>
       <c r="AN135" s="1" t="s">
@@ -16154,7 +16125,7 @@
     </row>
     <row customFormat="1" r="136" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>365</v>
@@ -16281,16 +16252,16 @@
     </row>
     <row customFormat="1" r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C137" s="26" t="s">
-        <v>429</v>
+      <c r="C137" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -16408,16 +16379,16 @@
     </row>
     <row customFormat="1" r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>429</v>
+        <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -16535,12 +16506,12 @@
     </row>
     <row customFormat="1" r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="26" t="s">
         <v>429</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -16662,7 +16633,7 @@
     </row>
     <row customFormat="1" r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>365</v>
@@ -16789,16 +16760,16 @@
     </row>
     <row customFormat="1" r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C141" s="26" t="s">
-        <v>409</v>
+      <c r="C141" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -16916,16 +16887,16 @@
     </row>
     <row customFormat="1" r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C142" s="26" t="s">
-        <v>409</v>
+      <c r="C142" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -16933,7 +16904,7 @@
         <v>53</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>416</v>
+        <v>325</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="2" t="s">
@@ -17043,13 +17014,13 @@
     </row>
     <row customFormat="1" r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>2</v>
+      <c r="C143" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>3</v>
@@ -17170,13 +17141,13 @@
     </row>
     <row customFormat="1" r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>2</v>
+      <c r="C144" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>3</v>
@@ -17187,7 +17158,7 @@
         <v>53</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>325</v>
+        <v>416</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="2" t="s">
@@ -17297,7 +17268,7 @@
     </row>
     <row customFormat="1" r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>403</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>365</v>
@@ -17359,8 +17330,12 @@
       <c r="AK145" s="1"/>
       <c r="AL145" s="1"/>
       <c r="AM145" s="1"/>
-      <c r="AN145" s="1"/>
-      <c r="AO145" s="1"/>
+      <c r="AN145" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO145" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="AP145" s="1"/>
       <c r="AQ145" s="1"/>
       <c r="AR145" s="1"/>
@@ -17373,30 +17348,30 @@
       <c r="AY145" s="1"/>
       <c r="AZ145" s="1"/>
       <c r="BA145" s="1" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="BB145" s="1"/>
       <c r="BC145" s="1"/>
       <c r="BD145" s="1"/>
       <c r="BE145" s="1"/>
-      <c r="BF145" s="1"/>
-      <c r="BG145" s="1"/>
-      <c r="BH145" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI145" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ145" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK145" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BL145" s="1"/>
+      <c r="BF145" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG145" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH145" s="1"/>
+      <c r="BI145" s="1"/>
+      <c r="BJ145" s="1"/>
+      <c r="BK145" s="1"/>
+      <c r="BL145" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="BM145" s="1"/>
       <c r="BN145" s="1"/>
-      <c r="BO145" s="1"/>
+      <c r="BO145" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="BP145" s="1"/>
       <c r="BQ145" s="1"/>
       <c r="BR145" s="1"/>
@@ -17420,16 +17395,16 @@
     </row>
     <row customFormat="1" r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>337</v>
+        <v>399</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C146" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>362</v>
+      <c r="C146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -17482,8 +17457,12 @@
       <c r="AK146" s="1"/>
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
-      <c r="AN146" s="1"/>
-      <c r="AO146" s="1"/>
+      <c r="AN146" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO146" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="AP146" s="1"/>
       <c r="AQ146" s="1"/>
       <c r="AR146" s="1"/>
@@ -17496,30 +17475,30 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
       <c r="BA146" s="1" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="BB146" s="1"/>
       <c r="BC146" s="1"/>
       <c r="BD146" s="1"/>
       <c r="BE146" s="1"/>
-      <c r="BF146" s="1"/>
-      <c r="BG146" s="1"/>
-      <c r="BH146" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI146" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="BJ146" t="s">
-        <v>341</v>
-      </c>
-      <c r="BK146" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="BL146" s="1"/>
+      <c r="BF146" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG146" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH146" s="1"/>
+      <c r="BI146" s="1"/>
+      <c r="BJ146" s="1"/>
+      <c r="BK146" s="1"/>
+      <c r="BL146" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
-      <c r="BO146" s="1"/>
+      <c r="BO146" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="BP146" s="1"/>
       <c r="BQ146" s="1"/>
       <c r="BR146" s="1"/>
@@ -17528,38 +17507,32 @@
       <c r="BU146" s="1"/>
       <c r="BV146" s="1"/>
       <c r="BW146" s="1"/>
-      <c r="BX146" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BY146" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="BZ146" t="s">
-        <v>343</v>
-      </c>
-      <c r="CA146" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="BX146" s="1"/>
+      <c r="BY146" s="1"/>
+      <c r="BZ146" s="1"/>
+      <c r="CA146" s="1"/>
       <c r="CB146" s="1"/>
       <c r="CC146" s="1"/>
       <c r="CD146" s="1"/>
       <c r="CE146" s="1"/>
       <c r="CF146" s="1"/>
       <c r="CG146" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>461</v>
+        <v>134</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D147" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="2" t="s">
@@ -17625,22 +17598,26 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
       <c r="BA147" s="1" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="BB147" s="1"/>
       <c r="BC147" s="1"/>
       <c r="BD147" s="1"/>
       <c r="BE147" s="1"/>
-      <c r="BF147" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG147" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH147" s="1"/>
-      <c r="BI147" s="1"/>
-      <c r="BJ147" s="1"/>
-      <c r="BK147" s="1"/>
+      <c r="BF147" s="1"/>
+      <c r="BG147" s="1"/>
+      <c r="BH147" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI147" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ147" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK147" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="BL147" s="1"/>
       <c r="BM147" s="1"/>
       <c r="BN147" s="1"/>
@@ -17668,16 +17645,16 @@
     </row>
     <row customFormat="1" r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>337</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>3</v>
+      <c r="C148" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>362</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -17744,25 +17721,26 @@
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
       <c r="BA148" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB148" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD148" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE148" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF148" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="BB148" s="1"/>
+      <c r="BC148" s="1"/>
+      <c r="BD148" s="1"/>
+      <c r="BE148" s="1"/>
+      <c r="BF148" s="1"/>
       <c r="BG148" s="1"/>
-      <c r="BH148" s="1"/>
-      <c r="BI148" s="1"/>
-      <c r="BJ148" s="1"/>
-      <c r="BK148" s="1"/>
+      <c r="BH148" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI148" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ148" t="s">
+        <v>341</v>
+      </c>
+      <c r="BK148" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="BL148" s="1"/>
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
@@ -17775,32 +17753,38 @@
       <c r="BU148" s="1"/>
       <c r="BV148" s="1"/>
       <c r="BW148" s="1"/>
-      <c r="BX148" s="1"/>
-      <c r="BY148" s="1"/>
-      <c r="BZ148" s="1"/>
-      <c r="CA148" s="1"/>
+      <c r="BX148" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY148" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="BZ148" t="s">
+        <v>343</v>
+      </c>
+      <c r="CA148" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="CB148" s="1"/>
       <c r="CC148" s="1"/>
       <c r="CD148" s="1"/>
       <c r="CE148" s="1"/>
       <c r="CF148" s="1"/>
       <c r="CG148" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="2" t="s">
@@ -17909,7 +17893,7 @@
     </row>
     <row customFormat="1" r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>365</v>
@@ -17984,25 +17968,26 @@
       <c r="AX150" s="1"/>
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
-      <c r="BA150" s="1"/>
-      <c r="BB150" s="1"/>
-      <c r="BC150" s="1"/>
-      <c r="BD150" s="1"/>
-      <c r="BE150" s="1"/>
-      <c r="BF150" s="1"/>
+      <c r="BA150" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB150" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE150" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF150" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="BG150" s="1"/>
-      <c r="BH150" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI150" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ150" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK150" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="BH150" s="1"/>
+      <c r="BI150" s="1"/>
+      <c r="BJ150" s="1"/>
+      <c r="BK150" s="1"/>
       <c r="BL150" s="1"/>
       <c r="BM150" s="1"/>
       <c r="BN150" s="1"/>
@@ -18030,15 +18015,17 @@
     </row>
     <row customFormat="1" r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D151" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="2" t="s">
@@ -18104,21 +18091,18 @@
       <c r="AY151" s="1"/>
       <c r="AZ151" s="1"/>
       <c r="BA151" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB151" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD151" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE151" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF151" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG151" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="BB151" s="1"/>
+      <c r="BC151" s="1"/>
+      <c r="BD151" s="1"/>
+      <c r="BE151" s="1"/>
+      <c r="BF151" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG151" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="BH151" s="1"/>
       <c r="BI151" s="1"/>
       <c r="BJ151" s="1"/>
@@ -18150,15 +18134,17 @@
     </row>
     <row customFormat="1" r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D152" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="2" t="s">
@@ -18223,23 +18209,25 @@
       <c r="AX152" s="1"/>
       <c r="AY152" s="1"/>
       <c r="AZ152" s="1"/>
-      <c r="BA152" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="BA152" s="1"/>
       <c r="BB152" s="1"/>
       <c r="BC152" s="1"/>
       <c r="BD152" s="1"/>
       <c r="BE152" s="1"/>
-      <c r="BF152" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG152" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH152" s="1"/>
-      <c r="BI152" s="1"/>
-      <c r="BJ152" s="1"/>
-      <c r="BK152" s="1"/>
+      <c r="BF152" s="1"/>
+      <c r="BG152" s="1"/>
+      <c r="BH152" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI152" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ152" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK152" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="BL152" s="1"/>
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
@@ -18267,17 +18255,15 @@
     </row>
     <row customFormat="1" r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>392</v>
+        <v>142</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C153" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C153" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="2" t="s">
@@ -18343,18 +18329,21 @@
       <c r="AY153" s="1"/>
       <c r="AZ153" s="1"/>
       <c r="BA153" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB153" s="1"/>
-      <c r="BC153" s="1"/>
-      <c r="BD153" s="1"/>
-      <c r="BE153" s="1"/>
-      <c r="BF153" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG153" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BB153" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE153" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG153" s="1"/>
       <c r="BH153" s="1"/>
       <c r="BI153" s="1"/>
       <c r="BJ153" s="1"/>
@@ -18362,9 +18351,7 @@
       <c r="BL153" s="1"/>
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
-      <c r="BO153" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO153" s="1"/>
       <c r="BP153" s="1"/>
       <c r="BQ153" s="1"/>
       <c r="BR153" s="1"/>
@@ -18383,22 +18370,20 @@
       <c r="CE153" s="1"/>
       <c r="CF153" s="1"/>
       <c r="CG153" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>402</v>
+        <v>143</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C154" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C154" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="2" t="s">
@@ -18480,14 +18465,10 @@
       <c r="BI154" s="1"/>
       <c r="BJ154" s="1"/>
       <c r="BK154" s="1"/>
-      <c r="BL154" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="BL154" s="1"/>
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
-      <c r="BO154" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO154" s="1"/>
       <c r="BP154" s="1"/>
       <c r="BQ154" s="1"/>
       <c r="BR154" s="1"/>
@@ -18511,7 +18492,7 @@
     </row>
     <row customFormat="1" r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>365</v>
@@ -18603,12 +18584,12 @@
       <c r="BI155" s="1"/>
       <c r="BJ155" s="1"/>
       <c r="BK155" s="1"/>
-      <c r="BL155" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="BL155" s="1"/>
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
-      <c r="BO155" s="1"/>
+      <c r="BO155" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="BP155" s="1"/>
       <c r="BQ155" s="1"/>
       <c r="BR155" s="1"/>
@@ -18632,15 +18613,17 @@
     </row>
     <row customFormat="1" r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>144</v>
+        <v>402</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D156" s="1"/>
+      <c r="C156" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="2" t="s">
@@ -18705,29 +18688,31 @@
       <c r="AX156" s="1"/>
       <c r="AY156" s="1"/>
       <c r="AZ156" s="1"/>
-      <c r="BA156" s="1"/>
+      <c r="BA156" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB156" s="1"/>
       <c r="BC156" s="1"/>
       <c r="BD156" s="1"/>
       <c r="BE156" s="1"/>
-      <c r="BF156" s="1"/>
-      <c r="BG156" s="1"/>
-      <c r="BH156" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI156" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ156" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK156" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BL156" s="1"/>
+      <c r="BF156" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG156" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH156" s="1"/>
+      <c r="BI156" s="1"/>
+      <c r="BJ156" s="1"/>
+      <c r="BK156" s="1"/>
+      <c r="BL156" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="BM156" s="1"/>
       <c r="BN156" s="1"/>
-      <c r="BO156" s="1"/>
+      <c r="BO156" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="BP156" s="1"/>
       <c r="BQ156" s="1"/>
       <c r="BR156" s="1"/>
@@ -18751,21 +18736,19 @@
     </row>
     <row customFormat="1" r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>403</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>464</v>
+        <v>393</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E157" s="1"/>
-      <c r="F157" t="s">
-        <v>3</v>
-      </c>
+      <c r="F157" s="1"/>
       <c r="G157" s="2" t="s">
         <v>53</v>
       </c>
@@ -18797,9 +18780,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
-      <c r="V157" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V157" s="1"/>
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
@@ -18810,19 +18791,13 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
-      <c r="AG157" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG157" s="1"/>
       <c r="AH157" s="1"/>
-      <c r="AI157" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI157" s="1"/>
       <c r="AJ157" s="1"/>
       <c r="AK157" s="1"/>
       <c r="AL157" s="1"/>
-      <c r="AM157" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM157" s="1"/>
       <c r="AN157" s="1"/>
       <c r="AO157" s="1"/>
       <c r="AP157" s="1"/>
@@ -18837,26 +18812,25 @@
       <c r="AY157" s="1"/>
       <c r="AZ157" s="1"/>
       <c r="BA157" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB157" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD157" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE157" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF157" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG157" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="BB157" s="1"/>
+      <c r="BC157" s="1"/>
+      <c r="BD157" s="1"/>
+      <c r="BE157" s="1"/>
+      <c r="BF157" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG157" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="BH157" s="1"/>
       <c r="BI157" s="1"/>
       <c r="BJ157" s="1"/>
       <c r="BK157" s="1"/>
-      <c r="BL157" s="1"/>
+      <c r="BL157" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
       <c r="BO157" s="1"/>
@@ -18878,26 +18852,22 @@
       <c r="CE157" s="1"/>
       <c r="CF157" s="1"/>
       <c r="CG157" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C158" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C158" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" t="s">
-        <v>3</v>
-      </c>
+      <c r="F158" s="1"/>
       <c r="G158" s="2" t="s">
         <v>53</v>
       </c>
@@ -18929,9 +18899,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
-      <c r="V158" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V158" s="1"/>
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
@@ -18942,19 +18910,13 @@
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
       <c r="AF158" s="1"/>
-      <c r="AG158" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG158" s="1"/>
       <c r="AH158" s="1"/>
-      <c r="AI158" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI158" s="1"/>
       <c r="AJ158" s="1"/>
       <c r="AK158" s="1"/>
       <c r="AL158" s="1"/>
-      <c r="AM158" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM158" s="1"/>
       <c r="AN158" s="1"/>
       <c r="AO158" s="1"/>
       <c r="AP158" s="1"/>
@@ -18968,23 +18930,25 @@
       <c r="AX158" s="1"/>
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
-      <c r="BA158" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="BA158" s="1"/>
       <c r="BB158" s="1"/>
       <c r="BC158" s="1"/>
       <c r="BD158" s="1"/>
       <c r="BE158" s="1"/>
-      <c r="BF158" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG158" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH158" s="1"/>
-      <c r="BI158" s="1"/>
-      <c r="BJ158" s="1"/>
-      <c r="BK158" s="1"/>
+      <c r="BF158" s="1"/>
+      <c r="BG158" s="1"/>
+      <c r="BH158" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI158" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ158" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK158" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="BL158" s="1"/>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
@@ -19012,13 +18976,13 @@
     </row>
     <row customFormat="1" r="159" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>3</v>
@@ -19097,25 +19061,26 @@
       <c r="AX159" s="1"/>
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
-      <c r="BA159" s="1"/>
-      <c r="BB159" s="1"/>
-      <c r="BC159" s="1"/>
-      <c r="BD159" s="1"/>
-      <c r="BE159" s="1"/>
-      <c r="BF159" s="1"/>
+      <c r="BA159" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB159" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD159" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE159" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF159" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG159" s="1"/>
-      <c r="BH159" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI159" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ159" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK159" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="BH159" s="1"/>
+      <c r="BI159" s="1"/>
+      <c r="BJ159" s="1"/>
+      <c r="BK159" s="1"/>
       <c r="BL159" s="1"/>
       <c r="BM159" s="1"/>
       <c r="BN159" s="1"/>
@@ -19143,13 +19108,13 @@
     </row>
     <row customFormat="1" r="160" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>312</v>
+        <v>146</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>3</v>
@@ -19228,12 +19193,19 @@
       <c r="AX160" s="1"/>
       <c r="AY160" s="1"/>
       <c r="AZ160" s="1"/>
-      <c r="BA160" s="1"/>
-      <c r="BB160" s="4"/>
-      <c r="BD160" s="2"/>
-      <c r="BE160" s="3"/>
-      <c r="BF160" s="2"/>
-      <c r="BG160" s="1"/>
+      <c r="BA160" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB160" s="1"/>
+      <c r="BC160" s="1"/>
+      <c r="BD160" s="1"/>
+      <c r="BE160" s="1"/>
+      <c r="BF160" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG160" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="BH160" s="1"/>
       <c r="BI160" s="1"/>
       <c r="BJ160" s="1"/>
@@ -19264,32 +19236,56 @@
       </c>
     </row>
     <row customFormat="1" r="161" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
-        <v>240</v>
+      <c r="A161" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="C161" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
+      <c r="F161" t="s">
+        <v>3</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
+      <c r="J161" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K161" t="s">
+        <v>1</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
+      <c r="P161" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
-      <c r="V161" s="1"/>
+      <c r="V161" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
@@ -19300,13 +19296,19 @@
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
-      <c r="AG161" s="1"/>
+      <c r="AG161" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH161" s="1"/>
-      <c r="AI161" s="1"/>
+      <c r="AI161" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ161" s="1"/>
       <c r="AK161" s="1"/>
       <c r="AL161" s="1"/>
-      <c r="AM161" s="1"/>
+      <c r="AM161" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN161" s="1"/>
       <c r="AO161" s="1"/>
       <c r="AP161" s="1"/>
@@ -19327,10 +19329,18 @@
       <c r="BE161" s="1"/>
       <c r="BF161" s="1"/>
       <c r="BG161" s="1"/>
-      <c r="BH161" s="1"/>
-      <c r="BI161" s="11"/>
-      <c r="BJ161" s="1"/>
-      <c r="BK161" s="1"/>
+      <c r="BH161" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI161" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ161" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK161" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="BL161" s="1"/>
       <c r="BM161" s="1"/>
       <c r="BN161" s="1"/>
@@ -19352,40 +19362,42 @@
       <c r="CD161" s="1"/>
       <c r="CE161" s="1"/>
       <c r="CF161" s="1"/>
-      <c r="CG161" s="1"/>
+      <c r="CG161" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row customFormat="1" r="162" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C162" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>349</v>
+      <c r="C162" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" t="s">
+        <v>3</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I162" s="1"/>
+      <c r="J162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K162" t="s">
+        <v>1</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="M162" s="2" t="s">
         <v>28</v>
@@ -19397,22 +19409,14 @@
       <c r="P162" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q162" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="R162" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="S162" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="T162" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="U162" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="V162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
@@ -19424,14 +19428,18 @@
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
       <c r="AG162" s="1" t="s">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="AH162" s="1"/>
-      <c r="AI162" s="1"/>
+      <c r="AI162" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ162" s="1"/>
       <c r="AK162" s="1"/>
       <c r="AL162" s="1"/>
-      <c r="AM162" s="1"/>
+      <c r="AM162" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN162" s="1"/>
       <c r="AO162" s="1"/>
       <c r="AP162" s="1"/>
@@ -19445,24 +19453,14 @@
       <c r="AX162" s="1"/>
       <c r="AY162" s="1"/>
       <c r="AZ162" s="1"/>
-      <c r="BA162" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB162" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD162" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE162" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF162" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA162" s="1"/>
+      <c r="BB162" s="4"/>
+      <c r="BD162" s="2"/>
+      <c r="BE162" s="3"/>
+      <c r="BF162" s="2"/>
       <c r="BG162" s="1"/>
       <c r="BH162" s="1"/>
-      <c r="BI162" s="11"/>
+      <c r="BI162" s="1"/>
       <c r="BJ162" s="1"/>
       <c r="BK162" s="1"/>
       <c r="BL162" s="1"/>
@@ -19485,69 +19483,37 @@
       <c r="CC162" s="1"/>
       <c r="CD162" s="1"/>
       <c r="CE162" s="1"/>
-      <c r="CF162" s="18"/>
+      <c r="CF162" s="1"/>
       <c r="CG162" t="s">
         <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="163" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>249</v>
+      <c r="A163" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C163" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="K163" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L163" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M163" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N163" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
       <c r="O163" s="1"/>
-      <c r="P163" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q163" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="R163" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="S163" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="T163" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="U163" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
@@ -19559,9 +19525,7 @@
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
-      <c r="AG163" s="1" t="s">
-        <v>384</v>
-      </c>
+      <c r="AG163" s="1"/>
       <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
       <c r="AJ163" s="1"/>
@@ -19581,21 +19545,12 @@
       <c r="AX163" s="1"/>
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
-      <c r="BA163" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB163" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD163" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE163" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF163" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA163" s="1"/>
+      <c r="BB163" s="1"/>
+      <c r="BC163" s="1"/>
+      <c r="BD163" s="1"/>
+      <c r="BE163" s="1"/>
+      <c r="BF163" s="1"/>
       <c r="BG163" s="1"/>
       <c r="BH163" s="1"/>
       <c r="BI163" s="11"/>
@@ -19621,14 +19576,12 @@
       <c r="CC163" s="1"/>
       <c r="CD163" s="1"/>
       <c r="CE163" s="1"/>
-      <c r="CF163" s="18"/>
-      <c r="CG163" t="s">
-        <v>366</v>
-      </c>
+      <c r="CF163" s="1"/>
+      <c r="CG163" s="1"/>
     </row>
     <row customFormat="1" r="164" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>365</v>
@@ -19641,8 +19594,12 @@
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="1"/>
+      <c r="G164" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="I164" s="1" t="s">
         <v>431</v>
       </c>
@@ -19653,7 +19610,7 @@
         <v>349</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>28</v>
@@ -19713,12 +19670,21 @@
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
-      <c r="BA164" s="1"/>
-      <c r="BB164" s="1"/>
-      <c r="BC164" s="12"/>
-      <c r="BD164" s="1"/>
-      <c r="BE164" s="1"/>
-      <c r="BF164" s="1"/>
+      <c r="BA164" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB164" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD164" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE164" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF164" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG164" s="1"/>
       <c r="BH164" s="1"/>
       <c r="BI164" s="11"/>
@@ -19751,44 +19717,42 @@
     </row>
     <row customFormat="1" r="165" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>462</v>
+        <v>385</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E165" s="3"/>
-      <c r="F165" s="3" t="s">
-        <v>362</v>
-      </c>
+      <c r="F165" s="3"/>
       <c r="G165" s="3" t="s">
-        <v>241</v>
+        <v>6</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>371</v>
+        <v>235</v>
       </c>
       <c r="O165" s="1"/>
       <c r="P165" s="1" t="s">
@@ -19821,7 +19785,7 @@
       <c r="AE165" s="1"/>
       <c r="AF165" s="1"/>
       <c r="AG165" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AH165" s="1"/>
       <c r="AI165" s="1"/>
@@ -19842,12 +19806,21 @@
       <c r="AX165" s="1"/>
       <c r="AY165" s="1"/>
       <c r="AZ165" s="1"/>
-      <c r="BA165" s="1"/>
-      <c r="BB165" s="1"/>
-      <c r="BC165" s="12"/>
-      <c r="BD165" s="1"/>
-      <c r="BE165" s="1"/>
-      <c r="BF165" s="1"/>
+      <c r="BA165" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB165" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD165" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE165" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF165" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG165" s="1"/>
       <c r="BH165" s="1"/>
       <c r="BI165" s="11"/>
@@ -19879,8 +19852,8 @@
       </c>
     </row>
     <row customFormat="1" r="166" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>252</v>
+      <c r="A166" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>365</v>
@@ -19893,12 +19866,8 @@
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
-      <c r="G166" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="G166" s="3"/>
+      <c r="H166" s="1"/>
       <c r="I166" s="1" t="s">
         <v>431</v>
       </c>
@@ -19969,21 +19938,12 @@
       <c r="AX166" s="1"/>
       <c r="AY166" s="1"/>
       <c r="AZ166" s="1"/>
-      <c r="BA166" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB166" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD166" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE166" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF166" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA166" s="1"/>
+      <c r="BB166" s="1"/>
+      <c r="BC166" s="12"/>
+      <c r="BD166" s="1"/>
+      <c r="BE166" s="1"/>
+      <c r="BF166" s="1"/>
       <c r="BG166" s="1"/>
       <c r="BH166" s="1"/>
       <c r="BI166" s="11"/>
@@ -20015,39 +19975,45 @@
       </c>
     </row>
     <row customFormat="1" r="167" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
-        <v>253</v>
+      <c r="A167" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="1"/>
+      <c r="F167" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="I167" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>235</v>
+        <v>371</v>
       </c>
       <c r="O167" s="1"/>
       <c r="P167" s="1" t="s">
@@ -20080,7 +20046,7 @@
       <c r="AE167" s="1"/>
       <c r="AF167" s="1"/>
       <c r="AG167" s="1" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="AH167" s="1"/>
       <c r="AI167" s="1"/>
@@ -20101,21 +20067,12 @@
       <c r="AX167" s="1"/>
       <c r="AY167" s="1"/>
       <c r="AZ167" s="1"/>
-      <c r="BA167" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB167" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD167" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE167" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF167" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA167" s="1"/>
+      <c r="BB167" s="1"/>
+      <c r="BC167" s="12"/>
+      <c r="BD167" s="1"/>
+      <c r="BE167" s="1"/>
+      <c r="BF167" s="1"/>
       <c r="BG167" s="1"/>
       <c r="BH167" s="1"/>
       <c r="BI167" s="11"/>
@@ -20148,7 +20105,7 @@
     </row>
     <row customFormat="1" r="168" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>365</v>
@@ -20161,8 +20118,12 @@
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="1"/>
+      <c r="G168" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="I168" s="1" t="s">
         <v>431</v>
       </c>
@@ -20280,38 +20241,32 @@
     </row>
     <row customFormat="1" r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>463</v>
+        <v>385</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E169" s="3"/>
-      <c r="F169" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="1"/>
       <c r="I169" s="1" t="s">
         <v>431</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>28</v>
@@ -20350,7 +20305,7 @@
       <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
       <c r="AG169" s="1" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
@@ -20402,14 +20357,14 @@
       <c r="BT169" s="1"/>
       <c r="BU169" s="1"/>
       <c r="BV169" s="1"/>
-      <c r="BW169" s="12"/>
-      <c r="BX169" s="12"/>
-      <c r="BY169" s="12"/>
-      <c r="BZ169" s="12"/>
-      <c r="CA169" s="12"/>
-      <c r="CB169" s="12"/>
-      <c r="CC169" s="12"/>
-      <c r="CD169" s="12"/>
+      <c r="BW169" s="1"/>
+      <c r="BX169" s="1"/>
+      <c r="BY169" s="1"/>
+      <c r="BZ169" s="1"/>
+      <c r="CA169" s="1"/>
+      <c r="CB169" s="1"/>
+      <c r="CC169" s="1"/>
+      <c r="CD169" s="1"/>
       <c r="CE169" s="1"/>
       <c r="CF169" s="18"/>
       <c r="CG169" t="s">
@@ -20418,40 +20373,58 @@
     </row>
     <row customFormat="1" r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C170" s="11" t="s">
-        <v>2</v>
+      <c r="C170" s="28" t="s">
+        <v>385</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
-      <c r="G170" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="G170" s="3"/>
+      <c r="H170" s="1"/>
       <c r="I170" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J170" s="1"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="1"/>
+      <c r="J170" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="11"/>
-      <c r="R170" s="10"/>
-      <c r="S170" s="10"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
+      <c r="P170" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q170" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R170" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="S170" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
@@ -20463,7 +20436,9 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
-      <c r="AG170" s="1"/>
+      <c r="AG170" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
@@ -20483,18 +20458,24 @@
       <c r="AX170" s="1"/>
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
-      <c r="BA170" s="1"/>
-      <c r="BB170" s="4"/>
-      <c r="BD170" s="2"/>
-      <c r="BE170" s="3"/>
-      <c r="BF170" s="2"/>
+      <c r="BA170" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB170" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD170" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE170" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF170" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG170" s="1"/>
-      <c r="BH170" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BI170" s="11" t="s">
-        <v>352</v>
-      </c>
+      <c r="BH170" s="1"/>
+      <c r="BI170" s="11"/>
       <c r="BJ170" s="1"/>
       <c r="BK170" s="1"/>
       <c r="BL170" s="1"/>
@@ -20508,52 +20489,54 @@
       <c r="BT170" s="1"/>
       <c r="BU170" s="1"/>
       <c r="BV170" s="1"/>
-      <c r="BW170" s="12"/>
-      <c r="BX170" s="12"/>
-      <c r="BY170" s="12"/>
-      <c r="BZ170" s="12"/>
-      <c r="CA170" s="12"/>
-      <c r="CB170" s="12"/>
-      <c r="CC170" s="12"/>
-      <c r="CD170" s="12"/>
+      <c r="BW170" s="1"/>
+      <c r="BX170" s="1"/>
+      <c r="BY170" s="1"/>
+      <c r="BZ170" s="1"/>
+      <c r="CA170" s="1"/>
+      <c r="CB170" s="1"/>
+      <c r="CC170" s="1"/>
+      <c r="CD170" s="1"/>
       <c r="CE170" s="1"/>
       <c r="CF170" s="18"/>
       <c r="CG170" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="171" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="D171" s="28" t="s">
-        <v>389</v>
+        <v>463</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>362</v>
       </c>
       <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
+      <c r="F171" s="11" t="s">
+        <v>362</v>
+      </c>
       <c r="G171" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>59</v>
+        <v>241</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>0</v>
+      <c r="J171" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>1</v>
+        <v>387</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="M171" s="2" t="s">
         <v>28</v>
@@ -20565,11 +20548,21 @@
       <c r="P171" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q171" s="11"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
+      <c r="Q171" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R171" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="S171" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
@@ -20581,7 +20574,9 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
-      <c r="AG171" s="1"/>
+      <c r="AG171" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
@@ -20602,25 +20597,25 @@
       <c r="AY171" s="1"/>
       <c r="AZ171" s="1"/>
       <c r="BA171" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB171" s="4"/>
-      <c r="BD171" s="2"/>
-      <c r="BE171" s="3"/>
-      <c r="BF171" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="BB171" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD171" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE171" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF171" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG171" s="1"/>
-      <c r="BH171" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BI171" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="BJ171" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="BK171" s="1" t="s">
-        <v>353</v>
-      </c>
+      <c r="BH171" s="1"/>
+      <c r="BI171" s="11"/>
+      <c r="BJ171" s="1"/>
+      <c r="BK171" s="1"/>
       <c r="BL171" s="1"/>
       <c r="BM171" s="1"/>
       <c r="BN171" s="1"/>
@@ -20643,57 +20638,45 @@
       <c r="CE171" s="1"/>
       <c r="CF171" s="18"/>
       <c r="CG171" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="172" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row customFormat="1" r="172" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C172" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="D172" s="28" t="s">
-        <v>389</v>
+      <c r="C172" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
+      <c r="G172" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I172" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K172" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="J172" s="1"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="1"/>
       <c r="M172" s="2"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
-      <c r="Q172" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="R172" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="S172" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="T172" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="U172" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="10"/>
+      <c r="S172" s="10"/>
+      <c r="T172" s="1"/>
+      <c r="U172" s="1"/>
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
@@ -20705,9 +20688,7 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
-      <c r="AG172" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="AG172" s="1"/>
       <c r="AH172" s="1"/>
       <c r="AI172" s="1"/>
       <c r="AJ172" s="1"/>
@@ -20733,14 +20714,16 @@
       <c r="BE172" s="3"/>
       <c r="BF172" s="2"/>
       <c r="BG172" s="1"/>
-      <c r="BH172" s="1"/>
-      <c r="BI172" s="11"/>
+      <c r="BH172" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BI172" s="11" t="s">
+        <v>352</v>
+      </c>
       <c r="BJ172" s="1"/>
       <c r="BK172" s="1"/>
       <c r="BL172" s="1"/>
-      <c r="BM172" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="BM172" s="1"/>
       <c r="BN172" s="1"/>
       <c r="BO172" s="1"/>
       <c r="BP172" s="1"/>
@@ -20764,32 +20747,34 @@
         <v>364</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="173" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>437</v>
+    <row customFormat="1" r="173" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="2" t="s">
+      <c r="C173" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I173" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="J173" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K173" t="s">
+      <c r="K173" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L173" s="1" t="s">
@@ -20805,7 +20790,7 @@
       <c r="P173" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q173" s="1"/>
+      <c r="Q173" s="11"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
@@ -20842,22 +20827,25 @@
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
       <c r="BA173" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="BB173" s="1"/>
-      <c r="BC173" s="1"/>
-      <c r="BD173" s="1"/>
-      <c r="BE173" s="1"/>
-      <c r="BF173" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BG173" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="BH173" s="1"/>
-      <c r="BI173" s="1"/>
-      <c r="BJ173" s="1"/>
-      <c r="BK173" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="BB173" s="4"/>
+      <c r="BD173" s="2"/>
+      <c r="BE173" s="3"/>
+      <c r="BF173" s="2"/>
+      <c r="BG173" s="1"/>
+      <c r="BH173" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BI173" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="BJ173" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BK173" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="BL173" s="1"/>
       <c r="BM173" s="1"/>
       <c r="BN173" s="1"/>
@@ -20869,66 +20857,68 @@
       <c r="BT173" s="1"/>
       <c r="BU173" s="1"/>
       <c r="BV173" s="1"/>
-      <c r="BW173" s="1"/>
-      <c r="BX173" s="1"/>
-      <c r="BY173" s="1"/>
-      <c r="BZ173" s="1"/>
-      <c r="CA173" s="1"/>
-      <c r="CB173" s="1"/>
-      <c r="CC173" s="1"/>
-      <c r="CD173" s="1"/>
+      <c r="BW173" s="12"/>
+      <c r="BX173" s="12"/>
+      <c r="BY173" s="12"/>
+      <c r="BZ173" s="12"/>
+      <c r="CA173" s="12"/>
+      <c r="CB173" s="12"/>
+      <c r="CC173" s="12"/>
+      <c r="CD173" s="12"/>
       <c r="CE173" s="1"/>
-      <c r="CF173" s="1"/>
+      <c r="CF173" s="18"/>
       <c r="CG173" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="174" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>441</v>
+      <c r="A174" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I174" s="1"/>
+      <c r="C174" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="J174" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K174" t="s">
-        <v>1</v>
+        <v>292</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M174" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M174" s="2"/>
+      <c r="N174" s="1"/>
       <c r="O174" s="1"/>
-      <c r="P174" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="R174" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="S174" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
@@ -20940,7 +20930,9 @@
       <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
       <c r="AF174" s="1"/>
-      <c r="AG174" s="1"/>
+      <c r="AG174" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AH174" s="1"/>
       <c r="AI174" s="1"/>
       <c r="AJ174" s="1"/>
@@ -20960,25 +20952,20 @@
       <c r="AX174" s="1"/>
       <c r="AY174" s="1"/>
       <c r="AZ174" s="1"/>
-      <c r="BA174" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="BB174" s="1"/>
-      <c r="BC174" s="1"/>
-      <c r="BD174" s="1"/>
-      <c r="BE174" s="1"/>
-      <c r="BF174" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BG174" s="4" t="s">
-        <v>440</v>
-      </c>
+      <c r="BA174" s="1"/>
+      <c r="BB174" s="4"/>
+      <c r="BD174" s="2"/>
+      <c r="BE174" s="3"/>
+      <c r="BF174" s="2"/>
+      <c r="BG174" s="1"/>
       <c r="BH174" s="1"/>
-      <c r="BI174" s="1"/>
+      <c r="BI174" s="11"/>
       <c r="BJ174" s="1"/>
       <c r="BK174" s="1"/>
       <c r="BL174" s="1"/>
-      <c r="BM174" s="1"/>
+      <c r="BM174" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="BN174" s="1"/>
       <c r="BO174" s="1"/>
       <c r="BP174" s="1"/>
@@ -20988,23 +20975,23 @@
       <c r="BT174" s="1"/>
       <c r="BU174" s="1"/>
       <c r="BV174" s="1"/>
-      <c r="BW174" s="1"/>
-      <c r="BX174" s="1"/>
-      <c r="BY174" s="1"/>
-      <c r="BZ174" s="1"/>
-      <c r="CA174" s="1"/>
-      <c r="CB174" s="1"/>
-      <c r="CC174" s="1"/>
-      <c r="CD174" s="1"/>
+      <c r="BW174" s="12"/>
+      <c r="BX174" s="12"/>
+      <c r="BY174" s="12"/>
+      <c r="BZ174" s="12"/>
+      <c r="CA174" s="12"/>
+      <c r="CB174" s="12"/>
+      <c r="CC174" s="12"/>
+      <c r="CD174" s="12"/>
       <c r="CE174" s="1"/>
-      <c r="CF174" s="1"/>
+      <c r="CF174" s="18"/>
       <c r="CG174" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="175" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>365</v>
@@ -21087,7 +21074,7 @@
       <c r="BD175" s="1"/>
       <c r="BE175" s="1"/>
       <c r="BF175" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="BG175" s="4" t="s">
         <v>440</v>
@@ -21121,9 +21108,9 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" r="176" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="176" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>365</v>
@@ -21206,7 +21193,7 @@
       <c r="BD176" s="1"/>
       <c r="BE176" s="1"/>
       <c r="BF176" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="BG176" s="4" t="s">
         <v>440</v>
@@ -21240,9 +21227,9 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" r="177" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="177" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>365</v>
@@ -21325,7 +21312,7 @@
       <c r="BD177" s="1"/>
       <c r="BE177" s="1"/>
       <c r="BF177" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="BG177" s="4" t="s">
         <v>440</v>
@@ -21361,7 +21348,7 @@
     </row>
     <row customFormat="1" r="178" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>365</v>
@@ -21444,7 +21431,7 @@
       <c r="BD178" s="1"/>
       <c r="BE178" s="1"/>
       <c r="BF178" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="BG178" s="4" t="s">
         <v>440</v>
@@ -21478,17 +21465,19 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="179" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="179" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D179" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="2" t="s">
@@ -21561,7 +21550,7 @@
       <c r="BD179" s="1"/>
       <c r="BE179" s="1"/>
       <c r="BF179" s="1" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="BG179" s="4" t="s">
         <v>440</v>
@@ -21595,17 +21584,19 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="180" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="180" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D180" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="2" t="s">
@@ -21678,7 +21669,7 @@
       <c r="BD180" s="1"/>
       <c r="BE180" s="1"/>
       <c r="BF180" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="BG180" s="4" t="s">
         <v>440</v>
@@ -21714,7 +21705,7 @@
     </row>
     <row customFormat="1" ht="30" r="181" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>365</v>
@@ -21795,7 +21786,7 @@
       <c r="BD181" s="1"/>
       <c r="BE181" s="1"/>
       <c r="BF181" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="BG181" s="4" t="s">
         <v>440</v>
@@ -21829,9 +21820,9 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" r="182" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="182" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>365</v>
@@ -21912,7 +21903,7 @@
       <c r="BD182" s="1"/>
       <c r="BE182" s="1"/>
       <c r="BF182" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="BG182" s="4" t="s">
         <v>440</v>
@@ -21946,9 +21937,9 @@
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" r="183" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="183" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>365</v>
@@ -22029,7 +22020,7 @@
       <c r="BD183" s="1"/>
       <c r="BE183" s="1"/>
       <c r="BF183" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="BG183" s="4" t="s">
         <v>440</v>
@@ -22065,7 +22056,7 @@
     </row>
     <row customFormat="1" r="184" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>365</v>
@@ -22146,7 +22137,7 @@
       <c r="BD184" s="1"/>
       <c r="BE184" s="1"/>
       <c r="BF184" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="BG184" s="4" t="s">
         <v>440</v>
@@ -22177,22 +22168,20 @@
       <c r="CE184" s="1"/>
       <c r="CF184" s="1"/>
       <c r="CG184" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" r="185" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="2" t="s">
@@ -22264,8 +22253,12 @@
       <c r="BC185" s="1"/>
       <c r="BD185" s="1"/>
       <c r="BE185" s="1"/>
-      <c r="BF185" s="1"/>
-      <c r="BG185" s="4"/>
+      <c r="BF185" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="BG185" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="BH185" s="1"/>
       <c r="BI185" s="1"/>
       <c r="BJ185" s="1"/>
@@ -22297,7 +22290,7 @@
     </row>
     <row customFormat="1" r="186" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>365</v>
@@ -22378,9 +22371,11 @@
       <c r="BD186" s="1"/>
       <c r="BE186" s="1"/>
       <c r="BF186" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG186" s="4"/>
+        <v>450</v>
+      </c>
+      <c r="BG186" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="BH186" s="1"/>
       <c r="BI186" s="1"/>
       <c r="BJ186" s="1"/>
@@ -22407,26 +22402,50 @@
       <c r="CE186" s="1"/>
       <c r="CF186" s="1"/>
       <c r="CG186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row customFormat="1" r="187" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="A187" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
+      <c r="G187" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
+      <c r="J187" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K187" t="s">
+        <v>1</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
+      <c r="P187" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
@@ -22463,15 +22482,17 @@
       <c r="AX187" s="1"/>
       <c r="AY187" s="1"/>
       <c r="AZ187" s="1"/>
-      <c r="BA187" s="1"/>
+      <c r="BA187" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="BB187" s="1"/>
       <c r="BC187" s="1"/>
       <c r="BD187" s="1"/>
       <c r="BE187" s="1"/>
       <c r="BF187" s="1"/>
-      <c r="BG187" s="1"/>
+      <c r="BG187" s="4"/>
       <c r="BH187" s="1"/>
-      <c r="BI187" s="11"/>
+      <c r="BI187" s="1"/>
       <c r="BJ187" s="1"/>
       <c r="BK187" s="1"/>
       <c r="BL187" s="1"/>
@@ -22495,25 +22516,49 @@
       <c r="CD187" s="1"/>
       <c r="CE187" s="1"/>
       <c r="CF187" s="1"/>
-      <c r="CG187" s="1"/>
+      <c r="CG187" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row customFormat="1" r="188" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="A188" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
+      <c r="G188" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
+      <c r="J188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K188" t="s">
+        <v>1</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
+      <c r="P188" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
@@ -22550,15 +22595,19 @@
       <c r="AX188" s="1"/>
       <c r="AY188" s="1"/>
       <c r="AZ188" s="1"/>
-      <c r="BA188" s="1"/>
+      <c r="BA188" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="BB188" s="1"/>
       <c r="BC188" s="1"/>
       <c r="BD188" s="1"/>
       <c r="BE188" s="1"/>
-      <c r="BF188" s="1"/>
-      <c r="BG188" s="1"/>
+      <c r="BF188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG188" s="4"/>
       <c r="BH188" s="1"/>
-      <c r="BI188" s="11"/>
+      <c r="BI188" s="1"/>
       <c r="BJ188" s="1"/>
       <c r="BK188" s="1"/>
       <c r="BL188" s="1"/>
@@ -22582,7 +22631,9 @@
       <c r="CD188" s="1"/>
       <c r="CE188" s="1"/>
       <c r="CF188" s="1"/>
-      <c r="CG188" s="1"/>
+      <c r="CG188" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row customFormat="1" r="189" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
@@ -22674,7 +22725,7 @@
     <row customFormat="1" r="190" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="11"/>
+      <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -22761,7 +22812,7 @@
     <row customFormat="1" r="191" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="11"/>
+      <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -24499,178 +24550,178 @@
       <c r="CG210" s="1"/>
     </row>
     <row customFormat="1" r="211" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2"/>
-      <c r="V211" s="2"/>
-      <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
-      <c r="Y211" s="2"/>
-      <c r="Z211" s="2"/>
-      <c r="AA211" s="2"/>
-      <c r="AB211" s="2"/>
-      <c r="AC211" s="2"/>
-      <c r="AD211" s="2"/>
-      <c r="AE211" s="2"/>
-      <c r="AF211" s="2"/>
-      <c r="AG211" s="2"/>
-      <c r="AH211" s="2"/>
-      <c r="AI211" s="2"/>
-      <c r="AJ211" s="2"/>
-      <c r="AK211" s="2"/>
-      <c r="AL211" s="2"/>
-      <c r="AM211" s="2"/>
-      <c r="AN211" s="2"/>
-      <c r="AO211" s="2"/>
-      <c r="AP211" s="2"/>
-      <c r="AQ211" s="2"/>
-      <c r="AR211" s="2"/>
-      <c r="AS211" s="2"/>
-      <c r="AT211" s="2"/>
-      <c r="AU211" s="2"/>
-      <c r="AV211" s="2"/>
-      <c r="AW211" s="2"/>
-      <c r="AX211" s="2"/>
-      <c r="AY211" s="2"/>
-      <c r="AZ211" s="2"/>
-      <c r="BA211" s="2"/>
-      <c r="BB211" s="2"/>
-      <c r="BC211" s="2"/>
-      <c r="BD211" s="2"/>
-      <c r="BE211" s="2"/>
-      <c r="BF211" s="2"/>
-      <c r="BG211" s="2"/>
-      <c r="BH211" s="2"/>
-      <c r="BI211" s="3"/>
-      <c r="BJ211" s="2"/>
-      <c r="BK211" s="2"/>
-      <c r="BL211" s="2"/>
-      <c r="BM211" s="2"/>
-      <c r="BN211" s="2"/>
-      <c r="BO211" s="2"/>
-      <c r="BP211" s="2"/>
-      <c r="BQ211" s="2"/>
-      <c r="BR211" s="2"/>
-      <c r="BS211" s="2"/>
-      <c r="BT211" s="2"/>
-      <c r="BU211" s="2"/>
-      <c r="BV211" s="2"/>
-      <c r="BW211" s="2"/>
-      <c r="BX211" s="2"/>
-      <c r="BY211" s="2"/>
-      <c r="BZ211" s="2"/>
-      <c r="CA211" s="2"/>
-      <c r="CB211" s="2"/>
-      <c r="CC211" s="2"/>
-      <c r="CD211" s="2"/>
-      <c r="CE211" s="2"/>
-      <c r="CF211" s="2"/>
-      <c r="CG211" s="2"/>
+      <c r="A211" s="7"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
+      <c r="Y211" s="1"/>
+      <c r="Z211" s="1"/>
+      <c r="AA211" s="1"/>
+      <c r="AB211" s="1"/>
+      <c r="AC211" s="1"/>
+      <c r="AD211" s="1"/>
+      <c r="AE211" s="1"/>
+      <c r="AF211" s="1"/>
+      <c r="AG211" s="1"/>
+      <c r="AH211" s="1"/>
+      <c r="AI211" s="1"/>
+      <c r="AJ211" s="1"/>
+      <c r="AK211" s="1"/>
+      <c r="AL211" s="1"/>
+      <c r="AM211" s="1"/>
+      <c r="AN211" s="1"/>
+      <c r="AO211" s="1"/>
+      <c r="AP211" s="1"/>
+      <c r="AQ211" s="1"/>
+      <c r="AR211" s="1"/>
+      <c r="AS211" s="1"/>
+      <c r="AT211" s="1"/>
+      <c r="AU211" s="1"/>
+      <c r="AV211" s="1"/>
+      <c r="AW211" s="1"/>
+      <c r="AX211" s="1"/>
+      <c r="AY211" s="1"/>
+      <c r="AZ211" s="1"/>
+      <c r="BA211" s="1"/>
+      <c r="BB211" s="1"/>
+      <c r="BC211" s="1"/>
+      <c r="BD211" s="1"/>
+      <c r="BE211" s="1"/>
+      <c r="BF211" s="1"/>
+      <c r="BG211" s="1"/>
+      <c r="BH211" s="1"/>
+      <c r="BI211" s="11"/>
+      <c r="BJ211" s="1"/>
+      <c r="BK211" s="1"/>
+      <c r="BL211" s="1"/>
+      <c r="BM211" s="1"/>
+      <c r="BN211" s="1"/>
+      <c r="BO211" s="1"/>
+      <c r="BP211" s="1"/>
+      <c r="BQ211" s="1"/>
+      <c r="BR211" s="1"/>
+      <c r="BS211" s="1"/>
+      <c r="BT211" s="1"/>
+      <c r="BU211" s="1"/>
+      <c r="BV211" s="1"/>
+      <c r="BW211" s="1"/>
+      <c r="BX211" s="1"/>
+      <c r="BY211" s="1"/>
+      <c r="BZ211" s="1"/>
+      <c r="CA211" s="1"/>
+      <c r="CB211" s="1"/>
+      <c r="CC211" s="1"/>
+      <c r="CD211" s="1"/>
+      <c r="CE211" s="1"/>
+      <c r="CF211" s="1"/>
+      <c r="CG211" s="1"/>
     </row>
     <row customFormat="1" r="212" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A212" s="8"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="2"/>
-      <c r="U212" s="2"/>
-      <c r="V212" s="2"/>
-      <c r="W212" s="2"/>
-      <c r="X212" s="2"/>
-      <c r="Y212" s="2"/>
-      <c r="Z212" s="2"/>
-      <c r="AA212" s="2"/>
-      <c r="AB212" s="2"/>
-      <c r="AC212" s="2"/>
-      <c r="AD212" s="2"/>
-      <c r="AE212" s="2"/>
-      <c r="AF212" s="2"/>
-      <c r="AG212" s="2"/>
-      <c r="AH212" s="2"/>
-      <c r="AI212" s="2"/>
-      <c r="AJ212" s="2"/>
-      <c r="AK212" s="2"/>
-      <c r="AL212" s="2"/>
-      <c r="AM212" s="2"/>
-      <c r="AN212" s="2"/>
-      <c r="AO212" s="2"/>
-      <c r="AP212" s="2"/>
-      <c r="AQ212" s="2"/>
-      <c r="AR212" s="2"/>
-      <c r="AS212" s="2"/>
-      <c r="AT212" s="2"/>
-      <c r="AU212" s="2"/>
-      <c r="AV212" s="2"/>
-      <c r="AW212" s="2"/>
-      <c r="AX212" s="2"/>
-      <c r="AY212" s="2"/>
-      <c r="AZ212" s="2"/>
-      <c r="BA212" s="2"/>
-      <c r="BB212" s="2"/>
-      <c r="BC212" s="2"/>
-      <c r="BD212" s="2"/>
-      <c r="BE212" s="2"/>
-      <c r="BF212" s="2"/>
-      <c r="BG212" s="2"/>
-      <c r="BH212" s="2"/>
-      <c r="BI212" s="3"/>
-      <c r="BJ212" s="2"/>
-      <c r="BK212" s="2"/>
-      <c r="BL212" s="2"/>
-      <c r="BM212" s="2"/>
-      <c r="BN212" s="2"/>
-      <c r="BO212" s="2"/>
-      <c r="BP212" s="2"/>
-      <c r="BQ212" s="2"/>
-      <c r="BR212" s="2"/>
-      <c r="BS212" s="2"/>
-      <c r="BT212" s="2"/>
-      <c r="BU212" s="2"/>
-      <c r="BV212" s="2"/>
-      <c r="BW212" s="2"/>
-      <c r="BX212" s="2"/>
-      <c r="BY212" s="2"/>
-      <c r="BZ212" s="2"/>
-      <c r="CA212" s="2"/>
-      <c r="CB212" s="2"/>
-      <c r="CC212" s="2"/>
-      <c r="CD212" s="2"/>
-      <c r="CE212" s="2"/>
-      <c r="CF212" s="2"/>
-      <c r="CG212" s="2"/>
+      <c r="A212" s="7"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="1"/>
+      <c r="W212" s="1"/>
+      <c r="X212" s="1"/>
+      <c r="Y212" s="1"/>
+      <c r="Z212" s="1"/>
+      <c r="AA212" s="1"/>
+      <c r="AB212" s="1"/>
+      <c r="AC212" s="1"/>
+      <c r="AD212" s="1"/>
+      <c r="AE212" s="1"/>
+      <c r="AF212" s="1"/>
+      <c r="AG212" s="1"/>
+      <c r="AH212" s="1"/>
+      <c r="AI212" s="1"/>
+      <c r="AJ212" s="1"/>
+      <c r="AK212" s="1"/>
+      <c r="AL212" s="1"/>
+      <c r="AM212" s="1"/>
+      <c r="AN212" s="1"/>
+      <c r="AO212" s="1"/>
+      <c r="AP212" s="1"/>
+      <c r="AQ212" s="1"/>
+      <c r="AR212" s="1"/>
+      <c r="AS212" s="1"/>
+      <c r="AT212" s="1"/>
+      <c r="AU212" s="1"/>
+      <c r="AV212" s="1"/>
+      <c r="AW212" s="1"/>
+      <c r="AX212" s="1"/>
+      <c r="AY212" s="1"/>
+      <c r="AZ212" s="1"/>
+      <c r="BA212" s="1"/>
+      <c r="BB212" s="1"/>
+      <c r="BC212" s="1"/>
+      <c r="BD212" s="1"/>
+      <c r="BE212" s="1"/>
+      <c r="BF212" s="1"/>
+      <c r="BG212" s="1"/>
+      <c r="BH212" s="1"/>
+      <c r="BI212" s="11"/>
+      <c r="BJ212" s="1"/>
+      <c r="BK212" s="1"/>
+      <c r="BL212" s="1"/>
+      <c r="BM212" s="1"/>
+      <c r="BN212" s="1"/>
+      <c r="BO212" s="1"/>
+      <c r="BP212" s="1"/>
+      <c r="BQ212" s="1"/>
+      <c r="BR212" s="1"/>
+      <c r="BS212" s="1"/>
+      <c r="BT212" s="1"/>
+      <c r="BU212" s="1"/>
+      <c r="BV212" s="1"/>
+      <c r="BW212" s="1"/>
+      <c r="BX212" s="1"/>
+      <c r="BY212" s="1"/>
+      <c r="BZ212" s="1"/>
+      <c r="CA212" s="1"/>
+      <c r="CB212" s="1"/>
+      <c r="CC212" s="1"/>
+      <c r="CD212" s="1"/>
+      <c r="CE212" s="1"/>
+      <c r="CF212" s="1"/>
+      <c r="CG212" s="1"/>
     </row>
     <row customFormat="1" r="213" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
@@ -29980,7 +30031,7 @@
       <c r="CG273" s="2"/>
     </row>
     <row customFormat="1" r="274" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
+      <c r="A274" s="8"/>
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
       <c r="D274" s="2"/>
@@ -30067,7 +30118,7 @@
       <c r="CG274" s="2"/>
     </row>
     <row customFormat="1" r="275" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
+      <c r="A275" s="8"/>
       <c r="B275" s="2"/>
       <c r="C275" s="3"/>
       <c r="D275" s="2"/>
@@ -30850,70 +30901,244 @@
       <c r="CG283" s="2"/>
     </row>
     <row customFormat="1" r="284" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="C284" s="14"/>
-      <c r="BI284" s="14"/>
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="2"/>
+      <c r="L284" s="2"/>
+      <c r="M284" s="2"/>
+      <c r="N284" s="2"/>
+      <c r="O284" s="2"/>
+      <c r="P284" s="2"/>
+      <c r="Q284" s="2"/>
+      <c r="R284" s="2"/>
+      <c r="S284" s="2"/>
+      <c r="T284" s="2"/>
+      <c r="U284" s="2"/>
+      <c r="V284" s="2"/>
+      <c r="W284" s="2"/>
+      <c r="X284" s="2"/>
+      <c r="Y284" s="2"/>
+      <c r="Z284" s="2"/>
+      <c r="AA284" s="2"/>
+      <c r="AB284" s="2"/>
+      <c r="AC284" s="2"/>
+      <c r="AD284" s="2"/>
+      <c r="AE284" s="2"/>
+      <c r="AF284" s="2"/>
+      <c r="AG284" s="2"/>
+      <c r="AH284" s="2"/>
+      <c r="AI284" s="2"/>
+      <c r="AJ284" s="2"/>
+      <c r="AK284" s="2"/>
+      <c r="AL284" s="2"/>
+      <c r="AM284" s="2"/>
+      <c r="AN284" s="2"/>
+      <c r="AO284" s="2"/>
+      <c r="AP284" s="2"/>
+      <c r="AQ284" s="2"/>
+      <c r="AR284" s="2"/>
+      <c r="AS284" s="2"/>
+      <c r="AT284" s="2"/>
+      <c r="AU284" s="2"/>
+      <c r="AV284" s="2"/>
+      <c r="AW284" s="2"/>
+      <c r="AX284" s="2"/>
+      <c r="AY284" s="2"/>
+      <c r="AZ284" s="2"/>
+      <c r="BA284" s="2"/>
+      <c r="BB284" s="2"/>
+      <c r="BC284" s="2"/>
+      <c r="BD284" s="2"/>
+      <c r="BE284" s="2"/>
+      <c r="BF284" s="2"/>
+      <c r="BG284" s="2"/>
+      <c r="BH284" s="2"/>
+      <c r="BI284" s="3"/>
+      <c r="BJ284" s="2"/>
+      <c r="BK284" s="2"/>
+      <c r="BL284" s="2"/>
+      <c r="BM284" s="2"/>
+      <c r="BN284" s="2"/>
+      <c r="BO284" s="2"/>
+      <c r="BP284" s="2"/>
+      <c r="BQ284" s="2"/>
+      <c r="BR284" s="2"/>
+      <c r="BS284" s="2"/>
+      <c r="BT284" s="2"/>
+      <c r="BU284" s="2"/>
+      <c r="BV284" s="2"/>
+      <c r="BW284" s="2"/>
+      <c r="BX284" s="2"/>
+      <c r="BY284" s="2"/>
+      <c r="BZ284" s="2"/>
+      <c r="CA284" s="2"/>
+      <c r="CB284" s="2"/>
+      <c r="CC284" s="2"/>
+      <c r="CD284" s="2"/>
+      <c r="CE284" s="2"/>
+      <c r="CF284" s="2"/>
+      <c r="CG284" s="2"/>
+    </row>
+    <row customFormat="1" r="285" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2"/>
+      <c r="K285" s="2"/>
+      <c r="L285" s="2"/>
+      <c r="M285" s="2"/>
+      <c r="N285" s="2"/>
+      <c r="O285" s="2"/>
+      <c r="P285" s="2"/>
+      <c r="Q285" s="2"/>
+      <c r="R285" s="2"/>
+      <c r="S285" s="2"/>
+      <c r="T285" s="2"/>
+      <c r="U285" s="2"/>
+      <c r="V285" s="2"/>
+      <c r="W285" s="2"/>
+      <c r="X285" s="2"/>
+      <c r="Y285" s="2"/>
+      <c r="Z285" s="2"/>
+      <c r="AA285" s="2"/>
+      <c r="AB285" s="2"/>
+      <c r="AC285" s="2"/>
+      <c r="AD285" s="2"/>
+      <c r="AE285" s="2"/>
+      <c r="AF285" s="2"/>
+      <c r="AG285" s="2"/>
+      <c r="AH285" s="2"/>
+      <c r="AI285" s="2"/>
+      <c r="AJ285" s="2"/>
+      <c r="AK285" s="2"/>
+      <c r="AL285" s="2"/>
+      <c r="AM285" s="2"/>
+      <c r="AN285" s="2"/>
+      <c r="AO285" s="2"/>
+      <c r="AP285" s="2"/>
+      <c r="AQ285" s="2"/>
+      <c r="AR285" s="2"/>
+      <c r="AS285" s="2"/>
+      <c r="AT285" s="2"/>
+      <c r="AU285" s="2"/>
+      <c r="AV285" s="2"/>
+      <c r="AW285" s="2"/>
+      <c r="AX285" s="2"/>
+      <c r="AY285" s="2"/>
+      <c r="AZ285" s="2"/>
+      <c r="BA285" s="2"/>
+      <c r="BB285" s="2"/>
+      <c r="BC285" s="2"/>
+      <c r="BD285" s="2"/>
+      <c r="BE285" s="2"/>
+      <c r="BF285" s="2"/>
+      <c r="BG285" s="2"/>
+      <c r="BH285" s="2"/>
+      <c r="BI285" s="3"/>
+      <c r="BJ285" s="2"/>
+      <c r="BK285" s="2"/>
+      <c r="BL285" s="2"/>
+      <c r="BM285" s="2"/>
+      <c r="BN285" s="2"/>
+      <c r="BO285" s="2"/>
+      <c r="BP285" s="2"/>
+      <c r="BQ285" s="2"/>
+      <c r="BR285" s="2"/>
+      <c r="BS285" s="2"/>
+      <c r="BT285" s="2"/>
+      <c r="BU285" s="2"/>
+      <c r="BV285" s="2"/>
+      <c r="BW285" s="2"/>
+      <c r="BX285" s="2"/>
+      <c r="BY285" s="2"/>
+      <c r="BZ285" s="2"/>
+      <c r="CA285" s="2"/>
+      <c r="CB285" s="2"/>
+      <c r="CC285" s="2"/>
+      <c r="CD285" s="2"/>
+      <c r="CE285" s="2"/>
+      <c r="CF285" s="2"/>
+      <c r="CG285" s="2"/>
+    </row>
+    <row customFormat="1" r="286" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="C286" s="14"/>
+      <c r="BI286" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink display="abc@test.com" r:id="rId1" ref="BM25"/>
-    <hyperlink r:id="rId2" ref="D46"/>
-    <hyperlink r:id="rId3" ref="D47"/>
-    <hyperlink r:id="rId4" ref="D50"/>
-    <hyperlink r:id="rId5" ref="D51"/>
-    <hyperlink r:id="rId6" ref="D52"/>
-    <hyperlink r:id="rId7" ref="D54"/>
-    <hyperlink r:id="rId8" ref="D57"/>
-    <hyperlink r:id="rId9" ref="D58"/>
-    <hyperlink r:id="rId10" ref="D59"/>
-    <hyperlink r:id="rId11" ref="D62"/>
-    <hyperlink r:id="rId12" ref="D63"/>
-    <hyperlink r:id="rId13" ref="C65"/>
-    <hyperlink r:id="rId14" ref="D65"/>
-    <hyperlink r:id="rId15" ref="C66"/>
-    <hyperlink r:id="rId16" ref="C69"/>
-    <hyperlink r:id="rId17" ref="C70"/>
-    <hyperlink r:id="rId18" ref="C73"/>
+    <hyperlink r:id="rId2" ref="D48"/>
+    <hyperlink r:id="rId3" ref="D49"/>
+    <hyperlink r:id="rId4" ref="D52"/>
+    <hyperlink r:id="rId5" ref="D53"/>
+    <hyperlink r:id="rId6" ref="D54"/>
+    <hyperlink r:id="rId7" ref="D56"/>
+    <hyperlink r:id="rId8" ref="D59"/>
+    <hyperlink r:id="rId9" ref="D60"/>
+    <hyperlink r:id="rId10" ref="D61"/>
+    <hyperlink r:id="rId11" ref="D64"/>
+    <hyperlink r:id="rId12" ref="D65"/>
+    <hyperlink r:id="rId13" ref="C67"/>
+    <hyperlink r:id="rId14" ref="D67"/>
+    <hyperlink r:id="rId15" ref="C68"/>
+    <hyperlink r:id="rId16" ref="C71"/>
+    <hyperlink r:id="rId17" ref="C72"/>
+    <hyperlink r:id="rId18" ref="C75"/>
     <hyperlink r:id="rId19" ref="C25"/>
     <hyperlink r:id="rId20" ref="C11"/>
-    <hyperlink r:id="rId21" ref="C165"/>
-    <hyperlink r:id="rId22" ref="C79"/>
-    <hyperlink display="Ankit@12345" r:id="rId23" ref="AU79"/>
-    <hyperlink r:id="rId24" ref="C77"/>
-    <hyperlink r:id="rId25" ref="C50"/>
-    <hyperlink r:id="rId26" ref="C59"/>
-    <hyperlink r:id="rId27" ref="C78"/>
-    <hyperlink display="ankitgoel06@gmail.com" r:id="rId28" ref="C80:C83"/>
-    <hyperlink display="ankitgoel06@gmail.com" r:id="rId29" ref="C85:C98"/>
-    <hyperlink r:id="rId30" ref="C96"/>
-    <hyperlink r:id="rId31" ref="C92"/>
-    <hyperlink r:id="rId32" ref="C95"/>
-    <hyperlink r:id="rId33" ref="C146"/>
-    <hyperlink display="Deepika@1234" r:id="rId34" ref="D146"/>
-    <hyperlink r:id="rId35" ref="C157"/>
-    <hyperlink r:id="rId36" ref="C158"/>
-    <hyperlink r:id="rId37" ref="C159"/>
-    <hyperlink r:id="rId38" ref="C160"/>
-    <hyperlink r:id="rId39" ref="C162"/>
-    <hyperlink r:id="rId40" ref="C169"/>
-    <hyperlink r:id="rId41" ref="C171"/>
-    <hyperlink r:id="rId42" ref="C172"/>
-    <hyperlink r:id="rId43" ref="D171"/>
-    <hyperlink r:id="rId44" ref="D172"/>
-    <hyperlink r:id="rId45" ref="C54"/>
-    <hyperlink r:id="rId46" ref="C153"/>
-    <hyperlink r:id="rId47" ref="C154"/>
-    <hyperlink r:id="rId48" ref="C155"/>
-    <hyperlink r:id="rId49" ref="C141"/>
-    <hyperlink r:id="rId50" ref="C142"/>
-    <hyperlink r:id="rId51" ref="AM132"/>
-    <hyperlink r:id="rId52" ref="C163"/>
-    <hyperlink r:id="rId53" ref="C164"/>
-    <hyperlink r:id="rId54" ref="C166"/>
-    <hyperlink r:id="rId55" ref="C167"/>
-    <hyperlink r:id="rId56" ref="C168"/>
-    <hyperlink r:id="rId57" ref="C111"/>
-    <hyperlink display="Ankit@12345" r:id="rId58" ref="D79"/>
-    <hyperlink r:id="rId59" ref="C137"/>
+    <hyperlink r:id="rId21" ref="C167"/>
+    <hyperlink r:id="rId22" ref="C81"/>
+    <hyperlink display="Ankit@12345" r:id="rId23" ref="AU81"/>
+    <hyperlink r:id="rId24" ref="C79"/>
+    <hyperlink r:id="rId25" ref="C52"/>
+    <hyperlink r:id="rId26" ref="C61"/>
+    <hyperlink r:id="rId27" ref="C80"/>
+    <hyperlink display="ankitgoel06@gmail.com" r:id="rId28" ref="C82:C85"/>
+    <hyperlink display="ankitgoel06@gmail.com" r:id="rId29" ref="C87:C100"/>
+    <hyperlink r:id="rId30" ref="C98"/>
+    <hyperlink r:id="rId31" ref="C94"/>
+    <hyperlink r:id="rId32" ref="C97"/>
+    <hyperlink r:id="rId33" ref="C148"/>
+    <hyperlink display="Deepika@1234" r:id="rId34" ref="D148"/>
+    <hyperlink r:id="rId35" ref="C159"/>
+    <hyperlink r:id="rId36" ref="C160"/>
+    <hyperlink r:id="rId37" ref="C161"/>
+    <hyperlink r:id="rId38" ref="C162"/>
+    <hyperlink r:id="rId39" ref="C164"/>
+    <hyperlink r:id="rId40" ref="C171"/>
+    <hyperlink r:id="rId41" ref="C173"/>
+    <hyperlink r:id="rId42" ref="C174"/>
+    <hyperlink r:id="rId43" ref="D173"/>
+    <hyperlink r:id="rId44" ref="D174"/>
+    <hyperlink r:id="rId45" ref="C56"/>
+    <hyperlink r:id="rId46" ref="C155"/>
+    <hyperlink r:id="rId47" ref="C156"/>
+    <hyperlink r:id="rId48" ref="C157"/>
+    <hyperlink r:id="rId49" ref="C143"/>
+    <hyperlink r:id="rId50" ref="C144"/>
+    <hyperlink r:id="rId51" ref="AM134"/>
+    <hyperlink r:id="rId52" ref="C165"/>
+    <hyperlink r:id="rId53" ref="C166"/>
+    <hyperlink r:id="rId54" ref="C168"/>
+    <hyperlink r:id="rId55" ref="C169"/>
+    <hyperlink r:id="rId56" ref="C170"/>
+    <hyperlink r:id="rId57" ref="C113"/>
+    <hyperlink display="Ankit@12345" r:id="rId58" ref="D81"/>
+    <hyperlink r:id="rId59" ref="C139"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId60"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="5715" windowWidth="12900" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="6585" windowWidth="15360" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
     <sheet name="Dependencies" r:id="rId2" sheetId="6"/>
     <sheet name="updates" r:id="rId3" sheetId="7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="503">
   <si>
     <t>Ankit</t>
   </si>
@@ -1125,9 +1126,6 @@
     <t>fctyhtfvvhrtdfdtytyjtnyuguhku</t>
   </si>
   <si>
-    <t>ewxfregtrxcrgrthhcththj</t>
-  </si>
-  <si>
     <t>cf</t>
   </si>
   <si>
@@ -1404,18 +1402,6 @@
     <t>SS_CheckOut_GuestUser_EmptyField</t>
   </si>
   <si>
-    <t>fcdZAgv@gmail.com</t>
-  </si>
-  <si>
-    <t>ssavfd@gmail.com</t>
-  </si>
-  <si>
-    <t>vcfsxcfdv@gmail.com</t>
-  </si>
-  <si>
-    <t>vcvdzsw@gmail.com</t>
-  </si>
-  <si>
     <t>CLOTHING</t>
   </si>
   <si>
@@ -1449,15 +1435,6 @@
     <t>Relevance,Popular,New,Discount,Price : Low,High</t>
   </si>
   <si>
-    <t>fcSAaqr@gmail.com</t>
-  </si>
-  <si>
-    <t>sdxasdss@gmail.com</t>
-  </si>
-  <si>
-    <t>cdAzsZwqsdSfv@gmail.com</t>
-  </si>
-  <si>
     <t>SS_MyAccount_Verify_Order_Details</t>
   </si>
   <si>
@@ -1525,6 +1502,30 @@
   </si>
   <si>
     <t>SS_MyAccount_Verify_Order_ReviewRating_screen</t>
+  </si>
+  <si>
+    <t>productCategory</t>
+  </si>
+  <si>
+    <t>dwasxzsdcqr@gmail.com</t>
+  </si>
+  <si>
+    <t>zszdsas@gmail.com</t>
+  </si>
+  <si>
+    <t>zxsdcfv@gmail.com</t>
+  </si>
+  <si>
+    <t>sfszss@gmail.com</t>
+  </si>
+  <si>
+    <t>ssaszxsddvfd@gmail.com</t>
+  </si>
+  <si>
+    <t>decsdcszsfddv@gmail.com</t>
+  </si>
+  <si>
+    <t>vcxsdsfzacd@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2151,10 +2152,10 @@
   <dimension ref="A1:CH299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B89" xSplit="1" ySplit="1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B152" xSplit="1" ySplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="A101" pane="bottomRight" sqref="A101"/>
+      <selection activeCell="A163" pane="bottomRight" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,7 +2187,7 @@
         <v>168</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>369</v>
+        <v>495</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>158</v>
@@ -2608,7 +2609,7 @@
       <c r="CE3" s="1"/>
       <c r="CF3" s="18"/>
       <c r="CG3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
@@ -4492,7 +4493,7 @@
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -4572,7 +4573,7 @@
       <c r="CE24" s="1"/>
       <c r="CF24" s="18"/>
       <c r="CG24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row ht="45" r="25" spans="1:85" x14ac:dyDescent="0.25">
@@ -4583,7 +4584,7 @@
         <v>365</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5053,7 +5054,7 @@
       <c r="CE29" s="1"/>
       <c r="CF29" s="18"/>
       <c r="CG29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row ht="45" r="30" spans="1:85" x14ac:dyDescent="0.25">
@@ -5074,7 +5075,7 @@
         <v>59</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -5152,7 +5153,7 @@
       <c r="CE30" s="1"/>
       <c r="CF30" s="18"/>
       <c r="CG30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:85" x14ac:dyDescent="0.25">
@@ -5358,7 +5359,7 @@
       <c r="CE32" s="1"/>
       <c r="CF32" s="18"/>
       <c r="CG32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.25">
@@ -5455,7 +5456,7 @@
       <c r="CE33" s="1"/>
       <c r="CF33" s="18"/>
       <c r="CG33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.25">
@@ -5700,7 +5701,7 @@
         <v>6</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
@@ -5802,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="AF37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -5857,7 +5858,7 @@
       <c r="CE37" s="1"/>
       <c r="CF37" s="18"/>
       <c r="CG37" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:85" x14ac:dyDescent="0.25">
@@ -5963,7 +5964,7 @@
     </row>
     <row r="39" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>365</v>
@@ -5973,10 +5974,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -5999,10 +6000,10 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
@@ -6064,7 +6065,7 @@
     </row>
     <row r="40" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>365</v>
@@ -6074,10 +6075,10 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -6100,10 +6101,10 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
@@ -6354,7 +6355,7 @@
       <c r="CE42" s="1"/>
       <c r="CF42" s="18"/>
       <c r="CG42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:85" x14ac:dyDescent="0.25">
@@ -6578,7 +6579,7 @@
         <v>53</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -6601,13 +6602,13 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -6760,7 +6761,7 @@
       <c r="CE46" s="1"/>
       <c r="CF46" s="18"/>
       <c r="CG46" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:85" x14ac:dyDescent="0.25">
@@ -6857,7 +6858,7 @@
       <c r="CE47" s="1"/>
       <c r="CF47" s="18"/>
       <c r="CG47" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:85" x14ac:dyDescent="0.25">
@@ -7168,7 +7169,7 @@
         <v>53</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -7269,7 +7270,7 @@
         <v>53</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -7370,7 +7371,7 @@
         <v>53</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -7471,7 +7472,7 @@
         <v>53</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -7570,7 +7571,7 @@
         <v>53</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -7671,7 +7672,7 @@
         <v>53</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -7750,12 +7751,12 @@
       <c r="CE56" s="1"/>
       <c r="CF56" s="18"/>
       <c r="CG56" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>365</v>
@@ -7768,7 +7769,7 @@
         <v>53</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -7847,7 +7848,7 @@
       <c r="CE57" s="1"/>
       <c r="CF57" s="18"/>
       <c r="CG57" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:85" x14ac:dyDescent="0.25">
@@ -7865,7 +7866,7 @@
         <v>53</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -7966,7 +7967,7 @@
         <v>53</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -8065,7 +8066,7 @@
         <v>53</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -8170,7 +8171,7 @@
         <v>53</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -8269,7 +8270,7 @@
         <v>53</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
@@ -8360,7 +8361,7 @@
       <c r="CE62" s="1"/>
       <c r="CF62" s="18"/>
       <c r="CG62" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:85" x14ac:dyDescent="0.25">
@@ -8378,7 +8379,7 @@
         <v>53</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
@@ -8469,7 +8470,7 @@
       <c r="CE63" s="1"/>
       <c r="CF63" s="18"/>
       <c r="CG63" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:85" x14ac:dyDescent="0.25">
@@ -8491,7 +8492,7 @@
         <v>53</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -8598,7 +8599,7 @@
         <v>53</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -10150,10 +10151,10 @@
         <v>365</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -10198,7 +10199,7 @@
       <c r="AS81" s="1"/>
       <c r="AT81" s="1"/>
       <c r="AU81" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
@@ -10240,7 +10241,7 @@
       <c r="CE81" s="1"/>
       <c r="CF81" s="1"/>
       <c r="CG81" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:85" x14ac:dyDescent="0.25">
@@ -11350,19 +11351,19 @@
     </row>
     <row r="93" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D93" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -11449,19 +11450,19 @@
     </row>
     <row r="94" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -11548,25 +11549,25 @@
     </row>
     <row ht="30" r="95" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D95" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -11630,7 +11631,7 @@
       <c r="BQ95" s="1"/>
       <c r="BR95" s="1"/>
       <c r="BS95" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT95" s="1"/>
       <c r="BU95" s="1"/>
@@ -11646,30 +11647,30 @@
       <c r="CE95" s="1"/>
       <c r="CF95" s="1"/>
       <c r="CG95" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row ht="30" r="96" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -11733,7 +11734,7 @@
       <c r="BQ96" s="1"/>
       <c r="BR96" s="1"/>
       <c r="BS96" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT96" s="1"/>
       <c r="BU96" s="1"/>
@@ -11754,25 +11755,25 @@
     </row>
     <row ht="30" r="97" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -11836,7 +11837,7 @@
       <c r="BQ97" s="1"/>
       <c r="BR97" s="1"/>
       <c r="BS97" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT97" s="1"/>
       <c r="BU97" s="1"/>
@@ -11852,30 +11853,30 @@
       <c r="CE97" s="1"/>
       <c r="CF97" s="1"/>
       <c r="CG97" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row ht="30" r="98" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -11939,7 +11940,7 @@
       <c r="BQ98" s="1"/>
       <c r="BR98" s="1"/>
       <c r="BS98" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT98" s="1"/>
       <c r="BU98" s="1"/>
@@ -11960,25 +11961,25 @@
     </row>
     <row ht="30" r="99" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D99" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -12042,7 +12043,7 @@
       <c r="BQ99" s="1"/>
       <c r="BR99" s="1"/>
       <c r="BS99" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT99" s="1"/>
       <c r="BU99" s="1"/>
@@ -12058,30 +12059,30 @@
       <c r="CE99" s="1"/>
       <c r="CF99" s="1"/>
       <c r="CG99" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row ht="30" r="100" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D100" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -12145,7 +12146,7 @@
       <c r="BQ100" s="1"/>
       <c r="BR100" s="1"/>
       <c r="BS100" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT100" s="1"/>
       <c r="BU100" s="1"/>
@@ -12166,25 +12167,25 @@
     </row>
     <row ht="30" r="101" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D101" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -12248,7 +12249,7 @@
       <c r="BQ101" s="1"/>
       <c r="BR101" s="1"/>
       <c r="BS101" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT101" s="1"/>
       <c r="BU101" s="1"/>
@@ -12269,28 +12270,28 @@
     </row>
     <row ht="30" r="102" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D102" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -12323,16 +12324,16 @@
       <c r="AM102" s="1"/>
       <c r="AN102" s="1"/>
       <c r="AO102" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AP102" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AQ102" s="1"/>
       <c r="AR102" s="1"/>
       <c r="AS102" s="1"/>
       <c r="AT102" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="AU102" s="1"/>
       <c r="AV102" s="1"/>
@@ -12342,15 +12343,15 @@
       <c r="AZ102" s="1"/>
       <c r="BA102" s="1"/>
       <c r="BB102" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="BC102" s="1"/>
       <c r="BD102" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="BE102" s="1"/>
       <c r="BF102" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="BG102" s="1"/>
       <c r="BH102" s="1"/>
@@ -12365,7 +12366,7 @@
       <c r="BQ102" s="1"/>
       <c r="BR102" s="1"/>
       <c r="BS102" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT102" s="1"/>
       <c r="BU102" s="1"/>
@@ -12386,25 +12387,25 @@
     </row>
     <row ht="30" r="103" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D103" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -12468,7 +12469,7 @@
       <c r="BQ103" s="1"/>
       <c r="BR103" s="1"/>
       <c r="BS103" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT103" s="1"/>
       <c r="BU103" s="1"/>
@@ -12489,25 +12490,25 @@
     </row>
     <row ht="30" r="104" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D104" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -12571,7 +12572,7 @@
       <c r="BQ104" s="1"/>
       <c r="BR104" s="1"/>
       <c r="BS104" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT104" s="1"/>
       <c r="BU104" s="1"/>
@@ -12592,25 +12593,25 @@
     </row>
     <row ht="30" r="105" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D105" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -12674,7 +12675,7 @@
       <c r="BQ105" s="1"/>
       <c r="BR105" s="1"/>
       <c r="BS105" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BT105" s="1"/>
       <c r="BU105" s="1"/>
@@ -12695,19 +12696,19 @@
     </row>
     <row r="106" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D106" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -13016,7 +13017,7 @@
         <v>28</v>
       </c>
       <c r="K109" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>5</v>
@@ -13129,7 +13130,7 @@
         <v>28</v>
       </c>
       <c r="K110" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>5</v>
@@ -13246,7 +13247,7 @@
         <v>28</v>
       </c>
       <c r="K111" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>5</v>
@@ -13280,13 +13281,13 @@
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
       <c r="AG111" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH111" s="1" t="s">
         <v>310</v>
       </c>
       <c r="AI111" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AJ111" s="1" t="s">
         <v>29</v>
@@ -13375,7 +13376,7 @@
         <v>28</v>
       </c>
       <c r="K112" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>5</v>
@@ -13490,7 +13491,7 @@
         <v>28</v>
       </c>
       <c r="K113" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>5</v>
@@ -13617,7 +13618,7 @@
         <v>28</v>
       </c>
       <c r="K114" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>5</v>
@@ -13819,7 +13820,7 @@
         <v>365</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -15506,7 +15507,7 @@
     </row>
     <row r="133" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>365</v>
@@ -15520,7 +15521,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>6</v>
@@ -15860,7 +15861,7 @@
     </row>
     <row r="136" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>365</v>
@@ -15979,7 +15980,7 @@
     </row>
     <row r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>365</v>
@@ -16042,10 +16043,10 @@
       <c r="AL137" s="1"/>
       <c r="AM137" s="1"/>
       <c r="AN137" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO137" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO137" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP137" s="1"/>
       <c r="AQ137" s="1"/>
@@ -16076,12 +16077,12 @@
       <c r="BJ137" s="1"/>
       <c r="BK137" s="1"/>
       <c r="BL137" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM137" s="1"/>
       <c r="BN137" s="1"/>
       <c r="BO137" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP137" s="1"/>
       <c r="BQ137" s="1"/>
@@ -16106,7 +16107,7 @@
     </row>
     <row r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>365</v>
@@ -16169,10 +16170,10 @@
       <c r="AL138" s="1"/>
       <c r="AM138" s="1"/>
       <c r="AN138" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO138" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO138" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP138" s="1"/>
       <c r="AQ138" s="1"/>
@@ -16203,12 +16204,12 @@
       <c r="BJ138" s="1"/>
       <c r="BK138" s="1"/>
       <c r="BL138" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM138" s="1"/>
       <c r="BN138" s="1"/>
       <c r="BO138" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP138" s="1"/>
       <c r="BQ138" s="1"/>
@@ -16233,13 +16234,13 @@
     </row>
     <row r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>362</v>
@@ -16296,10 +16297,10 @@
       <c r="AL139" s="1"/>
       <c r="AM139" s="1"/>
       <c r="AN139" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO139" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO139" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP139" s="1"/>
       <c r="AQ139" s="1"/>
@@ -16330,12 +16331,12 @@
       <c r="BJ139" s="1"/>
       <c r="BK139" s="1"/>
       <c r="BL139" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM139" s="1"/>
       <c r="BN139" s="1"/>
       <c r="BO139" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP139" s="1"/>
       <c r="BQ139" s="1"/>
@@ -16360,13 +16361,13 @@
     </row>
     <row r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>362</v>
@@ -16377,7 +16378,7 @@
         <v>53</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="2" t="s">
@@ -16423,10 +16424,10 @@
       <c r="AL140" s="1"/>
       <c r="AM140" s="1"/>
       <c r="AN140" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO140" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO140" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP140" s="1"/>
       <c r="AQ140" s="1"/>
@@ -16457,12 +16458,12 @@
       <c r="BJ140" s="1"/>
       <c r="BK140" s="1"/>
       <c r="BL140" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM140" s="1"/>
       <c r="BN140" s="1"/>
       <c r="BO140" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP140" s="1"/>
       <c r="BQ140" s="1"/>
@@ -16487,13 +16488,13 @@
     </row>
     <row r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>362</v>
@@ -16550,10 +16551,10 @@
       <c r="AL141" s="1"/>
       <c r="AM141" s="1"/>
       <c r="AN141" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO141" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO141" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP141" s="1"/>
       <c r="AQ141" s="1"/>
@@ -16584,12 +16585,12 @@
       <c r="BJ141" s="1"/>
       <c r="BK141" s="1"/>
       <c r="BL141" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM141" s="1"/>
       <c r="BN141" s="1"/>
       <c r="BO141" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP141" s="1"/>
       <c r="BQ141" s="1"/>
@@ -16614,13 +16615,13 @@
     </row>
     <row r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>362</v>
@@ -16677,10 +16678,10 @@
       <c r="AL142" s="1"/>
       <c r="AM142" s="1"/>
       <c r="AN142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO142" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO142" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP142" s="1"/>
       <c r="AQ142" s="1"/>
@@ -16711,12 +16712,12 @@
       <c r="BJ142" s="1"/>
       <c r="BK142" s="1"/>
       <c r="BL142" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM142" s="1"/>
       <c r="BN142" s="1"/>
       <c r="BO142" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP142" s="1"/>
       <c r="BQ142" s="1"/>
@@ -16741,13 +16742,13 @@
     </row>
     <row r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>362</v>
@@ -16804,10 +16805,10 @@
       <c r="AL143" s="1"/>
       <c r="AM143" s="1"/>
       <c r="AN143" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO143" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO143" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP143" s="1"/>
       <c r="AQ143" s="1"/>
@@ -16838,12 +16839,12 @@
       <c r="BJ143" s="1"/>
       <c r="BK143" s="1"/>
       <c r="BL143" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM143" s="1"/>
       <c r="BN143" s="1"/>
       <c r="BO143" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP143" s="1"/>
       <c r="BQ143" s="1"/>
@@ -16868,7 +16869,7 @@
     </row>
     <row r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>365</v>
@@ -16931,10 +16932,10 @@
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
       <c r="AN144" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO144" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO144" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
@@ -16965,12 +16966,12 @@
       <c r="BJ144" s="1"/>
       <c r="BK144" s="1"/>
       <c r="BL144" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM144" s="1"/>
       <c r="BN144" s="1"/>
       <c r="BO144" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP144" s="1"/>
       <c r="BQ144" s="1"/>
@@ -16995,7 +16996,7 @@
     </row>
     <row r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>365</v>
@@ -17058,10 +17059,10 @@
       <c r="AL145" s="1"/>
       <c r="AM145" s="1"/>
       <c r="AN145" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO145" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO145" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP145" s="1"/>
       <c r="AQ145" s="1"/>
@@ -17092,12 +17093,12 @@
       <c r="BJ145" s="1"/>
       <c r="BK145" s="1"/>
       <c r="BL145" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM145" s="1"/>
       <c r="BN145" s="1"/>
       <c r="BO145" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP145" s="1"/>
       <c r="BQ145" s="1"/>
@@ -17122,7 +17123,7 @@
     </row>
     <row r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>365</v>
@@ -17186,10 +17187,10 @@
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
       <c r="AN146" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO146" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO146" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP146" s="1"/>
       <c r="AQ146" s="1"/>
@@ -17220,12 +17221,12 @@
       <c r="BJ146" s="1"/>
       <c r="BK146" s="1"/>
       <c r="BL146" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
       <c r="BO146" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP146" s="1"/>
       <c r="BQ146" s="1"/>
@@ -17250,7 +17251,7 @@
     </row>
     <row r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>365</v>
@@ -17308,17 +17309,17 @@
       <c r="AG147" s="1"/>
       <c r="AH147" s="1"/>
       <c r="AI147" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AJ147" s="1"/>
       <c r="AK147" s="1"/>
       <c r="AL147" s="1"/>
       <c r="AM147" s="1"/>
       <c r="AN147" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO147" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO147" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP147" s="1"/>
       <c r="AQ147" s="1"/>
@@ -17349,12 +17350,12 @@
       <c r="BJ147" s="1"/>
       <c r="BK147" s="1"/>
       <c r="BL147" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM147" s="1"/>
       <c r="BN147" s="1"/>
       <c r="BO147" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP147" s="1"/>
       <c r="BQ147" s="1"/>
@@ -17379,7 +17380,7 @@
     </row>
     <row r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>365</v>
@@ -17441,13 +17442,13 @@
       <c r="AK148" s="1"/>
       <c r="AL148" s="1"/>
       <c r="AM148" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AN148" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO148" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO148" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP148" s="1"/>
       <c r="AQ148" s="1"/>
@@ -17478,12 +17479,12 @@
       <c r="BJ148" s="1"/>
       <c r="BK148" s="1"/>
       <c r="BL148" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
       <c r="BO148" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP148" s="1"/>
       <c r="BQ148" s="1"/>
@@ -17508,7 +17509,7 @@
     </row>
     <row r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>365</v>
@@ -17568,15 +17569,15 @@
       <c r="AI149" s="1"/>
       <c r="AJ149" s="1"/>
       <c r="AK149" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AL149" s="1"/>
       <c r="AM149" s="1"/>
       <c r="AN149" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO149" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO149" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP149" s="1"/>
       <c r="AQ149" s="1"/>
@@ -17607,12 +17608,12 @@
       <c r="BJ149" s="1"/>
       <c r="BK149" s="1"/>
       <c r="BL149" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM149" s="1"/>
       <c r="BN149" s="1"/>
       <c r="BO149" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP149" s="1"/>
       <c r="BQ149" s="1"/>
@@ -17637,7 +17638,7 @@
     </row>
     <row r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>365</v>
@@ -17700,10 +17701,10 @@
       <c r="AL150" s="1"/>
       <c r="AM150" s="1"/>
       <c r="AN150" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO150" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO150" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP150" s="1"/>
       <c r="AQ150" s="1"/>
@@ -17734,12 +17735,12 @@
       <c r="BJ150" s="1"/>
       <c r="BK150" s="1"/>
       <c r="BL150" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM150" s="1"/>
       <c r="BN150" s="1"/>
       <c r="BO150" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP150" s="1"/>
       <c r="BQ150" s="1"/>
@@ -17764,7 +17765,7 @@
     </row>
     <row r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>365</v>
@@ -17827,10 +17828,10 @@
       <c r="AL151" s="1"/>
       <c r="AM151" s="1"/>
       <c r="AN151" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO151" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO151" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP151" s="1"/>
       <c r="AQ151" s="1"/>
@@ -17861,12 +17862,12 @@
       <c r="BJ151" s="1"/>
       <c r="BK151" s="1"/>
       <c r="BL151" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM151" s="1"/>
       <c r="BN151" s="1"/>
       <c r="BO151" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP151" s="1"/>
       <c r="BQ151" s="1"/>
@@ -17891,7 +17892,7 @@
     </row>
     <row r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>365</v>
@@ -17954,10 +17955,10 @@
       <c r="AL152" s="1"/>
       <c r="AM152" s="1"/>
       <c r="AN152" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO152" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO152" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP152" s="1"/>
       <c r="AQ152" s="1"/>
@@ -17988,12 +17989,12 @@
       <c r="BJ152" s="1"/>
       <c r="BK152" s="1"/>
       <c r="BL152" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
       <c r="BO152" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP152" s="1"/>
       <c r="BQ152" s="1"/>
@@ -18018,13 +18019,13 @@
     </row>
     <row r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>362</v>
@@ -18081,10 +18082,10 @@
       <c r="AL153" s="1"/>
       <c r="AM153" s="1"/>
       <c r="AN153" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO153" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO153" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP153" s="1"/>
       <c r="AQ153" s="1"/>
@@ -18115,12 +18116,12 @@
       <c r="BJ153" s="1"/>
       <c r="BK153" s="1"/>
       <c r="BL153" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
       <c r="BO153" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP153" s="1"/>
       <c r="BQ153" s="1"/>
@@ -18145,13 +18146,13 @@
     </row>
     <row r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>362</v>
@@ -18208,10 +18209,10 @@
       <c r="AL154" s="1"/>
       <c r="AM154" s="1"/>
       <c r="AN154" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO154" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO154" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP154" s="1"/>
       <c r="AQ154" s="1"/>
@@ -18242,12 +18243,12 @@
       <c r="BJ154" s="1"/>
       <c r="BK154" s="1"/>
       <c r="BL154" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
       <c r="BO154" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP154" s="1"/>
       <c r="BQ154" s="1"/>
@@ -18272,13 +18273,13 @@
     </row>
     <row r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>362</v>
@@ -18335,10 +18336,10 @@
       <c r="AL155" s="1"/>
       <c r="AM155" s="1"/>
       <c r="AN155" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO155" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO155" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP155" s="1"/>
       <c r="AQ155" s="1"/>
@@ -18369,12 +18370,12 @@
       <c r="BJ155" s="1"/>
       <c r="BK155" s="1"/>
       <c r="BL155" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
       <c r="BO155" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP155" s="1"/>
       <c r="BQ155" s="1"/>
@@ -18399,13 +18400,13 @@
     </row>
     <row r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>362</v>
@@ -18462,10 +18463,10 @@
       <c r="AL156" s="1"/>
       <c r="AM156" s="1"/>
       <c r="AN156" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO156" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO156" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP156" s="1"/>
       <c r="AQ156" s="1"/>
@@ -18496,12 +18497,12 @@
       <c r="BJ156" s="1"/>
       <c r="BK156" s="1"/>
       <c r="BL156" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM156" s="1"/>
       <c r="BN156" s="1"/>
       <c r="BO156" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP156" s="1"/>
       <c r="BQ156" s="1"/>
@@ -18526,13 +18527,13 @@
     </row>
     <row r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>3</v>
@@ -18589,10 +18590,10 @@
       <c r="AL157" s="1"/>
       <c r="AM157" s="1"/>
       <c r="AN157" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO157" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO157" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP157" s="1"/>
       <c r="AQ157" s="1"/>
@@ -18623,12 +18624,12 @@
       <c r="BJ157" s="1"/>
       <c r="BK157" s="1"/>
       <c r="BL157" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
       <c r="BO157" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP157" s="1"/>
       <c r="BQ157" s="1"/>
@@ -18653,13 +18654,13 @@
     </row>
     <row r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>3</v>
@@ -18670,7 +18671,7 @@
         <v>53</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="2" t="s">
@@ -18716,10 +18717,10 @@
       <c r="AL158" s="1"/>
       <c r="AM158" s="1"/>
       <c r="AN158" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO158" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO158" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP158" s="1"/>
       <c r="AQ158" s="1"/>
@@ -18750,12 +18751,12 @@
       <c r="BJ158" s="1"/>
       <c r="BK158" s="1"/>
       <c r="BL158" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
       <c r="BO158" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP158" s="1"/>
       <c r="BQ158" s="1"/>
@@ -18780,7 +18781,7 @@
     </row>
     <row r="159" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>365</v>
@@ -18843,10 +18844,10 @@
       <c r="AL159" s="1"/>
       <c r="AM159" s="1"/>
       <c r="AN159" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO159" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO159" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP159" s="1"/>
       <c r="AQ159" s="1"/>
@@ -18877,12 +18878,12 @@
       <c r="BJ159" s="1"/>
       <c r="BK159" s="1"/>
       <c r="BL159" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM159" s="1"/>
       <c r="BN159" s="1"/>
       <c r="BO159" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP159" s="1"/>
       <c r="BQ159" s="1"/>
@@ -18907,7 +18908,7 @@
     </row>
     <row r="160" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>365</v>
@@ -18970,10 +18971,10 @@
       <c r="AL160" s="1"/>
       <c r="AM160" s="1"/>
       <c r="AN160" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO160" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AO160" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AP160" s="1"/>
       <c r="AQ160" s="1"/>
@@ -19004,12 +19005,12 @@
       <c r="BJ160" s="1"/>
       <c r="BK160" s="1"/>
       <c r="BL160" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM160" s="1"/>
       <c r="BN160" s="1"/>
       <c r="BO160" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP160" s="1"/>
       <c r="BQ160" s="1"/>
@@ -19163,7 +19164,7 @@
         <v>365</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D162" s="26" t="s">
         <v>362</v>
@@ -19288,7 +19289,7 @@
     </row>
     <row r="163" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>365</v>
@@ -19400,7 +19401,7 @@
       <c r="CE163" s="1"/>
       <c r="CF163" s="1"/>
       <c r="CG163" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="164" spans="1:85" x14ac:dyDescent="0.25">
@@ -20004,13 +20005,13 @@
     </row>
     <row r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>6</v>
@@ -20100,7 +20101,7 @@
       <c r="BM169" s="1"/>
       <c r="BN169" s="1"/>
       <c r="BO169" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP169" s="1"/>
       <c r="BQ169" s="1"/>
@@ -20125,13 +20126,13 @@
     </row>
     <row r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>6</v>
@@ -20218,12 +20219,12 @@
       <c r="BJ170" s="1"/>
       <c r="BK170" s="1"/>
       <c r="BL170" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
       <c r="BO170" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BP170" s="1"/>
       <c r="BQ170" s="1"/>
@@ -20248,13 +20249,13 @@
     </row>
     <row r="171" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>6</v>
@@ -20341,7 +20342,7 @@
       <c r="BJ171" s="1"/>
       <c r="BK171" s="1"/>
       <c r="BL171" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BM171" s="1"/>
       <c r="BN171" s="1"/>
@@ -20494,7 +20495,7 @@
         <v>365</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>3</v>
@@ -20626,7 +20627,7 @@
         <v>365</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>3</v>
@@ -20755,7 +20756,7 @@
         <v>365</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>3</v>
@@ -20886,7 +20887,7 @@
         <v>365</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>3</v>
@@ -21099,7 +21100,7 @@
         <v>365</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>362</v>
@@ -21113,7 +21114,7 @@
         <v>242</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>315</v>
@@ -21235,7 +21236,7 @@
         <v>365</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>362</v>
@@ -21249,13 +21250,13 @@
         <v>6</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J179" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K179" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="K179" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="L179" s="1" t="s">
         <v>363</v>
@@ -21297,7 +21298,7 @@
       <c r="AE179" s="1"/>
       <c r="AF179" s="1"/>
       <c r="AG179" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AH179" s="1"/>
       <c r="AI179" s="1"/>
@@ -21360,7 +21361,7 @@
       <c r="CE179" s="1"/>
       <c r="CF179" s="18"/>
       <c r="CG179" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:85" x14ac:dyDescent="0.25">
@@ -21371,7 +21372,7 @@
         <v>365</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>362</v>
@@ -21381,7 +21382,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>315</v>
@@ -21494,7 +21495,7 @@
         <v>365</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="D181" s="11" t="s">
         <v>362</v>
@@ -21510,22 +21511,22 @@
         <v>242</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J181" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K181" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K181" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="L181" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M181" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="N181" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="O181" s="1"/>
       <c r="P181" s="1" t="s">
@@ -21558,7 +21559,7 @@
       <c r="AE181" s="1"/>
       <c r="AF181" s="1"/>
       <c r="AG181" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AH181" s="1"/>
       <c r="AI181" s="1"/>
@@ -21623,7 +21624,7 @@
         <v>365</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>362</v>
@@ -21637,7 +21638,7 @@
         <v>242</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>315</v>
@@ -21759,7 +21760,7 @@
         <v>365</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>362</v>
@@ -21769,7 +21770,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>315</v>
@@ -21891,7 +21892,7 @@
         <v>365</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>362</v>
@@ -21901,7 +21902,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>315</v>
@@ -22023,7 +22024,7 @@
         <v>365</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>362</v>
@@ -22039,13 +22040,13 @@
         <v>242</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J185" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K185" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="K185" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="L185" s="1" t="s">
         <v>244</v>
@@ -22087,7 +22088,7 @@
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
       <c r="AG185" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH185" s="1"/>
       <c r="AI185" s="1"/>
@@ -22175,7 +22176,7 @@
         <v>59</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J186" s="1"/>
       <c r="K186" s="2"/>
@@ -22270,7 +22271,7 @@
         <v>285</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -22281,7 +22282,7 @@
         <v>59</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>0</v>
@@ -22394,14 +22395,14 @@
         <v>285</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>292</v>
@@ -22503,7 +22504,7 @@
     </row>
     <row ht="30" r="189" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>365</v>
@@ -22579,17 +22580,17 @@
       <c r="AY189" s="1"/>
       <c r="AZ189" s="1"/>
       <c r="BA189" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB189" s="1"/>
       <c r="BC189" s="1"/>
       <c r="BD189" s="1"/>
       <c r="BE189" s="1"/>
       <c r="BF189" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BG189" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="BG189" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="BH189" s="1"/>
       <c r="BI189" s="1"/>
@@ -22622,7 +22623,7 @@
     </row>
     <row ht="30" r="190" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>365</v>
@@ -22698,17 +22699,17 @@
       <c r="AY190" s="1"/>
       <c r="AZ190" s="1"/>
       <c r="BA190" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB190" s="1"/>
       <c r="BC190" s="1"/>
       <c r="BD190" s="1"/>
       <c r="BE190" s="1"/>
       <c r="BF190" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BG190" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BH190" s="1"/>
       <c r="BI190" s="1"/>
@@ -22741,7 +22742,7 @@
     </row>
     <row ht="30" r="191" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>365</v>
@@ -22817,17 +22818,17 @@
       <c r="AY191" s="1"/>
       <c r="AZ191" s="1"/>
       <c r="BA191" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB191" s="1"/>
       <c r="BC191" s="1"/>
       <c r="BD191" s="1"/>
       <c r="BE191" s="1"/>
       <c r="BF191" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BG191" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BH191" s="1"/>
       <c r="BI191" s="1"/>
@@ -22860,7 +22861,7 @@
     </row>
     <row r="192" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>365</v>
@@ -22936,17 +22937,17 @@
       <c r="AY192" s="1"/>
       <c r="AZ192" s="1"/>
       <c r="BA192" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB192" s="1"/>
       <c r="BC192" s="1"/>
       <c r="BD192" s="1"/>
       <c r="BE192" s="1"/>
       <c r="BF192" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BG192" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BH192" s="1"/>
       <c r="BI192" s="1"/>
@@ -22979,7 +22980,7 @@
     </row>
     <row r="193" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>365</v>
@@ -23055,17 +23056,17 @@
       <c r="AY193" s="1"/>
       <c r="AZ193" s="1"/>
       <c r="BA193" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB193" s="1"/>
       <c r="BC193" s="1"/>
       <c r="BD193" s="1"/>
       <c r="BE193" s="1"/>
       <c r="BF193" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BG193" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BH193" s="1"/>
       <c r="BI193" s="1"/>
@@ -23098,7 +23099,7 @@
     </row>
     <row r="194" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>365</v>
@@ -23174,17 +23175,17 @@
       <c r="AY194" s="1"/>
       <c r="AZ194" s="1"/>
       <c r="BA194" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB194" s="1"/>
       <c r="BC194" s="1"/>
       <c r="BD194" s="1"/>
       <c r="BE194" s="1"/>
       <c r="BF194" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BG194" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BH194" s="1"/>
       <c r="BI194" s="1"/>
@@ -23217,7 +23218,7 @@
     </row>
     <row ht="30" r="195" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>365</v>
@@ -23291,17 +23292,17 @@
       <c r="AY195" s="1"/>
       <c r="AZ195" s="1"/>
       <c r="BA195" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB195" s="1"/>
       <c r="BC195" s="1"/>
       <c r="BD195" s="1"/>
       <c r="BE195" s="1"/>
       <c r="BF195" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BG195" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="BG195" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="BH195" s="1"/>
       <c r="BI195" s="1"/>
@@ -23334,7 +23335,7 @@
     </row>
     <row ht="30" r="196" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>365</v>
@@ -23408,17 +23409,17 @@
       <c r="AY196" s="1"/>
       <c r="AZ196" s="1"/>
       <c r="BA196" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB196" s="1"/>
       <c r="BC196" s="1"/>
       <c r="BD196" s="1"/>
       <c r="BE196" s="1"/>
       <c r="BF196" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BG196" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BH196" s="1"/>
       <c r="BI196" s="1"/>
@@ -23451,7 +23452,7 @@
     </row>
     <row ht="30" r="197" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>365</v>
@@ -23525,17 +23526,17 @@
       <c r="AY197" s="1"/>
       <c r="AZ197" s="1"/>
       <c r="BA197" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB197" s="1"/>
       <c r="BC197" s="1"/>
       <c r="BD197" s="1"/>
       <c r="BE197" s="1"/>
       <c r="BF197" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BG197" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BH197" s="1"/>
       <c r="BI197" s="1"/>
@@ -23568,7 +23569,7 @@
     </row>
     <row r="198" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>365</v>
@@ -23642,17 +23643,17 @@
       <c r="AY198" s="1"/>
       <c r="AZ198" s="1"/>
       <c r="BA198" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB198" s="1"/>
       <c r="BC198" s="1"/>
       <c r="BD198" s="1"/>
       <c r="BE198" s="1"/>
       <c r="BF198" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BG198" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BH198" s="1"/>
       <c r="BI198" s="1"/>
@@ -23685,7 +23686,7 @@
     </row>
     <row r="199" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>365</v>
@@ -23759,17 +23760,17 @@
       <c r="AY199" s="1"/>
       <c r="AZ199" s="1"/>
       <c r="BA199" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB199" s="1"/>
       <c r="BC199" s="1"/>
       <c r="BD199" s="1"/>
       <c r="BE199" s="1"/>
       <c r="BF199" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BG199" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BH199" s="1"/>
       <c r="BI199" s="1"/>
@@ -23802,7 +23803,7 @@
     </row>
     <row r="200" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>365</v>
@@ -23876,17 +23877,17 @@
       <c r="AY200" s="1"/>
       <c r="AZ200" s="1"/>
       <c r="BA200" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB200" s="1"/>
       <c r="BC200" s="1"/>
       <c r="BD200" s="1"/>
       <c r="BE200" s="1"/>
       <c r="BF200" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BG200" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BH200" s="1"/>
       <c r="BI200" s="1"/>
@@ -23919,7 +23920,7 @@
     </row>
     <row r="201" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>365</v>
@@ -23995,7 +23996,7 @@
       <c r="AY201" s="1"/>
       <c r="AZ201" s="1"/>
       <c r="BA201" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB201" s="1"/>
       <c r="BC201" s="1"/>
@@ -24034,7 +24035,7 @@
     </row>
     <row r="202" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>365</v>
@@ -24108,7 +24109,7 @@
       <c r="AY202" s="1"/>
       <c r="AZ202" s="1"/>
       <c r="BA202" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB202" s="1"/>
       <c r="BC202" s="1"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="6585" windowWidth="15360" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="6075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
-    <sheet name="Dependencies" r:id="rId2" sheetId="6"/>
-    <sheet name="updates" r:id="rId3" sheetId="7"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Dependencies" sheetId="6" r:id="rId2"/>
+    <sheet name="updates" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="503">
   <si>
     <t>Ankit</t>
   </si>
@@ -805,9 +805,6 @@
     <t>Element is detectable based on contact info , update contact info in case it changes.</t>
   </si>
   <si>
-    <t>You have been successfully subscribed to newsletter!!</t>
-  </si>
-  <si>
     <t>headerSoppersStopLogo</t>
   </si>
   <si>
@@ -1526,13 +1523,15 @@
   </si>
   <si>
     <t>vcxsdsfzacd@gmail.com</t>
+  </si>
+  <si>
+    <t>You are a registered customer. Your subscription for newsletter is successfully updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1742,81 +1741,81 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="8" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1833,10 +1832,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1871,7 +1870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1923,7 +1922,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2028,7 +2027,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2037,13 +2036,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2053,7 +2052,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2062,7 +2061,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2071,7 +2070,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2081,12 +2080,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2117,7 +2116,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2136,7 +2135,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2148,26 +2147,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CG299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B152" xSplit="1" ySplit="1"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="A163" pane="bottomRight" sqref="A163"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="CC17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="CD25" sqref="CD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="98.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="34.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="61" max="61" style="14" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="98.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="23.140625" style="14" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>164</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>168</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>158</v>
@@ -2346,13 +2345,13 @@
         <v>187</v>
       </c>
       <c r="BH1" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="BI1" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="BK1" s="5" t="s">
         <v>186</v>
@@ -2391,19 +2390,19 @@
         <v>180</v>
       </c>
       <c r="BW1" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="BX1" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BY1" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CA1" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="CA1" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="CB1" s="5" t="s">
         <v>179</v>
@@ -2429,7 +2428,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
@@ -2516,7 +2515,7 @@
       <c r="CE2" s="1"/>
       <c r="CF2" s="18"/>
       <c r="CG2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.25">
@@ -2524,7 +2523,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
@@ -2609,7 +2608,7 @@
       <c r="CE3" s="1"/>
       <c r="CF3" s="18"/>
       <c r="CG3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
@@ -2617,7 +2616,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="1"/>
@@ -2704,7 +2703,7 @@
       <c r="CE4" s="1"/>
       <c r="CF4" s="18"/>
       <c r="CG4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.25">
@@ -2712,7 +2711,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="1"/>
@@ -2797,7 +2796,7 @@
       <c r="CE5" s="1"/>
       <c r="CF5" s="18"/>
       <c r="CG5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.25">
@@ -2805,7 +2804,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="1"/>
@@ -2890,19 +2889,19 @@
       <c r="CE6" s="1"/>
       <c r="CF6" s="18"/>
       <c r="CG6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="7" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2985,7 +2984,7 @@
       <c r="CE7" s="1"/>
       <c r="CF7" s="18"/>
       <c r="CG7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
@@ -2993,11 +2992,11 @@
         <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3080,7 +3079,7 @@
       <c r="CE8" s="1"/>
       <c r="CF8" s="18"/>
       <c r="CG8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.25">
@@ -3088,7 +3087,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="1"/>
@@ -3173,7 +3172,7 @@
       <c r="CE9" s="1"/>
       <c r="CF9" s="18"/>
       <c r="CG9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.25">
@@ -3181,7 +3180,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="1"/>
@@ -3266,7 +3265,7 @@
       <c r="CE10" s="1"/>
       <c r="CF10" s="18"/>
       <c r="CG10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:85" x14ac:dyDescent="0.25">
@@ -3274,7 +3273,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>2</v>
@@ -3363,7 +3362,7 @@
       <c r="CE11" s="1"/>
       <c r="CF11" s="18"/>
       <c r="CG11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.25">
@@ -3371,7 +3370,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="1"/>
@@ -3456,7 +3455,7 @@
       <c r="CE12" s="1"/>
       <c r="CF12" s="18"/>
       <c r="CG12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:85" x14ac:dyDescent="0.25">
@@ -3464,7 +3463,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="1"/>
@@ -3549,7 +3548,7 @@
       <c r="CE13" s="1"/>
       <c r="CF13" s="18"/>
       <c r="CG13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:85" x14ac:dyDescent="0.25">
@@ -3557,7 +3556,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="1"/>
@@ -3644,7 +3643,7 @@
       <c r="CE14" s="1"/>
       <c r="CF14" s="18"/>
       <c r="CG14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.25">
@@ -3652,7 +3651,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="1"/>
@@ -3737,7 +3736,7 @@
       <c r="CE15" s="1"/>
       <c r="CF15" s="18"/>
       <c r="CG15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.25">
@@ -3745,7 +3744,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="1"/>
@@ -3830,7 +3829,7 @@
       <c r="CE16" s="1"/>
       <c r="CF16" s="18"/>
       <c r="CG16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:85" x14ac:dyDescent="0.25">
@@ -3838,7 +3837,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="1"/>
@@ -3923,7 +3922,7 @@
       <c r="CE17" s="1"/>
       <c r="CF17" s="18"/>
       <c r="CG17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:85" x14ac:dyDescent="0.25">
@@ -3931,7 +3930,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="1"/>
@@ -4016,7 +4015,7 @@
       <c r="CE18" s="1"/>
       <c r="CF18" s="18"/>
       <c r="CG18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:85" x14ac:dyDescent="0.25">
@@ -4024,7 +4023,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="1"/>
@@ -4109,7 +4108,7 @@
       <c r="CE19" s="1"/>
       <c r="CF19" s="18"/>
       <c r="CG19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:85" x14ac:dyDescent="0.25">
@@ -4117,7 +4116,7 @@
         <v>256</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="1"/>
@@ -4202,7 +4201,7 @@
       <c r="CE20" s="1"/>
       <c r="CF20" s="18"/>
       <c r="CG20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:85" x14ac:dyDescent="0.25">
@@ -4210,7 +4209,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="1"/>
@@ -4301,7 +4300,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="1"/>
@@ -4386,7 +4385,7 @@
       <c r="CE22" s="1"/>
       <c r="CF22" s="18"/>
       <c r="CG22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:85" x14ac:dyDescent="0.25">
@@ -4394,7 +4393,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="1"/>
@@ -4479,21 +4478,21 @@
       <c r="CE23" s="1"/>
       <c r="CF23" s="18"/>
       <c r="CG23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="60" r="24" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:85" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -4573,18 +4572,18 @@
       <c r="CE24" s="1"/>
       <c r="CF24" s="18"/>
       <c r="CG24" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row ht="45" r="25" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:85" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4648,7 +4647,7 @@
       <c r="BK25" s="1"/>
       <c r="BL25" s="1"/>
       <c r="BM25" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BN25" s="1"/>
       <c r="BO25" s="1"/>
@@ -4665,18 +4664,18 @@
       <c r="BZ25" s="1"/>
       <c r="CA25" s="1"/>
       <c r="CB25" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CC25" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CD25" s="15" t="s">
-        <v>262</v>
+        <v>502</v>
       </c>
       <c r="CE25" s="1"/>
       <c r="CF25" s="18"/>
       <c r="CG25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:85" x14ac:dyDescent="0.25">
@@ -4684,7 +4683,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="1"/>
@@ -4769,7 +4768,7 @@
       <c r="CE26" s="1"/>
       <c r="CF26" s="18"/>
       <c r="CG26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:85" x14ac:dyDescent="0.25">
@@ -4777,7 +4776,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="1"/>
@@ -4862,7 +4861,7 @@
       <c r="CE27" s="1"/>
       <c r="CF27" s="18"/>
       <c r="CG27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:85" x14ac:dyDescent="0.25">
@@ -4870,7 +4869,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="1"/>
@@ -4965,7 +4964,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="1"/>
@@ -5054,15 +5053,15 @@
       <c r="CE29" s="1"/>
       <c r="CF29" s="18"/>
       <c r="CG29" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row ht="45" r="30" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:85" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="1"/>
@@ -5075,7 +5074,7 @@
         <v>59</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -5153,7 +5152,7 @@
       <c r="CE30" s="1"/>
       <c r="CF30" s="18"/>
       <c r="CG30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:85" x14ac:dyDescent="0.25">
@@ -5161,7 +5160,7 @@
         <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="1"/>
@@ -5250,7 +5249,7 @@
       <c r="CE31" s="1"/>
       <c r="CF31" s="18"/>
       <c r="CG31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:85" x14ac:dyDescent="0.25">
@@ -5258,7 +5257,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="1"/>
@@ -5359,7 +5358,7 @@
       <c r="CE32" s="1"/>
       <c r="CF32" s="18"/>
       <c r="CG32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.25">
@@ -5367,7 +5366,7 @@
         <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="1"/>
@@ -5456,7 +5455,7 @@
       <c r="CE33" s="1"/>
       <c r="CF33" s="18"/>
       <c r="CG33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.25">
@@ -5464,7 +5463,7 @@
         <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="1"/>
@@ -5497,7 +5496,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -5555,7 +5554,7 @@
       <c r="CE34" s="1"/>
       <c r="CF34" s="18"/>
       <c r="CG34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:85" x14ac:dyDescent="0.25">
@@ -5563,7 +5562,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="1"/>
@@ -5656,7 +5655,7 @@
       <c r="CE35" s="1"/>
       <c r="CF35" s="18"/>
       <c r="CG35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:85" x14ac:dyDescent="0.25">
@@ -5664,7 +5663,7 @@
         <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="1"/>
@@ -5701,7 +5700,7 @@
         <v>6</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
@@ -5757,7 +5756,7 @@
       <c r="CE36" s="1"/>
       <c r="CF36" s="18"/>
       <c r="CG36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:85" x14ac:dyDescent="0.25">
@@ -5765,7 +5764,7 @@
         <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="1"/>
@@ -5803,7 +5802,7 @@
         <v>6</v>
       </c>
       <c r="AF37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -5858,15 +5857,15 @@
       <c r="CE37" s="1"/>
       <c r="CF37" s="18"/>
       <c r="CG37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="1"/>
@@ -5947,7 +5946,7 @@
       <c r="BU38" s="1"/>
       <c r="BV38" s="1"/>
       <c r="BW38" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BX38" s="1"/>
       <c r="BY38" s="1"/>
@@ -5959,25 +5958,25 @@
       <c r="CE38" s="1"/>
       <c r="CF38" s="18"/>
       <c r="CG38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -6000,10 +5999,10 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD39" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="AD39" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
@@ -6060,25 +6059,25 @@
       <c r="CE39" s="1"/>
       <c r="CF39" s="18"/>
       <c r="CG39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -6101,10 +6100,10 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD40" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
@@ -6161,7 +6160,7 @@
       <c r="CE40" s="1"/>
       <c r="CF40" s="18"/>
       <c r="CG40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:85" x14ac:dyDescent="0.25">
@@ -6169,7 +6168,7 @@
         <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="1"/>
@@ -6258,7 +6257,7 @@
       <c r="CE41" s="1"/>
       <c r="CF41" s="18"/>
       <c r="CG41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:85" x14ac:dyDescent="0.25">
@@ -6266,7 +6265,7 @@
         <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="1"/>
@@ -6355,7 +6354,7 @@
       <c r="CE42" s="1"/>
       <c r="CF42" s="18"/>
       <c r="CG42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:85" x14ac:dyDescent="0.25">
@@ -6363,7 +6362,7 @@
         <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="1"/>
@@ -6452,7 +6451,7 @@
       <c r="CE43" s="1"/>
       <c r="CF43" s="18"/>
       <c r="CG43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:85" x14ac:dyDescent="0.25">
@@ -6460,7 +6459,7 @@
         <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="1"/>
@@ -6561,7 +6560,7 @@
       <c r="CE44" s="1"/>
       <c r="CF44" s="18"/>
       <c r="CG44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:85" x14ac:dyDescent="0.25">
@@ -6569,7 +6568,7 @@
         <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="1"/>
@@ -6579,7 +6578,7 @@
         <v>53</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -6602,13 +6601,13 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -6664,7 +6663,7 @@
       <c r="CE45" s="1"/>
       <c r="CF45" s="18"/>
       <c r="CG45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:85" x14ac:dyDescent="0.25">
@@ -6672,7 +6671,7 @@
         <v>80</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="1"/>
@@ -6761,7 +6760,7 @@
       <c r="CE46" s="1"/>
       <c r="CF46" s="18"/>
       <c r="CG46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:85" x14ac:dyDescent="0.25">
@@ -6769,7 +6768,7 @@
         <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="1"/>
@@ -6858,7 +6857,7 @@
       <c r="CE47" s="1"/>
       <c r="CF47" s="18"/>
       <c r="CG47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:85" x14ac:dyDescent="0.25">
@@ -6866,7 +6865,7 @@
         <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -6959,7 +6958,7 @@
       <c r="CE48" s="1"/>
       <c r="CF48" s="18"/>
       <c r="CG48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:85" x14ac:dyDescent="0.25">
@@ -6967,7 +6966,7 @@
         <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -7060,7 +7059,7 @@
       <c r="CE49" s="1"/>
       <c r="CF49" s="18"/>
       <c r="CG49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="1:85" x14ac:dyDescent="0.25">
@@ -7068,7 +7067,7 @@
         <v>84</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="1"/>
@@ -7159,7 +7158,7 @@
         <v>85</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="1"/>
@@ -7169,7 +7168,7 @@
         <v>53</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -7248,7 +7247,7 @@
       <c r="CE51" s="1"/>
       <c r="CF51" s="18"/>
       <c r="CG51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:85" x14ac:dyDescent="0.25">
@@ -7256,7 +7255,7 @@
         <v>86</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>2</v>
@@ -7270,7 +7269,7 @@
         <v>53</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -7349,7 +7348,7 @@
       <c r="CE52" s="1"/>
       <c r="CF52" s="18"/>
       <c r="CG52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:85" x14ac:dyDescent="0.25">
@@ -7357,7 +7356,7 @@
         <v>87</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -7371,7 +7370,7 @@
         <v>53</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -7450,15 +7449,15 @@
       <c r="CE53" s="1"/>
       <c r="CF53" s="18"/>
       <c r="CG53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -7472,7 +7471,7 @@
         <v>53</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -7557,7 +7556,7 @@
         <v>88</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>6</v>
@@ -7571,7 +7570,7 @@
         <v>53</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -7650,7 +7649,7 @@
       <c r="CE55" s="1"/>
       <c r="CF55" s="18"/>
       <c r="CG55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:85" x14ac:dyDescent="0.25">
@@ -7658,7 +7657,7 @@
         <v>89</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C56" s="27" t="s">
         <v>2</v>
@@ -7672,7 +7671,7 @@
         <v>53</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -7751,15 +7750,15 @@
       <c r="CE56" s="1"/>
       <c r="CF56" s="18"/>
       <c r="CG56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="1"/>
@@ -7769,7 +7768,7 @@
         <v>53</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -7848,7 +7847,7 @@
       <c r="CE57" s="1"/>
       <c r="CF57" s="18"/>
       <c r="CG57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:85" x14ac:dyDescent="0.25">
@@ -7856,7 +7855,7 @@
         <v>90</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="1"/>
@@ -7866,7 +7865,7 @@
         <v>53</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -7945,15 +7944,15 @@
       <c r="CE58" s="1"/>
       <c r="CF58" s="18"/>
       <c r="CG58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -7967,7 +7966,7 @@
         <v>53</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -8052,7 +8051,7 @@
         <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -8066,7 +8065,7 @@
         <v>53</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -8124,12 +8123,12 @@
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
       <c r="BL60" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
       <c r="BO60" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BP60" s="1"/>
       <c r="BQ60" s="1"/>
@@ -8149,7 +8148,7 @@
       <c r="CE60" s="1"/>
       <c r="CF60" s="18"/>
       <c r="CG60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:85" x14ac:dyDescent="0.25">
@@ -8157,7 +8156,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C61" s="27" t="s">
         <v>2</v>
@@ -8171,7 +8170,7 @@
         <v>53</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -8252,7 +8251,7 @@
       <c r="CE61" s="1"/>
       <c r="CF61" s="18"/>
       <c r="CG61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:85" x14ac:dyDescent="0.25">
@@ -8260,7 +8259,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="1"/>
@@ -8270,7 +8269,7 @@
         <v>53</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
@@ -8361,7 +8360,7 @@
       <c r="CE62" s="1"/>
       <c r="CF62" s="18"/>
       <c r="CG62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:85" x14ac:dyDescent="0.25">
@@ -8369,7 +8368,7 @@
         <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="1"/>
@@ -8379,7 +8378,7 @@
         <v>53</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
@@ -8470,7 +8469,7 @@
       <c r="CE63" s="1"/>
       <c r="CF63" s="18"/>
       <c r="CG63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:85" x14ac:dyDescent="0.25">
@@ -8478,7 +8477,7 @@
         <v>96</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -8492,7 +8491,7 @@
         <v>53</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -8502,7 +8501,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -8522,7 +8521,7 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
@@ -8556,7 +8555,7 @@
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
       <c r="BN64" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BO64" s="1"/>
       <c r="BP64" s="1"/>
@@ -8577,7 +8576,7 @@
       <c r="CE64" s="1"/>
       <c r="CF64" s="18"/>
       <c r="CG64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:85" x14ac:dyDescent="0.25">
@@ -8585,7 +8584,7 @@
         <v>97</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -8599,7 +8598,7 @@
         <v>53</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -8680,7 +8679,7 @@
       <c r="CE65" s="1"/>
       <c r="CF65" s="18"/>
       <c r="CG65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:85" x14ac:dyDescent="0.25">
@@ -8688,7 +8687,7 @@
         <v>232</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8779,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>2</v>
@@ -8870,7 +8869,7 @@
       <c r="CE67" s="1"/>
       <c r="CF67" s="1"/>
       <c r="CG67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:85" x14ac:dyDescent="0.25">
@@ -8878,29 +8877,29 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C68" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="L68" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -8977,15 +8976,15 @@
       <c r="CE68" s="1"/>
       <c r="CF68" s="1"/>
       <c r="CG68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -9007,7 +9006,7 @@
         <v>6</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -9083,7 +9082,7 @@
       <c r="CE69" s="1"/>
       <c r="CF69" s="1"/>
       <c r="CG69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:85" x14ac:dyDescent="0.25">
@@ -9091,7 +9090,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
@@ -9182,7 +9181,7 @@
       <c r="CE70" s="1"/>
       <c r="CF70" s="1"/>
       <c r="CG70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:85" x14ac:dyDescent="0.25">
@@ -9190,7 +9189,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>2</v>
@@ -9281,15 +9280,15 @@
       <c r="CE71" s="1"/>
       <c r="CF71" s="1"/>
       <c r="CG71" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="72" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>2</v>
@@ -9373,14 +9372,14 @@
       <c r="BZ72" s="1"/>
       <c r="CA72" s="1"/>
       <c r="CB72" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="CC72" s="1"/>
       <c r="CD72" s="1"/>
       <c r="CE72" s="1"/>
       <c r="CF72" s="1"/>
       <c r="CG72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:85" x14ac:dyDescent="0.25">
@@ -9388,7 +9387,7 @@
         <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -9477,7 +9476,7 @@
       <c r="CE73" s="1"/>
       <c r="CF73" s="1"/>
       <c r="CG73" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:85" x14ac:dyDescent="0.25">
@@ -9485,7 +9484,7 @@
         <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -9574,7 +9573,7 @@
       <c r="CE74" s="1"/>
       <c r="CF74" s="1"/>
       <c r="CG74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:85" x14ac:dyDescent="0.25">
@@ -9582,10 +9581,10 @@
         <v>19</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -9669,7 +9668,7 @@
       <c r="CE75" s="1"/>
       <c r="CF75" s="1"/>
       <c r="CG75" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:85" x14ac:dyDescent="0.25">
@@ -9677,7 +9676,7 @@
         <v>151</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9762,7 +9761,7 @@
       <c r="CE76" s="1"/>
       <c r="CF76" s="1"/>
       <c r="CG76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:85" x14ac:dyDescent="0.25">
@@ -9770,7 +9769,7 @@
         <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -9855,7 +9854,7 @@
       <c r="CE77" s="1"/>
       <c r="CF77" s="1"/>
       <c r="CG77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:85" x14ac:dyDescent="0.25">
@@ -9863,7 +9862,7 @@
         <v>234</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -9954,7 +9953,7 @@
         <v>15</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>2</v>
@@ -10043,7 +10042,7 @@
       <c r="CE79" s="1"/>
       <c r="CF79" s="1"/>
       <c r="CG79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:85" x14ac:dyDescent="0.25">
@@ -10051,7 +10050,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>2</v>
@@ -10140,21 +10139,21 @@
       <c r="CE80" s="1"/>
       <c r="CF80" s="1"/>
       <c r="CG80" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="81" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -10199,7 +10198,7 @@
       <c r="AS81" s="1"/>
       <c r="AT81" s="1"/>
       <c r="AU81" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
@@ -10234,14 +10233,14 @@
       <c r="BZ81" s="1"/>
       <c r="CA81" s="1"/>
       <c r="CB81" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="CC81" s="1"/>
       <c r="CD81" s="1"/>
       <c r="CE81" s="1"/>
       <c r="CF81" s="1"/>
       <c r="CG81" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:85" x14ac:dyDescent="0.25">
@@ -10249,7 +10248,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>2</v>
@@ -10340,15 +10339,15 @@
       <c r="CE82" s="1"/>
       <c r="CF82" s="1"/>
       <c r="CG82" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>2</v>
@@ -10439,7 +10438,7 @@
       <c r="CE83" s="1"/>
       <c r="CF83" s="1"/>
       <c r="CG83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:85" x14ac:dyDescent="0.25">
@@ -10447,7 +10446,7 @@
         <v>17</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>2</v>
@@ -10538,15 +10537,15 @@
       <c r="CE84" s="1"/>
       <c r="CF84" s="1"/>
       <c r="CG84" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>2</v>
@@ -10559,10 +10558,10 @@
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -10641,7 +10640,7 @@
       <c r="CE85" s="1"/>
       <c r="CF85" s="1"/>
       <c r="CG85" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:85" x14ac:dyDescent="0.25">
@@ -10649,10 +10648,10 @@
         <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>3</v>
@@ -10740,7 +10739,7 @@
       <c r="CE86" s="1"/>
       <c r="CF86" s="1"/>
       <c r="CG86" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:85" x14ac:dyDescent="0.25">
@@ -10748,7 +10747,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>2</v>
@@ -10839,7 +10838,7 @@
       <c r="CE87" s="1"/>
       <c r="CF87" s="1"/>
       <c r="CG87" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:85" x14ac:dyDescent="0.25">
@@ -10847,7 +10846,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>2</v>
@@ -10863,7 +10862,7 @@
         <v>53</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -10942,7 +10941,7 @@
       <c r="CE88" s="1"/>
       <c r="CF88" s="1"/>
       <c r="CG88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:85" x14ac:dyDescent="0.25">
@@ -10950,7 +10949,7 @@
         <v>23</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>2</v>
@@ -10966,7 +10965,7 @@
         <v>53</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -11045,15 +11044,15 @@
       <c r="CE89" s="1"/>
       <c r="CF89" s="1"/>
       <c r="CG89" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>2</v>
@@ -11069,7 +11068,7 @@
         <v>53</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -11148,15 +11147,15 @@
       <c r="CE90" s="1"/>
       <c r="CF90" s="1"/>
       <c r="CG90" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>2</v>
@@ -11247,15 +11246,15 @@
       <c r="CE91" s="1"/>
       <c r="CF91" s="1"/>
       <c r="CG91" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>2</v>
@@ -11346,24 +11345,24 @@
       <c r="CE92" s="1"/>
       <c r="CF92" s="1"/>
       <c r="CG92" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C93" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>473</v>
-      </c>
       <c r="D93" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -11445,24 +11444,24 @@
       <c r="CE93" s="1"/>
       <c r="CF93" s="1"/>
       <c r="CG93" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -11544,30 +11543,30 @@
       <c r="CE94" s="1"/>
       <c r="CF94" s="1"/>
       <c r="CG94" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="95" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -11631,7 +11630,7 @@
       <c r="BQ95" s="1"/>
       <c r="BR95" s="1"/>
       <c r="BS95" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT95" s="1"/>
       <c r="BU95" s="1"/>
@@ -11647,30 +11646,30 @@
       <c r="CE95" s="1"/>
       <c r="CF95" s="1"/>
       <c r="CG95" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="96" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -11734,7 +11733,7 @@
       <c r="BQ96" s="1"/>
       <c r="BR96" s="1"/>
       <c r="BS96" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT96" s="1"/>
       <c r="BU96" s="1"/>
@@ -11750,30 +11749,30 @@
       <c r="CE96" s="1"/>
       <c r="CF96" s="1"/>
       <c r="CG96" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="97" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -11837,7 +11836,7 @@
       <c r="BQ97" s="1"/>
       <c r="BR97" s="1"/>
       <c r="BS97" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT97" s="1"/>
       <c r="BU97" s="1"/>
@@ -11853,30 +11852,30 @@
       <c r="CE97" s="1"/>
       <c r="CF97" s="1"/>
       <c r="CG97" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="98" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -11940,7 +11939,7 @@
       <c r="BQ98" s="1"/>
       <c r="BR98" s="1"/>
       <c r="BS98" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT98" s="1"/>
       <c r="BU98" s="1"/>
@@ -11956,30 +11955,30 @@
       <c r="CE98" s="1"/>
       <c r="CF98" s="1"/>
       <c r="CG98" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="99" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row ht="30" r="99" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="C99" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -12043,7 +12042,7 @@
       <c r="BQ99" s="1"/>
       <c r="BR99" s="1"/>
       <c r="BS99" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT99" s="1"/>
       <c r="BU99" s="1"/>
@@ -12059,30 +12058,30 @@
       <c r="CE99" s="1"/>
       <c r="CF99" s="1"/>
       <c r="CG99" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="100" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="100" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>483</v>
-      </c>
       <c r="D100" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -12146,7 +12145,7 @@
       <c r="BQ100" s="1"/>
       <c r="BR100" s="1"/>
       <c r="BS100" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT100" s="1"/>
       <c r="BU100" s="1"/>
@@ -12162,30 +12161,30 @@
       <c r="CE100" s="1"/>
       <c r="CF100" s="1"/>
       <c r="CG100" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="101" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="101" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -12249,7 +12248,7 @@
       <c r="BQ101" s="1"/>
       <c r="BR101" s="1"/>
       <c r="BS101" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT101" s="1"/>
       <c r="BU101" s="1"/>
@@ -12265,33 +12264,33 @@
       <c r="CE101" s="1"/>
       <c r="CF101" s="1"/>
       <c r="CG101" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="102" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="102" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -12324,16 +12323,16 @@
       <c r="AM102" s="1"/>
       <c r="AN102" s="1"/>
       <c r="AO102" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AP102" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AQ102" s="1"/>
       <c r="AR102" s="1"/>
       <c r="AS102" s="1"/>
       <c r="AT102" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AU102" s="1"/>
       <c r="AV102" s="1"/>
@@ -12343,15 +12342,15 @@
       <c r="AZ102" s="1"/>
       <c r="BA102" s="1"/>
       <c r="BB102" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="BC102" s="1"/>
       <c r="BD102" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="BE102" s="1"/>
       <c r="BF102" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="BG102" s="1"/>
       <c r="BH102" s="1"/>
@@ -12366,7 +12365,7 @@
       <c r="BQ102" s="1"/>
       <c r="BR102" s="1"/>
       <c r="BS102" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT102" s="1"/>
       <c r="BU102" s="1"/>
@@ -12382,30 +12381,30 @@
       <c r="CE102" s="1"/>
       <c r="CF102" s="1"/>
       <c r="CG102" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="103" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="103" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -12469,7 +12468,7 @@
       <c r="BQ103" s="1"/>
       <c r="BR103" s="1"/>
       <c r="BS103" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT103" s="1"/>
       <c r="BU103" s="1"/>
@@ -12485,30 +12484,30 @@
       <c r="CE103" s="1"/>
       <c r="CF103" s="1"/>
       <c r="CG103" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="104" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -12572,7 +12571,7 @@
       <c r="BQ104" s="1"/>
       <c r="BR104" s="1"/>
       <c r="BS104" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT104" s="1"/>
       <c r="BU104" s="1"/>
@@ -12588,30 +12587,30 @@
       <c r="CE104" s="1"/>
       <c r="CF104" s="1"/>
       <c r="CG104" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="105" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="105" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -12675,7 +12674,7 @@
       <c r="BQ105" s="1"/>
       <c r="BR105" s="1"/>
       <c r="BS105" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BT105" s="1"/>
       <c r="BU105" s="1"/>
@@ -12691,24 +12690,24 @@
       <c r="CE105" s="1"/>
       <c r="CF105" s="1"/>
       <c r="CG105" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -12790,7 +12789,7 @@
       <c r="CE106" s="1"/>
       <c r="CF106" s="1"/>
       <c r="CG106" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107" spans="1:85" x14ac:dyDescent="0.25">
@@ -12798,7 +12797,7 @@
         <v>25</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>2</v>
@@ -12885,15 +12884,15 @@
       <c r="CE107" s="1"/>
       <c r="CF107" s="1"/>
       <c r="CG107" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="108" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>2</v>
@@ -12939,7 +12938,7 @@
       <c r="AL108" s="1"/>
       <c r="AM108" s="1"/>
       <c r="AN108" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO108" s="1"/>
       <c r="AP108" s="1" t="s">
@@ -12983,14 +12982,14 @@
       <c r="BZ108" s="1"/>
       <c r="CA108" s="1"/>
       <c r="CB108" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CC108" s="1"/>
       <c r="CD108" s="1"/>
       <c r="CE108" s="1"/>
       <c r="CF108" s="1"/>
       <c r="CG108" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:85" x14ac:dyDescent="0.25">
@@ -12998,7 +12997,7 @@
         <v>27</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>2</v>
@@ -13017,7 +13016,7 @@
         <v>28</v>
       </c>
       <c r="K109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>5</v>
@@ -13032,7 +13031,7 @@
         <v>29</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -13103,7 +13102,7 @@
       <c r="CE109" s="1"/>
       <c r="CF109" s="1"/>
       <c r="CG109" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" spans="1:85" x14ac:dyDescent="0.25">
@@ -13111,7 +13110,7 @@
         <v>98</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>2</v>
@@ -13130,7 +13129,7 @@
         <v>28</v>
       </c>
       <c r="K110" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>5</v>
@@ -13145,7 +13144,7 @@
         <v>29</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -13220,15 +13219,15 @@
       <c r="CE110" s="1"/>
       <c r="CF110" s="1"/>
       <c r="CG110" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="111" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="111" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>2</v>
@@ -13247,7 +13246,7 @@
         <v>28</v>
       </c>
       <c r="K111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>5</v>
@@ -13262,7 +13261,7 @@
         <v>29</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -13281,13 +13280,13 @@
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
       <c r="AG111" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH111" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI111" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="AH111" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI111" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="AJ111" s="1" t="s">
         <v>29</v>
@@ -13342,22 +13341,22 @@
       <c r="BZ111" s="1"/>
       <c r="CA111" s="1"/>
       <c r="CB111" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="CC111" s="1"/>
       <c r="CD111" s="1"/>
       <c r="CE111" s="1"/>
       <c r="CF111" s="1"/>
       <c r="CG111" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="112" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>2</v>
@@ -13376,7 +13375,7 @@
         <v>28</v>
       </c>
       <c r="K112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>5</v>
@@ -13391,7 +13390,7 @@
         <v>29</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -13457,14 +13456,14 @@
       <c r="BZ112" s="1"/>
       <c r="CA112" s="1"/>
       <c r="CB112" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="CC112" s="1"/>
       <c r="CD112" s="1"/>
       <c r="CE112" s="1"/>
       <c r="CF112" s="1"/>
       <c r="CG112" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:85" x14ac:dyDescent="0.25">
@@ -13472,7 +13471,7 @@
         <v>103</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>2</v>
@@ -13491,7 +13490,7 @@
         <v>28</v>
       </c>
       <c r="K113" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>5</v>
@@ -13506,7 +13505,7 @@
         <v>29</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -13528,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="AH113" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AI113" s="1" t="s">
         <v>1</v>
@@ -13591,7 +13590,7 @@
       <c r="CE113" s="1"/>
       <c r="CF113" s="1"/>
       <c r="CG113" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" spans="1:85" x14ac:dyDescent="0.25">
@@ -13599,7 +13598,7 @@
         <v>104</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>2</v>
@@ -13618,7 +13617,7 @@
         <v>28</v>
       </c>
       <c r="K114" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>5</v>
@@ -13633,7 +13632,7 @@
         <v>29</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -13655,7 +13654,7 @@
         <v>0</v>
       </c>
       <c r="AH114" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AI114" s="1" t="s">
         <v>1</v>
@@ -13718,7 +13717,7 @@
       <c r="CE114" s="1"/>
       <c r="CF114" s="1"/>
       <c r="CG114" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="1:85" x14ac:dyDescent="0.25">
@@ -13726,7 +13725,7 @@
         <v>238</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -13817,10 +13816,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -13829,7 +13828,7 @@
         <v>53</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -13908,7 +13907,7 @@
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
       <c r="CG116" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:85" x14ac:dyDescent="0.25">
@@ -13916,7 +13915,7 @@
         <v>106</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -13926,7 +13925,7 @@
         <v>53</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -14005,7 +14004,7 @@
       <c r="CE117" s="1"/>
       <c r="CF117" s="1"/>
       <c r="CG117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:85" x14ac:dyDescent="0.25">
@@ -14013,7 +14012,7 @@
         <v>107</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -14023,7 +14022,7 @@
         <v>53</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -14102,7 +14101,7 @@
       <c r="CE118" s="1"/>
       <c r="CF118" s="1"/>
       <c r="CG118" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:85" x14ac:dyDescent="0.25">
@@ -14110,7 +14109,7 @@
         <v>108</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -14120,7 +14119,7 @@
         <v>53</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -14199,7 +14198,7 @@
       <c r="CE119" s="1"/>
       <c r="CF119" s="1"/>
       <c r="CG119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:85" x14ac:dyDescent="0.25">
@@ -14207,7 +14206,7 @@
         <v>109</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -14217,7 +14216,7 @@
         <v>53</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -14227,7 +14226,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
@@ -14298,7 +14297,7 @@
       <c r="CE120" s="1"/>
       <c r="CF120" s="1"/>
       <c r="CG120" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:85" x14ac:dyDescent="0.25">
@@ -14306,17 +14305,17 @@
         <v>110</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H121" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -14395,7 +14394,7 @@
       <c r="CE121" s="1"/>
       <c r="CF121" s="1"/>
       <c r="CG121" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:85" x14ac:dyDescent="0.25">
@@ -14403,7 +14402,7 @@
         <v>111</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -14413,7 +14412,7 @@
         <v>53</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -14423,7 +14422,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -14443,7 +14442,7 @@
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
       <c r="AH122" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
@@ -14496,7 +14495,7 @@
       <c r="CE122" s="1"/>
       <c r="CF122" s="1"/>
       <c r="CG122" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:85" x14ac:dyDescent="0.25">
@@ -14504,7 +14503,7 @@
         <v>112</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -14518,7 +14517,7 @@
         <v>53</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -14597,7 +14596,7 @@
       <c r="CE123" s="1"/>
       <c r="CF123" s="1"/>
       <c r="CG123" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="1:85" x14ac:dyDescent="0.25">
@@ -14605,17 +14604,17 @@
         <v>113</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H124" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -14694,7 +14693,7 @@
       <c r="CE124" s="1"/>
       <c r="CF124" s="1"/>
       <c r="CG124" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:85" x14ac:dyDescent="0.25">
@@ -14702,7 +14701,7 @@
         <v>114</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -14712,7 +14711,7 @@
         <v>53</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -14791,7 +14790,7 @@
       <c r="CE125" s="1"/>
       <c r="CF125" s="1"/>
       <c r="CG125" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="126" spans="1:85" x14ac:dyDescent="0.25">
@@ -14799,7 +14798,7 @@
         <v>115</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -14809,7 +14808,7 @@
         <v>53</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -14888,7 +14887,7 @@
       <c r="CE126" s="1"/>
       <c r="CF126" s="1"/>
       <c r="CG126" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="127" spans="1:85" x14ac:dyDescent="0.25">
@@ -14896,7 +14895,7 @@
         <v>116</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C127" s="26" t="s">
         <v>2</v>
@@ -14910,7 +14909,7 @@
         <v>53</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -14989,7 +14988,7 @@
       <c r="CE127" s="1"/>
       <c r="CF127" s="1"/>
       <c r="CG127" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="1:85" x14ac:dyDescent="0.25">
@@ -14997,7 +14996,7 @@
         <v>117</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -15011,7 +15010,7 @@
         <v>53</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -15090,7 +15089,7 @@
       <c r="CE128" s="1"/>
       <c r="CF128" s="1"/>
       <c r="CG128" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" spans="1:85" x14ac:dyDescent="0.25">
@@ -15098,7 +15097,7 @@
         <v>118</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -15112,7 +15111,7 @@
         <v>53</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -15190,14 +15189,14 @@
       <c r="BZ129" s="12"/>
       <c r="CA129" s="12"/>
       <c r="CB129" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="CC129" s="1"/>
       <c r="CD129" s="1"/>
       <c r="CE129" s="1"/>
       <c r="CF129" s="1"/>
       <c r="CG129" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="1:85" x14ac:dyDescent="0.25">
@@ -15205,7 +15204,7 @@
         <v>239</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -15296,7 +15295,7 @@
         <v>121</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -15310,7 +15309,7 @@
         <v>53</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -15389,7 +15388,7 @@
       <c r="CE131" s="1"/>
       <c r="CF131" s="1"/>
       <c r="CG131" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="1:85" x14ac:dyDescent="0.25">
@@ -15397,7 +15396,7 @@
         <v>122</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -15411,7 +15410,7 @@
         <v>53</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="2" t="s">
@@ -15502,15 +15501,15 @@
       <c r="CE132" s="1"/>
       <c r="CF132" s="1"/>
       <c r="CG132" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="133" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -15521,7 +15520,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>6</v>
@@ -15615,7 +15614,7 @@
       <c r="CE133" s="1"/>
       <c r="CF133" s="1"/>
       <c r="CG133" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:85" x14ac:dyDescent="0.25">
@@ -15623,7 +15622,7 @@
         <v>124</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -15637,7 +15636,7 @@
         <v>53</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="2" t="s">
@@ -15737,7 +15736,7 @@
       <c r="CE134" s="1"/>
       <c r="CF134" s="1"/>
       <c r="CG134" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:85" x14ac:dyDescent="0.25">
@@ -15745,7 +15744,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -15759,7 +15758,7 @@
         <v>53</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="2" t="s">
@@ -15856,15 +15855,15 @@
       <c r="CE135" s="1"/>
       <c r="CF135" s="1"/>
       <c r="CG135" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -15878,7 +15877,7 @@
         <v>53</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="2" t="s">
@@ -15975,15 +15974,15 @@
       <c r="CE136" s="1"/>
       <c r="CF136" s="1"/>
       <c r="CG136" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -15997,7 +15996,7 @@
         <v>53</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="2" t="s">
@@ -16043,10 +16042,10 @@
       <c r="AL137" s="1"/>
       <c r="AM137" s="1"/>
       <c r="AN137" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO137" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO137" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP137" s="1"/>
       <c r="AQ137" s="1"/>
@@ -16077,12 +16076,12 @@
       <c r="BJ137" s="1"/>
       <c r="BK137" s="1"/>
       <c r="BL137" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM137" s="1"/>
       <c r="BN137" s="1"/>
       <c r="BO137" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP137" s="1"/>
       <c r="BQ137" s="1"/>
@@ -16102,15 +16101,15 @@
       <c r="CE137" s="1"/>
       <c r="CF137" s="1"/>
       <c r="CG137" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -16124,7 +16123,7 @@
         <v>53</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="2" t="s">
@@ -16170,10 +16169,10 @@
       <c r="AL138" s="1"/>
       <c r="AM138" s="1"/>
       <c r="AN138" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO138" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO138" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP138" s="1"/>
       <c r="AQ138" s="1"/>
@@ -16204,12 +16203,12 @@
       <c r="BJ138" s="1"/>
       <c r="BK138" s="1"/>
       <c r="BL138" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM138" s="1"/>
       <c r="BN138" s="1"/>
       <c r="BO138" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP138" s="1"/>
       <c r="BQ138" s="1"/>
@@ -16229,21 +16228,21 @@
       <c r="CE138" s="1"/>
       <c r="CF138" s="1"/>
       <c r="CG138" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -16251,7 +16250,7 @@
         <v>53</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="2" t="s">
@@ -16297,10 +16296,10 @@
       <c r="AL139" s="1"/>
       <c r="AM139" s="1"/>
       <c r="AN139" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO139" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO139" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP139" s="1"/>
       <c r="AQ139" s="1"/>
@@ -16331,12 +16330,12 @@
       <c r="BJ139" s="1"/>
       <c r="BK139" s="1"/>
       <c r="BL139" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM139" s="1"/>
       <c r="BN139" s="1"/>
       <c r="BO139" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP139" s="1"/>
       <c r="BQ139" s="1"/>
@@ -16356,21 +16355,21 @@
       <c r="CE139" s="1"/>
       <c r="CF139" s="1"/>
       <c r="CG139" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -16378,7 +16377,7 @@
         <v>53</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="2" t="s">
@@ -16424,10 +16423,10 @@
       <c r="AL140" s="1"/>
       <c r="AM140" s="1"/>
       <c r="AN140" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO140" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO140" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP140" s="1"/>
       <c r="AQ140" s="1"/>
@@ -16458,12 +16457,12 @@
       <c r="BJ140" s="1"/>
       <c r="BK140" s="1"/>
       <c r="BL140" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM140" s="1"/>
       <c r="BN140" s="1"/>
       <c r="BO140" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP140" s="1"/>
       <c r="BQ140" s="1"/>
@@ -16483,21 +16482,21 @@
       <c r="CE140" s="1"/>
       <c r="CF140" s="1"/>
       <c r="CG140" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -16505,7 +16504,7 @@
         <v>53</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="2" t="s">
@@ -16551,10 +16550,10 @@
       <c r="AL141" s="1"/>
       <c r="AM141" s="1"/>
       <c r="AN141" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO141" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO141" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP141" s="1"/>
       <c r="AQ141" s="1"/>
@@ -16585,12 +16584,12 @@
       <c r="BJ141" s="1"/>
       <c r="BK141" s="1"/>
       <c r="BL141" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM141" s="1"/>
       <c r="BN141" s="1"/>
       <c r="BO141" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP141" s="1"/>
       <c r="BQ141" s="1"/>
@@ -16610,21 +16609,21 @@
       <c r="CE141" s="1"/>
       <c r="CF141" s="1"/>
       <c r="CG141" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -16632,7 +16631,7 @@
         <v>53</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="2" t="s">
@@ -16678,10 +16677,10 @@
       <c r="AL142" s="1"/>
       <c r="AM142" s="1"/>
       <c r="AN142" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO142" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO142" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP142" s="1"/>
       <c r="AQ142" s="1"/>
@@ -16712,12 +16711,12 @@
       <c r="BJ142" s="1"/>
       <c r="BK142" s="1"/>
       <c r="BL142" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM142" s="1"/>
       <c r="BN142" s="1"/>
       <c r="BO142" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP142" s="1"/>
       <c r="BQ142" s="1"/>
@@ -16737,21 +16736,21 @@
       <c r="CE142" s="1"/>
       <c r="CF142" s="1"/>
       <c r="CG142" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -16759,7 +16758,7 @@
         <v>53</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="2" t="s">
@@ -16805,10 +16804,10 @@
       <c r="AL143" s="1"/>
       <c r="AM143" s="1"/>
       <c r="AN143" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO143" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO143" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP143" s="1"/>
       <c r="AQ143" s="1"/>
@@ -16839,12 +16838,12 @@
       <c r="BJ143" s="1"/>
       <c r="BK143" s="1"/>
       <c r="BL143" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM143" s="1"/>
       <c r="BN143" s="1"/>
       <c r="BO143" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP143" s="1"/>
       <c r="BQ143" s="1"/>
@@ -16864,15 +16863,15 @@
       <c r="CE143" s="1"/>
       <c r="CF143" s="1"/>
       <c r="CG143" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -16886,7 +16885,7 @@
         <v>53</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="2" t="s">
@@ -16932,10 +16931,10 @@
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
       <c r="AN144" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO144" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO144" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
@@ -16966,12 +16965,12 @@
       <c r="BJ144" s="1"/>
       <c r="BK144" s="1"/>
       <c r="BL144" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM144" s="1"/>
       <c r="BN144" s="1"/>
       <c r="BO144" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP144" s="1"/>
       <c r="BQ144" s="1"/>
@@ -16991,15 +16990,15 @@
       <c r="CE144" s="1"/>
       <c r="CF144" s="1"/>
       <c r="CG144" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -17013,7 +17012,7 @@
         <v>53</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="2" t="s">
@@ -17059,10 +17058,10 @@
       <c r="AL145" s="1"/>
       <c r="AM145" s="1"/>
       <c r="AN145" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO145" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO145" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP145" s="1"/>
       <c r="AQ145" s="1"/>
@@ -17093,12 +17092,12 @@
       <c r="BJ145" s="1"/>
       <c r="BK145" s="1"/>
       <c r="BL145" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM145" s="1"/>
       <c r="BN145" s="1"/>
       <c r="BO145" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP145" s="1"/>
       <c r="BQ145" s="1"/>
@@ -17118,15 +17117,15 @@
       <c r="CE145" s="1"/>
       <c r="CF145" s="1"/>
       <c r="CG145" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -17140,7 +17139,7 @@
         <v>53</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="2" t="s">
@@ -17187,10 +17186,10 @@
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
       <c r="AN146" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO146" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO146" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP146" s="1"/>
       <c r="AQ146" s="1"/>
@@ -17221,12 +17220,12 @@
       <c r="BJ146" s="1"/>
       <c r="BK146" s="1"/>
       <c r="BL146" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
       <c r="BO146" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP146" s="1"/>
       <c r="BQ146" s="1"/>
@@ -17246,15 +17245,15 @@
       <c r="CE146" s="1"/>
       <c r="CF146" s="1"/>
       <c r="CG146" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -17268,7 +17267,7 @@
         <v>53</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="2" t="s">
@@ -17309,17 +17308,17 @@
       <c r="AG147" s="1"/>
       <c r="AH147" s="1"/>
       <c r="AI147" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ147" s="1"/>
       <c r="AK147" s="1"/>
       <c r="AL147" s="1"/>
       <c r="AM147" s="1"/>
       <c r="AN147" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO147" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO147" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP147" s="1"/>
       <c r="AQ147" s="1"/>
@@ -17350,12 +17349,12 @@
       <c r="BJ147" s="1"/>
       <c r="BK147" s="1"/>
       <c r="BL147" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM147" s="1"/>
       <c r="BN147" s="1"/>
       <c r="BO147" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP147" s="1"/>
       <c r="BQ147" s="1"/>
@@ -17375,15 +17374,15 @@
       <c r="CE147" s="1"/>
       <c r="CF147" s="1"/>
       <c r="CG147" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -17397,7 +17396,7 @@
         <v>53</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I148" s="1"/>
       <c r="J148" s="2" t="s">
@@ -17442,13 +17441,13 @@
       <c r="AK148" s="1"/>
       <c r="AL148" s="1"/>
       <c r="AM148" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN148" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO148" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO148" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP148" s="1"/>
       <c r="AQ148" s="1"/>
@@ -17479,12 +17478,12 @@
       <c r="BJ148" s="1"/>
       <c r="BK148" s="1"/>
       <c r="BL148" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
       <c r="BO148" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP148" s="1"/>
       <c r="BQ148" s="1"/>
@@ -17504,15 +17503,15 @@
       <c r="CE148" s="1"/>
       <c r="CF148" s="1"/>
       <c r="CG148" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -17526,7 +17525,7 @@
         <v>53</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I149" s="1"/>
       <c r="J149" s="2" t="s">
@@ -17569,15 +17568,15 @@
       <c r="AI149" s="1"/>
       <c r="AJ149" s="1"/>
       <c r="AK149" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL149" s="1"/>
       <c r="AM149" s="1"/>
       <c r="AN149" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO149" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO149" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP149" s="1"/>
       <c r="AQ149" s="1"/>
@@ -17608,12 +17607,12 @@
       <c r="BJ149" s="1"/>
       <c r="BK149" s="1"/>
       <c r="BL149" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM149" s="1"/>
       <c r="BN149" s="1"/>
       <c r="BO149" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP149" s="1"/>
       <c r="BQ149" s="1"/>
@@ -17633,15 +17632,15 @@
       <c r="CE149" s="1"/>
       <c r="CF149" s="1"/>
       <c r="CG149" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -17655,7 +17654,7 @@
         <v>53</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I150" s="1"/>
       <c r="J150" s="2" t="s">
@@ -17701,10 +17700,10 @@
       <c r="AL150" s="1"/>
       <c r="AM150" s="1"/>
       <c r="AN150" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO150" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO150" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP150" s="1"/>
       <c r="AQ150" s="1"/>
@@ -17735,12 +17734,12 @@
       <c r="BJ150" s="1"/>
       <c r="BK150" s="1"/>
       <c r="BL150" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM150" s="1"/>
       <c r="BN150" s="1"/>
       <c r="BO150" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP150" s="1"/>
       <c r="BQ150" s="1"/>
@@ -17760,15 +17759,15 @@
       <c r="CE150" s="1"/>
       <c r="CF150" s="1"/>
       <c r="CG150" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -17782,7 +17781,7 @@
         <v>53</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I151" s="1"/>
       <c r="J151" s="2" t="s">
@@ -17828,10 +17827,10 @@
       <c r="AL151" s="1"/>
       <c r="AM151" s="1"/>
       <c r="AN151" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO151" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO151" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP151" s="1"/>
       <c r="AQ151" s="1"/>
@@ -17862,12 +17861,12 @@
       <c r="BJ151" s="1"/>
       <c r="BK151" s="1"/>
       <c r="BL151" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM151" s="1"/>
       <c r="BN151" s="1"/>
       <c r="BO151" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP151" s="1"/>
       <c r="BQ151" s="1"/>
@@ -17887,15 +17886,15 @@
       <c r="CE151" s="1"/>
       <c r="CF151" s="1"/>
       <c r="CG151" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -17909,7 +17908,7 @@
         <v>53</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I152" s="1"/>
       <c r="J152" s="2" t="s">
@@ -17955,10 +17954,10 @@
       <c r="AL152" s="1"/>
       <c r="AM152" s="1"/>
       <c r="AN152" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO152" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO152" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP152" s="1"/>
       <c r="AQ152" s="1"/>
@@ -17989,12 +17988,12 @@
       <c r="BJ152" s="1"/>
       <c r="BK152" s="1"/>
       <c r="BL152" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
       <c r="BO152" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP152" s="1"/>
       <c r="BQ152" s="1"/>
@@ -18014,21 +18013,21 @@
       <c r="CE152" s="1"/>
       <c r="CF152" s="1"/>
       <c r="CG152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -18036,7 +18035,7 @@
         <v>53</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I153" s="1"/>
       <c r="J153" s="2" t="s">
@@ -18082,10 +18081,10 @@
       <c r="AL153" s="1"/>
       <c r="AM153" s="1"/>
       <c r="AN153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO153" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO153" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP153" s="1"/>
       <c r="AQ153" s="1"/>
@@ -18116,12 +18115,12 @@
       <c r="BJ153" s="1"/>
       <c r="BK153" s="1"/>
       <c r="BL153" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
       <c r="BO153" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP153" s="1"/>
       <c r="BQ153" s="1"/>
@@ -18141,21 +18140,21 @@
       <c r="CE153" s="1"/>
       <c r="CF153" s="1"/>
       <c r="CG153" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -18163,7 +18162,7 @@
         <v>53</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I154" s="1"/>
       <c r="J154" s="2" t="s">
@@ -18209,10 +18208,10 @@
       <c r="AL154" s="1"/>
       <c r="AM154" s="1"/>
       <c r="AN154" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO154" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO154" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP154" s="1"/>
       <c r="AQ154" s="1"/>
@@ -18243,12 +18242,12 @@
       <c r="BJ154" s="1"/>
       <c r="BK154" s="1"/>
       <c r="BL154" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
       <c r="BO154" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP154" s="1"/>
       <c r="BQ154" s="1"/>
@@ -18268,21 +18267,21 @@
       <c r="CE154" s="1"/>
       <c r="CF154" s="1"/>
       <c r="CG154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="D155" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -18290,7 +18289,7 @@
         <v>53</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I155" s="1"/>
       <c r="J155" s="2" t="s">
@@ -18336,10 +18335,10 @@
       <c r="AL155" s="1"/>
       <c r="AM155" s="1"/>
       <c r="AN155" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO155" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO155" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP155" s="1"/>
       <c r="AQ155" s="1"/>
@@ -18370,12 +18369,12 @@
       <c r="BJ155" s="1"/>
       <c r="BK155" s="1"/>
       <c r="BL155" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
       <c r="BO155" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP155" s="1"/>
       <c r="BQ155" s="1"/>
@@ -18395,21 +18394,21 @@
       <c r="CE155" s="1"/>
       <c r="CF155" s="1"/>
       <c r="CG155" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -18417,7 +18416,7 @@
         <v>53</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I156" s="1"/>
       <c r="J156" s="2" t="s">
@@ -18463,10 +18462,10 @@
       <c r="AL156" s="1"/>
       <c r="AM156" s="1"/>
       <c r="AN156" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO156" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO156" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP156" s="1"/>
       <c r="AQ156" s="1"/>
@@ -18497,12 +18496,12 @@
       <c r="BJ156" s="1"/>
       <c r="BK156" s="1"/>
       <c r="BL156" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM156" s="1"/>
       <c r="BN156" s="1"/>
       <c r="BO156" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP156" s="1"/>
       <c r="BQ156" s="1"/>
@@ -18522,18 +18521,18 @@
       <c r="CE156" s="1"/>
       <c r="CF156" s="1"/>
       <c r="CG156" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C157" s="26" t="s">
         <v>407</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C157" s="26" t="s">
-        <v>408</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>3</v>
@@ -18544,7 +18543,7 @@
         <v>53</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="2" t="s">
@@ -18590,10 +18589,10 @@
       <c r="AL157" s="1"/>
       <c r="AM157" s="1"/>
       <c r="AN157" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO157" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO157" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP157" s="1"/>
       <c r="AQ157" s="1"/>
@@ -18624,12 +18623,12 @@
       <c r="BJ157" s="1"/>
       <c r="BK157" s="1"/>
       <c r="BL157" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
       <c r="BO157" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP157" s="1"/>
       <c r="BQ157" s="1"/>
@@ -18649,18 +18648,18 @@
       <c r="CE157" s="1"/>
       <c r="CF157" s="1"/>
       <c r="CG157" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>3</v>
@@ -18671,7 +18670,7 @@
         <v>53</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="2" t="s">
@@ -18717,10 +18716,10 @@
       <c r="AL158" s="1"/>
       <c r="AM158" s="1"/>
       <c r="AN158" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO158" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO158" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP158" s="1"/>
       <c r="AQ158" s="1"/>
@@ -18751,12 +18750,12 @@
       <c r="BJ158" s="1"/>
       <c r="BK158" s="1"/>
       <c r="BL158" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
       <c r="BO158" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP158" s="1"/>
       <c r="BQ158" s="1"/>
@@ -18776,15 +18775,15 @@
       <c r="CE158" s="1"/>
       <c r="CF158" s="1"/>
       <c r="CG158" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="159" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -18798,7 +18797,7 @@
         <v>53</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="2" t="s">
@@ -18844,10 +18843,10 @@
       <c r="AL159" s="1"/>
       <c r="AM159" s="1"/>
       <c r="AN159" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO159" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO159" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP159" s="1"/>
       <c r="AQ159" s="1"/>
@@ -18878,12 +18877,12 @@
       <c r="BJ159" s="1"/>
       <c r="BK159" s="1"/>
       <c r="BL159" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM159" s="1"/>
       <c r="BN159" s="1"/>
       <c r="BO159" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP159" s="1"/>
       <c r="BQ159" s="1"/>
@@ -18903,15 +18902,15 @@
       <c r="CE159" s="1"/>
       <c r="CF159" s="1"/>
       <c r="CG159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="160" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -18925,7 +18924,7 @@
         <v>53</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="2" t="s">
@@ -18971,10 +18970,10 @@
       <c r="AL160" s="1"/>
       <c r="AM160" s="1"/>
       <c r="AN160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO160" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AO160" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AP160" s="1"/>
       <c r="AQ160" s="1"/>
@@ -19005,12 +19004,12 @@
       <c r="BJ160" s="1"/>
       <c r="BK160" s="1"/>
       <c r="BL160" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM160" s="1"/>
       <c r="BN160" s="1"/>
       <c r="BO160" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP160" s="1"/>
       <c r="BQ160" s="1"/>
@@ -19030,7 +19029,7 @@
       <c r="CE160" s="1"/>
       <c r="CF160" s="1"/>
       <c r="CG160" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="161" spans="1:85" x14ac:dyDescent="0.25">
@@ -19038,7 +19037,7 @@
         <v>134</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -19052,7 +19051,7 @@
         <v>53</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="2" t="s">
@@ -19126,10 +19125,10 @@
         <v>126</v>
       </c>
       <c r="BJ161" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK161" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="BK161" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="BL161" s="1"/>
       <c r="BM161" s="1"/>
@@ -19153,21 +19152,21 @@
       <c r="CE161" s="1"/>
       <c r="CF161" s="1"/>
       <c r="CG161" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="162" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -19175,7 +19174,7 @@
         <v>53</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="2" t="s">
@@ -19246,13 +19245,13 @@
         <v>141</v>
       </c>
       <c r="BI162" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BJ162" t="s">
+        <v>340</v>
+      </c>
+      <c r="BK162" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="BK162" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="BL162" s="1"/>
       <c r="BM162" s="1"/>
@@ -19270,13 +19269,13 @@
         <v>141</v>
       </c>
       <c r="BY162" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BZ162" t="s">
+        <v>342</v>
+      </c>
+      <c r="CA162" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="CA162" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="CB162" s="1"/>
       <c r="CC162" s="1"/>
@@ -19284,18 +19283,18 @@
       <c r="CE162" s="1"/>
       <c r="CF162" s="1"/>
       <c r="CG162" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -19304,7 +19303,7 @@
         <v>53</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="2" t="s">
@@ -19401,7 +19400,7 @@
       <c r="CE163" s="1"/>
       <c r="CF163" s="1"/>
       <c r="CG163" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="164" spans="1:85" x14ac:dyDescent="0.25">
@@ -19409,7 +19408,7 @@
         <v>136</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -19423,7 +19422,7 @@
         <v>53</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="2" t="s">
@@ -19523,7 +19522,7 @@
       <c r="CE164" s="1"/>
       <c r="CF164" s="1"/>
       <c r="CG164" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:85" x14ac:dyDescent="0.25">
@@ -19531,7 +19530,7 @@
         <v>139</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -19545,7 +19544,7 @@
         <v>53</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="2" t="s">
@@ -19642,7 +19641,7 @@
       <c r="CE165" s="1"/>
       <c r="CF165" s="1"/>
       <c r="CG165" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="166" spans="1:85" x14ac:dyDescent="0.25">
@@ -19650,7 +19649,7 @@
         <v>140</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -19664,7 +19663,7 @@
         <v>53</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="2" t="s">
@@ -19736,10 +19735,10 @@
         <v>126</v>
       </c>
       <c r="BJ166" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK166" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="BK166" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="BL166" s="1"/>
       <c r="BM166" s="1"/>
@@ -19763,7 +19762,7 @@
       <c r="CE166" s="1"/>
       <c r="CF166" s="1"/>
       <c r="CG166" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="167" spans="1:85" x14ac:dyDescent="0.25">
@@ -19771,10 +19770,10 @@
         <v>142</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -19783,7 +19782,7 @@
         <v>53</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="2" t="s">
@@ -19883,7 +19882,7 @@
       <c r="CE167" s="1"/>
       <c r="CF167" s="1"/>
       <c r="CG167" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="168" spans="1:85" x14ac:dyDescent="0.25">
@@ -19891,10 +19890,10 @@
         <v>143</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -19903,7 +19902,7 @@
         <v>53</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="2" t="s">
@@ -20000,18 +19999,18 @@
       <c r="CE168" s="1"/>
       <c r="CF168" s="1"/>
       <c r="CG168" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C169" s="26" t="s">
         <v>391</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C169" s="26" t="s">
-        <v>392</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>6</v>
@@ -20022,7 +20021,7 @@
         <v>53</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="2" t="s">
@@ -20101,7 +20100,7 @@
       <c r="BM169" s="1"/>
       <c r="BN169" s="1"/>
       <c r="BO169" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP169" s="1"/>
       <c r="BQ169" s="1"/>
@@ -20121,18 +20120,18 @@
       <c r="CE169" s="1"/>
       <c r="CF169" s="1"/>
       <c r="CG169" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>6</v>
@@ -20143,7 +20142,7 @@
         <v>53</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I170" s="1"/>
       <c r="J170" s="2" t="s">
@@ -20219,12 +20218,12 @@
       <c r="BJ170" s="1"/>
       <c r="BK170" s="1"/>
       <c r="BL170" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
       <c r="BO170" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP170" s="1"/>
       <c r="BQ170" s="1"/>
@@ -20244,18 +20243,18 @@
       <c r="CE170" s="1"/>
       <c r="CF170" s="1"/>
       <c r="CG170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="171" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>6</v>
@@ -20266,7 +20265,7 @@
         <v>53</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I171" s="1"/>
       <c r="J171" s="2" t="s">
@@ -20342,7 +20341,7 @@
       <c r="BJ171" s="1"/>
       <c r="BK171" s="1"/>
       <c r="BL171" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BM171" s="1"/>
       <c r="BN171" s="1"/>
@@ -20365,7 +20364,7 @@
       <c r="CE171" s="1"/>
       <c r="CF171" s="1"/>
       <c r="CG171" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="172" spans="1:85" x14ac:dyDescent="0.25">
@@ -20373,10 +20372,10 @@
         <v>144</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -20385,7 +20384,7 @@
         <v>53</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="2" t="s">
@@ -20457,10 +20456,10 @@
         <v>126</v>
       </c>
       <c r="BJ172" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK172" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="BK172" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="BL172" s="1"/>
       <c r="BM172" s="1"/>
@@ -20484,7 +20483,7 @@
       <c r="CE172" s="1"/>
       <c r="CF172" s="1"/>
       <c r="CG172" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="173" spans="1:85" x14ac:dyDescent="0.25">
@@ -20492,10 +20491,10 @@
         <v>145</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>3</v>
@@ -20508,7 +20507,7 @@
         <v>53</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="2" t="s">
@@ -20616,7 +20615,7 @@
       <c r="CE173" s="1"/>
       <c r="CF173" s="1"/>
       <c r="CG173" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:85" x14ac:dyDescent="0.25">
@@ -20624,10 +20623,10 @@
         <v>146</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>3</v>
@@ -20640,7 +20639,7 @@
         <v>53</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="2" t="s">
@@ -20745,7 +20744,7 @@
       <c r="CE174" s="1"/>
       <c r="CF174" s="1"/>
       <c r="CG174" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:85" x14ac:dyDescent="0.25">
@@ -20753,10 +20752,10 @@
         <v>149</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>3</v>
@@ -20769,7 +20768,7 @@
         <v>53</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I175" s="1"/>
       <c r="J175" s="2" t="s">
@@ -20849,10 +20848,10 @@
         <v>126</v>
       </c>
       <c r="BJ175" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK175" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="BK175" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="BL175" s="1"/>
       <c r="BM175" s="1"/>
@@ -20876,18 +20875,18 @@
       <c r="CE175" s="1"/>
       <c r="CF175" s="1"/>
       <c r="CG175" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>3</v>
@@ -20900,7 +20899,7 @@
         <v>53</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I176" s="1"/>
       <c r="J176" s="2" t="s">
@@ -20998,7 +20997,7 @@
       <c r="CE176" s="1"/>
       <c r="CF176" s="1"/>
       <c r="CG176" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:85" x14ac:dyDescent="0.25">
@@ -21006,7 +21005,7 @@
         <v>240</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -21097,13 +21096,13 @@
         <v>248</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -21114,16 +21113,16 @@
         <v>242</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K178" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="L178" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="M178" s="2" t="s">
         <v>28</v>
@@ -21162,7 +21161,7 @@
       <c r="AE178" s="1"/>
       <c r="AF178" s="1"/>
       <c r="AG178" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH178" s="1"/>
       <c r="AI178" s="1"/>
@@ -21225,7 +21224,7 @@
       <c r="CE178" s="1"/>
       <c r="CF178" s="18"/>
       <c r="CG178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="179" spans="1:85" x14ac:dyDescent="0.25">
@@ -21233,13 +21232,13 @@
         <v>249</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
@@ -21250,16 +21249,16 @@
         <v>6</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J179" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K179" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="K179" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="L179" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M179" s="2" t="s">
         <v>28</v>
@@ -21298,7 +21297,7 @@
       <c r="AE179" s="1"/>
       <c r="AF179" s="1"/>
       <c r="AG179" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AH179" s="1"/>
       <c r="AI179" s="1"/>
@@ -21361,7 +21360,7 @@
       <c r="CE179" s="1"/>
       <c r="CF179" s="18"/>
       <c r="CG179" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="180" spans="1:85" x14ac:dyDescent="0.25">
@@ -21369,29 +21368,29 @@
         <v>250</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J180" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="K180" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="L180" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="M180" s="2" t="s">
         <v>28</v>
@@ -21430,7 +21429,7 @@
       <c r="AE180" s="1"/>
       <c r="AF180" s="1"/>
       <c r="AG180" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH180" s="1"/>
       <c r="AI180" s="1"/>
@@ -21484,7 +21483,7 @@
       <c r="CE180" s="1"/>
       <c r="CF180" s="18"/>
       <c r="CG180" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="181" spans="1:85" x14ac:dyDescent="0.25">
@@ -21492,17 +21491,17 @@
         <v>251</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>241</v>
@@ -21511,22 +21510,22 @@
         <v>242</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J181" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K181" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="K181" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="L181" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M181" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N181" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="O181" s="1"/>
       <c r="P181" s="1" t="s">
@@ -21559,7 +21558,7 @@
       <c r="AE181" s="1"/>
       <c r="AF181" s="1"/>
       <c r="AG181" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH181" s="1"/>
       <c r="AI181" s="1"/>
@@ -21613,7 +21612,7 @@
       <c r="CE181" s="1"/>
       <c r="CF181" s="18"/>
       <c r="CG181" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="182" spans="1:85" x14ac:dyDescent="0.25">
@@ -21621,13 +21620,13 @@
         <v>252</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -21638,16 +21637,16 @@
         <v>242</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J182" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="K182" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="L182" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="M182" s="2" t="s">
         <v>28</v>
@@ -21686,7 +21685,7 @@
       <c r="AE182" s="1"/>
       <c r="AF182" s="1"/>
       <c r="AG182" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH182" s="1"/>
       <c r="AI182" s="1"/>
@@ -21749,7 +21748,7 @@
       <c r="CE182" s="1"/>
       <c r="CF182" s="18"/>
       <c r="CG182" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:85" x14ac:dyDescent="0.25">
@@ -21757,29 +21756,29 @@
         <v>253</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J183" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="K183" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="L183" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="M183" s="2" t="s">
         <v>28</v>
@@ -21818,7 +21817,7 @@
       <c r="AE183" s="1"/>
       <c r="AF183" s="1"/>
       <c r="AG183" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH183" s="1"/>
       <c r="AI183" s="1"/>
@@ -21881,7 +21880,7 @@
       <c r="CE183" s="1"/>
       <c r="CF183" s="18"/>
       <c r="CG183" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="1:85" x14ac:dyDescent="0.25">
@@ -21889,29 +21888,29 @@
         <v>254</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J184" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="K184" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="L184" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="M184" s="2" t="s">
         <v>28</v>
@@ -21950,7 +21949,7 @@
       <c r="AE184" s="1"/>
       <c r="AF184" s="1"/>
       <c r="AG184" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH184" s="1"/>
       <c r="AI184" s="1"/>
@@ -22013,7 +22012,7 @@
       <c r="CE184" s="1"/>
       <c r="CF184" s="18"/>
       <c r="CG184" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:85" x14ac:dyDescent="0.25">
@@ -22021,17 +22020,17 @@
         <v>255</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>241</v>
@@ -22040,13 +22039,13 @@
         <v>242</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J185" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K185" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="K185" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="L185" s="1" t="s">
         <v>244</v>
@@ -22088,7 +22087,7 @@
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
       <c r="AG185" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AH185" s="1"/>
       <c r="AI185" s="1"/>
@@ -22151,15 +22150,15 @@
       <c r="CE185" s="1"/>
       <c r="CF185" s="18"/>
       <c r="CG185" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>2</v>
@@ -22176,7 +22175,7 @@
         <v>59</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J186" s="1"/>
       <c r="K186" s="2"/>
@@ -22228,10 +22227,10 @@
       <c r="BF186" s="2"/>
       <c r="BG186" s="1"/>
       <c r="BH186" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BI186" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BJ186" s="1"/>
       <c r="BK186" s="1"/>
@@ -22257,21 +22256,21 @@
       <c r="CE186" s="1"/>
       <c r="CF186" s="18"/>
       <c r="CG186" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="187" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C187" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -22282,7 +22281,7 @@
         <v>59</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>0</v>
@@ -22348,16 +22347,16 @@
       <c r="BF187" s="2"/>
       <c r="BG187" s="1"/>
       <c r="BH187" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BI187" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="BI187" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="BJ187" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BK187" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BL187" s="1"/>
       <c r="BM187" s="1"/>
@@ -22381,56 +22380,56 @@
       <c r="CE187" s="1"/>
       <c r="CF187" s="18"/>
       <c r="CG187" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row ht="30" r="188" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="C188" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J188" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K188" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K188" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="L188" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="R188" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="R188" s="10" t="s">
-        <v>291</v>
-      </c>
       <c r="S188" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U188" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
@@ -22444,7 +22443,7 @@
       <c r="AE188" s="1"/>
       <c r="AF188" s="1"/>
       <c r="AG188" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH188" s="1"/>
       <c r="AI188" s="1"/>
@@ -22477,7 +22476,7 @@
       <c r="BK188" s="1"/>
       <c r="BL188" s="1"/>
       <c r="BM188" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BN188" s="1"/>
       <c r="BO188" s="1"/>
@@ -22499,15 +22498,15 @@
       <c r="CE188" s="1"/>
       <c r="CF188" s="18"/>
       <c r="CG188" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row ht="30" r="189" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -22521,7 +22520,7 @@
         <v>53</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="2" t="s">
@@ -22580,17 +22579,17 @@
       <c r="AY189" s="1"/>
       <c r="AZ189" s="1"/>
       <c r="BA189" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB189" s="1"/>
       <c r="BC189" s="1"/>
       <c r="BD189" s="1"/>
       <c r="BE189" s="1"/>
       <c r="BF189" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="BG189" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="BG189" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="BH189" s="1"/>
       <c r="BI189" s="1"/>
@@ -22618,15 +22617,15 @@
       <c r="CE189" s="1"/>
       <c r="CF189" s="1"/>
       <c r="CG189" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="190" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="190" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -22640,7 +22639,7 @@
         <v>53</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="2" t="s">
@@ -22699,17 +22698,17 @@
       <c r="AY190" s="1"/>
       <c r="AZ190" s="1"/>
       <c r="BA190" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB190" s="1"/>
       <c r="BC190" s="1"/>
       <c r="BD190" s="1"/>
       <c r="BE190" s="1"/>
       <c r="BF190" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BG190" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BH190" s="1"/>
       <c r="BI190" s="1"/>
@@ -22737,15 +22736,15 @@
       <c r="CE190" s="1"/>
       <c r="CF190" s="1"/>
       <c r="CG190" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="191" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="191" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -22759,7 +22758,7 @@
         <v>53</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="2" t="s">
@@ -22818,17 +22817,17 @@
       <c r="AY191" s="1"/>
       <c r="AZ191" s="1"/>
       <c r="BA191" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB191" s="1"/>
       <c r="BC191" s="1"/>
       <c r="BD191" s="1"/>
       <c r="BE191" s="1"/>
       <c r="BF191" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BG191" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BH191" s="1"/>
       <c r="BI191" s="1"/>
@@ -22856,15 +22855,15 @@
       <c r="CE191" s="1"/>
       <c r="CF191" s="1"/>
       <c r="CG191" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -22878,7 +22877,7 @@
         <v>53</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="2" t="s">
@@ -22937,17 +22936,17 @@
       <c r="AY192" s="1"/>
       <c r="AZ192" s="1"/>
       <c r="BA192" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB192" s="1"/>
       <c r="BC192" s="1"/>
       <c r="BD192" s="1"/>
       <c r="BE192" s="1"/>
       <c r="BF192" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BG192" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BH192" s="1"/>
       <c r="BI192" s="1"/>
@@ -22975,15 +22974,15 @@
       <c r="CE192" s="1"/>
       <c r="CF192" s="1"/>
       <c r="CG192" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -22997,7 +22996,7 @@
         <v>53</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="2" t="s">
@@ -23056,17 +23055,17 @@
       <c r="AY193" s="1"/>
       <c r="AZ193" s="1"/>
       <c r="BA193" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB193" s="1"/>
       <c r="BC193" s="1"/>
       <c r="BD193" s="1"/>
       <c r="BE193" s="1"/>
       <c r="BF193" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BG193" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BH193" s="1"/>
       <c r="BI193" s="1"/>
@@ -23094,15 +23093,15 @@
       <c r="CE193" s="1"/>
       <c r="CF193" s="1"/>
       <c r="CG193" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -23116,7 +23115,7 @@
         <v>53</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="2" t="s">
@@ -23175,17 +23174,17 @@
       <c r="AY194" s="1"/>
       <c r="AZ194" s="1"/>
       <c r="BA194" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB194" s="1"/>
       <c r="BC194" s="1"/>
       <c r="BD194" s="1"/>
       <c r="BE194" s="1"/>
       <c r="BF194" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BG194" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BH194" s="1"/>
       <c r="BI194" s="1"/>
@@ -23213,18 +23212,18 @@
       <c r="CE194" s="1"/>
       <c r="CF194" s="1"/>
       <c r="CG194" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="195" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="195" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -23233,7 +23232,7 @@
         <v>53</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="2" t="s">
@@ -23292,17 +23291,17 @@
       <c r="AY195" s="1"/>
       <c r="AZ195" s="1"/>
       <c r="BA195" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB195" s="1"/>
       <c r="BC195" s="1"/>
       <c r="BD195" s="1"/>
       <c r="BE195" s="1"/>
       <c r="BF195" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="BG195" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="BG195" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="BH195" s="1"/>
       <c r="BI195" s="1"/>
@@ -23330,18 +23329,18 @@
       <c r="CE195" s="1"/>
       <c r="CF195" s="1"/>
       <c r="CG195" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="196" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="196" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -23350,7 +23349,7 @@
         <v>53</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I196" s="1"/>
       <c r="J196" s="2" t="s">
@@ -23409,17 +23408,17 @@
       <c r="AY196" s="1"/>
       <c r="AZ196" s="1"/>
       <c r="BA196" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB196" s="1"/>
       <c r="BC196" s="1"/>
       <c r="BD196" s="1"/>
       <c r="BE196" s="1"/>
       <c r="BF196" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BG196" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BH196" s="1"/>
       <c r="BI196" s="1"/>
@@ -23447,18 +23446,18 @@
       <c r="CE196" s="1"/>
       <c r="CF196" s="1"/>
       <c r="CG196" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="30" r="197" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="197" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -23467,7 +23466,7 @@
         <v>53</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="2" t="s">
@@ -23526,17 +23525,17 @@
       <c r="AY197" s="1"/>
       <c r="AZ197" s="1"/>
       <c r="BA197" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB197" s="1"/>
       <c r="BC197" s="1"/>
       <c r="BD197" s="1"/>
       <c r="BE197" s="1"/>
       <c r="BF197" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BG197" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BH197" s="1"/>
       <c r="BI197" s="1"/>
@@ -23564,18 +23563,18 @@
       <c r="CE197" s="1"/>
       <c r="CF197" s="1"/>
       <c r="CG197" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="198" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -23584,7 +23583,7 @@
         <v>53</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="2" t="s">
@@ -23643,17 +23642,17 @@
       <c r="AY198" s="1"/>
       <c r="AZ198" s="1"/>
       <c r="BA198" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB198" s="1"/>
       <c r="BC198" s="1"/>
       <c r="BD198" s="1"/>
       <c r="BE198" s="1"/>
       <c r="BF198" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BG198" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BH198" s="1"/>
       <c r="BI198" s="1"/>
@@ -23681,18 +23680,18 @@
       <c r="CE198" s="1"/>
       <c r="CF198" s="1"/>
       <c r="CG198" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -23701,7 +23700,7 @@
         <v>53</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="2" t="s">
@@ -23760,17 +23759,17 @@
       <c r="AY199" s="1"/>
       <c r="AZ199" s="1"/>
       <c r="BA199" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB199" s="1"/>
       <c r="BC199" s="1"/>
       <c r="BD199" s="1"/>
       <c r="BE199" s="1"/>
       <c r="BF199" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BG199" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BH199" s="1"/>
       <c r="BI199" s="1"/>
@@ -23798,18 +23797,18 @@
       <c r="CE199" s="1"/>
       <c r="CF199" s="1"/>
       <c r="CG199" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -23818,7 +23817,7 @@
         <v>53</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="2" t="s">
@@ -23877,17 +23876,17 @@
       <c r="AY200" s="1"/>
       <c r="AZ200" s="1"/>
       <c r="BA200" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB200" s="1"/>
       <c r="BC200" s="1"/>
       <c r="BD200" s="1"/>
       <c r="BE200" s="1"/>
       <c r="BF200" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BG200" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BH200" s="1"/>
       <c r="BI200" s="1"/>
@@ -23915,15 +23914,15 @@
       <c r="CE200" s="1"/>
       <c r="CF200" s="1"/>
       <c r="CG200" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="201" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -23937,7 +23936,7 @@
         <v>53</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="2" t="s">
@@ -23996,7 +23995,7 @@
       <c r="AY201" s="1"/>
       <c r="AZ201" s="1"/>
       <c r="BA201" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB201" s="1"/>
       <c r="BC201" s="1"/>
@@ -24030,18 +24029,18 @@
       <c r="CE201" s="1"/>
       <c r="CF201" s="1"/>
       <c r="CG201" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="202" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -24050,7 +24049,7 @@
         <v>53</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="2" t="s">
@@ -24109,7 +24108,7 @@
       <c r="AY202" s="1"/>
       <c r="AZ202" s="1"/>
       <c r="BA202" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BB202" s="1"/>
       <c r="BC202" s="1"/>
@@ -24145,7 +24144,7 @@
       <c r="CE202" s="1"/>
       <c r="CF202" s="1"/>
       <c r="CG202" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="203" spans="1:85" x14ac:dyDescent="0.25">
@@ -32589,99 +32588,99 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="abc@test.com" r:id="rId1" ref="BM25"/>
-    <hyperlink r:id="rId2" ref="D48"/>
-    <hyperlink r:id="rId3" ref="D49"/>
-    <hyperlink r:id="rId4" ref="D52"/>
-    <hyperlink r:id="rId5" ref="D53"/>
-    <hyperlink r:id="rId6" ref="D54"/>
-    <hyperlink r:id="rId7" ref="D56"/>
-    <hyperlink r:id="rId8" ref="D59"/>
-    <hyperlink r:id="rId9" ref="D60"/>
-    <hyperlink r:id="rId10" ref="D61"/>
-    <hyperlink r:id="rId11" ref="D64"/>
-    <hyperlink r:id="rId12" ref="D65"/>
-    <hyperlink r:id="rId13" ref="C67"/>
-    <hyperlink r:id="rId14" ref="D67"/>
-    <hyperlink r:id="rId15" ref="C68"/>
-    <hyperlink r:id="rId16" ref="C71"/>
-    <hyperlink r:id="rId17" ref="C72"/>
-    <hyperlink r:id="rId18" ref="C75"/>
-    <hyperlink r:id="rId19" ref="C25"/>
-    <hyperlink r:id="rId20" ref="C11"/>
-    <hyperlink r:id="rId21" ref="C181"/>
-    <hyperlink r:id="rId22" ref="C81"/>
-    <hyperlink display="Ankit@12345" r:id="rId23" ref="AU81"/>
-    <hyperlink r:id="rId24" ref="C79"/>
-    <hyperlink r:id="rId25" ref="C52"/>
-    <hyperlink r:id="rId26" ref="C61"/>
-    <hyperlink r:id="rId27" ref="C80"/>
-    <hyperlink display="ankitgoel06@gmail.com" r:id="rId28" ref="C82:C85"/>
-    <hyperlink display="ankitgoel06@gmail.com" r:id="rId29" ref="C87:C114"/>
-    <hyperlink r:id="rId30" ref="C112"/>
-    <hyperlink r:id="rId31" ref="C108"/>
-    <hyperlink r:id="rId32" ref="C111"/>
-    <hyperlink r:id="rId33" ref="C162"/>
-    <hyperlink display="Deepika@1234" r:id="rId34" ref="D162"/>
-    <hyperlink r:id="rId35" ref="C173"/>
-    <hyperlink r:id="rId36" ref="C174"/>
-    <hyperlink r:id="rId37" ref="C175"/>
-    <hyperlink r:id="rId38" ref="C176"/>
-    <hyperlink r:id="rId39" ref="C178"/>
-    <hyperlink r:id="rId40" ref="C185"/>
-    <hyperlink r:id="rId41" ref="C187"/>
-    <hyperlink r:id="rId42" ref="C188"/>
-    <hyperlink r:id="rId43" ref="D187"/>
-    <hyperlink r:id="rId44" ref="D188"/>
-    <hyperlink r:id="rId45" ref="C56"/>
-    <hyperlink r:id="rId46" ref="C169"/>
-    <hyperlink r:id="rId47" ref="C170"/>
-    <hyperlink r:id="rId48" ref="C171"/>
-    <hyperlink r:id="rId49" ref="C157"/>
-    <hyperlink r:id="rId50" ref="C158"/>
-    <hyperlink r:id="rId51" ref="AM148"/>
-    <hyperlink r:id="rId52" ref="C179"/>
-    <hyperlink r:id="rId53" ref="C180"/>
-    <hyperlink r:id="rId54" ref="C182"/>
-    <hyperlink r:id="rId55" ref="C183"/>
-    <hyperlink r:id="rId56" ref="C184"/>
-    <hyperlink r:id="rId57" ref="C127"/>
-    <hyperlink display="Ankit@12345" r:id="rId58" ref="D81"/>
-    <hyperlink r:id="rId59" ref="C153"/>
-    <hyperlink display="Ankit@123" r:id="rId60" ref="D93"/>
-    <hyperlink display="Ankit@123" r:id="rId61" ref="D94"/>
-    <hyperlink display="Ankit@123" r:id="rId62" ref="D103"/>
-    <hyperlink display="Ankit@123" r:id="rId63" ref="D106"/>
-    <hyperlink display="Ankit@123" r:id="rId64" ref="D95"/>
-    <hyperlink display="Ankit@123" r:id="rId65" ref="D102"/>
-    <hyperlink display="Ankit@123" r:id="rId66" ref="D104"/>
-    <hyperlink display="Ankit@123" r:id="rId67" ref="D99"/>
-    <hyperlink display="Ankit@123" r:id="rId68" ref="D100"/>
-    <hyperlink r:id="rId69" ref="C100"/>
-    <hyperlink display="Ankit@123" r:id="rId70" ref="D105"/>
-    <hyperlink display="Ankit@123" r:id="rId71" ref="D96"/>
-    <hyperlink display="Ankit@123" r:id="rId72" ref="D98"/>
-    <hyperlink display="Ankit@123" r:id="rId73" ref="D97"/>
-    <hyperlink display="Ankit@123" r:id="rId74" ref="D101"/>
-    <hyperlink r:id="rId75" ref="C101"/>
+    <hyperlink ref="BM25" r:id="rId1" display="abc@test.com"/>
+    <hyperlink ref="D48" r:id="rId2"/>
+    <hyperlink ref="D49" r:id="rId3"/>
+    <hyperlink ref="D52" r:id="rId4"/>
+    <hyperlink ref="D53" r:id="rId5"/>
+    <hyperlink ref="D54" r:id="rId6"/>
+    <hyperlink ref="D56" r:id="rId7"/>
+    <hyperlink ref="D59" r:id="rId8"/>
+    <hyperlink ref="D60" r:id="rId9"/>
+    <hyperlink ref="D61" r:id="rId10"/>
+    <hyperlink ref="D64" r:id="rId11"/>
+    <hyperlink ref="D65" r:id="rId12"/>
+    <hyperlink ref="C67" r:id="rId13"/>
+    <hyperlink ref="D67" r:id="rId14"/>
+    <hyperlink ref="C68" r:id="rId15"/>
+    <hyperlink ref="C71" r:id="rId16"/>
+    <hyperlink ref="C72" r:id="rId17"/>
+    <hyperlink ref="C75" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="C181" r:id="rId21"/>
+    <hyperlink ref="C81" r:id="rId22"/>
+    <hyperlink ref="AU81" r:id="rId23" display="Ankit@12345"/>
+    <hyperlink ref="C79" r:id="rId24"/>
+    <hyperlink ref="C52" r:id="rId25"/>
+    <hyperlink ref="C61" r:id="rId26"/>
+    <hyperlink ref="C80" r:id="rId27"/>
+    <hyperlink ref="C82:C85" r:id="rId28" display="ankitgoel06@gmail.com"/>
+    <hyperlink ref="C87:C114" r:id="rId29" display="ankitgoel06@gmail.com"/>
+    <hyperlink ref="C112" r:id="rId30"/>
+    <hyperlink ref="C108" r:id="rId31"/>
+    <hyperlink ref="C111" r:id="rId32"/>
+    <hyperlink ref="C162" r:id="rId33"/>
+    <hyperlink ref="D162" r:id="rId34" display="Deepika@1234"/>
+    <hyperlink ref="C173" r:id="rId35"/>
+    <hyperlink ref="C174" r:id="rId36"/>
+    <hyperlink ref="C175" r:id="rId37"/>
+    <hyperlink ref="C176" r:id="rId38"/>
+    <hyperlink ref="C178" r:id="rId39"/>
+    <hyperlink ref="C185" r:id="rId40"/>
+    <hyperlink ref="C187" r:id="rId41"/>
+    <hyperlink ref="C188" r:id="rId42"/>
+    <hyperlink ref="D187" r:id="rId43"/>
+    <hyperlink ref="D188" r:id="rId44"/>
+    <hyperlink ref="C56" r:id="rId45"/>
+    <hyperlink ref="C169" r:id="rId46"/>
+    <hyperlink ref="C170" r:id="rId47"/>
+    <hyperlink ref="C171" r:id="rId48"/>
+    <hyperlink ref="C157" r:id="rId49"/>
+    <hyperlink ref="C158" r:id="rId50"/>
+    <hyperlink ref="AM148" r:id="rId51"/>
+    <hyperlink ref="C179" r:id="rId52"/>
+    <hyperlink ref="C180" r:id="rId53"/>
+    <hyperlink ref="C182" r:id="rId54"/>
+    <hyperlink ref="C183" r:id="rId55"/>
+    <hyperlink ref="C184" r:id="rId56"/>
+    <hyperlink ref="C127" r:id="rId57"/>
+    <hyperlink ref="D81" r:id="rId58" display="Ankit@12345"/>
+    <hyperlink ref="C153" r:id="rId59"/>
+    <hyperlink ref="D93" r:id="rId60" display="Ankit@123"/>
+    <hyperlink ref="D94" r:id="rId61" display="Ankit@123"/>
+    <hyperlink ref="D103" r:id="rId62" display="Ankit@123"/>
+    <hyperlink ref="D106" r:id="rId63" display="Ankit@123"/>
+    <hyperlink ref="D95" r:id="rId64" display="Ankit@123"/>
+    <hyperlink ref="D102" r:id="rId65" display="Ankit@123"/>
+    <hyperlink ref="D104" r:id="rId66" display="Ankit@123"/>
+    <hyperlink ref="D99" r:id="rId67" display="Ankit@123"/>
+    <hyperlink ref="D100" r:id="rId68" display="Ankit@123"/>
+    <hyperlink ref="C100" r:id="rId69"/>
+    <hyperlink ref="D105" r:id="rId70" display="Ankit@123"/>
+    <hyperlink ref="D96" r:id="rId71" display="Ankit@123"/>
+    <hyperlink ref="D98" r:id="rId72" display="Ankit@123"/>
+    <hyperlink ref="D97" r:id="rId73" display="Ankit@123"/>
+    <hyperlink ref="D101" r:id="rId74" display="Ankit@123"/>
+    <hyperlink ref="C101" r:id="rId75"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="69.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="100.0" collapsed="true"/>
+    <col min="1" max="1" width="69.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="100" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -32721,7 +32720,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -32729,7 +32728,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -32737,7 +32736,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -32745,7 +32744,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -32753,7 +32752,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -32761,7 +32760,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -32769,7 +32768,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -32777,7 +32776,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -32785,7 +32784,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -32793,7 +32792,7 @@
         <v>92</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -32801,7 +32800,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -32809,7 +32808,7 @@
         <v>85</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -32823,7 +32822,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -32831,7 +32830,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -32839,7 +32838,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -32847,26 +32846,26 @@
         <v>14</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" s="29"/>
     </row>
@@ -32875,7 +32874,7 @@
         <v>142</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -32883,7 +32882,7 @@
         <v>143</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -32891,7 +32890,7 @@
         <v>144</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -32899,7 +32898,7 @@
         <v>145</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -32907,7 +32906,7 @@
         <v>146</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -32915,15 +32914,15 @@
         <v>149</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row ht="15.75" r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -32934,34 +32933,34 @@
   <mergeCells count="1">
     <mergeCell ref="B22:B24"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="1" max="1" width="53.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s">
         <v>263</v>
       </c>
-      <c r="B1" t="s">
-        <v>264</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="6075"/>
+    <workbookView windowHeight="4440" windowWidth="14145" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
-    <sheet name="Dependencies" sheetId="6" r:id="rId2"/>
-    <sheet name="updates" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
+    <sheet name="Dependencies" r:id="rId2" sheetId="6"/>
+    <sheet name="updates" r:id="rId3" sheetId="7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="505">
   <si>
     <t>Ankit</t>
   </si>
@@ -1504,34 +1504,41 @@
     <t>productCategory</t>
   </si>
   <si>
-    <t>dwasxzsdcqr@gmail.com</t>
-  </si>
-  <si>
-    <t>zszdsas@gmail.com</t>
-  </si>
-  <si>
     <t>zxsdcfv@gmail.com</t>
   </si>
   <si>
-    <t>sfszss@gmail.com</t>
-  </si>
-  <si>
-    <t>ssaszxsddvfd@gmail.com</t>
-  </si>
-  <si>
-    <t>decsdcszsfddv@gmail.com</t>
-  </si>
-  <si>
-    <t>vcxsdsfzacd@gmail.com</t>
-  </si>
-  <si>
     <t>You are a registered customer. Your subscription for newsletter is successfully updated</t>
+  </si>
+  <si>
+    <t>sxfdgrtcqr@gmail.com</t>
+  </si>
+  <si>
+    <t>xdsscegfr@gmail.com</t>
+  </si>
+  <si>
+    <t>cxs@gmail.com</t>
+  </si>
+  <si>
+    <t>fcxdfcdvfd@gmail.com</t>
+  </si>
+  <si>
+    <t>decdf@gmail.com</t>
+  </si>
+  <si>
+    <t>vcxcxdfv@gmail.com</t>
+  </si>
+  <si>
+    <t>SS_Footer_CustomerRelated_Verify_All_L2L3_Links_Are_Clickable</t>
+  </si>
+  <si>
+    <t>6567</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1741,81 +1748,81 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="8" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1832,10 +1839,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1870,7 +1877,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1922,7 +1929,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2027,7 +2034,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2036,13 +2043,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2052,7 +2059,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2061,7 +2068,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2070,7 +2077,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2080,12 +2087,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2116,7 +2123,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2135,7 +2142,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2147,26 +2154,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CC17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CD25" sqref="CD25"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="BQ2" xSplit="1" ySplit="1"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1"/>
+      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
+      <selection activeCell="BQ11" pane="bottomRight" sqref="BQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="23.140625" style="14" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="98.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="34.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="61" max="61" style="14" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>164</v>
       </c>
@@ -2608,7 +2615,7 @@
       <c r="CE3" s="1"/>
       <c r="CF3" s="18"/>
       <c r="CG3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
@@ -2892,7 +2899,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -3628,7 +3635,9 @@
         <v>48</v>
       </c>
       <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
+      <c r="BS14" s="1" t="s">
+        <v>504</v>
+      </c>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1"/>
       <c r="BV14" s="1"/>
@@ -3646,7 +3655,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -3739,9 +3748,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>503</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>364</v>
@@ -3750,8 +3759,12 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3772,9 +3785,13 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="AE16" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -3829,12 +3846,12 @@
       <c r="CE16" s="1"/>
       <c r="CF16" s="18"/>
       <c r="CG16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="17" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>364</v>
@@ -3925,9 +3942,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>364</v>
@@ -4018,9 +4035,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>364</v>
@@ -4111,9 +4128,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>364</v>
@@ -4204,9 +4221,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>50</v>
+    <row customFormat="1" r="21" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>364</v>
@@ -4293,11 +4310,13 @@
       <c r="CD21" s="1"/>
       <c r="CE21" s="1"/>
       <c r="CF21" s="18"/>
-      <c r="CG21" s="1"/>
-    </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>49</v>
+      <c r="CG21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="22" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>364</v>
@@ -4384,13 +4403,11 @@
       <c r="CD22" s="1"/>
       <c r="CE22" s="1"/>
       <c r="CF22" s="18"/>
-      <c r="CG22" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG22" s="1"/>
+    </row>
+    <row customFormat="1" r="23" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>364</v>
@@ -4481,19 +4498,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4572,23 +4588,22 @@
       <c r="CE24" s="1"/>
       <c r="CF24" s="18"/>
       <c r="CG24" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="60" r="25" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>497</v>
-      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -4646,9 +4661,7 @@
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1"/>
-      <c r="BM25" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="BM25" s="1"/>
       <c r="BN25" s="1"/>
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
@@ -4663,29 +4676,25 @@
       <c r="BY25" s="1"/>
       <c r="BZ25" s="1"/>
       <c r="CA25" s="1"/>
-      <c r="CB25" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="CC25" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="CD25" s="15" t="s">
-        <v>502</v>
-      </c>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
       <c r="CE25" s="1"/>
       <c r="CF25" s="18"/>
       <c r="CG25" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="75" r="26" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="27" t="s">
+        <v>495</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4747,7 +4756,9 @@
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1"/>
-      <c r="BM26" s="1"/>
+      <c r="BM26" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="BN26" s="1"/>
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
@@ -4762,18 +4773,24 @@
       <c r="BY26" s="1"/>
       <c r="BZ26" s="1"/>
       <c r="CA26" s="1"/>
-      <c r="CB26" s="1"/>
-      <c r="CC26" s="1"/>
-      <c r="CD26" s="1"/>
+      <c r="CB26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CC26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CD26" s="15" t="s">
+        <v>496</v>
+      </c>
       <c r="CE26" s="1"/>
       <c r="CF26" s="18"/>
       <c r="CG26" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="27" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>364</v>
@@ -4864,21 +4881,17 @@
         <v>365</v>
       </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>57</v>
+    <row customFormat="1" r="28" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4957,25 +4970,27 @@
       <c r="CD28" s="1"/>
       <c r="CE28" s="1"/>
       <c r="CF28" s="18"/>
-      <c r="CG28" s="1"/>
-    </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>58</v>
+      <c r="CG28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="29" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -5052,13 +5067,11 @@
       <c r="CD29" s="1"/>
       <c r="CE29" s="1"/>
       <c r="CF29" s="18"/>
-      <c r="CG29" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:85" ht="45" x14ac:dyDescent="0.25">
+      <c r="CG29" s="1"/>
+    </row>
+    <row customFormat="1" r="30" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>364</v>
@@ -5073,9 +5086,7 @@
       <c r="H30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>470</v>
-      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5155,9 +5166,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="31" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>364</v>
@@ -5172,7 +5183,9 @@
       <c r="H31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5252,9 +5265,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>364</v>
@@ -5283,24 +5296,12 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -5358,12 +5359,12 @@
       <c r="CE32" s="1"/>
       <c r="CF32" s="18"/>
       <c r="CG32" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="33" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>364</v>
@@ -5392,16 +5393,28 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
+      <c r="W33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
@@ -5458,9 +5471,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>364</v>
@@ -5495,12 +5508,10 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
@@ -5557,9 +5568,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>364</v>
@@ -5595,11 +5606,9 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD35" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
@@ -5658,9 +5667,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>364</v>
@@ -5695,13 +5704,13 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
+      <c r="AC36" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AD36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>388</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -5759,9 +5768,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>364</v>
@@ -5797,13 +5806,13 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
+      <c r="AD37" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AE37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>399</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
@@ -5857,12 +5866,12 @@
       <c r="CE37" s="1"/>
       <c r="CF37" s="18"/>
       <c r="CG37" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="38" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>344</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>364</v>
@@ -5898,11 +5907,13 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1" t="s">
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
+      <c r="AF38" t="s">
+        <v>399</v>
+      </c>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
@@ -5945,9 +5956,7 @@
       <c r="BT38" s="1"/>
       <c r="BU38" s="1"/>
       <c r="BV38" s="1"/>
-      <c r="BW38" s="1" t="s">
-        <v>345</v>
-      </c>
+      <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
       <c r="BY38" s="1"/>
       <c r="BZ38" s="1"/>
@@ -5958,12 +5967,12 @@
       <c r="CE38" s="1"/>
       <c r="CF38" s="18"/>
       <c r="CG38" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="39" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>364</v>
@@ -5973,10 +5982,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>465</v>
+        <v>53</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -5998,11 +6007,9 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
-      <c r="AC39" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="1" t="s">
-        <v>468</v>
+        <v>6</v>
       </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
@@ -6048,7 +6055,9 @@
       <c r="BT39" s="1"/>
       <c r="BU39" s="1"/>
       <c r="BV39" s="1"/>
-      <c r="BW39" s="1"/>
+      <c r="BW39" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="BX39" s="1"/>
       <c r="BY39" s="1"/>
       <c r="BZ39" s="1"/>
@@ -6059,12 +6068,12 @@
       <c r="CE39" s="1"/>
       <c r="CF39" s="18"/>
       <c r="CG39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="40" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>364</v>
@@ -6163,9 +6172,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>75</v>
+        <v>469</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>364</v>
@@ -6175,10 +6184,10 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>53</v>
+        <v>465</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>59</v>
+        <v>466</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -6200,8 +6209,12 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
+      <c r="AC41" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
@@ -6260,9 +6273,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>364</v>
@@ -6357,9 +6370,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>364</v>
@@ -6454,9 +6467,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>364</v>
@@ -6485,24 +6498,12 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6563,9 +6564,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>364</v>
@@ -6578,7 +6579,7 @@
         <v>53</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>460</v>
+        <v>59</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -6594,21 +6595,27 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AD45" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE45" s="1" t="s">
-        <v>389</v>
-      </c>
+      <c r="W45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
@@ -6663,12 +6670,12 @@
       <c r="CE45" s="1"/>
       <c r="CF45" s="18"/>
       <c r="CG45" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="46" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>364</v>
@@ -6681,7 +6688,7 @@
         <v>53</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>59</v>
+        <v>460</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6703,9 +6710,15 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
+      <c r="AC46" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
@@ -6763,9 +6776,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>364</v>
@@ -6860,19 +6873,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -6961,9 +6970,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>364</v>
@@ -7062,19 +7071,27 @@
         <v>363</v>
       </c>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>84</v>
+    <row customFormat="1" r="50" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="1"/>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -7151,11 +7168,13 @@
       <c r="CD50" s="1"/>
       <c r="CE50" s="1"/>
       <c r="CF50" s="18"/>
-      <c r="CG50" s="2"/>
-    </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>85</v>
+      <c r="CG50" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="51" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>364</v>
@@ -7164,12 +7183,8 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>431</v>
-      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -7246,23 +7261,17 @@
       <c r="CD51" s="1"/>
       <c r="CE51" s="1"/>
       <c r="CF51" s="18"/>
-      <c r="CG51" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG51" s="2"/>
+    </row>
+    <row customFormat="1" r="52" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
@@ -7351,14 +7360,14 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -7452,9 +7461,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>346</v>
+        <v>87</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>364</v>
@@ -7549,20 +7558,22 @@
       <c r="CD54" s="1"/>
       <c r="CE54" s="1"/>
       <c r="CF54" s="18"/>
-      <c r="CG54" s="2"/>
-    </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG54" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="55" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>88</v>
+        <v>346</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>6</v>
+      <c r="C55" t="s">
+        <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -7648,22 +7659,20 @@
       <c r="CD55" s="1"/>
       <c r="CE55" s="1"/>
       <c r="CF55" s="18"/>
-      <c r="CG55" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG55" s="2"/>
+    </row>
+    <row customFormat="1" r="56" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C56" s="27" t="s">
-        <v>2</v>
+      <c r="C56" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -7750,25 +7759,29 @@
       <c r="CE56" s="1"/>
       <c r="CF56" s="18"/>
       <c r="CG56" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="57" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>457</v>
+        <v>89</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -7847,12 +7860,12 @@
       <c r="CE57" s="1"/>
       <c r="CF57" s="18"/>
       <c r="CG57" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="58" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>90</v>
+        <v>457</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>364</v>
@@ -7865,7 +7878,7 @@
         <v>53</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -7944,22 +7957,18 @@
       <c r="CE58" s="1"/>
       <c r="CF58" s="18"/>
       <c r="CG58" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="59" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>347</v>
+        <v>90</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
@@ -8044,11 +8053,13 @@
       <c r="CD59" s="1"/>
       <c r="CE59" s="1"/>
       <c r="CF59" s="18"/>
-      <c r="CG59" s="2"/>
-    </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG59" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="60" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>91</v>
+        <v>347</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>364</v>
@@ -8122,14 +8133,10 @@
       <c r="BI60" s="11"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
-      <c r="BL60" s="11" t="s">
-        <v>273</v>
-      </c>
+      <c r="BL60" s="1"/>
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
-      <c r="BO60" s="11" t="s">
-        <v>274</v>
-      </c>
+      <c r="BO60" s="1"/>
       <c r="BP60" s="1"/>
       <c r="BQ60" s="1"/>
       <c r="BR60" s="1"/>
@@ -8147,18 +8154,16 @@
       <c r="CD60" s="1"/>
       <c r="CE60" s="1"/>
       <c r="CF60" s="18"/>
-      <c r="CG60" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG60" s="2"/>
+    </row>
+    <row customFormat="1" r="61" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -8183,9 +8188,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
@@ -8229,10 +8232,14 @@
       <c r="BI61" s="11"/>
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
-      <c r="BL61" s="1"/>
+      <c r="BL61" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
-      <c r="BO61" s="1"/>
+      <c r="BO61" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="BP61" s="1"/>
       <c r="BQ61" s="1"/>
       <c r="BR61" s="1"/>
@@ -8254,15 +8261,19 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -8272,9 +8283,7 @@
         <v>431</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -8284,7 +8293,9 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="T62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
@@ -8297,9 +8308,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AG62" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
@@ -8337,18 +8346,10 @@
       <c r="BP62" s="1"/>
       <c r="BQ62" s="1"/>
       <c r="BR62" s="1"/>
-      <c r="BS62" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BT62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU62" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BV62" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="BS62" s="1"/>
+      <c r="BT62" s="1"/>
+      <c r="BU62" s="1"/>
+      <c r="BV62" s="1"/>
       <c r="BW62" s="1"/>
       <c r="BX62" s="1"/>
       <c r="BY62" s="1"/>
@@ -8363,9 +8364,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>364</v>
@@ -8407,7 +8408,7 @@
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
@@ -8447,16 +8448,16 @@
       <c r="BQ63" s="1"/>
       <c r="BR63" s="1"/>
       <c r="BS63" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="BT63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BU63" s="1" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="BV63" s="1" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="BW63" s="1"/>
       <c r="BX63" s="1"/>
@@ -8472,19 +8473,15 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -8494,15 +8491,15 @@
         <v>431</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -8519,10 +8516,10 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="AG64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
@@ -8554,17 +8551,23 @@
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
-      <c r="BN64" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="BN64" s="1"/>
       <c r="BO64" s="1"/>
       <c r="BP64" s="1"/>
       <c r="BQ64" s="1"/>
       <c r="BR64" s="1"/>
-      <c r="BS64" s="1"/>
-      <c r="BT64" s="1"/>
-      <c r="BU64" s="1"/>
-      <c r="BV64" s="1"/>
+      <c r="BS64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BT64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV64" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BW64" s="1"/>
       <c r="BX64" s="1"/>
       <c r="BY64" s="1"/>
@@ -8579,9 +8582,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>364</v>
@@ -8607,7 +8610,9 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="P65" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -8625,7 +8630,9 @@
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
+      <c r="AH65" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
@@ -8657,10 +8664,10 @@
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
       <c r="BM65" s="1"/>
-      <c r="BN65" s="1"/>
-      <c r="BO65" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BN65" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BO65" s="1"/>
       <c r="BP65" s="1"/>
       <c r="BQ65" s="1"/>
       <c r="BR65" s="1"/>
@@ -8679,22 +8686,30 @@
       <c r="CE65" s="1"/>
       <c r="CF65" s="18"/>
       <c r="CG65" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>232</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="66" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -8747,13 +8762,15 @@
       <c r="BF66" s="1"/>
       <c r="BG66" s="1"/>
       <c r="BH66" s="1"/>
-      <c r="BI66" s="1"/>
+      <c r="BI66" s="11"/>
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
-      <c r="BO66" s="1"/>
+      <c r="BO66" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BP66" s="1"/>
       <c r="BQ66" s="1"/>
       <c r="BR66" s="1"/>
@@ -8770,25 +8787,21 @@
       <c r="CC66" s="1"/>
       <c r="CD66" s="1"/>
       <c r="CE66" s="1"/>
-      <c r="CF66" s="1"/>
-      <c r="CG66" s="1"/>
-    </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>7</v>
+      <c r="CF66" s="18"/>
+      <c r="CG66" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="67" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -8868,39 +8881,31 @@
       <c r="CD67" s="1"/>
       <c r="CE67" s="1"/>
       <c r="CF67" s="1"/>
-      <c r="CG67" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG67" s="1"/>
+    </row>
+    <row customFormat="1" r="68" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>361</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -8910,9 +8915,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
@@ -8979,34 +8982,34 @@
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>2</v>
+      <c r="C69" s="26" t="s">
+        <v>360</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>3</v>
+        <v>361</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" t="s">
-        <v>233</v>
+      <c r="F69" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>6</v>
+        <v>359</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -9018,7 +9021,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
@@ -9072,11 +9075,12 @@
       <c r="BT69" s="1"/>
       <c r="BU69" s="1"/>
       <c r="BV69" s="1"/>
-      <c r="BW69" s="12"/>
-      <c r="BX69" s="12"/>
-      <c r="BY69" s="12"/>
-      <c r="BZ69" s="12"/>
-      <c r="CA69" s="12"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="1"/>
       <c r="CC69" s="1"/>
       <c r="CD69" s="1"/>
       <c r="CE69" s="1"/>
@@ -9085,27 +9089,35 @@
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" t="s">
+        <v>233</v>
+      </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -9115,7 +9127,9 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
+      <c r="V70" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
@@ -9168,14 +9182,11 @@
       <c r="BT70" s="1"/>
       <c r="BU70" s="1"/>
       <c r="BV70" s="1"/>
-      <c r="BW70" s="1"/>
-      <c r="BX70" s="1"/>
-      <c r="BY70" s="1"/>
-      <c r="BZ70" s="1"/>
-      <c r="CA70" s="1"/>
-      <c r="CB70" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="BW70" s="12"/>
+      <c r="BX70" s="12"/>
+      <c r="BY70" s="12"/>
+      <c r="BZ70" s="12"/>
+      <c r="CA70" s="12"/>
       <c r="CC70" s="1"/>
       <c r="CD70" s="1"/>
       <c r="CE70" s="1"/>
@@ -9184,18 +9195,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C71" s="26" t="s">
-        <v>2</v>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -9283,9 +9294,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="72" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>364</v>
@@ -9294,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>233</v>
+        <v>6</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -9371,8 +9382,8 @@
       <c r="BY72" s="1"/>
       <c r="BZ72" s="1"/>
       <c r="CA72" s="1"/>
-      <c r="CB72" s="1" t="s">
-        <v>298</v>
+      <c r="CB72" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="CC72" s="1"/>
       <c r="CD72" s="1"/>
@@ -9382,18 +9393,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="73" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -9470,7 +9481,9 @@
       <c r="BY73" s="1"/>
       <c r="BZ73" s="1"/>
       <c r="CA73" s="1"/>
-      <c r="CB73" s="1"/>
+      <c r="CB73" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="CC73" s="1"/>
       <c r="CD73" s="1"/>
       <c r="CE73" s="1"/>
@@ -9479,9 +9492,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>364</v>
@@ -9576,17 +9589,19 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C75" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -9671,14 +9686,16 @@
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="26" t="s">
+        <v>299</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -9764,9 +9781,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>364</v>
@@ -9857,9 +9874,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>234</v>
+    <row customFormat="1" r="78" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>364</v>
@@ -9946,21 +9963,19 @@
       <c r="CD78" s="1"/>
       <c r="CE78" s="1"/>
       <c r="CF78" s="1"/>
-      <c r="CG78" s="1"/>
-    </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>15</v>
+      <c r="CG78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="79" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -10041,13 +10056,11 @@
       <c r="CD79" s="1"/>
       <c r="CE79" s="1"/>
       <c r="CF79" s="1"/>
-      <c r="CG79" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG79" s="1"/>
+    </row>
+    <row customFormat="1" r="80" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>364</v>
@@ -10142,18 +10155,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="81" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>433</v>
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -10197,9 +10210,7 @@
       <c r="AR81" s="1"/>
       <c r="AS81" s="1"/>
       <c r="AT81" s="1"/>
-      <c r="AU81" s="27" t="s">
-        <v>434</v>
-      </c>
+      <c r="AU81" s="1"/>
       <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
@@ -10232,33 +10243,29 @@
       <c r="BY81" s="1"/>
       <c r="BZ81" s="1"/>
       <c r="CA81" s="1"/>
-      <c r="CB81" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="CB81" s="1"/>
       <c r="CC81" s="1"/>
       <c r="CD81" s="1"/>
       <c r="CE81" s="1"/>
       <c r="CF81" s="1"/>
       <c r="CG81" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="82" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -10300,7 +10307,9 @@
       <c r="AR82" s="1"/>
       <c r="AS82" s="1"/>
       <c r="AT82" s="1"/>
-      <c r="AU82" s="1"/>
+      <c r="AU82" s="27" t="s">
+        <v>434</v>
+      </c>
       <c r="AV82" s="1"/>
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
@@ -10333,18 +10342,20 @@
       <c r="BY82" s="1"/>
       <c r="BZ82" s="1"/>
       <c r="CA82" s="1"/>
-      <c r="CB82" s="1"/>
+      <c r="CB82" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="CC82" s="1"/>
       <c r="CD82" s="1"/>
       <c r="CE82" s="1"/>
       <c r="CF82" s="1"/>
       <c r="CG82" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="83" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>364</v>
@@ -10441,9 +10452,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>364</v>
@@ -10540,9 +10551,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>364</v>
@@ -10557,12 +10568,8 @@
         <v>0</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -10643,15 +10650,15 @@
         <v>365</v>
       </c>
     </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>318</v>
+      <c r="C86" s="26" t="s">
+        <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>3</v>
@@ -10660,8 +10667,12 @@
         <v>0</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -10742,15 +10753,15 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C87" s="26" t="s">
-        <v>2</v>
+      <c r="C87" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>3</v>
@@ -10841,9 +10852,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>364</v>
@@ -10858,12 +10869,8 @@
         <v>0</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>319</v>
-      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -10941,12 +10948,12 @@
       <c r="CE88" s="1"/>
       <c r="CF88" s="1"/>
       <c r="CG88" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="89" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>364</v>
@@ -10965,7 +10972,7 @@
         <v>53</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -11047,9 +11054,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>364</v>
@@ -11068,7 +11075,7 @@
         <v>53</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -11150,9 +11157,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>364</v>
@@ -11167,8 +11174,12 @@
         <v>0</v>
       </c>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="G91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>323</v>
+      </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -11246,12 +11257,12 @@
       <c r="CE91" s="1"/>
       <c r="CF91" s="1"/>
       <c r="CG91" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="92" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>364</v>
@@ -11348,21 +11359,21 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>471</v>
+        <v>305</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C93" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>361</v>
+      <c r="C93" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -11447,9 +11458,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="94" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>364</v>
@@ -11546,9 +11557,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>364</v>
@@ -11565,9 +11576,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="1" t="s">
-        <v>475</v>
-      </c>
+      <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -11629,9 +11638,7 @@
       <c r="BP95" s="1"/>
       <c r="BQ95" s="1"/>
       <c r="BR95" s="1"/>
-      <c r="BS95" s="1" t="s">
-        <v>476</v>
-      </c>
+      <c r="BS95" s="1"/>
       <c r="BT95" s="1"/>
       <c r="BU95" s="1"/>
       <c r="BV95" s="1"/>
@@ -11649,9 +11656,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="96" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>364</v>
@@ -11752,9 +11759,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="97" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>364</v>
@@ -11855,9 +11862,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="98" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="98" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>364</v>
@@ -11955,12 +11962,12 @@
       <c r="CE98" s="1"/>
       <c r="CF98" s="1"/>
       <c r="CG98" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="99" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="99" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>364</v>
@@ -12058,18 +12065,18 @@
       <c r="CE99" s="1"/>
       <c r="CF99" s="1"/>
       <c r="CG99" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="100" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="100" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D100" s="27" t="s">
         <v>361</v>
@@ -12164,9 +12171,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="101" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="101" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>364</v>
@@ -12267,15 +12274,15 @@
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="102" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D102" s="27" t="s">
         <v>361</v>
@@ -12289,9 +12296,7 @@
       <c r="I102" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>375</v>
-      </c>
+      <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -12322,18 +12327,12 @@
       <c r="AL102" s="1"/>
       <c r="AM102" s="1"/>
       <c r="AN102" s="1"/>
-      <c r="AO102" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="AP102" s="1" t="s">
-        <v>485</v>
-      </c>
+      <c r="AO102" s="1"/>
+      <c r="AP102" s="1"/>
       <c r="AQ102" s="1"/>
       <c r="AR102" s="1"/>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="1" t="s">
-        <v>486</v>
-      </c>
+      <c r="AT102" s="1"/>
       <c r="AU102" s="1"/>
       <c r="AV102" s="1"/>
       <c r="AW102" s="1"/>
@@ -12341,17 +12340,11 @@
       <c r="AY102" s="1"/>
       <c r="AZ102" s="1"/>
       <c r="BA102" s="1"/>
-      <c r="BB102" s="1" t="s">
-        <v>487</v>
-      </c>
+      <c r="BB102" s="1"/>
       <c r="BC102" s="1"/>
-      <c r="BD102" s="1" t="s">
-        <v>488</v>
-      </c>
+      <c r="BD102" s="1"/>
       <c r="BE102" s="1"/>
-      <c r="BF102" s="1" t="s">
-        <v>489</v>
-      </c>
+      <c r="BF102" s="1"/>
       <c r="BG102" s="1"/>
       <c r="BH102" s="1"/>
       <c r="BI102" s="1"/>
@@ -12384,9 +12377,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="103" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>364</v>
@@ -12406,7 +12399,9 @@
       <c r="I103" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="J103" s="1"/>
+      <c r="J103" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -12437,12 +12432,18 @@
       <c r="AL103" s="1"/>
       <c r="AM103" s="1"/>
       <c r="AN103" s="1"/>
-      <c r="AO103" s="1"/>
-      <c r="AP103" s="1"/>
+      <c r="AO103" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AP103" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="AQ103" s="1"/>
       <c r="AR103" s="1"/>
       <c r="AS103" s="1"/>
-      <c r="AT103" s="1"/>
+      <c r="AT103" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="AU103" s="1"/>
       <c r="AV103" s="1"/>
       <c r="AW103" s="1"/>
@@ -12450,11 +12451,17 @@
       <c r="AY103" s="1"/>
       <c r="AZ103" s="1"/>
       <c r="BA103" s="1"/>
-      <c r="BB103" s="1"/>
+      <c r="BB103" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="BC103" s="1"/>
-      <c r="BD103" s="1"/>
+      <c r="BD103" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="BE103" s="1"/>
-      <c r="BF103" s="1"/>
+      <c r="BF103" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="BG103" s="1"/>
       <c r="BH103" s="1"/>
       <c r="BI103" s="1"/>
@@ -12487,9 +12494,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="104" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>364</v>
@@ -12590,9 +12597,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="105" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>364</v>
@@ -12693,9 +12700,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="106" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="106" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>364</v>
@@ -12712,7 +12719,9 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="I106" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -12774,7 +12783,9 @@
       <c r="BP106" s="1"/>
       <c r="BQ106" s="1"/>
       <c r="BR106" s="1"/>
-      <c r="BS106" s="1"/>
+      <c r="BS106" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="BT106" s="1"/>
       <c r="BU106" s="1"/>
       <c r="BV106" s="1"/>
@@ -12792,21 +12803,21 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>25</v>
+        <v>493</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C107" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>3</v>
+      <c r="C107" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>361</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -12842,6 +12853,7 @@
       <c r="AK107" s="1"/>
       <c r="AL107" s="1"/>
       <c r="AM107" s="1"/>
+      <c r="AN107" s="1"/>
       <c r="AO107" s="1"/>
       <c r="AP107" s="1"/>
       <c r="AQ107" s="1"/>
@@ -12851,6 +12863,9 @@
       <c r="AU107" s="1"/>
       <c r="AV107" s="1"/>
       <c r="AW107" s="1"/>
+      <c r="AX107" s="1"/>
+      <c r="AY107" s="1"/>
+      <c r="AZ107" s="1"/>
       <c r="BA107" s="1"/>
       <c r="BB107" s="1"/>
       <c r="BC107" s="1"/>
@@ -12887,9 +12902,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>364</v>
@@ -12937,13 +12952,8 @@
       <c r="AK108" s="1"/>
       <c r="AL108" s="1"/>
       <c r="AM108" s="1"/>
-      <c r="AN108" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="AO108" s="1"/>
-      <c r="AP108" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AP108" s="1"/>
       <c r="AQ108" s="1"/>
       <c r="AR108" s="1"/>
       <c r="AS108" s="1"/>
@@ -12951,9 +12961,6 @@
       <c r="AU108" s="1"/>
       <c r="AV108" s="1"/>
       <c r="AW108" s="1"/>
-      <c r="AX108" s="1"/>
-      <c r="AY108" s="1"/>
-      <c r="AZ108" s="1"/>
       <c r="BA108" s="1"/>
       <c r="BB108" s="1"/>
       <c r="BC108" s="1"/>
@@ -12981,9 +12988,7 @@
       <c r="BY108" s="1"/>
       <c r="BZ108" s="1"/>
       <c r="CA108" s="1"/>
-      <c r="CB108" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="CB108" s="1"/>
       <c r="CC108" s="1"/>
       <c r="CD108" s="1"/>
       <c r="CE108" s="1"/>
@@ -12992,9 +12997,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="109" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>364</v>
@@ -13012,27 +13017,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K109" t="s">
-        <v>377</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -13056,9 +13047,13 @@
       <c r="AK109" s="1"/>
       <c r="AL109" s="1"/>
       <c r="AM109" s="1"/>
-      <c r="AN109" s="1"/>
+      <c r="AN109" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="AO109" s="1"/>
-      <c r="AP109" s="1"/>
+      <c r="AP109" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ109" s="1"/>
       <c r="AR109" s="1"/>
       <c r="AS109" s="1"/>
@@ -13096,7 +13091,9 @@
       <c r="BY109" s="1"/>
       <c r="BZ109" s="1"/>
       <c r="CA109" s="1"/>
-      <c r="CB109" s="1"/>
+      <c r="CB109" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="CC109" s="1"/>
       <c r="CD109" s="1"/>
       <c r="CE109" s="1"/>
@@ -13105,9 +13102,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>98</v>
+    <row customFormat="1" r="110" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>364</v>
@@ -13125,7 +13122,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="2" t="s">
+      <c r="J110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K110" t="s">
@@ -13134,7 +13131,7 @@
       <c r="L110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="N110" s="1" t="s">
@@ -13169,15 +13166,11 @@
       <c r="AK110" s="1"/>
       <c r="AL110" s="1"/>
       <c r="AM110" s="1"/>
-      <c r="AN110" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="AN110" s="1"/>
       <c r="AO110" s="1"/>
       <c r="AP110" s="1"/>
       <c r="AQ110" s="1"/>
-      <c r="AR110" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="AR110" s="1"/>
       <c r="AS110" s="1"/>
       <c r="AT110" s="1"/>
       <c r="AU110" s="1"/>
@@ -13222,9 +13215,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>364</v>
@@ -13279,32 +13272,22 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
-      <c r="AG111" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH111" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI111" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ111" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK111" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL111" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM111" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AO111" s="1"/>
       <c r="AP111" s="1"/>
       <c r="AQ111" s="1"/>
-      <c r="AR111" s="1"/>
+      <c r="AR111" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="AS111" s="1"/>
       <c r="AT111" s="1"/>
       <c r="AU111" s="1"/>
@@ -13340,9 +13323,7 @@
       <c r="BY111" s="1"/>
       <c r="BZ111" s="1"/>
       <c r="CA111" s="1"/>
-      <c r="CB111" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="CB111" s="1"/>
       <c r="CC111" s="1"/>
       <c r="CD111" s="1"/>
       <c r="CE111" s="1"/>
@@ -13351,9 +13332,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="112" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>364</v>
@@ -13408,13 +13389,27 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="1"/>
-      <c r="AG112" s="1"/>
-      <c r="AH112" s="1"/>
-      <c r="AI112" s="1"/>
-      <c r="AJ112" s="1"/>
-      <c r="AK112" s="1"/>
-      <c r="AL112" s="1"/>
-      <c r="AM112" s="1"/>
+      <c r="AG112" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH112" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI112" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL112" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM112" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN112" s="1"/>
       <c r="AO112" s="1"/>
       <c r="AP112" s="1"/>
@@ -13456,7 +13451,7 @@
       <c r="BZ112" s="1"/>
       <c r="CA112" s="1"/>
       <c r="CB112" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="CC112" s="1"/>
       <c r="CD112" s="1"/>
@@ -13466,9 +13461,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="113" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="113" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>364</v>
@@ -13523,27 +13518,13 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="1"/>
-      <c r="AG113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH113" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ113" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK113" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL113" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM113" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="1"/>
+      <c r="AL113" s="1"/>
+      <c r="AM113" s="1"/>
       <c r="AN113" s="1"/>
       <c r="AO113" s="1"/>
       <c r="AP113" s="1"/>
@@ -13584,7 +13565,9 @@
       <c r="BY113" s="1"/>
       <c r="BZ113" s="1"/>
       <c r="CA113" s="1"/>
-      <c r="CB113" s="1"/>
+      <c r="CB113" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="CC113" s="1"/>
       <c r="CD113" s="1"/>
       <c r="CE113" s="1"/>
@@ -13593,9 +13576,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>364</v>
@@ -13720,27 +13703,47 @@
         <v>365</v>
       </c>
     </row>
-    <row r="115" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>238</v>
+    <row customFormat="1" r="115" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="C115" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
+      <c r="J115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" t="s">
+        <v>377</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -13757,13 +13760,27 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
-      <c r="AG115" s="1"/>
-      <c r="AH115" s="1"/>
-      <c r="AI115" s="1"/>
-      <c r="AJ115" s="1"/>
-      <c r="AK115" s="1"/>
-      <c r="AL115" s="1"/>
-      <c r="AM115" s="1"/>
+      <c r="AG115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH115" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL115" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM115" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN115" s="1"/>
       <c r="AO115" s="1"/>
       <c r="AP115" s="1"/>
@@ -13809,27 +13826,23 @@
       <c r="CD115" s="1"/>
       <c r="CE115" s="1"/>
       <c r="CF115" s="1"/>
-      <c r="CG115" s="1"/>
-    </row>
-    <row r="116" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>105</v>
+      <c r="CG115" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="116" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>374</v>
-      </c>
+      <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>324</v>
-      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -13906,18 +13919,18 @@
       <c r="CD116" s="1"/>
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
-      <c r="CG116" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="117" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG116" s="1"/>
+    </row>
+    <row customFormat="1" r="117" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -14007,9 +14020,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>364</v>
@@ -14104,9 +14117,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>364</v>
@@ -14201,9 +14214,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>364</v>
@@ -14225,9 +14238,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
-      <c r="P120" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
@@ -14300,9 +14311,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>364</v>
@@ -14312,10 +14323,10 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="2" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -14324,7 +14335,9 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
+      <c r="P121" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
@@ -14394,12 +14407,12 @@
       <c r="CE121" s="1"/>
       <c r="CF121" s="1"/>
       <c r="CG121" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="122" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="122" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>364</v>
@@ -14409,10 +14422,10 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="2" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -14421,9 +14434,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="P122" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
@@ -14441,9 +14452,7 @@
       <c r="AE122" s="1"/>
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
-      <c r="AH122" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="AH122" s="1"/>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
       <c r="AK122" s="1"/>
@@ -14495,22 +14504,18 @@
       <c r="CE122" s="1"/>
       <c r="CF122" s="1"/>
       <c r="CG122" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="123" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="123" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="2" t="s">
@@ -14526,7 +14531,9 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
+      <c r="P123" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
@@ -14544,7 +14551,9 @@
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
-      <c r="AH123" s="1"/>
+      <c r="AH123" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
       <c r="AK123" s="1"/>
@@ -14599,22 +14608,26 @@
         <v>365</v>
       </c>
     </row>
-    <row r="124" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="2" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -14696,9 +14709,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="125" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>364</v>
@@ -14708,10 +14721,10 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="2" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -14790,12 +14803,12 @@
       <c r="CE125" s="1"/>
       <c r="CF125" s="1"/>
       <c r="CG125" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="126" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="126" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>364</v>
@@ -14890,19 +14903,15 @@
         <v>365</v>
       </c>
     </row>
-    <row r="127" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C127" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="2" t="s">
@@ -14988,17 +14997,17 @@
       <c r="CE127" s="1"/>
       <c r="CF127" s="1"/>
       <c r="CG127" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="128" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="128" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -15089,12 +15098,12 @@
       <c r="CE128" s="1"/>
       <c r="CF128" s="1"/>
       <c r="CG128" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="129" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="129" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>364</v>
@@ -15174,44 +15183,46 @@
       <c r="BO129" s="1"/>
       <c r="BP129" s="1"/>
       <c r="BQ129" s="1"/>
-      <c r="BR129" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BS129" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="BR129" s="1"/>
+      <c r="BS129" s="1"/>
       <c r="BT129" s="1"/>
       <c r="BU129" s="1"/>
       <c r="BV129" s="1"/>
-      <c r="BW129" s="12"/>
-      <c r="BX129" s="12"/>
-      <c r="BY129" s="12"/>
-      <c r="BZ129" s="12"/>
-      <c r="CA129" s="12"/>
-      <c r="CB129" t="s">
-        <v>310</v>
-      </c>
+      <c r="BW129" s="1"/>
+      <c r="BX129" s="1"/>
+      <c r="BY129" s="1"/>
+      <c r="BZ129" s="1"/>
+      <c r="CA129" s="1"/>
+      <c r="CB129" s="1"/>
       <c r="CC129" s="1"/>
       <c r="CD129" s="1"/>
       <c r="CE129" s="1"/>
       <c r="CF129" s="1"/>
       <c r="CG129" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="130" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>239</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="130" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
+      <c r="G130" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -15273,44 +15284,44 @@
       <c r="BO130" s="1"/>
       <c r="BP130" s="1"/>
       <c r="BQ130" s="1"/>
-      <c r="BR130" s="1"/>
-      <c r="BS130" s="1"/>
+      <c r="BR130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS130" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="BT130" s="1"/>
       <c r="BU130" s="1"/>
       <c r="BV130" s="1"/>
-      <c r="BW130" s="1"/>
-      <c r="BX130" s="1"/>
-      <c r="BY130" s="1"/>
-      <c r="BZ130" s="1"/>
-      <c r="CA130" s="1"/>
-      <c r="CB130" s="1"/>
+      <c r="BW130" s="12"/>
+      <c r="BX130" s="12"/>
+      <c r="BY130" s="12"/>
+      <c r="BZ130" s="12"/>
+      <c r="CA130" s="12"/>
+      <c r="CB130" t="s">
+        <v>310</v>
+      </c>
       <c r="CC130" s="1"/>
       <c r="CD130" s="1"/>
       <c r="CE130" s="1"/>
       <c r="CF130" s="1"/>
-      <c r="CG130" s="1"/>
-    </row>
-    <row r="131" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>121</v>
+      <c r="CG130" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="131" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>324</v>
-      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -15387,13 +15398,11 @@
       <c r="CD131" s="1"/>
       <c r="CE131" s="1"/>
       <c r="CF131" s="1"/>
-      <c r="CG131" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="132" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG131" s="1"/>
+    </row>
+    <row customFormat="1" r="132" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>364</v>
@@ -15413,25 +15422,13 @@
         <v>324</v>
       </c>
       <c r="I132" s="1"/>
-      <c r="J132" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K132" t="s">
-        <v>1</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
       <c r="O132" s="1"/>
-      <c r="P132" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
@@ -15504,9 +15501,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="133" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>462</v>
+        <v>122</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>364</v>
@@ -15520,10 +15517,10 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="2" t="s">
-        <v>463</v>
+        <v>53</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>6</v>
+        <v>324</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="2" t="s">
@@ -15617,9 +15614,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>124</v>
+        <v>462</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>364</v>
@@ -15633,10 +15630,10 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="2" t="s">
-        <v>53</v>
+        <v>463</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>324</v>
+        <v>6</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="2" t="s">
@@ -15694,21 +15691,12 @@
       <c r="AX134" s="1"/>
       <c r="AY134" s="1"/>
       <c r="AZ134" s="1"/>
-      <c r="BA134" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB134" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD134" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE134" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF134" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA134" s="1"/>
+      <c r="BB134" s="1"/>
+      <c r="BC134" s="1"/>
+      <c r="BD134" s="1"/>
+      <c r="BE134" s="1"/>
+      <c r="BF134" s="1"/>
       <c r="BG134" s="1"/>
       <c r="BH134" s="1"/>
       <c r="BI134" s="1"/>
@@ -15736,12 +15724,12 @@
       <c r="CE134" s="1"/>
       <c r="CF134" s="1"/>
       <c r="CG134" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="135" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="135" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>364</v>
@@ -15817,18 +15805,21 @@
       <c r="AY135" s="1"/>
       <c r="AZ135" s="1"/>
       <c r="BA135" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB135" s="1"/>
-      <c r="BC135" s="1"/>
-      <c r="BD135" s="1"/>
-      <c r="BE135" s="1"/>
-      <c r="BF135" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG135" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="BB135" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD135" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE135" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF135" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG135" s="1"/>
       <c r="BH135" s="1"/>
       <c r="BI135" s="1"/>
       <c r="BJ135" s="1"/>
@@ -15858,9 +15849,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>392</v>
+        <v>130</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>364</v>
@@ -15977,9 +15968,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>364</v>
@@ -16041,12 +16032,8 @@
       <c r="AK137" s="1"/>
       <c r="AL137" s="1"/>
       <c r="AM137" s="1"/>
-      <c r="AN137" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="AO137" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="AN137" s="1"/>
+      <c r="AO137" s="1"/>
       <c r="AP137" s="1"/>
       <c r="AQ137" s="1"/>
       <c r="AR137" s="1"/>
@@ -16075,14 +16062,10 @@
       <c r="BI137" s="1"/>
       <c r="BJ137" s="1"/>
       <c r="BK137" s="1"/>
-      <c r="BL137" s="1" t="s">
-        <v>428</v>
-      </c>
+      <c r="BL137" s="1"/>
       <c r="BM137" s="1"/>
       <c r="BN137" s="1"/>
-      <c r="BO137" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="BO137" s="1"/>
       <c r="BP137" s="1"/>
       <c r="BQ137" s="1"/>
       <c r="BR137" s="1"/>
@@ -16104,9 +16087,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>364</v>
@@ -16231,18 +16214,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="139" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>427</v>
+        <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>361</v>
+        <v>3</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -16358,9 +16341,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="140" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>364</v>
@@ -16377,7 +16360,7 @@
         <v>53</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="2" t="s">
@@ -16485,9 +16468,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="141" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>364</v>
@@ -16504,7 +16487,7 @@
         <v>53</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="2" t="s">
@@ -16612,9 +16595,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>364</v>
@@ -16739,9 +16722,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>364</v>
@@ -16866,18 +16849,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>2</v>
+        <v>427</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>3</v>
+        <v>361</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -16993,9 +16976,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="145" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>364</v>
@@ -17117,12 +17100,12 @@
       <c r="CE145" s="1"/>
       <c r="CF145" s="1"/>
       <c r="CG145" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="146" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>364</v>
@@ -17177,10 +17160,9 @@
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
       <c r="AF146" s="1"/>
-      <c r="AG146" s="1">
-        <v>324353454</v>
-      </c>
+      <c r="AG146" s="1"/>
       <c r="AH146" s="1"/>
+      <c r="AI146" s="1"/>
       <c r="AJ146" s="1"/>
       <c r="AK146" s="1"/>
       <c r="AL146" s="1"/>
@@ -17248,9 +17230,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="147" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>364</v>
@@ -17305,11 +17287,10 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
-      <c r="AG147" s="1"/>
+      <c r="AG147" s="1">
+        <v>324353454</v>
+      </c>
       <c r="AH147" s="1"/>
-      <c r="AI147" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="AJ147" s="1"/>
       <c r="AK147" s="1"/>
       <c r="AL147" s="1"/>
@@ -17377,9 +17358,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="148" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>364</v>
@@ -17436,13 +17417,13 @@
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
       <c r="AH148" s="1"/>
-      <c r="AI148" s="1"/>
+      <c r="AI148" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="AJ148" s="1"/>
       <c r="AK148" s="1"/>
       <c r="AL148" s="1"/>
-      <c r="AM148" s="26" t="s">
-        <v>424</v>
-      </c>
+      <c r="AM148" s="1"/>
       <c r="AN148" s="1" t="s">
         <v>394</v>
       </c>
@@ -17503,12 +17484,12 @@
       <c r="CE148" s="1"/>
       <c r="CF148" s="1"/>
       <c r="CG148" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="149" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>364</v>
@@ -17567,11 +17548,11 @@
       <c r="AH149" s="1"/>
       <c r="AI149" s="1"/>
       <c r="AJ149" s="1"/>
-      <c r="AK149" s="1" t="s">
-        <v>423</v>
-      </c>
+      <c r="AK149" s="1"/>
       <c r="AL149" s="1"/>
-      <c r="AM149" s="1"/>
+      <c r="AM149" s="26" t="s">
+        <v>424</v>
+      </c>
       <c r="AN149" s="1" t="s">
         <v>394</v>
       </c>
@@ -17635,9 +17616,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>364</v>
@@ -17696,7 +17677,9 @@
       <c r="AH150" s="1"/>
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
-      <c r="AK150" s="1"/>
+      <c r="AK150" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="AL150" s="1"/>
       <c r="AM150" s="1"/>
       <c r="AN150" s="1" t="s">
@@ -17762,9 +17745,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>364</v>
@@ -17889,9 +17872,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>364</v>
@@ -18016,18 +17999,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="153" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C153" s="26" t="s">
-        <v>427</v>
+      <c r="C153" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>361</v>
+        <v>3</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -18143,14 +18126,14 @@
         <v>365</v>
       </c>
     </row>
-    <row r="154" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="26" t="s">
         <v>427</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -18270,9 +18253,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="155" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>364</v>
@@ -18397,9 +18380,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>364</v>
@@ -18524,18 +18507,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="157" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C157" s="26" t="s">
-        <v>407</v>
+      <c r="C157" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>3</v>
+        <v>361</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -18651,9 +18634,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="158" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>364</v>
@@ -18670,7 +18653,7 @@
         <v>53</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="2" t="s">
@@ -18778,15 +18761,15 @@
         <v>365</v>
       </c>
     </row>
-    <row r="159" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="159" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>2</v>
+      <c r="C159" s="26" t="s">
+        <v>407</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>3</v>
@@ -18797,7 +18780,7 @@
         <v>53</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="2" t="s">
@@ -18905,9 +18888,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="160" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="160" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>364</v>
@@ -19032,9 +19015,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="161" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="161" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>134</v>
+        <v>397</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>364</v>
@@ -19096,8 +19079,12 @@
       <c r="AK161" s="1"/>
       <c r="AL161" s="1"/>
       <c r="AM161" s="1"/>
-      <c r="AN161" s="1"/>
-      <c r="AO161" s="1"/>
+      <c r="AN161" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO161" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="AP161" s="1"/>
       <c r="AQ161" s="1"/>
       <c r="AR161" s="1"/>
@@ -19110,30 +19097,30 @@
       <c r="AY161" s="1"/>
       <c r="AZ161" s="1"/>
       <c r="BA161" s="1" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="BB161" s="1"/>
       <c r="BC161" s="1"/>
       <c r="BD161" s="1"/>
       <c r="BE161" s="1"/>
-      <c r="BF161" s="1"/>
-      <c r="BG161" s="1"/>
-      <c r="BH161" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI161" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ161" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK161" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BL161" s="1"/>
+      <c r="BF161" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG161" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH161" s="1"/>
+      <c r="BI161" s="1"/>
+      <c r="BJ161" s="1"/>
+      <c r="BK161" s="1"/>
+      <c r="BL161" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="BM161" s="1"/>
       <c r="BN161" s="1"/>
-      <c r="BO161" s="1"/>
+      <c r="BO161" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="BP161" s="1"/>
       <c r="BQ161" s="1"/>
       <c r="BR161" s="1"/>
@@ -19155,18 +19142,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="162" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="162" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C162" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="D162" s="26" t="s">
-        <v>361</v>
+      <c r="C162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -19242,16 +19229,16 @@
       <c r="BF162" s="1"/>
       <c r="BG162" s="1"/>
       <c r="BH162" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI162" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="BJ162" t="s">
-        <v>340</v>
+        <v>135</v>
+      </c>
+      <c r="BI162" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ162" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="BK162" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="BL162" s="1"/>
       <c r="BM162" s="1"/>
@@ -19265,38 +19252,32 @@
       <c r="BU162" s="1"/>
       <c r="BV162" s="1"/>
       <c r="BW162" s="1"/>
-      <c r="BX162" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BY162" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="BZ162" t="s">
-        <v>342</v>
-      </c>
-      <c r="CA162" s="1" t="s">
-        <v>343</v>
-      </c>
+      <c r="BX162" s="1"/>
+      <c r="BY162" s="1"/>
+      <c r="BZ162" s="1"/>
+      <c r="CA162" s="1"/>
       <c r="CB162" s="1"/>
       <c r="CC162" s="1"/>
       <c r="CD162" s="1"/>
       <c r="CE162" s="1"/>
       <c r="CF162" s="1"/>
       <c r="CG162" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="163" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="163" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>459</v>
+        <v>336</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D163" s="1"/>
+      <c r="C163" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>361</v>
+      </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="2" t="s">
@@ -19362,22 +19343,26 @@
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
       <c r="BA163" s="1" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="BB163" s="1"/>
       <c r="BC163" s="1"/>
       <c r="BD163" s="1"/>
       <c r="BE163" s="1"/>
-      <c r="BF163" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG163" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH163" s="1"/>
-      <c r="BI163" s="1"/>
-      <c r="BJ163" s="1"/>
-      <c r="BK163" s="1"/>
+      <c r="BF163" s="1"/>
+      <c r="BG163" s="1"/>
+      <c r="BH163" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI163" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="BJ163" t="s">
+        <v>340</v>
+      </c>
+      <c r="BK163" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="BL163" s="1"/>
       <c r="BM163" s="1"/>
       <c r="BN163" s="1"/>
@@ -19390,10 +19375,18 @@
       <c r="BU163" s="1"/>
       <c r="BV163" s="1"/>
       <c r="BW163" s="1"/>
-      <c r="BX163" s="1"/>
-      <c r="BY163" s="1"/>
-      <c r="BZ163" s="1"/>
-      <c r="CA163" s="1"/>
+      <c r="BX163" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY163" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="BZ163" t="s">
+        <v>342</v>
+      </c>
+      <c r="CA163" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="CB163" s="1"/>
       <c r="CC163" s="1"/>
       <c r="CD163" s="1"/>
@@ -19403,19 +19396,17 @@
         <v>363</v>
       </c>
     </row>
-    <row r="164" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="164" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>136</v>
+        <v>459</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="2" t="s">
@@ -19481,21 +19472,18 @@
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
       <c r="BA164" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB164" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD164" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE164" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF164" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG164" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="BB164" s="1"/>
+      <c r="BC164" s="1"/>
+      <c r="BD164" s="1"/>
+      <c r="BE164" s="1"/>
+      <c r="BF164" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG164" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="BH164" s="1"/>
       <c r="BI164" s="1"/>
       <c r="BJ164" s="1"/>
@@ -19522,12 +19510,12 @@
       <c r="CE164" s="1"/>
       <c r="CF164" s="1"/>
       <c r="CG164" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="165" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="165" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>364</v>
@@ -19603,18 +19591,21 @@
       <c r="AY165" s="1"/>
       <c r="AZ165" s="1"/>
       <c r="BA165" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB165" s="1"/>
-      <c r="BC165" s="1"/>
-      <c r="BD165" s="1"/>
-      <c r="BE165" s="1"/>
-      <c r="BF165" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG165" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BB165" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD165" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE165" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF165" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG165" s="1"/>
       <c r="BH165" s="1"/>
       <c r="BI165" s="1"/>
       <c r="BJ165" s="1"/>
@@ -19644,9 +19635,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="166" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="166" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>364</v>
@@ -19721,25 +19712,23 @@
       <c r="AX166" s="1"/>
       <c r="AY166" s="1"/>
       <c r="AZ166" s="1"/>
-      <c r="BA166" s="1"/>
+      <c r="BA166" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB166" s="1"/>
       <c r="BC166" s="1"/>
       <c r="BD166" s="1"/>
       <c r="BE166" s="1"/>
-      <c r="BF166" s="1"/>
-      <c r="BG166" s="1"/>
-      <c r="BH166" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI166" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ166" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK166" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="BF166" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG166" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH166" s="1"/>
+      <c r="BI166" s="1"/>
+      <c r="BJ166" s="1"/>
+      <c r="BK166" s="1"/>
       <c r="BL166" s="1"/>
       <c r="BM166" s="1"/>
       <c r="BN166" s="1"/>
@@ -19765,17 +19754,19 @@
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="167" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D167" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="2" t="s">
@@ -19840,26 +19831,25 @@
       <c r="AX167" s="1"/>
       <c r="AY167" s="1"/>
       <c r="AZ167" s="1"/>
-      <c r="BA167" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB167" s="4" t="s">
+      <c r="BA167" s="1"/>
+      <c r="BB167" s="1"/>
+      <c r="BC167" s="1"/>
+      <c r="BD167" s="1"/>
+      <c r="BE167" s="1"/>
+      <c r="BF167" s="1"/>
+      <c r="BG167" s="1"/>
+      <c r="BH167" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI167" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BD167" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE167" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF167" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG167" s="1"/>
-      <c r="BH167" s="1"/>
-      <c r="BI167" s="1"/>
-      <c r="BJ167" s="1"/>
-      <c r="BK167" s="1"/>
+      <c r="BJ167" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK167" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="BL167" s="1"/>
       <c r="BM167" s="1"/>
       <c r="BN167" s="1"/>
@@ -19885,9 +19875,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="168" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="168" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>364</v>
@@ -19961,18 +19951,21 @@
       <c r="AY168" s="1"/>
       <c r="AZ168" s="1"/>
       <c r="BA168" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB168" s="1"/>
-      <c r="BC168" s="1"/>
-      <c r="BD168" s="1"/>
-      <c r="BE168" s="1"/>
-      <c r="BF168" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG168" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BB168" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD168" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE168" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF168" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG168" s="1"/>
       <c r="BH168" s="1"/>
       <c r="BI168" s="1"/>
       <c r="BJ168" s="1"/>
@@ -19999,22 +19992,20 @@
       <c r="CE168" s="1"/>
       <c r="CF168" s="1"/>
       <c r="CG168" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="169" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>390</v>
+        <v>143</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C169" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C169" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="2" t="s">
@@ -20099,9 +20090,7 @@
       <c r="BL169" s="1"/>
       <c r="BM169" s="1"/>
       <c r="BN169" s="1"/>
-      <c r="BO169" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="BO169" s="1"/>
       <c r="BP169" s="1"/>
       <c r="BQ169" s="1"/>
       <c r="BR169" s="1"/>
@@ -20123,9 +20112,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="170" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>364</v>
@@ -20217,9 +20206,7 @@
       <c r="BI170" s="1"/>
       <c r="BJ170" s="1"/>
       <c r="BK170" s="1"/>
-      <c r="BL170" s="1" t="s">
-        <v>428</v>
-      </c>
+      <c r="BL170" s="1"/>
       <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
       <c r="BO170" s="1" t="s">
@@ -20243,12 +20230,12 @@
       <c r="CE170" s="1"/>
       <c r="CF170" s="1"/>
       <c r="CG170" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="171" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="171" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>364</v>
@@ -20345,7 +20332,9 @@
       </c>
       <c r="BM171" s="1"/>
       <c r="BN171" s="1"/>
-      <c r="BO171" s="1"/>
+      <c r="BO171" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="BP171" s="1"/>
       <c r="BQ171" s="1"/>
       <c r="BR171" s="1"/>
@@ -20364,20 +20353,22 @@
       <c r="CE171" s="1"/>
       <c r="CF171" s="1"/>
       <c r="CG171" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="172" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="172" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>144</v>
+        <v>401</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D172" s="1"/>
+      <c r="C172" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="2" t="s">
@@ -20442,26 +20433,26 @@
       <c r="AX172" s="1"/>
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
-      <c r="BA172" s="1"/>
+      <c r="BA172" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB172" s="1"/>
       <c r="BC172" s="1"/>
       <c r="BD172" s="1"/>
       <c r="BE172" s="1"/>
-      <c r="BF172" s="1"/>
-      <c r="BG172" s="1"/>
-      <c r="BH172" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI172" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ172" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK172" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BL172" s="1"/>
+      <c r="BF172" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG172" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH172" s="1"/>
+      <c r="BI172" s="1"/>
+      <c r="BJ172" s="1"/>
+      <c r="BK172" s="1"/>
+      <c r="BL172" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="BM172" s="1"/>
       <c r="BN172" s="1"/>
       <c r="BO172" s="1"/>
@@ -20483,26 +20474,22 @@
       <c r="CE172" s="1"/>
       <c r="CF172" s="1"/>
       <c r="CG172" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="173" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="173" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C173" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C173" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" t="s">
-        <v>3</v>
-      </c>
+      <c r="F173" s="1"/>
       <c r="G173" s="2" t="s">
         <v>53</v>
       </c>
@@ -20534,9 +20521,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
-      <c r="V173" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V173" s="1"/>
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
@@ -20547,19 +20532,13 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
-      <c r="AG173" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG173" s="1"/>
       <c r="AH173" s="1"/>
-      <c r="AI173" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI173" s="1"/>
       <c r="AJ173" s="1"/>
       <c r="AK173" s="1"/>
       <c r="AL173" s="1"/>
-      <c r="AM173" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM173" s="1"/>
       <c r="AN173" s="1"/>
       <c r="AO173" s="1"/>
       <c r="AP173" s="1"/>
@@ -20573,26 +20552,25 @@
       <c r="AX173" s="1"/>
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
-      <c r="BA173" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB173" s="4" t="s">
+      <c r="BA173" s="1"/>
+      <c r="BB173" s="1"/>
+      <c r="BC173" s="1"/>
+      <c r="BD173" s="1"/>
+      <c r="BE173" s="1"/>
+      <c r="BF173" s="1"/>
+      <c r="BG173" s="1"/>
+      <c r="BH173" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI173" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BD173" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE173" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF173" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG173" s="1"/>
-      <c r="BH173" s="1"/>
-      <c r="BI173" s="1"/>
-      <c r="BJ173" s="1"/>
-      <c r="BK173" s="1"/>
+      <c r="BJ173" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK173" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="BL173" s="1"/>
       <c r="BM173" s="1"/>
       <c r="BN173" s="1"/>
@@ -20615,12 +20593,12 @@
       <c r="CE173" s="1"/>
       <c r="CF173" s="1"/>
       <c r="CG173" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="174" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="174" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>364</v>
@@ -20706,18 +20684,21 @@
       <c r="AY174" s="1"/>
       <c r="AZ174" s="1"/>
       <c r="BA174" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB174" s="1"/>
-      <c r="BC174" s="1"/>
-      <c r="BD174" s="1"/>
-      <c r="BE174" s="1"/>
-      <c r="BF174" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG174" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="BB174" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD174" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE174" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF174" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG174" s="1"/>
       <c r="BH174" s="1"/>
       <c r="BI174" s="1"/>
       <c r="BJ174" s="1"/>
@@ -20747,9 +20728,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="175" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="175" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>364</v>
@@ -20834,25 +20815,23 @@
       <c r="AX175" s="1"/>
       <c r="AY175" s="1"/>
       <c r="AZ175" s="1"/>
-      <c r="BA175" s="1"/>
+      <c r="BA175" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB175" s="1"/>
       <c r="BC175" s="1"/>
       <c r="BD175" s="1"/>
       <c r="BE175" s="1"/>
-      <c r="BF175" s="1"/>
-      <c r="BG175" s="1"/>
-      <c r="BH175" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI175" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ175" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK175" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="BF175" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG175" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH175" s="1"/>
+      <c r="BI175" s="1"/>
+      <c r="BJ175" s="1"/>
+      <c r="BK175" s="1"/>
       <c r="BL175" s="1"/>
       <c r="BM175" s="1"/>
       <c r="BN175" s="1"/>
@@ -20878,9 +20857,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="176" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="176" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>364</v>
@@ -20966,15 +20945,24 @@
       <c r="AY176" s="1"/>
       <c r="AZ176" s="1"/>
       <c r="BA176" s="1"/>
-      <c r="BB176" s="4"/>
-      <c r="BD176" s="2"/>
-      <c r="BE176" s="3"/>
-      <c r="BF176" s="2"/>
+      <c r="BB176" s="1"/>
+      <c r="BC176" s="1"/>
+      <c r="BD176" s="1"/>
+      <c r="BE176" s="1"/>
+      <c r="BF176" s="1"/>
       <c r="BG176" s="1"/>
-      <c r="BH176" s="1"/>
-      <c r="BI176" s="1"/>
-      <c r="BJ176" s="1"/>
-      <c r="BK176" s="1"/>
+      <c r="BH176" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI176" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ176" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK176" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="BL176" s="1"/>
       <c r="BM176" s="1"/>
       <c r="BN176" s="1"/>
@@ -21000,33 +20988,57 @@
         <v>365</v>
       </c>
     </row>
-    <row r="177" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="s">
-        <v>240</v>
+    <row customFormat="1" r="177" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
+      <c r="C177" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
+      <c r="F177" t="s">
+        <v>3</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
+      <c r="J177" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K177" t="s">
+        <v>1</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
+      <c r="P177" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
+      <c r="V177" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
@@ -21037,13 +21049,19 @@
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
       <c r="AF177" s="1"/>
-      <c r="AG177" s="1"/>
+      <c r="AG177" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH177" s="1"/>
-      <c r="AI177" s="1"/>
+      <c r="AI177" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ177" s="1"/>
       <c r="AK177" s="1"/>
       <c r="AL177" s="1"/>
-      <c r="AM177" s="1"/>
+      <c r="AM177" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN177" s="1"/>
       <c r="AO177" s="1"/>
       <c r="AP177" s="1"/>
@@ -21058,14 +21076,13 @@
       <c r="AY177" s="1"/>
       <c r="AZ177" s="1"/>
       <c r="BA177" s="1"/>
-      <c r="BB177" s="1"/>
-      <c r="BC177" s="1"/>
-      <c r="BD177" s="1"/>
-      <c r="BE177" s="1"/>
-      <c r="BF177" s="1"/>
+      <c r="BB177" s="4"/>
+      <c r="BD177" s="2"/>
+      <c r="BE177" s="3"/>
+      <c r="BF177" s="2"/>
       <c r="BG177" s="1"/>
       <c r="BH177" s="1"/>
-      <c r="BI177" s="11"/>
+      <c r="BI177" s="1"/>
       <c r="BJ177" s="1"/>
       <c r="BK177" s="1"/>
       <c r="BL177" s="1"/>
@@ -21089,66 +21106,36 @@
       <c r="CD177" s="1"/>
       <c r="CE177" s="1"/>
       <c r="CF177" s="1"/>
-      <c r="CG177" s="1"/>
-    </row>
-    <row r="178" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>248</v>
+      <c r="CG177" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="178" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C178" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K178" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="L178" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M178" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
       <c r="O178" s="1"/>
-      <c r="P178" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q178" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="R178" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="S178" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="T178" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="U178" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
@@ -21160,9 +21147,7 @@
       <c r="AD178" s="1"/>
       <c r="AE178" s="1"/>
       <c r="AF178" s="1"/>
-      <c r="AG178" s="1" t="s">
-        <v>350</v>
-      </c>
+      <c r="AG178" s="1"/>
       <c r="AH178" s="1"/>
       <c r="AI178" s="1"/>
       <c r="AJ178" s="1"/>
@@ -21182,21 +21167,12 @@
       <c r="AX178" s="1"/>
       <c r="AY178" s="1"/>
       <c r="AZ178" s="1"/>
-      <c r="BA178" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB178" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD178" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE178" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF178" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA178" s="1"/>
+      <c r="BB178" s="1"/>
+      <c r="BC178" s="1"/>
+      <c r="BD178" s="1"/>
+      <c r="BE178" s="1"/>
+      <c r="BF178" s="1"/>
       <c r="BG178" s="1"/>
       <c r="BH178" s="1"/>
       <c r="BI178" s="11"/>
@@ -21222,14 +21198,12 @@
       <c r="CC178" s="1"/>
       <c r="CD178" s="1"/>
       <c r="CE178" s="1"/>
-      <c r="CF178" s="18"/>
-      <c r="CG178" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="179" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CF178" s="1"/>
+      <c r="CG178" s="1"/>
+    </row>
+    <row customFormat="1" r="179" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>364</v>
@@ -21243,22 +21217,22 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>429</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="M179" s="2" t="s">
         <v>28</v>
@@ -21297,7 +21271,7 @@
       <c r="AE179" s="1"/>
       <c r="AF179" s="1"/>
       <c r="AG179" s="1" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="AH179" s="1"/>
       <c r="AI179" s="1"/>
@@ -21360,12 +21334,12 @@
       <c r="CE179" s="1"/>
       <c r="CF179" s="18"/>
       <c r="CG179" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="180" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="180" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>364</v>
@@ -21378,19 +21352,23 @@
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="1"/>
+      <c r="G180" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I180" s="1" t="s">
         <v>429</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="M180" s="2" t="s">
         <v>28</v>
@@ -21429,7 +21407,7 @@
       <c r="AE180" s="1"/>
       <c r="AF180" s="1"/>
       <c r="AG180" s="1" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="AH180" s="1"/>
       <c r="AI180" s="1"/>
@@ -21450,12 +21428,21 @@
       <c r="AX180" s="1"/>
       <c r="AY180" s="1"/>
       <c r="AZ180" s="1"/>
-      <c r="BA180" s="1"/>
-      <c r="BB180" s="1"/>
-      <c r="BC180" s="12"/>
-      <c r="BD180" s="1"/>
-      <c r="BE180" s="1"/>
-      <c r="BF180" s="1"/>
+      <c r="BA180" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB180" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD180" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE180" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF180" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG180" s="1"/>
       <c r="BH180" s="1"/>
       <c r="BI180" s="11"/>
@@ -21486,46 +21473,40 @@
         <v>365</v>
       </c>
     </row>
-    <row r="181" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="181" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>495</v>
+        <v>383</v>
       </c>
       <c r="D181" s="11" t="s">
         <v>361</v>
       </c>
       <c r="E181" s="3"/>
-      <c r="F181" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="1"/>
       <c r="I181" s="1" t="s">
         <v>429</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>368</v>
+        <v>28</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="O181" s="1"/>
       <c r="P181" s="1" t="s">
@@ -21558,7 +21539,7 @@
       <c r="AE181" s="1"/>
       <c r="AF181" s="1"/>
       <c r="AG181" s="1" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AH181" s="1"/>
       <c r="AI181" s="1"/>
@@ -21612,24 +21593,26 @@
       <c r="CE181" s="1"/>
       <c r="CF181" s="18"/>
       <c r="CG181" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="182" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
-        <v>252</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="182" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>383</v>
+        <v>497</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>361</v>
       </c>
       <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
+      <c r="F182" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="G182" s="3" t="s">
         <v>241</v>
       </c>
@@ -21640,19 +21623,19 @@
         <v>429</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>28</v>
+        <v>368</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>235</v>
+        <v>369</v>
       </c>
       <c r="O182" s="1"/>
       <c r="P182" s="1" t="s">
@@ -21685,7 +21668,7 @@
       <c r="AE182" s="1"/>
       <c r="AF182" s="1"/>
       <c r="AG182" s="1" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AH182" s="1"/>
       <c r="AI182" s="1"/>
@@ -21706,21 +21689,12 @@
       <c r="AX182" s="1"/>
       <c r="AY182" s="1"/>
       <c r="AZ182" s="1"/>
-      <c r="BA182" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB182" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD182" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE182" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF182" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA182" s="1"/>
+      <c r="BB182" s="1"/>
+      <c r="BC182" s="12"/>
+      <c r="BD182" s="1"/>
+      <c r="BE182" s="1"/>
+      <c r="BF182" s="1"/>
       <c r="BG182" s="1"/>
       <c r="BH182" s="1"/>
       <c r="BI182" s="11"/>
@@ -21751,9 +21725,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="183" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="183" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>364</v>
@@ -21766,8 +21740,12 @@
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="1"/>
+      <c r="G183" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="I183" s="1" t="s">
         <v>429</v>
       </c>
@@ -21883,9 +21861,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="184" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>364</v>
@@ -22015,40 +21993,34 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="185" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>496</v>
+        <v>383</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>361</v>
       </c>
       <c r="E185" s="3"/>
-      <c r="F185" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="1"/>
       <c r="I185" s="1" t="s">
         <v>429</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="M185" s="2" t="s">
         <v>28</v>
@@ -22087,7 +22059,7 @@
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
       <c r="AG185" s="1" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="AH185" s="1"/>
       <c r="AI185" s="1"/>
@@ -22139,56 +22111,80 @@
       <c r="BT185" s="1"/>
       <c r="BU185" s="1"/>
       <c r="BV185" s="1"/>
-      <c r="BW185" s="12"/>
-      <c r="BX185" s="12"/>
-      <c r="BY185" s="12"/>
-      <c r="BZ185" s="12"/>
-      <c r="CA185" s="12"/>
-      <c r="CB185" s="12"/>
-      <c r="CC185" s="12"/>
-      <c r="CD185" s="12"/>
+      <c r="BW185" s="1"/>
+      <c r="BX185" s="1"/>
+      <c r="BY185" s="1"/>
+      <c r="BZ185" s="1"/>
+      <c r="CA185" s="1"/>
+      <c r="CB185" s="1"/>
+      <c r="CC185" s="1"/>
+      <c r="CD185" s="1"/>
       <c r="CE185" s="1"/>
       <c r="CF185" s="18"/>
       <c r="CG185" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="186" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="186" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C186" s="11" t="s">
-        <v>2</v>
+      <c r="C186" s="28" t="s">
+        <v>498</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>3</v>
+        <v>361</v>
       </c>
       <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
+      <c r="F186" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="G186" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>59</v>
+        <v>241</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J186" s="1"/>
-      <c r="K186" s="2"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="2"/>
-      <c r="N186" s="1"/>
+      <c r="J186" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="11"/>
-      <c r="R186" s="10"/>
-      <c r="S186" s="10"/>
-      <c r="T186" s="1"/>
-      <c r="U186" s="1"/>
+      <c r="P186" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q186" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R186" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="S186" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T186" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U186" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
@@ -22200,7 +22196,9 @@
       <c r="AD186" s="1"/>
       <c r="AE186" s="1"/>
       <c r="AF186" s="1"/>
-      <c r="AG186" s="1"/>
+      <c r="AG186" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="AH186" s="1"/>
       <c r="AI186" s="1"/>
       <c r="AJ186" s="1"/>
@@ -22220,18 +22218,24 @@
       <c r="AX186" s="1"/>
       <c r="AY186" s="1"/>
       <c r="AZ186" s="1"/>
-      <c r="BA186" s="1"/>
-      <c r="BB186" s="4"/>
-      <c r="BD186" s="2"/>
-      <c r="BE186" s="3"/>
-      <c r="BF186" s="2"/>
+      <c r="BA186" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB186" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD186" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE186" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF186" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG186" s="1"/>
-      <c r="BH186" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BI186" s="11" t="s">
-        <v>351</v>
-      </c>
+      <c r="BH186" s="1"/>
+      <c r="BI186" s="11"/>
       <c r="BJ186" s="1"/>
       <c r="BK186" s="1"/>
       <c r="BL186" s="1"/>
@@ -22259,18 +22263,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="187" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C187" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D187" s="28" t="s">
-        <v>387</v>
+      <c r="C187" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -22283,28 +22287,16 @@
       <c r="I187" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K187" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M187" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J187" s="1"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="1"/>
       <c r="O187" s="1"/>
-      <c r="P187" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="P187" s="1"/>
       <c r="Q187" s="11"/>
-      <c r="R187" s="1"/>
-      <c r="S187" s="1"/>
+      <c r="R187" s="10"/>
+      <c r="S187" s="10"/>
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
@@ -22338,9 +22330,7 @@
       <c r="AX187" s="1"/>
       <c r="AY187" s="1"/>
       <c r="AZ187" s="1"/>
-      <c r="BA187" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BA187" s="1"/>
       <c r="BB187" s="4"/>
       <c r="BD187" s="2"/>
       <c r="BE187" s="3"/>
@@ -22350,14 +22340,10 @@
         <v>285</v>
       </c>
       <c r="BI187" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="BJ187" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="BK187" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BJ187" s="1"/>
+      <c r="BK187" s="1"/>
       <c r="BL187" s="1"/>
       <c r="BM187" s="1"/>
       <c r="BN187" s="1"/>
@@ -22383,9 +22369,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="188" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="188" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>364</v>
@@ -22398,39 +22384,39 @@
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
+      <c r="G188" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I188" s="1" t="s">
         <v>429</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="M188" s="2"/>
-      <c r="N188" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-      <c r="Q188" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="R188" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="S188" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="T188" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="U188" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="P188" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q188" s="11"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
@@ -22442,9 +22428,7 @@
       <c r="AD188" s="1"/>
       <c r="AE188" s="1"/>
       <c r="AF188" s="1"/>
-      <c r="AG188" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="AG188" s="1"/>
       <c r="AH188" s="1"/>
       <c r="AI188" s="1"/>
       <c r="AJ188" s="1"/>
@@ -22464,20 +22448,28 @@
       <c r="AX188" s="1"/>
       <c r="AY188" s="1"/>
       <c r="AZ188" s="1"/>
-      <c r="BA188" s="1"/>
+      <c r="BA188" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BB188" s="4"/>
       <c r="BD188" s="2"/>
       <c r="BE188" s="3"/>
       <c r="BF188" s="2"/>
       <c r="BG188" s="1"/>
-      <c r="BH188" s="1"/>
-      <c r="BI188" s="11"/>
-      <c r="BJ188" s="1"/>
-      <c r="BK188" s="1"/>
+      <c r="BH188" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BI188" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ188" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BK188" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="BL188" s="1"/>
-      <c r="BM188" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="BM188" s="1"/>
       <c r="BN188" s="1"/>
       <c r="BO188" s="1"/>
       <c r="BP188" s="1"/>
@@ -22501,52 +22493,54 @@
         <v>363</v>
       </c>
     </row>
-    <row r="189" spans="1:85" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>435</v>
+    <row customFormat="1" ht="30" r="189" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I189" s="1"/>
+      <c r="C189" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D189" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="J189" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K189" t="s">
-        <v>1</v>
+        <v>291</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M189" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M189" s="2"/>
+      <c r="N189" s="1"/>
       <c r="O189" s="1"/>
-      <c r="P189" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-      <c r="S189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="R189" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="S189" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="T189" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="U189" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
@@ -22558,7 +22552,9 @@
       <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
       <c r="AF189" s="1"/>
-      <c r="AG189" s="1"/>
+      <c r="AG189" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="AH189" s="1"/>
       <c r="AI189" s="1"/>
       <c r="AJ189" s="1"/>
@@ -22578,25 +22574,20 @@
       <c r="AX189" s="1"/>
       <c r="AY189" s="1"/>
       <c r="AZ189" s="1"/>
-      <c r="BA189" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="BB189" s="1"/>
-      <c r="BC189" s="1"/>
-      <c r="BD189" s="1"/>
-      <c r="BE189" s="1"/>
-      <c r="BF189" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="BG189" s="4" t="s">
-        <v>438</v>
-      </c>
+      <c r="BA189" s="1"/>
+      <c r="BB189" s="4"/>
+      <c r="BD189" s="2"/>
+      <c r="BE189" s="3"/>
+      <c r="BF189" s="2"/>
+      <c r="BG189" s="1"/>
       <c r="BH189" s="1"/>
-      <c r="BI189" s="1"/>
+      <c r="BI189" s="11"/>
       <c r="BJ189" s="1"/>
       <c r="BK189" s="1"/>
       <c r="BL189" s="1"/>
-      <c r="BM189" s="1"/>
+      <c r="BM189" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="BN189" s="1"/>
       <c r="BO189" s="1"/>
       <c r="BP189" s="1"/>
@@ -22606,23 +22597,23 @@
       <c r="BT189" s="1"/>
       <c r="BU189" s="1"/>
       <c r="BV189" s="1"/>
-      <c r="BW189" s="1"/>
-      <c r="BX189" s="1"/>
-      <c r="BY189" s="1"/>
-      <c r="BZ189" s="1"/>
-      <c r="CA189" s="1"/>
-      <c r="CB189" s="1"/>
-      <c r="CC189" s="1"/>
-      <c r="CD189" s="1"/>
+      <c r="BW189" s="12"/>
+      <c r="BX189" s="12"/>
+      <c r="BY189" s="12"/>
+      <c r="BZ189" s="12"/>
+      <c r="CA189" s="12"/>
+      <c r="CB189" s="12"/>
+      <c r="CC189" s="12"/>
+      <c r="CD189" s="12"/>
       <c r="CE189" s="1"/>
-      <c r="CF189" s="1"/>
+      <c r="CF189" s="18"/>
       <c r="CG189" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="190" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="190" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>364</v>
@@ -22705,7 +22696,7 @@
       <c r="BD190" s="1"/>
       <c r="BE190" s="1"/>
       <c r="BF190" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="BG190" s="4" t="s">
         <v>438</v>
@@ -22739,9 +22730,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="191" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="191" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>364</v>
@@ -22824,7 +22815,7 @@
       <c r="BD191" s="1"/>
       <c r="BE191" s="1"/>
       <c r="BF191" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="BG191" s="4" t="s">
         <v>438</v>
@@ -22858,9 +22849,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="192" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="192" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>364</v>
@@ -22943,7 +22934,7 @@
       <c r="BD192" s="1"/>
       <c r="BE192" s="1"/>
       <c r="BF192" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BG192" s="4" t="s">
         <v>438</v>
@@ -22977,9 +22968,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="193" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="193" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>364</v>
@@ -23062,7 +23053,7 @@
       <c r="BD193" s="1"/>
       <c r="BE193" s="1"/>
       <c r="BF193" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BG193" s="4" t="s">
         <v>438</v>
@@ -23096,9 +23087,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="194" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="194" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>364</v>
@@ -23181,7 +23172,7 @@
       <c r="BD194" s="1"/>
       <c r="BE194" s="1"/>
       <c r="BF194" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="BG194" s="4" t="s">
         <v>438</v>
@@ -23215,17 +23206,19 @@
         <v>365</v>
       </c>
     </row>
-    <row r="195" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="195" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D195" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="2" t="s">
@@ -23298,7 +23291,7 @@
       <c r="BD195" s="1"/>
       <c r="BE195" s="1"/>
       <c r="BF195" s="1" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="BG195" s="4" t="s">
         <v>438</v>
@@ -23332,9 +23325,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="196" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="196" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>364</v>
@@ -23415,7 +23408,7 @@
       <c r="BD196" s="1"/>
       <c r="BE196" s="1"/>
       <c r="BF196" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="BG196" s="4" t="s">
         <v>438</v>
@@ -23449,9 +23442,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="197" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="197" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>364</v>
@@ -23532,7 +23525,7 @@
       <c r="BD197" s="1"/>
       <c r="BE197" s="1"/>
       <c r="BF197" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="BG197" s="4" t="s">
         <v>438</v>
@@ -23566,9 +23559,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="198" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="198" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>364</v>
@@ -23649,7 +23642,7 @@
       <c r="BD198" s="1"/>
       <c r="BE198" s="1"/>
       <c r="BF198" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BG198" s="4" t="s">
         <v>438</v>
@@ -23683,9 +23676,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="199" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="199" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>364</v>
@@ -23766,7 +23759,7 @@
       <c r="BD199" s="1"/>
       <c r="BE199" s="1"/>
       <c r="BF199" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BG199" s="4" t="s">
         <v>438</v>
@@ -23800,9 +23793,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="200" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="200" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>364</v>
@@ -23883,7 +23876,7 @@
       <c r="BD200" s="1"/>
       <c r="BE200" s="1"/>
       <c r="BF200" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="BG200" s="4" t="s">
         <v>438</v>
@@ -23914,22 +23907,20 @@
       <c r="CE200" s="1"/>
       <c r="CF200" s="1"/>
       <c r="CG200" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="201" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="201" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="2" t="s">
@@ -24001,8 +23992,12 @@
       <c r="BC201" s="1"/>
       <c r="BD201" s="1"/>
       <c r="BE201" s="1"/>
-      <c r="BF201" s="1"/>
-      <c r="BG201" s="4"/>
+      <c r="BF201" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="BG201" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="BH201" s="1"/>
       <c r="BI201" s="1"/>
       <c r="BJ201" s="1"/>
@@ -24029,20 +24024,22 @@
       <c r="CE201" s="1"/>
       <c r="CF201" s="1"/>
       <c r="CG201" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="202" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="202" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D202" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="2" t="s">
@@ -24114,9 +24111,7 @@
       <c r="BC202" s="1"/>
       <c r="BD202" s="1"/>
       <c r="BE202" s="1"/>
-      <c r="BF202" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BF202" s="1"/>
       <c r="BG202" s="4"/>
       <c r="BH202" s="1"/>
       <c r="BI202" s="1"/>
@@ -24147,23 +24142,45 @@
         <v>365</v>
       </c>
     </row>
-    <row r="203" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A203" s="7"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
+    <row customFormat="1" r="203" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
+      <c r="G203" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
+      <c r="J203" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>1</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
+      <c r="P203" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
@@ -24200,15 +24217,19 @@
       <c r="AX203" s="1"/>
       <c r="AY203" s="1"/>
       <c r="AZ203" s="1"/>
-      <c r="BA203" s="1"/>
+      <c r="BA203" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="BB203" s="1"/>
       <c r="BC203" s="1"/>
       <c r="BD203" s="1"/>
       <c r="BE203" s="1"/>
-      <c r="BF203" s="1"/>
-      <c r="BG203" s="1"/>
+      <c r="BF203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG203" s="4"/>
       <c r="BH203" s="1"/>
-      <c r="BI203" s="11"/>
+      <c r="BI203" s="1"/>
       <c r="BJ203" s="1"/>
       <c r="BK203" s="1"/>
       <c r="BL203" s="1"/>
@@ -24232,9 +24253,11 @@
       <c r="CD203" s="1"/>
       <c r="CE203" s="1"/>
       <c r="CF203" s="1"/>
-      <c r="CG203" s="1"/>
-    </row>
-    <row r="204" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG203" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="204" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -24321,7 +24344,7 @@
       <c r="CF204" s="1"/>
       <c r="CG204" s="1"/>
     </row>
-    <row r="205" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="205" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -24408,10 +24431,10 @@
       <c r="CF205" s="1"/>
       <c r="CG205" s="1"/>
     </row>
-    <row r="206" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="206" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="11"/>
+      <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -24495,7 +24518,7 @@
       <c r="CF206" s="1"/>
       <c r="CG206" s="1"/>
     </row>
-    <row r="207" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="207" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="1"/>
       <c r="C207" s="11"/>
@@ -24582,7 +24605,7 @@
       <c r="CF207" s="1"/>
       <c r="CG207" s="1"/>
     </row>
-    <row r="208" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="208" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="1"/>
       <c r="C208" s="11"/>
@@ -24669,7 +24692,7 @@
       <c r="CF208" s="1"/>
       <c r="CG208" s="1"/>
     </row>
-    <row r="209" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="209" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
       <c r="B209" s="1"/>
       <c r="C209" s="11"/>
@@ -24756,7 +24779,7 @@
       <c r="CF209" s="1"/>
       <c r="CG209" s="1"/>
     </row>
-    <row r="210" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="210" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
       <c r="B210" s="1"/>
       <c r="C210" s="11"/>
@@ -24843,7 +24866,7 @@
       <c r="CF210" s="1"/>
       <c r="CG210" s="1"/>
     </row>
-    <row r="211" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="211" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
       <c r="B211" s="1"/>
       <c r="C211" s="11"/>
@@ -24930,7 +24953,7 @@
       <c r="CF211" s="1"/>
       <c r="CG211" s="1"/>
     </row>
-    <row r="212" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="212" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="1"/>
       <c r="C212" s="11"/>
@@ -25017,7 +25040,7 @@
       <c r="CF212" s="1"/>
       <c r="CG212" s="1"/>
     </row>
-    <row r="213" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="213" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="1"/>
       <c r="C213" s="11"/>
@@ -25104,7 +25127,7 @@
       <c r="CF213" s="1"/>
       <c r="CG213" s="1"/>
     </row>
-    <row r="214" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="214" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
       <c r="B214" s="1"/>
       <c r="C214" s="11"/>
@@ -25191,7 +25214,7 @@
       <c r="CF214" s="1"/>
       <c r="CG214" s="1"/>
     </row>
-    <row r="215" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="215" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="1"/>
       <c r="C215" s="11"/>
@@ -25278,7 +25301,7 @@
       <c r="CF215" s="1"/>
       <c r="CG215" s="1"/>
     </row>
-    <row r="216" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="216" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="1"/>
       <c r="C216" s="11"/>
@@ -25365,7 +25388,7 @@
       <c r="CF216" s="1"/>
       <c r="CG216" s="1"/>
     </row>
-    <row r="217" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="217" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="1"/>
       <c r="C217" s="11"/>
@@ -25452,7 +25475,7 @@
       <c r="CF217" s="1"/>
       <c r="CG217" s="1"/>
     </row>
-    <row r="218" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="218" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
       <c r="B218" s="1"/>
       <c r="C218" s="11"/>
@@ -25539,7 +25562,7 @@
       <c r="CF218" s="1"/>
       <c r="CG218" s="1"/>
     </row>
-    <row r="219" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="219" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
       <c r="B219" s="1"/>
       <c r="C219" s="11"/>
@@ -25626,7 +25649,7 @@
       <c r="CF219" s="1"/>
       <c r="CG219" s="1"/>
     </row>
-    <row r="220" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="220" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="1"/>
       <c r="C220" s="11"/>
@@ -25713,7 +25736,7 @@
       <c r="CF220" s="1"/>
       <c r="CG220" s="1"/>
     </row>
-    <row r="221" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="221" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="1"/>
       <c r="C221" s="11"/>
@@ -25800,7 +25823,7 @@
       <c r="CF221" s="1"/>
       <c r="CG221" s="1"/>
     </row>
-    <row r="222" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="222" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
       <c r="B222" s="1"/>
       <c r="C222" s="11"/>
@@ -25887,7 +25910,7 @@
       <c r="CF222" s="1"/>
       <c r="CG222" s="1"/>
     </row>
-    <row r="223" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="223" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
       <c r="B223" s="1"/>
       <c r="C223" s="11"/>
@@ -25974,7 +25997,7 @@
       <c r="CF223" s="1"/>
       <c r="CG223" s="1"/>
     </row>
-    <row r="224" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="224" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
       <c r="B224" s="1"/>
       <c r="C224" s="11"/>
@@ -26061,7 +26084,7 @@
       <c r="CF224" s="1"/>
       <c r="CG224" s="1"/>
     </row>
-    <row r="225" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="225" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="1"/>
       <c r="C225" s="11"/>
@@ -26148,7 +26171,7 @@
       <c r="CF225" s="1"/>
       <c r="CG225" s="1"/>
     </row>
-    <row r="226" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="226" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
       <c r="B226" s="1"/>
       <c r="C226" s="11"/>
@@ -26235,94 +26258,94 @@
       <c r="CF226" s="1"/>
       <c r="CG226" s="1"/>
     </row>
-    <row r="227" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A227" s="8"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="2"/>
-      <c r="U227" s="2"/>
-      <c r="V227" s="2"/>
-      <c r="W227" s="2"/>
-      <c r="X227" s="2"/>
-      <c r="Y227" s="2"/>
-      <c r="Z227" s="2"/>
-      <c r="AA227" s="2"/>
-      <c r="AB227" s="2"/>
-      <c r="AC227" s="2"/>
-      <c r="AD227" s="2"/>
-      <c r="AE227" s="2"/>
-      <c r="AF227" s="2"/>
-      <c r="AG227" s="2"/>
-      <c r="AH227" s="2"/>
-      <c r="AI227" s="2"/>
-      <c r="AJ227" s="2"/>
-      <c r="AK227" s="2"/>
-      <c r="AL227" s="2"/>
-      <c r="AM227" s="2"/>
-      <c r="AN227" s="2"/>
-      <c r="AO227" s="2"/>
-      <c r="AP227" s="2"/>
-      <c r="AQ227" s="2"/>
-      <c r="AR227" s="2"/>
-      <c r="AS227" s="2"/>
-      <c r="AT227" s="2"/>
-      <c r="AU227" s="2"/>
-      <c r="AV227" s="2"/>
-      <c r="AW227" s="2"/>
-      <c r="AX227" s="2"/>
-      <c r="AY227" s="2"/>
-      <c r="AZ227" s="2"/>
-      <c r="BA227" s="2"/>
-      <c r="BB227" s="2"/>
-      <c r="BC227" s="2"/>
-      <c r="BD227" s="2"/>
-      <c r="BE227" s="2"/>
-      <c r="BF227" s="2"/>
-      <c r="BG227" s="2"/>
-      <c r="BH227" s="2"/>
-      <c r="BI227" s="3"/>
-      <c r="BJ227" s="2"/>
-      <c r="BK227" s="2"/>
-      <c r="BL227" s="2"/>
-      <c r="BM227" s="2"/>
-      <c r="BN227" s="2"/>
-      <c r="BO227" s="2"/>
-      <c r="BP227" s="2"/>
-      <c r="BQ227" s="2"/>
-      <c r="BR227" s="2"/>
-      <c r="BS227" s="2"/>
-      <c r="BT227" s="2"/>
-      <c r="BU227" s="2"/>
-      <c r="BV227" s="2"/>
-      <c r="BW227" s="2"/>
-      <c r="BX227" s="2"/>
-      <c r="BY227" s="2"/>
-      <c r="BZ227" s="2"/>
-      <c r="CA227" s="2"/>
-      <c r="CB227" s="2"/>
-      <c r="CC227" s="2"/>
-      <c r="CD227" s="2"/>
-      <c r="CE227" s="2"/>
-      <c r="CF227" s="2"/>
-      <c r="CG227" s="2"/>
-    </row>
-    <row r="228" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="227" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A227" s="7"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+      <c r="Y227" s="1"/>
+      <c r="Z227" s="1"/>
+      <c r="AA227" s="1"/>
+      <c r="AB227" s="1"/>
+      <c r="AC227" s="1"/>
+      <c r="AD227" s="1"/>
+      <c r="AE227" s="1"/>
+      <c r="AF227" s="1"/>
+      <c r="AG227" s="1"/>
+      <c r="AH227" s="1"/>
+      <c r="AI227" s="1"/>
+      <c r="AJ227" s="1"/>
+      <c r="AK227" s="1"/>
+      <c r="AL227" s="1"/>
+      <c r="AM227" s="1"/>
+      <c r="AN227" s="1"/>
+      <c r="AO227" s="1"/>
+      <c r="AP227" s="1"/>
+      <c r="AQ227" s="1"/>
+      <c r="AR227" s="1"/>
+      <c r="AS227" s="1"/>
+      <c r="AT227" s="1"/>
+      <c r="AU227" s="1"/>
+      <c r="AV227" s="1"/>
+      <c r="AW227" s="1"/>
+      <c r="AX227" s="1"/>
+      <c r="AY227" s="1"/>
+      <c r="AZ227" s="1"/>
+      <c r="BA227" s="1"/>
+      <c r="BB227" s="1"/>
+      <c r="BC227" s="1"/>
+      <c r="BD227" s="1"/>
+      <c r="BE227" s="1"/>
+      <c r="BF227" s="1"/>
+      <c r="BG227" s="1"/>
+      <c r="BH227" s="1"/>
+      <c r="BI227" s="11"/>
+      <c r="BJ227" s="1"/>
+      <c r="BK227" s="1"/>
+      <c r="BL227" s="1"/>
+      <c r="BM227" s="1"/>
+      <c r="BN227" s="1"/>
+      <c r="BO227" s="1"/>
+      <c r="BP227" s="1"/>
+      <c r="BQ227" s="1"/>
+      <c r="BR227" s="1"/>
+      <c r="BS227" s="1"/>
+      <c r="BT227" s="1"/>
+      <c r="BU227" s="1"/>
+      <c r="BV227" s="1"/>
+      <c r="BW227" s="1"/>
+      <c r="BX227" s="1"/>
+      <c r="BY227" s="1"/>
+      <c r="BZ227" s="1"/>
+      <c r="CA227" s="1"/>
+      <c r="CB227" s="1"/>
+      <c r="CC227" s="1"/>
+      <c r="CD227" s="1"/>
+      <c r="CE227" s="1"/>
+      <c r="CF227" s="1"/>
+      <c r="CG227" s="1"/>
+    </row>
+    <row customFormat="1" r="228" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="2"/>
       <c r="C228" s="3"/>
@@ -26409,7 +26432,7 @@
       <c r="CF228" s="2"/>
       <c r="CG228" s="2"/>
     </row>
-    <row r="229" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="229" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3"/>
@@ -26496,7 +26519,7 @@
       <c r="CF229" s="2"/>
       <c r="CG229" s="2"/>
     </row>
-    <row r="230" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="230" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="2"/>
       <c r="C230" s="3"/>
@@ -26583,7 +26606,7 @@
       <c r="CF230" s="2"/>
       <c r="CG230" s="2"/>
     </row>
-    <row r="231" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="231" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3"/>
@@ -26670,7 +26693,7 @@
       <c r="CF231" s="2"/>
       <c r="CG231" s="2"/>
     </row>
-    <row r="232" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="232" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="2"/>
       <c r="C232" s="3"/>
@@ -26757,7 +26780,7 @@
       <c r="CF232" s="2"/>
       <c r="CG232" s="2"/>
     </row>
-    <row r="233" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="233" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3"/>
@@ -26844,7 +26867,7 @@
       <c r="CF233" s="2"/>
       <c r="CG233" s="2"/>
     </row>
-    <row r="234" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="234" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="2"/>
       <c r="C234" s="3"/>
@@ -26931,7 +26954,7 @@
       <c r="CF234" s="2"/>
       <c r="CG234" s="2"/>
     </row>
-    <row r="235" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="235" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="2"/>
       <c r="C235" s="3"/>
@@ -27018,7 +27041,7 @@
       <c r="CF235" s="2"/>
       <c r="CG235" s="2"/>
     </row>
-    <row r="236" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="236" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="2"/>
       <c r="C236" s="3"/>
@@ -27105,7 +27128,7 @@
       <c r="CF236" s="2"/>
       <c r="CG236" s="2"/>
     </row>
-    <row r="237" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="237" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="2"/>
       <c r="C237" s="3"/>
@@ -27192,7 +27215,7 @@
       <c r="CF237" s="2"/>
       <c r="CG237" s="2"/>
     </row>
-    <row r="238" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="238" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="2"/>
       <c r="C238" s="3"/>
@@ -27279,7 +27302,7 @@
       <c r="CF238" s="2"/>
       <c r="CG238" s="2"/>
     </row>
-    <row r="239" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="239" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="2"/>
       <c r="C239" s="3"/>
@@ -27366,7 +27389,7 @@
       <c r="CF239" s="2"/>
       <c r="CG239" s="2"/>
     </row>
-    <row r="240" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="240" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="2"/>
       <c r="C240" s="3"/>
@@ -27453,7 +27476,7 @@
       <c r="CF240" s="2"/>
       <c r="CG240" s="2"/>
     </row>
-    <row r="241" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="241" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="2"/>
       <c r="C241" s="3"/>
@@ -27540,7 +27563,7 @@
       <c r="CF241" s="2"/>
       <c r="CG241" s="2"/>
     </row>
-    <row r="242" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="242" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="2"/>
       <c r="C242" s="3"/>
@@ -27627,7 +27650,7 @@
       <c r="CF242" s="2"/>
       <c r="CG242" s="2"/>
     </row>
-    <row r="243" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="243" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="2"/>
       <c r="C243" s="3"/>
@@ -27714,7 +27737,7 @@
       <c r="CF243" s="2"/>
       <c r="CG243" s="2"/>
     </row>
-    <row r="244" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="244" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="2"/>
       <c r="C244" s="3"/>
@@ -27801,7 +27824,7 @@
       <c r="CF244" s="2"/>
       <c r="CG244" s="2"/>
     </row>
-    <row r="245" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="245" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="2"/>
       <c r="C245" s="3"/>
@@ -27888,7 +27911,7 @@
       <c r="CF245" s="2"/>
       <c r="CG245" s="2"/>
     </row>
-    <row r="246" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="246" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3"/>
@@ -27975,7 +27998,7 @@
       <c r="CF246" s="2"/>
       <c r="CG246" s="2"/>
     </row>
-    <row r="247" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="247" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="2"/>
       <c r="C247" s="3"/>
@@ -28062,7 +28085,7 @@
       <c r="CF247" s="2"/>
       <c r="CG247" s="2"/>
     </row>
-    <row r="248" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="248" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="2"/>
       <c r="C248" s="3"/>
@@ -28149,7 +28172,7 @@
       <c r="CF248" s="2"/>
       <c r="CG248" s="2"/>
     </row>
-    <row r="249" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="249" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3"/>
@@ -28236,7 +28259,7 @@
       <c r="CF249" s="2"/>
       <c r="CG249" s="2"/>
     </row>
-    <row r="250" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="250" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="2"/>
       <c r="C250" s="3"/>
@@ -28323,7 +28346,7 @@
       <c r="CF250" s="2"/>
       <c r="CG250" s="2"/>
     </row>
-    <row r="251" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="251" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="2"/>
       <c r="C251" s="3"/>
@@ -28410,7 +28433,7 @@
       <c r="CF251" s="2"/>
       <c r="CG251" s="2"/>
     </row>
-    <row r="252" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="252" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="2"/>
       <c r="C252" s="3"/>
@@ -28497,7 +28520,7 @@
       <c r="CF252" s="2"/>
       <c r="CG252" s="2"/>
     </row>
-    <row r="253" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="253" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3"/>
@@ -28584,7 +28607,7 @@
       <c r="CF253" s="2"/>
       <c r="CG253" s="2"/>
     </row>
-    <row r="254" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="254" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="2"/>
       <c r="C254" s="3"/>
@@ -28671,7 +28694,7 @@
       <c r="CF254" s="2"/>
       <c r="CG254" s="2"/>
     </row>
-    <row r="255" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="255" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3"/>
@@ -28758,7 +28781,7 @@
       <c r="CF255" s="2"/>
       <c r="CG255" s="2"/>
     </row>
-    <row r="256" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="256" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3"/>
@@ -28845,7 +28868,7 @@
       <c r="CF256" s="2"/>
       <c r="CG256" s="2"/>
     </row>
-    <row r="257" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="257" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="2"/>
       <c r="C257" s="3"/>
@@ -28932,7 +28955,7 @@
       <c r="CF257" s="2"/>
       <c r="CG257" s="2"/>
     </row>
-    <row r="258" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="258" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="2"/>
       <c r="C258" s="3"/>
@@ -29019,7 +29042,7 @@
       <c r="CF258" s="2"/>
       <c r="CG258" s="2"/>
     </row>
-    <row r="259" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="259" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
@@ -29106,7 +29129,7 @@
       <c r="CF259" s="2"/>
       <c r="CG259" s="2"/>
     </row>
-    <row r="260" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="260" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
@@ -29193,7 +29216,7 @@
       <c r="CF260" s="2"/>
       <c r="CG260" s="2"/>
     </row>
-    <row r="261" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="261" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
@@ -29280,7 +29303,7 @@
       <c r="CF261" s="2"/>
       <c r="CG261" s="2"/>
     </row>
-    <row r="262" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="262" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="2"/>
       <c r="C262" s="3"/>
@@ -29367,7 +29390,7 @@
       <c r="CF262" s="2"/>
       <c r="CG262" s="2"/>
     </row>
-    <row r="263" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="263" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="2"/>
       <c r="C263" s="3"/>
@@ -29454,7 +29477,7 @@
       <c r="CF263" s="2"/>
       <c r="CG263" s="2"/>
     </row>
-    <row r="264" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="264" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="2"/>
       <c r="C264" s="3"/>
@@ -29541,7 +29564,7 @@
       <c r="CF264" s="2"/>
       <c r="CG264" s="2"/>
     </row>
-    <row r="265" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="265" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="2"/>
       <c r="C265" s="3"/>
@@ -29628,7 +29651,7 @@
       <c r="CF265" s="2"/>
       <c r="CG265" s="2"/>
     </row>
-    <row r="266" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="266" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="2"/>
       <c r="C266" s="3"/>
@@ -29715,7 +29738,7 @@
       <c r="CF266" s="2"/>
       <c r="CG266" s="2"/>
     </row>
-    <row r="267" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="267" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="2"/>
       <c r="C267" s="3"/>
@@ -29802,7 +29825,7 @@
       <c r="CF267" s="2"/>
       <c r="CG267" s="2"/>
     </row>
-    <row r="268" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="268" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="2"/>
       <c r="C268" s="3"/>
@@ -29889,7 +29912,7 @@
       <c r="CF268" s="2"/>
       <c r="CG268" s="2"/>
     </row>
-    <row r="269" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="269" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="2"/>
       <c r="C269" s="3"/>
@@ -29976,7 +29999,7 @@
       <c r="CF269" s="2"/>
       <c r="CG269" s="2"/>
     </row>
-    <row r="270" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="270" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="2"/>
       <c r="C270" s="3"/>
@@ -30063,7 +30086,7 @@
       <c r="CF270" s="2"/>
       <c r="CG270" s="2"/>
     </row>
-    <row r="271" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="271" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="2"/>
       <c r="C271" s="3"/>
@@ -30150,7 +30173,7 @@
       <c r="CF271" s="2"/>
       <c r="CG271" s="2"/>
     </row>
-    <row r="272" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="272" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
@@ -30237,7 +30260,7 @@
       <c r="CF272" s="2"/>
       <c r="CG272" s="2"/>
     </row>
-    <row r="273" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="273" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
@@ -30324,7 +30347,7 @@
       <c r="CF273" s="2"/>
       <c r="CG273" s="2"/>
     </row>
-    <row r="274" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="274" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
@@ -30411,7 +30434,7 @@
       <c r="CF274" s="2"/>
       <c r="CG274" s="2"/>
     </row>
-    <row r="275" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="275" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="2"/>
       <c r="C275" s="3"/>
@@ -30498,7 +30521,7 @@
       <c r="CF275" s="2"/>
       <c r="CG275" s="2"/>
     </row>
-    <row r="276" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="276" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="2"/>
       <c r="C276" s="3"/>
@@ -30585,7 +30608,7 @@
       <c r="CF276" s="2"/>
       <c r="CG276" s="2"/>
     </row>
-    <row r="277" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="277" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="2"/>
       <c r="C277" s="3"/>
@@ -30672,7 +30695,7 @@
       <c r="CF277" s="2"/>
       <c r="CG277" s="2"/>
     </row>
-    <row r="278" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="278" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="2"/>
       <c r="C278" s="3"/>
@@ -30759,7 +30782,7 @@
       <c r="CF278" s="2"/>
       <c r="CG278" s="2"/>
     </row>
-    <row r="279" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="279" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
       <c r="B279" s="2"/>
       <c r="C279" s="3"/>
@@ -30846,7 +30869,7 @@
       <c r="CF279" s="2"/>
       <c r="CG279" s="2"/>
     </row>
-    <row r="280" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="280" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
       <c r="B280" s="2"/>
       <c r="C280" s="3"/>
@@ -30933,7 +30956,7 @@
       <c r="CF280" s="2"/>
       <c r="CG280" s="2"/>
     </row>
-    <row r="281" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="281" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A281" s="8"/>
       <c r="B281" s="2"/>
       <c r="C281" s="3"/>
@@ -31020,7 +31043,7 @@
       <c r="CF281" s="2"/>
       <c r="CG281" s="2"/>
     </row>
-    <row r="282" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="282" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A282" s="8"/>
       <c r="B282" s="2"/>
       <c r="C282" s="3"/>
@@ -31107,7 +31130,7 @@
       <c r="CF282" s="2"/>
       <c r="CG282" s="2"/>
     </row>
-    <row r="283" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="283" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="2"/>
       <c r="C283" s="3"/>
@@ -31194,7 +31217,7 @@
       <c r="CF283" s="2"/>
       <c r="CG283" s="2"/>
     </row>
-    <row r="284" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="284" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
       <c r="B284" s="2"/>
       <c r="C284" s="3"/>
@@ -31281,7 +31304,7 @@
       <c r="CF284" s="2"/>
       <c r="CG284" s="2"/>
     </row>
-    <row r="285" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="285" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
       <c r="B285" s="2"/>
       <c r="C285" s="3"/>
@@ -31368,7 +31391,7 @@
       <c r="CF285" s="2"/>
       <c r="CG285" s="2"/>
     </row>
-    <row r="286" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="286" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
       <c r="B286" s="2"/>
       <c r="C286" s="3"/>
@@ -31455,7 +31478,7 @@
       <c r="CF286" s="2"/>
       <c r="CG286" s="2"/>
     </row>
-    <row r="287" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="287" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A287" s="8"/>
       <c r="B287" s="2"/>
       <c r="C287" s="3"/>
@@ -31542,7 +31565,7 @@
       <c r="CF287" s="2"/>
       <c r="CG287" s="2"/>
     </row>
-    <row r="288" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="288" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
       <c r="B288" s="2"/>
       <c r="C288" s="3"/>
@@ -31629,7 +31652,7 @@
       <c r="CF288" s="2"/>
       <c r="CG288" s="2"/>
     </row>
-    <row r="289" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="289" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
       <c r="B289" s="2"/>
       <c r="C289" s="3"/>
@@ -31716,8 +31739,8 @@
       <c r="CF289" s="2"/>
       <c r="CG289" s="2"/>
     </row>
-    <row r="290" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
+    <row customFormat="1" r="290" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A290" s="8"/>
       <c r="B290" s="2"/>
       <c r="C290" s="3"/>
       <c r="D290" s="2"/>
@@ -31803,7 +31826,7 @@
       <c r="CF290" s="2"/>
       <c r="CG290" s="2"/>
     </row>
-    <row r="291" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="291" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="3"/>
@@ -31890,7 +31913,7 @@
       <c r="CF291" s="2"/>
       <c r="CG291" s="2"/>
     </row>
-    <row r="292" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="292" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="3"/>
@@ -31977,7 +32000,7 @@
       <c r="CF292" s="2"/>
       <c r="CG292" s="2"/>
     </row>
-    <row r="293" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="293" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="3"/>
@@ -32064,7 +32087,7 @@
       <c r="CF293" s="2"/>
       <c r="CG293" s="2"/>
     </row>
-    <row r="294" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="294" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="3"/>
@@ -32151,7 +32174,7 @@
       <c r="CF294" s="2"/>
       <c r="CG294" s="2"/>
     </row>
-    <row r="295" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="295" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="3"/>
@@ -32238,7 +32261,7 @@
       <c r="CF295" s="2"/>
       <c r="CG295" s="2"/>
     </row>
-    <row r="296" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="296" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="3"/>
@@ -32325,7 +32348,7 @@
       <c r="CF296" s="2"/>
       <c r="CG296" s="2"/>
     </row>
-    <row r="297" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="297" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="3"/>
@@ -32412,7 +32435,7 @@
       <c r="CF297" s="2"/>
       <c r="CG297" s="2"/>
     </row>
-    <row r="298" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="298" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="3"/>
@@ -32499,7 +32522,7 @@
       <c r="CF298" s="2"/>
       <c r="CG298" s="2"/>
     </row>
-    <row r="299" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="299" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="3"/>
@@ -32586,101 +32609,188 @@
       <c r="CF299" s="2"/>
       <c r="CG299" s="2"/>
     </row>
+    <row customFormat="1" r="300" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="3"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2"/>
+      <c r="I300" s="2"/>
+      <c r="J300" s="2"/>
+      <c r="K300" s="2"/>
+      <c r="L300" s="2"/>
+      <c r="M300" s="2"/>
+      <c r="N300" s="2"/>
+      <c r="O300" s="2"/>
+      <c r="P300" s="2"/>
+      <c r="Q300" s="2"/>
+      <c r="R300" s="2"/>
+      <c r="S300" s="2"/>
+      <c r="T300" s="2"/>
+      <c r="U300" s="2"/>
+      <c r="V300" s="2"/>
+      <c r="W300" s="2"/>
+      <c r="X300" s="2"/>
+      <c r="Y300" s="2"/>
+      <c r="Z300" s="2"/>
+      <c r="AA300" s="2"/>
+      <c r="AB300" s="2"/>
+      <c r="AC300" s="2"/>
+      <c r="AD300" s="2"/>
+      <c r="AE300" s="2"/>
+      <c r="AF300" s="2"/>
+      <c r="AG300" s="2"/>
+      <c r="AH300" s="2"/>
+      <c r="AI300" s="2"/>
+      <c r="AJ300" s="2"/>
+      <c r="AK300" s="2"/>
+      <c r="AL300" s="2"/>
+      <c r="AM300" s="2"/>
+      <c r="AN300" s="2"/>
+      <c r="AO300" s="2"/>
+      <c r="AP300" s="2"/>
+      <c r="AQ300" s="2"/>
+      <c r="AR300" s="2"/>
+      <c r="AS300" s="2"/>
+      <c r="AT300" s="2"/>
+      <c r="AU300" s="2"/>
+      <c r="AV300" s="2"/>
+      <c r="AW300" s="2"/>
+      <c r="AX300" s="2"/>
+      <c r="AY300" s="2"/>
+      <c r="AZ300" s="2"/>
+      <c r="BA300" s="2"/>
+      <c r="BB300" s="2"/>
+      <c r="BC300" s="2"/>
+      <c r="BD300" s="2"/>
+      <c r="BE300" s="2"/>
+      <c r="BF300" s="2"/>
+      <c r="BG300" s="2"/>
+      <c r="BH300" s="2"/>
+      <c r="BI300" s="3"/>
+      <c r="BJ300" s="2"/>
+      <c r="BK300" s="2"/>
+      <c r="BL300" s="2"/>
+      <c r="BM300" s="2"/>
+      <c r="BN300" s="2"/>
+      <c r="BO300" s="2"/>
+      <c r="BP300" s="2"/>
+      <c r="BQ300" s="2"/>
+      <c r="BR300" s="2"/>
+      <c r="BS300" s="2"/>
+      <c r="BT300" s="2"/>
+      <c r="BU300" s="2"/>
+      <c r="BV300" s="2"/>
+      <c r="BW300" s="2"/>
+      <c r="BX300" s="2"/>
+      <c r="BY300" s="2"/>
+      <c r="BZ300" s="2"/>
+      <c r="CA300" s="2"/>
+      <c r="CB300" s="2"/>
+      <c r="CC300" s="2"/>
+      <c r="CD300" s="2"/>
+      <c r="CE300" s="2"/>
+      <c r="CF300" s="2"/>
+      <c r="CG300" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BM25" r:id="rId1" display="abc@test.com"/>
-    <hyperlink ref="D48" r:id="rId2"/>
-    <hyperlink ref="D49" r:id="rId3"/>
-    <hyperlink ref="D52" r:id="rId4"/>
-    <hyperlink ref="D53" r:id="rId5"/>
-    <hyperlink ref="D54" r:id="rId6"/>
-    <hyperlink ref="D56" r:id="rId7"/>
-    <hyperlink ref="D59" r:id="rId8"/>
-    <hyperlink ref="D60" r:id="rId9"/>
-    <hyperlink ref="D61" r:id="rId10"/>
-    <hyperlink ref="D64" r:id="rId11"/>
-    <hyperlink ref="D65" r:id="rId12"/>
-    <hyperlink ref="C67" r:id="rId13"/>
-    <hyperlink ref="D67" r:id="rId14"/>
-    <hyperlink ref="C68" r:id="rId15"/>
-    <hyperlink ref="C71" r:id="rId16"/>
-    <hyperlink ref="C72" r:id="rId17"/>
-    <hyperlink ref="C75" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19"/>
-    <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="C181" r:id="rId21"/>
-    <hyperlink ref="C81" r:id="rId22"/>
-    <hyperlink ref="AU81" r:id="rId23" display="Ankit@12345"/>
-    <hyperlink ref="C79" r:id="rId24"/>
-    <hyperlink ref="C52" r:id="rId25"/>
-    <hyperlink ref="C61" r:id="rId26"/>
-    <hyperlink ref="C80" r:id="rId27"/>
-    <hyperlink ref="C82:C85" r:id="rId28" display="ankitgoel06@gmail.com"/>
-    <hyperlink ref="C87:C114" r:id="rId29" display="ankitgoel06@gmail.com"/>
-    <hyperlink ref="C112" r:id="rId30"/>
-    <hyperlink ref="C108" r:id="rId31"/>
-    <hyperlink ref="C111" r:id="rId32"/>
-    <hyperlink ref="C162" r:id="rId33"/>
-    <hyperlink ref="D162" r:id="rId34" display="Deepika@1234"/>
-    <hyperlink ref="C173" r:id="rId35"/>
-    <hyperlink ref="C174" r:id="rId36"/>
-    <hyperlink ref="C175" r:id="rId37"/>
-    <hyperlink ref="C176" r:id="rId38"/>
-    <hyperlink ref="C178" r:id="rId39"/>
-    <hyperlink ref="C185" r:id="rId40"/>
-    <hyperlink ref="C187" r:id="rId41"/>
-    <hyperlink ref="C188" r:id="rId42"/>
-    <hyperlink ref="D187" r:id="rId43"/>
-    <hyperlink ref="D188" r:id="rId44"/>
-    <hyperlink ref="C56" r:id="rId45"/>
-    <hyperlink ref="C169" r:id="rId46"/>
-    <hyperlink ref="C170" r:id="rId47"/>
-    <hyperlink ref="C171" r:id="rId48"/>
-    <hyperlink ref="C157" r:id="rId49"/>
-    <hyperlink ref="C158" r:id="rId50"/>
-    <hyperlink ref="AM148" r:id="rId51"/>
-    <hyperlink ref="C179" r:id="rId52"/>
-    <hyperlink ref="C180" r:id="rId53"/>
-    <hyperlink ref="C182" r:id="rId54"/>
-    <hyperlink ref="C183" r:id="rId55"/>
-    <hyperlink ref="C184" r:id="rId56"/>
-    <hyperlink ref="C127" r:id="rId57"/>
-    <hyperlink ref="D81" r:id="rId58" display="Ankit@12345"/>
-    <hyperlink ref="C153" r:id="rId59"/>
-    <hyperlink ref="D93" r:id="rId60" display="Ankit@123"/>
-    <hyperlink ref="D94" r:id="rId61" display="Ankit@123"/>
-    <hyperlink ref="D103" r:id="rId62" display="Ankit@123"/>
-    <hyperlink ref="D106" r:id="rId63" display="Ankit@123"/>
-    <hyperlink ref="D95" r:id="rId64" display="Ankit@123"/>
-    <hyperlink ref="D102" r:id="rId65" display="Ankit@123"/>
-    <hyperlink ref="D104" r:id="rId66" display="Ankit@123"/>
-    <hyperlink ref="D99" r:id="rId67" display="Ankit@123"/>
-    <hyperlink ref="D100" r:id="rId68" display="Ankit@123"/>
-    <hyperlink ref="C100" r:id="rId69"/>
-    <hyperlink ref="D105" r:id="rId70" display="Ankit@123"/>
-    <hyperlink ref="D96" r:id="rId71" display="Ankit@123"/>
-    <hyperlink ref="D98" r:id="rId72" display="Ankit@123"/>
-    <hyperlink ref="D97" r:id="rId73" display="Ankit@123"/>
-    <hyperlink ref="D101" r:id="rId74" display="Ankit@123"/>
-    <hyperlink ref="C101" r:id="rId75"/>
+    <hyperlink display="abc@test.com" r:id="rId1" ref="BM26"/>
+    <hyperlink r:id="rId2" ref="D49"/>
+    <hyperlink r:id="rId3" ref="D50"/>
+    <hyperlink r:id="rId4" ref="D53"/>
+    <hyperlink r:id="rId5" ref="D54"/>
+    <hyperlink r:id="rId6" ref="D55"/>
+    <hyperlink r:id="rId7" ref="D57"/>
+    <hyperlink r:id="rId8" ref="D60"/>
+    <hyperlink r:id="rId9" ref="D61"/>
+    <hyperlink r:id="rId10" ref="D62"/>
+    <hyperlink r:id="rId11" ref="D65"/>
+    <hyperlink r:id="rId12" ref="D66"/>
+    <hyperlink r:id="rId13" ref="C68"/>
+    <hyperlink r:id="rId14" ref="D68"/>
+    <hyperlink r:id="rId15" ref="C69"/>
+    <hyperlink r:id="rId16" ref="C72"/>
+    <hyperlink r:id="rId17" ref="C73"/>
+    <hyperlink r:id="rId18" ref="C76"/>
+    <hyperlink r:id="rId19" ref="C26"/>
+    <hyperlink r:id="rId20" ref="C11"/>
+    <hyperlink r:id="rId21" ref="C182"/>
+    <hyperlink r:id="rId22" ref="C82"/>
+    <hyperlink display="Ankit@12345" r:id="rId23" ref="AU82"/>
+    <hyperlink r:id="rId24" ref="C80"/>
+    <hyperlink r:id="rId25" ref="C53"/>
+    <hyperlink r:id="rId26" ref="C62"/>
+    <hyperlink r:id="rId27" ref="C81"/>
+    <hyperlink display="ankitgoel06@gmail.com" r:id="rId28" ref="C83:C86"/>
+    <hyperlink display="ankitgoel06@gmail.com" r:id="rId29" ref="C88:C115"/>
+    <hyperlink r:id="rId30" ref="C113"/>
+    <hyperlink r:id="rId31" ref="C109"/>
+    <hyperlink r:id="rId32" ref="C112"/>
+    <hyperlink r:id="rId33" ref="C163"/>
+    <hyperlink display="Deepika@1234" r:id="rId34" ref="D163"/>
+    <hyperlink r:id="rId35" ref="C174"/>
+    <hyperlink r:id="rId36" ref="C175"/>
+    <hyperlink r:id="rId37" ref="C176"/>
+    <hyperlink r:id="rId38" ref="C177"/>
+    <hyperlink r:id="rId39" ref="C179"/>
+    <hyperlink r:id="rId40" ref="C186"/>
+    <hyperlink r:id="rId41" ref="C188"/>
+    <hyperlink r:id="rId42" ref="C189"/>
+    <hyperlink r:id="rId43" ref="D188"/>
+    <hyperlink r:id="rId44" ref="D189"/>
+    <hyperlink r:id="rId45" ref="C57"/>
+    <hyperlink r:id="rId46" ref="C170"/>
+    <hyperlink r:id="rId47" ref="C171"/>
+    <hyperlink r:id="rId48" ref="C172"/>
+    <hyperlink r:id="rId49" ref="C158"/>
+    <hyperlink r:id="rId50" ref="C159"/>
+    <hyperlink r:id="rId51" ref="AM149"/>
+    <hyperlink r:id="rId52" ref="C180"/>
+    <hyperlink r:id="rId53" ref="C181"/>
+    <hyperlink r:id="rId54" ref="C183"/>
+    <hyperlink r:id="rId55" ref="C184"/>
+    <hyperlink r:id="rId56" ref="C185"/>
+    <hyperlink r:id="rId57" ref="C128"/>
+    <hyperlink display="Ankit@12345" r:id="rId58" ref="D82"/>
+    <hyperlink r:id="rId59" ref="C154"/>
+    <hyperlink display="Ankit@123" r:id="rId60" ref="D94"/>
+    <hyperlink display="Ankit@123" r:id="rId61" ref="D95"/>
+    <hyperlink display="Ankit@123" r:id="rId62" ref="D104"/>
+    <hyperlink display="Ankit@123" r:id="rId63" ref="D107"/>
+    <hyperlink display="Ankit@123" r:id="rId64" ref="D96"/>
+    <hyperlink display="Ankit@123" r:id="rId65" ref="D103"/>
+    <hyperlink display="Ankit@123" r:id="rId66" ref="D105"/>
+    <hyperlink display="Ankit@123" r:id="rId67" ref="D100"/>
+    <hyperlink display="Ankit@123" r:id="rId68" ref="D101"/>
+    <hyperlink r:id="rId69" ref="C101"/>
+    <hyperlink display="Ankit@123" r:id="rId70" ref="D106"/>
+    <hyperlink display="Ankit@123" r:id="rId71" ref="D97"/>
+    <hyperlink display="Ankit@123" r:id="rId72" ref="D99"/>
+    <hyperlink display="Ankit@123" r:id="rId73" ref="D98"/>
+    <hyperlink display="Ankit@123" r:id="rId74" ref="D102"/>
+    <hyperlink r:id="rId75" ref="C102"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="100" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="69.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="100.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -32917,7 +33027,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>311</v>
       </c>
@@ -32933,23 +33043,23 @@
   <mergeCells count="1">
     <mergeCell ref="B22:B24"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -32961,6 +33071,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="4440" windowWidth="14145" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="6225" windowWidth="15225" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
     <sheet name="Dependencies" r:id="rId2" sheetId="6"/>
     <sheet name="updates" r:id="rId3" sheetId="7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="505">
   <si>
     <t>Ankit</t>
   </si>
@@ -1504,34 +1504,34 @@
     <t>productCategory</t>
   </si>
   <si>
-    <t>zxsdcfv@gmail.com</t>
-  </si>
-  <si>
     <t>You are a registered customer. Your subscription for newsletter is successfully updated</t>
   </si>
   <si>
-    <t>sxfdgrtcqr@gmail.com</t>
-  </si>
-  <si>
-    <t>xdsscegfr@gmail.com</t>
-  </si>
-  <si>
-    <t>cxs@gmail.com</t>
-  </si>
-  <si>
-    <t>fcxdfcdvfd@gmail.com</t>
-  </si>
-  <si>
-    <t>decdf@gmail.com</t>
-  </si>
-  <si>
-    <t>vcxcxdfv@gmail.com</t>
-  </si>
-  <si>
     <t>SS_Footer_CustomerRelated_Verify_All_L2L3_Links_Are_Clickable</t>
   </si>
   <si>
     <t>6567</t>
+  </si>
+  <si>
+    <t>sxfcrd@gmail.com</t>
+  </si>
+  <si>
+    <t>vgtrg@gmail.com</t>
+  </si>
+  <si>
+    <t>xfdeecxs@gmail.com</t>
+  </si>
+  <si>
+    <t>fcrgzded@gmail.com</t>
+  </si>
+  <si>
+    <t>hvhtgf@gmail.com</t>
+  </si>
+  <si>
+    <t>vcfgbtb@gmail.com</t>
+  </si>
+  <si>
+    <t>zxfxe@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2158,10 +2158,10 @@
   <dimension ref="A1:CH300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="BQ2" xSplit="1" ySplit="1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="BQ11" pane="bottomRight" sqref="BQ11"/>
+      <selection activeCell="A26" pane="bottomRight" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="BR14" s="1"/>
       <c r="BS14" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1"/>
@@ -3750,7 +3750,7 @@
     </row>
     <row customFormat="1" r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>364</v>
@@ -4693,7 +4693,7 @@
         <v>364</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4780,7 +4780,7 @@
         <v>264</v>
       </c>
       <c r="CD26" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="CE26" s="1"/>
       <c r="CF26" s="18"/>
@@ -5163,7 +5163,7 @@
       <c r="CE30" s="1"/>
       <c r="CF30" s="18"/>
       <c r="CG30" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="31" spans="1:85" x14ac:dyDescent="0.25">
@@ -5565,7 +5565,7 @@
       <c r="CE34" s="1"/>
       <c r="CF34" s="18"/>
       <c r="CG34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="35" spans="1:85" x14ac:dyDescent="0.25">
@@ -6068,7 +6068,7 @@
       <c r="CE39" s="1"/>
       <c r="CF39" s="18"/>
       <c r="CG39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="40" spans="1:85" x14ac:dyDescent="0.25">
@@ -6670,7 +6670,7 @@
       <c r="CE45" s="1"/>
       <c r="CF45" s="18"/>
       <c r="CG45" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="46" spans="1:85" x14ac:dyDescent="0.25">
@@ -6967,7 +6967,7 @@
       <c r="CE48" s="1"/>
       <c r="CF48" s="18"/>
       <c r="CG48" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="49" spans="1:85" x14ac:dyDescent="0.25">
@@ -8054,7 +8054,7 @@
       <c r="CE59" s="1"/>
       <c r="CF59" s="18"/>
       <c r="CG59" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="60" spans="1:85" x14ac:dyDescent="0.25">
@@ -12168,7 +12168,7 @@
       <c r="CE100" s="1"/>
       <c r="CF100" s="1"/>
       <c r="CG100" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="101" spans="1:85" x14ac:dyDescent="0.25">
@@ -12800,7 +12800,7 @@
       <c r="CE106" s="1"/>
       <c r="CF106" s="1"/>
       <c r="CG106" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="107" spans="1:85" x14ac:dyDescent="0.25">
@@ -19510,7 +19510,7 @@
       <c r="CE164" s="1"/>
       <c r="CF164" s="1"/>
       <c r="CG164" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="165" spans="1:85" x14ac:dyDescent="0.25">
@@ -19992,7 +19992,7 @@
       <c r="CE168" s="1"/>
       <c r="CF168" s="1"/>
       <c r="CG168" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="169" spans="1:85" x14ac:dyDescent="0.25">
@@ -20109,7 +20109,7 @@
       <c r="CE169" s="1"/>
       <c r="CF169" s="1"/>
       <c r="CG169" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="170" spans="1:85" x14ac:dyDescent="0.25">
@@ -20593,7 +20593,7 @@
       <c r="CE173" s="1"/>
       <c r="CF173" s="1"/>
       <c r="CG173" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="174" spans="1:85" x14ac:dyDescent="0.25">
@@ -20604,7 +20604,7 @@
         <v>364</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>3</v>
@@ -20736,7 +20736,7 @@
         <v>364</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>3</v>
@@ -20865,7 +20865,7 @@
         <v>364</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>3</v>
@@ -20996,7 +20996,7 @@
         <v>364</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>3</v>
@@ -21604,7 +21604,7 @@
         <v>364</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>361</v>
@@ -22133,7 +22133,7 @@
         <v>364</v>
       </c>
       <c r="C186" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>361</v>
